--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2351900</v>
+        <v>4212200</v>
       </c>
       <c r="E8" s="3">
-        <v>3399400</v>
+        <v>4450300</v>
       </c>
       <c r="F8" s="3">
-        <v>4248200</v>
+        <v>2372500</v>
       </c>
       <c r="G8" s="3">
-        <v>3727700</v>
+        <v>3429100</v>
       </c>
       <c r="H8" s="3">
-        <v>3321500</v>
+        <v>4285300</v>
       </c>
       <c r="I8" s="3">
+        <v>4091500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3350500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3296200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4046100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3904500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3293000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3504000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5028600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13997700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1699700</v>
+        <v>2286100</v>
       </c>
       <c r="E9" s="3">
-        <v>2964600</v>
+        <v>2227400</v>
       </c>
       <c r="F9" s="3">
-        <v>3095300</v>
+        <v>1714600</v>
       </c>
       <c r="G9" s="3">
-        <v>2762600</v>
+        <v>2990500</v>
       </c>
       <c r="H9" s="3">
-        <v>2605600</v>
+        <v>3122300</v>
       </c>
       <c r="I9" s="3">
+        <v>2833200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2628300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2809800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2753800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2897000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2447100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2564900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3498000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10903500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>652200</v>
+        <v>1926100</v>
       </c>
       <c r="E10" s="3">
-        <v>434800</v>
+        <v>2223000</v>
       </c>
       <c r="F10" s="3">
-        <v>1152900</v>
+        <v>657900</v>
       </c>
       <c r="G10" s="3">
-        <v>965100</v>
+        <v>438600</v>
       </c>
       <c r="H10" s="3">
-        <v>715900</v>
+        <v>1163000</v>
       </c>
       <c r="I10" s="3">
+        <v>1258200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>722200</v>
+      </c>
+      <c r="K10" s="3">
         <v>486400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1292300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1007500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>846000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>939100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1530600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3094200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,76 +1028,88 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>52100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>80800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>337700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>633500</v>
+        <v>396500</v>
       </c>
       <c r="E15" s="3">
-        <v>284400</v>
+        <v>2299400</v>
       </c>
       <c r="F15" s="3">
-        <v>278900</v>
+        <v>639100</v>
       </c>
       <c r="G15" s="3">
-        <v>300900</v>
+        <v>286900</v>
       </c>
       <c r="H15" s="3">
-        <v>256900</v>
+        <v>281300</v>
       </c>
       <c r="I15" s="3">
+        <v>554900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>259200</v>
+      </c>
+      <c r="K15" s="3">
         <v>251400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>230600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>967200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1348600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1171400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>304000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>5561500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2583600</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>3907800</v>
+        <v>4372800</v>
       </c>
       <c r="F17" s="3">
-        <v>3742000</v>
+        <v>2606200</v>
       </c>
       <c r="G17" s="3">
-        <v>3515800</v>
+        <v>3941900</v>
       </c>
       <c r="H17" s="3">
-        <v>3424700</v>
+        <v>3774700</v>
       </c>
       <c r="I17" s="3">
+        <v>3877700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3454600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3542100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3591600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4027900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3326700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1837800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4304400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>20440700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-231700</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-508400</v>
+        <v>77500</v>
       </c>
       <c r="F18" s="3">
-        <v>506200</v>
+        <v>-233700</v>
       </c>
       <c r="G18" s="3">
-        <v>211900</v>
+        <v>-512800</v>
       </c>
       <c r="H18" s="3">
-        <v>-103200</v>
+        <v>510600</v>
       </c>
       <c r="I18" s="3">
+        <v>213800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-246000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>454600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-123400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-33700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1666200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>724200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>94400</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>11000</v>
+        <v>-543800</v>
       </c>
       <c r="F20" s="3">
-        <v>48300</v>
+        <v>95300</v>
       </c>
       <c r="G20" s="3">
-        <v>-62600</v>
+        <v>11100</v>
       </c>
       <c r="H20" s="3">
-        <v>32900</v>
+        <v>48700</v>
       </c>
       <c r="I20" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-16500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-124500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>123400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>563200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-628000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>509500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>-215200</v>
+        <v>1364600</v>
       </c>
       <c r="F21" s="3">
-        <v>834500</v>
+        <v>513900</v>
       </c>
       <c r="G21" s="3">
-        <v>405200</v>
+        <v>-217100</v>
       </c>
       <c r="H21" s="3">
-        <v>193200</v>
+        <v>841800</v>
       </c>
       <c r="I21" s="3">
+        <v>408700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K21" s="3">
         <v>36200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>668700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>136900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>342200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2539100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1070500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>68100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>73600</v>
+        <v>85300</v>
       </c>
       <c r="F22" s="3">
-        <v>57100</v>
+        <v>68700</v>
       </c>
       <c r="G22" s="3">
-        <v>49400</v>
+        <v>74200</v>
       </c>
       <c r="H22" s="3">
+        <v>57600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>49800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K22" s="3">
         <v>50500</v>
       </c>
-      <c r="I22" s="3">
-        <v>50500</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>47200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>56100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>120100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>218800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>265300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>198400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-205300</v>
+        <v>1122000</v>
       </c>
       <c r="E23" s="3">
-        <v>-571000</v>
+        <v>-551600</v>
       </c>
       <c r="F23" s="3">
-        <v>497400</v>
+        <v>-207100</v>
       </c>
       <c r="G23" s="3">
-        <v>99900</v>
+        <v>-576000</v>
       </c>
       <c r="H23" s="3">
-        <v>-120800</v>
+        <v>501700</v>
       </c>
       <c r="I23" s="3">
+        <v>100800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-316200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>390900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-304100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-30300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2010600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>659700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-48300</v>
+        <v>321200</v>
       </c>
       <c r="E24" s="3">
-        <v>-251400</v>
+        <v>114100</v>
       </c>
       <c r="F24" s="3">
-        <v>85600</v>
+        <v>-48700</v>
       </c>
       <c r="G24" s="3">
-        <v>118600</v>
+        <v>-253600</v>
       </c>
       <c r="H24" s="3">
-        <v>-99900</v>
+        <v>86400</v>
       </c>
       <c r="I24" s="3">
+        <v>119600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="K24" s="3">
         <v>27500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>67000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>56100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-53900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>301800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>72800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-529400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-157000</v>
+        <v>800800</v>
       </c>
       <c r="E26" s="3">
-        <v>-319500</v>
+        <v>-665700</v>
       </c>
       <c r="F26" s="3">
-        <v>411800</v>
+        <v>-158400</v>
       </c>
       <c r="G26" s="3">
-        <v>-18700</v>
+        <v>-322300</v>
       </c>
       <c r="H26" s="3">
-        <v>-20900</v>
+        <v>415400</v>
       </c>
       <c r="I26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-343700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>323900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-360200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>23600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1708800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>586900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-240500</v>
+        <v>773100</v>
       </c>
       <c r="E27" s="3">
-        <v>-471000</v>
+        <v>-684500</v>
       </c>
       <c r="F27" s="3">
-        <v>-57100</v>
+        <v>-242600</v>
       </c>
       <c r="G27" s="3">
-        <v>-368900</v>
+        <v>-475200</v>
       </c>
       <c r="H27" s="3">
-        <v>-86700</v>
+        <v>-57600</v>
       </c>
       <c r="I27" s="3">
+        <v>-372200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-379900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-34000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-561000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>85300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1761500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>190200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1689,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9311000</v>
+        <v>33200</v>
       </c>
       <c r="E29" s="3">
-        <v>327200</v>
+        <v>27700</v>
       </c>
       <c r="F29" s="3">
-        <v>1112300</v>
+        <v>9392400</v>
       </c>
       <c r="G29" s="3">
-        <v>808100</v>
+        <v>330100</v>
       </c>
       <c r="H29" s="3">
-        <v>-162500</v>
+        <v>1122000</v>
       </c>
       <c r="I29" s="3">
+        <v>815200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-123000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>714800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>203100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-590200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>171700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>920300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-94400</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-11000</v>
+        <v>543800</v>
       </c>
       <c r="F32" s="3">
-        <v>-48300</v>
+        <v>-95300</v>
       </c>
       <c r="G32" s="3">
-        <v>62600</v>
+        <v>-11100</v>
       </c>
       <c r="H32" s="3">
-        <v>-32900</v>
+        <v>-48700</v>
       </c>
       <c r="I32" s="3">
+        <v>63100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="K32" s="3">
         <v>19800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>16500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>124500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-123400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-563200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>628000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9070600</v>
+        <v>806300</v>
       </c>
       <c r="E33" s="3">
-        <v>-143800</v>
+        <v>-656800</v>
       </c>
       <c r="F33" s="3">
-        <v>1055200</v>
+        <v>9149900</v>
       </c>
       <c r="G33" s="3">
-        <v>439200</v>
+        <v>-145100</v>
       </c>
       <c r="H33" s="3">
-        <v>-249200</v>
+        <v>1064400</v>
       </c>
       <c r="I33" s="3">
+        <v>443000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-251400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-502900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>680800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-357900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-504900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1933200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1110400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9070600</v>
+        <v>806300</v>
       </c>
       <c r="E35" s="3">
-        <v>-143800</v>
+        <v>-656800</v>
       </c>
       <c r="F35" s="3">
-        <v>1055200</v>
+        <v>9149900</v>
       </c>
       <c r="G35" s="3">
-        <v>439200</v>
+        <v>-145100</v>
       </c>
       <c r="H35" s="3">
-        <v>-249200</v>
+        <v>1064400</v>
       </c>
       <c r="I35" s="3">
+        <v>443000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-251400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-502900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>680800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-357900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-504900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1933200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1110400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6084000</v>
+        <v>3093500</v>
       </c>
       <c r="E41" s="3">
-        <v>3585000</v>
+        <v>3535500</v>
       </c>
       <c r="F41" s="3">
-        <v>4813600</v>
+        <v>6137200</v>
       </c>
       <c r="G41" s="3">
-        <v>3868300</v>
+        <v>3616300</v>
       </c>
       <c r="H41" s="3">
-        <v>5070600</v>
+        <v>4855700</v>
       </c>
       <c r="I41" s="3">
+        <v>3902100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5114900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3571800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4270100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4412800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6093500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>12234200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4338400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5371400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3347800</v>
+        <v>2067900</v>
       </c>
       <c r="E42" s="3">
-        <v>2628600</v>
+        <v>3608600</v>
       </c>
       <c r="F42" s="3">
-        <v>2377200</v>
+        <v>3377100</v>
       </c>
       <c r="G42" s="3">
-        <v>3962700</v>
+        <v>2651600</v>
       </c>
       <c r="H42" s="3">
-        <v>3152400</v>
+        <v>2398000</v>
       </c>
       <c r="I42" s="3">
+        <v>3997300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3179900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3624500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5669000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5489900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5192600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5685100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12002200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>11532700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2910800</v>
+        <v>3624100</v>
       </c>
       <c r="E43" s="3">
-        <v>1664600</v>
+        <v>6840500</v>
       </c>
       <c r="F43" s="3">
-        <v>1964300</v>
+        <v>2936200</v>
       </c>
       <c r="G43" s="3">
-        <v>5320900</v>
+        <v>1679100</v>
       </c>
       <c r="H43" s="3">
-        <v>1695300</v>
+        <v>1981500</v>
       </c>
       <c r="I43" s="3">
+        <v>5367400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1710100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1536100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7641000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8521500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4906500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5880300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7654400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7869200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1642600</v>
+        <v>1179600</v>
       </c>
       <c r="E44" s="3">
-        <v>1356000</v>
+        <v>1755500</v>
       </c>
       <c r="F44" s="3">
-        <v>1294500</v>
+        <v>1657000</v>
       </c>
       <c r="G44" s="3">
-        <v>1790800</v>
+        <v>1367900</v>
       </c>
       <c r="H44" s="3">
-        <v>2039000</v>
+        <v>1305900</v>
       </c>
       <c r="I44" s="3">
+        <v>1806500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2056800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1553700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1437300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2158700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2521100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2024100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1935600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2310100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13429600</v>
+        <v>25396200</v>
       </c>
       <c r="E45" s="3">
-        <v>60191300</v>
+        <v>15539600</v>
       </c>
       <c r="F45" s="3">
-        <v>59131700</v>
+        <v>13547100</v>
       </c>
       <c r="G45" s="3">
-        <v>52598600</v>
+        <v>60717500</v>
       </c>
       <c r="H45" s="3">
-        <v>59570900</v>
+        <v>59648700</v>
       </c>
       <c r="I45" s="3">
+        <v>53058500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>60091700</v>
+      </c>
+      <c r="K45" s="3">
         <v>52903800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9127700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5632400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7180700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8292600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9004300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>8707300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>27414900</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>69425400</v>
+        <v>31279700</v>
       </c>
       <c r="F46" s="3">
-        <v>69581400</v>
+        <v>27654600</v>
       </c>
       <c r="G46" s="3">
-        <v>67541300</v>
+        <v>70032400</v>
       </c>
       <c r="H46" s="3">
-        <v>71528100</v>
+        <v>70189700</v>
       </c>
       <c r="I46" s="3">
+        <v>68131800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>72153500</v>
+      </c>
+      <c r="K46" s="3">
         <v>63189900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>28145000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>26215300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>25894400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>34116300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>34934900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>35790600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8275600</v>
+        <v>8308100</v>
       </c>
       <c r="E47" s="3">
-        <v>2108200</v>
+        <v>8881800</v>
       </c>
       <c r="F47" s="3">
-        <v>2074100</v>
+        <v>8348000</v>
       </c>
       <c r="G47" s="3">
-        <v>2440900</v>
+        <v>2126600</v>
       </c>
       <c r="H47" s="3">
-        <v>1990700</v>
+        <v>2092300</v>
       </c>
       <c r="I47" s="3">
+        <v>2462200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2008100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1944600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4478700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5105100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4516000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4481200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4690500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5381900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21345100</v>
+        <v>21373400</v>
       </c>
       <c r="E48" s="3">
-        <v>14292700</v>
+        <v>21151800</v>
       </c>
       <c r="F48" s="3">
-        <v>14260800</v>
+        <v>21531700</v>
       </c>
       <c r="G48" s="3">
-        <v>13625100</v>
+        <v>14417600</v>
       </c>
       <c r="H48" s="3">
-        <v>13382400</v>
+        <v>14385500</v>
       </c>
       <c r="I48" s="3">
+        <v>13744200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13499400</v>
+      </c>
+      <c r="K48" s="3">
         <v>13162800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>27510400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>27990300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>27179100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>27115100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>29009500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>28779500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4992600</v>
+        <v>5204600</v>
       </c>
       <c r="E49" s="3">
-        <v>2392500</v>
+        <v>5326400</v>
       </c>
       <c r="F49" s="3">
-        <v>2431000</v>
+        <v>5036300</v>
       </c>
       <c r="G49" s="3">
-        <v>2407900</v>
+        <v>2413500</v>
       </c>
       <c r="H49" s="3">
-        <v>2405700</v>
+        <v>2452200</v>
       </c>
       <c r="I49" s="3">
+        <v>2429000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2426800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2328900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13676700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>13893600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13744400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14279600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14989600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>14964900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2204800</v>
+        <v>5667600</v>
       </c>
       <c r="E52" s="3">
-        <v>2361800</v>
+        <v>4459200</v>
       </c>
       <c r="F52" s="3">
-        <v>2261900</v>
+        <v>2224100</v>
       </c>
       <c r="G52" s="3">
-        <v>1943500</v>
+        <v>2382400</v>
       </c>
       <c r="H52" s="3">
-        <v>2368400</v>
+        <v>2281700</v>
       </c>
       <c r="I52" s="3">
+        <v>1960500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2389100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2775700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4765300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4279300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4656300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4650600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5197600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4764500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>64233000</v>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>90580600</v>
+        <v>71099100</v>
       </c>
       <c r="F54" s="3">
-        <v>90609200</v>
+        <v>64794600</v>
       </c>
       <c r="G54" s="3">
-        <v>87958600</v>
+        <v>91372600</v>
       </c>
       <c r="H54" s="3">
-        <v>91675300</v>
+        <v>91401400</v>
       </c>
       <c r="I54" s="3">
+        <v>88727600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>92476800</v>
+      </c>
+      <c r="K54" s="3">
         <v>83401900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>78576200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>77483500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>75990100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>84642900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>88822200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>89681400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>2623100</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>2528700</v>
+        <v>3308400</v>
       </c>
       <c r="F57" s="3">
-        <v>2795500</v>
+        <v>2646100</v>
       </c>
       <c r="G57" s="3">
-        <v>2667000</v>
+        <v>2550800</v>
       </c>
       <c r="H57" s="3">
-        <v>2271800</v>
+        <v>2819900</v>
       </c>
       <c r="I57" s="3">
+        <v>2690400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2291600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2299200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5138600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5696300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4651800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4757200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5730500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6375000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>4534700</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>2402400</v>
+        <v>2004800</v>
       </c>
       <c r="F58" s="3">
-        <v>3893500</v>
+        <v>4574400</v>
       </c>
       <c r="G58" s="3">
-        <v>841100</v>
+        <v>2423400</v>
       </c>
       <c r="H58" s="3">
-        <v>1022200</v>
+        <v>3927500</v>
       </c>
       <c r="I58" s="3">
+        <v>848400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1031200</v>
+      </c>
+      <c r="K58" s="3">
         <v>729100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3687100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3127000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5084900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3852900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4299700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2514300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>13593200</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>50452000</v>
+        <v>16535400</v>
       </c>
       <c r="F59" s="3">
-        <v>48953200</v>
+        <v>13712100</v>
       </c>
       <c r="G59" s="3">
-        <v>46828600</v>
+        <v>50893100</v>
       </c>
       <c r="H59" s="3">
-        <v>50880200</v>
+        <v>49381200</v>
       </c>
       <c r="I59" s="3">
+        <v>47238000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>51325100</v>
+      </c>
+      <c r="K59" s="3">
         <v>46528800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13774400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13946300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>13215900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21579200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22555900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>24876600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>20751100</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>55383100</v>
+        <v>21848500</v>
       </c>
       <c r="F60" s="3">
-        <v>55642200</v>
+        <v>20932500</v>
       </c>
       <c r="G60" s="3">
-        <v>50336700</v>
+        <v>55867300</v>
       </c>
       <c r="H60" s="3">
-        <v>54174200</v>
+        <v>56128700</v>
       </c>
       <c r="I60" s="3">
+        <v>50776800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>54647900</v>
+      </c>
+      <c r="K60" s="3">
         <v>49557100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>22600100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>22769700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>22952500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>30189400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>32586100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>33765800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4094400</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>2781200</v>
+        <v>4346200</v>
       </c>
       <c r="F61" s="3">
-        <v>2655000</v>
+        <v>4130200</v>
       </c>
       <c r="G61" s="3">
-        <v>2193800</v>
+        <v>2805600</v>
       </c>
       <c r="H61" s="3">
-        <v>2140000</v>
+        <v>2678200</v>
       </c>
       <c r="I61" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2158700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1731500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>15890300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>16172400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15289400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>17165300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>18529800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>18829100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>21784300</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>19081000</v>
+        <v>25578900</v>
       </c>
       <c r="F62" s="3">
-        <v>18536400</v>
+        <v>21974800</v>
       </c>
       <c r="G62" s="3">
-        <v>19773900</v>
+        <v>19247900</v>
       </c>
       <c r="H62" s="3">
-        <v>18333300</v>
+        <v>18698500</v>
       </c>
       <c r="I62" s="3">
+        <v>19946800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>18493600</v>
+      </c>
+      <c r="K62" s="3">
         <v>18421100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>24908100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25087700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>25078700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>25138200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>26906100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>27707800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>47132700</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>82242400</v>
+        <v>52330800</v>
       </c>
       <c r="F66" s="3">
-        <v>82422500</v>
+        <v>47544800</v>
       </c>
       <c r="G66" s="3">
-        <v>78366500</v>
+        <v>82961500</v>
       </c>
       <c r="H66" s="3">
-        <v>80540500</v>
+        <v>83143100</v>
       </c>
       <c r="I66" s="3">
+        <v>79051600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>81244700</v>
+      </c>
+      <c r="K66" s="3">
         <v>75294300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>69468300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>69900000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>68985600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>78183600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>84445100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>86448800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,43 +3609,49 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>1256100</v>
+        <v>9866500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>1250600</v>
+        <v>1267100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
+        <v>1261600</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>1371400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>2655800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2728700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3031600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>932000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-765300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>17100300</v>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>8338200</v>
+        <v>18768300</v>
       </c>
       <c r="F76" s="3">
-        <v>8186700</v>
+        <v>17249800</v>
       </c>
       <c r="G76" s="3">
-        <v>9592100</v>
+        <v>8411100</v>
       </c>
       <c r="H76" s="3">
-        <v>11134800</v>
+        <v>8258300</v>
       </c>
       <c r="I76" s="3">
+        <v>9676000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11232200</v>
+      </c>
+      <c r="K76" s="3">
         <v>8107600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9107900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7583500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7004600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6459300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4377100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3232700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9070600</v>
+        <v>806300</v>
       </c>
       <c r="E81" s="3">
-        <v>-143800</v>
+        <v>-656800</v>
       </c>
       <c r="F81" s="3">
-        <v>1055200</v>
+        <v>9149900</v>
       </c>
       <c r="G81" s="3">
-        <v>439200</v>
+        <v>-145100</v>
       </c>
       <c r="H81" s="3">
-        <v>-249200</v>
+        <v>1064400</v>
       </c>
       <c r="I81" s="3">
+        <v>443000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-251400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-502900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>680800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-357900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-504900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1933200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1110400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>646700</v>
+        <v>336700</v>
       </c>
       <c r="E83" s="3">
-        <v>282200</v>
+        <v>1830900</v>
       </c>
       <c r="F83" s="3">
-        <v>280000</v>
+        <v>652400</v>
       </c>
       <c r="G83" s="3">
-        <v>255800</v>
+        <v>284700</v>
       </c>
       <c r="H83" s="3">
-        <v>263500</v>
+        <v>282400</v>
       </c>
       <c r="I83" s="3">
+        <v>258100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>265800</v>
+      </c>
+      <c r="K83" s="3">
         <v>9900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>522600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>741600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1098400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>918900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>145600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5558000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-339300</v>
+        <v>-1343500</v>
       </c>
       <c r="E89" s="3">
-        <v>1483400</v>
+        <v>542700</v>
       </c>
       <c r="F89" s="3">
-        <v>-3354400</v>
+        <v>-342200</v>
       </c>
       <c r="G89" s="3">
-        <v>1924800</v>
+        <v>1496400</v>
       </c>
       <c r="H89" s="3">
-        <v>3399400</v>
+        <v>-3383700</v>
       </c>
       <c r="I89" s="3">
+        <v>1941600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3429100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1575600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>399700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1298100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3194300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2047100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>-401900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-213000</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>709300</v>
+        <v>-405400</v>
       </c>
       <c r="H91" s="3">
-        <v>-496300</v>
+        <v>-214900</v>
       </c>
       <c r="I91" s="3">
+        <v>715500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-500600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-417200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>336600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-232300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>52700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-419100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1645900</v>
+        <v>585900</v>
       </c>
       <c r="E94" s="3">
-        <v>-602800</v>
+        <v>-584800</v>
       </c>
       <c r="F94" s="3">
-        <v>2028000</v>
+        <v>-1660300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1759000</v>
+        <v>-608100</v>
       </c>
       <c r="H94" s="3">
-        <v>-987100</v>
+        <v>2045700</v>
       </c>
       <c r="I94" s="3">
+        <v>-1774400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-995700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-905900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>31400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5607700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-819300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2939300</v>
+        <v>313500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2563800</v>
+        <v>-1766600</v>
       </c>
       <c r="F100" s="3">
-        <v>1621700</v>
+        <v>2965000</v>
       </c>
       <c r="G100" s="3">
-        <v>-956400</v>
+        <v>-2586200</v>
       </c>
       <c r="H100" s="3">
-        <v>-396400</v>
+        <v>1635900</v>
       </c>
       <c r="I100" s="3">
+        <v>-964700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-399800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-141600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>407400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-976100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-669800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1103400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4138900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>778500</v>
+        <v>-11100</v>
       </c>
       <c r="E101" s="3">
-        <v>-7700</v>
+        <v>-777500</v>
       </c>
       <c r="F101" s="3">
-        <v>16500</v>
+        <v>785300</v>
       </c>
       <c r="G101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>23100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-28000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1732600</v>
+        <v>-455200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1690900</v>
+        <v>-2586200</v>
       </c>
       <c r="F102" s="3">
-        <v>311800</v>
+        <v>1747800</v>
       </c>
       <c r="G102" s="3">
-        <v>-791700</v>
+        <v>-1705700</v>
       </c>
       <c r="H102" s="3">
-        <v>2006000</v>
+        <v>314600</v>
       </c>
       <c r="I102" s="3">
+        <v>-798600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2023600</v>
+      </c>
+      <c r="K102" s="3">
         <v>252500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-75800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8128800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1918000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4212200</v>
+        <v>3160700</v>
       </c>
       <c r="E8" s="3">
-        <v>4450300</v>
+        <v>4498600</v>
       </c>
       <c r="F8" s="3">
-        <v>2372500</v>
+        <v>4752900</v>
       </c>
       <c r="G8" s="3">
-        <v>3429100</v>
+        <v>2533800</v>
       </c>
       <c r="H8" s="3">
-        <v>4285300</v>
+        <v>3223400</v>
       </c>
       <c r="I8" s="3">
-        <v>4091500</v>
+        <v>4395700</v>
       </c>
       <c r="J8" s="3">
+        <v>4369600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3350500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3296200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4046100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3904500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3293000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3504000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5028600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13997700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2286100</v>
+        <v>1872500</v>
       </c>
       <c r="E9" s="3">
-        <v>2227400</v>
+        <v>2441500</v>
       </c>
       <c r="F9" s="3">
-        <v>1714600</v>
+        <v>2378800</v>
       </c>
       <c r="G9" s="3">
-        <v>2990500</v>
+        <v>1831100</v>
       </c>
       <c r="H9" s="3">
-        <v>3122300</v>
+        <v>2956100</v>
       </c>
       <c r="I9" s="3">
-        <v>2833200</v>
+        <v>3153600</v>
       </c>
       <c r="J9" s="3">
+        <v>3025900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2628300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2809800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2753800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2897000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2447100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2564900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3498000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10903500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1926100</v>
+        <v>1288200</v>
       </c>
       <c r="E10" s="3">
-        <v>2223000</v>
+        <v>2057100</v>
       </c>
       <c r="F10" s="3">
-        <v>657900</v>
+        <v>2374100</v>
       </c>
       <c r="G10" s="3">
-        <v>438600</v>
+        <v>702600</v>
       </c>
       <c r="H10" s="3">
-        <v>1163000</v>
+        <v>267300</v>
       </c>
       <c r="I10" s="3">
-        <v>1258200</v>
+        <v>1242000</v>
       </c>
       <c r="J10" s="3">
+        <v>1343800</v>
+      </c>
+      <c r="K10" s="3">
         <v>722200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>486400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1292300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1007500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>846000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>939100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1530600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3094200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,11 +1048,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>52100</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>55600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1040,17 +1060,17 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>80800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>337700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>396500</v>
+        <v>446000</v>
       </c>
       <c r="E15" s="3">
-        <v>2299400</v>
+        <v>423500</v>
       </c>
       <c r="F15" s="3">
-        <v>639100</v>
+        <v>2455700</v>
       </c>
       <c r="G15" s="3">
-        <v>286900</v>
+        <v>682500</v>
       </c>
       <c r="H15" s="3">
-        <v>281300</v>
+        <v>306400</v>
       </c>
       <c r="I15" s="3">
-        <v>554900</v>
+        <v>300500</v>
       </c>
       <c r="J15" s="3">
+        <v>592600</v>
+      </c>
+      <c r="K15" s="3">
         <v>259200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>251400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>230600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>967200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1348600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1171400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>304000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5561500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>2816500</v>
       </c>
       <c r="E17" s="3">
-        <v>4372800</v>
+        <v>2996300</v>
       </c>
       <c r="F17" s="3">
-        <v>2606200</v>
+        <v>4670100</v>
       </c>
       <c r="G17" s="3">
-        <v>3941900</v>
+        <v>2783400</v>
       </c>
       <c r="H17" s="3">
-        <v>3774700</v>
+        <v>3771100</v>
       </c>
       <c r="I17" s="3">
-        <v>3877700</v>
+        <v>3850300</v>
       </c>
       <c r="J17" s="3">
+        <v>4141300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3454600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3542100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3591600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4027900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3326700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1837800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4304400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20440700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>344200</v>
       </c>
       <c r="E18" s="3">
-        <v>77500</v>
+        <v>1502300</v>
       </c>
       <c r="F18" s="3">
-        <v>-233700</v>
+        <v>82800</v>
       </c>
       <c r="G18" s="3">
-        <v>-512800</v>
+        <v>-249600</v>
       </c>
       <c r="H18" s="3">
-        <v>510600</v>
+        <v>-547700</v>
       </c>
       <c r="I18" s="3">
-        <v>213800</v>
+        <v>545300</v>
       </c>
       <c r="J18" s="3">
+        <v>228300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-104100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-246000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>454600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-123400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-33700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1666200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>724200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>265000</v>
       </c>
       <c r="E20" s="3">
-        <v>-543800</v>
+        <v>-202300</v>
       </c>
       <c r="F20" s="3">
-        <v>95300</v>
+        <v>-580800</v>
       </c>
       <c r="G20" s="3">
-        <v>11100</v>
+        <v>101700</v>
       </c>
       <c r="H20" s="3">
-        <v>48700</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
-        <v>-63100</v>
+        <v>52000</v>
       </c>
       <c r="J20" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K20" s="3">
         <v>33200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-124500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>123400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>563200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-628000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1055100</v>
       </c>
       <c r="E21" s="3">
-        <v>1364600</v>
+        <v>1659600</v>
       </c>
       <c r="F21" s="3">
-        <v>513900</v>
+        <v>1457300</v>
       </c>
       <c r="G21" s="3">
-        <v>-217100</v>
+        <v>548900</v>
       </c>
       <c r="H21" s="3">
-        <v>841800</v>
+        <v>-231800</v>
       </c>
       <c r="I21" s="3">
-        <v>408700</v>
+        <v>899000</v>
       </c>
       <c r="J21" s="3">
+        <v>436500</v>
+      </c>
+      <c r="K21" s="3">
         <v>194900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>668700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>136900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>342200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2539100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1070500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>97000</v>
       </c>
       <c r="E22" s="3">
-        <v>85300</v>
+        <v>101700</v>
       </c>
       <c r="F22" s="3">
-        <v>68700</v>
+        <v>91100</v>
       </c>
       <c r="G22" s="3">
-        <v>74200</v>
+        <v>73300</v>
       </c>
       <c r="H22" s="3">
-        <v>57600</v>
+        <v>79300</v>
       </c>
       <c r="I22" s="3">
-        <v>49800</v>
+        <v>61500</v>
       </c>
       <c r="J22" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K22" s="3">
         <v>50900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>120100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>218800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>265300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>198400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1122000</v>
+        <v>512200</v>
       </c>
       <c r="E23" s="3">
-        <v>-551600</v>
+        <v>1198300</v>
       </c>
       <c r="F23" s="3">
-        <v>-207100</v>
+        <v>-589100</v>
       </c>
       <c r="G23" s="3">
-        <v>-576000</v>
+        <v>-221200</v>
       </c>
       <c r="H23" s="3">
-        <v>501700</v>
+        <v>-615100</v>
       </c>
       <c r="I23" s="3">
-        <v>100800</v>
+        <v>535900</v>
       </c>
       <c r="J23" s="3">
+        <v>107600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-121800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-316200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>390900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-304100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2010600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>659700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>321200</v>
+        <v>188100</v>
       </c>
       <c r="E24" s="3">
-        <v>114100</v>
+        <v>343000</v>
       </c>
       <c r="F24" s="3">
-        <v>-48700</v>
+        <v>121800</v>
       </c>
       <c r="G24" s="3">
-        <v>-253600</v>
+        <v>-52000</v>
       </c>
       <c r="H24" s="3">
-        <v>86400</v>
+        <v>-270900</v>
       </c>
       <c r="I24" s="3">
-        <v>119600</v>
+        <v>92300</v>
       </c>
       <c r="J24" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-53900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>301800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>72800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-529400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800800</v>
+        <v>324100</v>
       </c>
       <c r="E26" s="3">
-        <v>-665700</v>
+        <v>855200</v>
       </c>
       <c r="F26" s="3">
-        <v>-158400</v>
+        <v>-710900</v>
       </c>
       <c r="G26" s="3">
-        <v>-322300</v>
+        <v>-169200</v>
       </c>
       <c r="H26" s="3">
-        <v>415400</v>
+        <v>-344200</v>
       </c>
       <c r="I26" s="3">
-        <v>-18800</v>
+        <v>443600</v>
       </c>
       <c r="J26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-343700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>323900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-360200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1708800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>586900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>773100</v>
+        <v>309900</v>
       </c>
       <c r="E27" s="3">
-        <v>-684500</v>
+        <v>825700</v>
       </c>
       <c r="F27" s="3">
-        <v>-242600</v>
+        <v>-731000</v>
       </c>
       <c r="G27" s="3">
-        <v>-475200</v>
+        <v>-259100</v>
       </c>
       <c r="H27" s="3">
-        <v>-57600</v>
+        <v>-507500</v>
       </c>
       <c r="I27" s="3">
-        <v>-372200</v>
+        <v>-61500</v>
       </c>
       <c r="J27" s="3">
+        <v>-397500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-87500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-379900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-561000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>85300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1761500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>190200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,58 +1753,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>33200</v>
+        <v>23700</v>
       </c>
       <c r="E29" s="3">
-        <v>27700</v>
+        <v>35500</v>
       </c>
       <c r="F29" s="3">
-        <v>9392400</v>
+        <v>29600</v>
       </c>
       <c r="G29" s="3">
-        <v>330100</v>
+        <v>10031000</v>
       </c>
       <c r="H29" s="3">
-        <v>1122000</v>
+        <v>352500</v>
       </c>
       <c r="I29" s="3">
-        <v>815200</v>
+        <v>1198300</v>
       </c>
       <c r="J29" s="3">
+        <v>870600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-163900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-123000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>714800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>203100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-590200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>171700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>920300</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-265000</v>
       </c>
       <c r="E32" s="3">
-        <v>543800</v>
+        <v>202300</v>
       </c>
       <c r="F32" s="3">
-        <v>-95300</v>
+        <v>580800</v>
       </c>
       <c r="G32" s="3">
-        <v>-11100</v>
+        <v>-101700</v>
       </c>
       <c r="H32" s="3">
-        <v>-48700</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
-        <v>63100</v>
+        <v>-52000</v>
       </c>
       <c r="J32" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-33200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>124500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-123400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-563200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>628000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>806300</v>
+        <v>333600</v>
       </c>
       <c r="E33" s="3">
-        <v>-656800</v>
+        <v>861200</v>
       </c>
       <c r="F33" s="3">
-        <v>9149900</v>
+        <v>-701500</v>
       </c>
       <c r="G33" s="3">
-        <v>-145100</v>
+        <v>9771900</v>
       </c>
       <c r="H33" s="3">
-        <v>1064400</v>
+        <v>-155000</v>
       </c>
       <c r="I33" s="3">
-        <v>443000</v>
+        <v>1136800</v>
       </c>
       <c r="J33" s="3">
+        <v>473200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-251400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-502900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>680800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-357900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-504900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1933200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1110400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>806300</v>
+        <v>333600</v>
       </c>
       <c r="E35" s="3">
-        <v>-656800</v>
+        <v>861200</v>
       </c>
       <c r="F35" s="3">
-        <v>9149900</v>
+        <v>-701500</v>
       </c>
       <c r="G35" s="3">
-        <v>-145100</v>
+        <v>9771900</v>
       </c>
       <c r="H35" s="3">
-        <v>1064400</v>
+        <v>-155000</v>
       </c>
       <c r="I35" s="3">
-        <v>443000</v>
+        <v>1136800</v>
       </c>
       <c r="J35" s="3">
+        <v>473200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-251400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-502900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>680800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-357900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-504900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1933200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1110400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3093500</v>
+        <v>3999400</v>
       </c>
       <c r="E41" s="3">
-        <v>3535500</v>
+        <v>3303800</v>
       </c>
       <c r="F41" s="3">
-        <v>6137200</v>
+        <v>3775800</v>
       </c>
       <c r="G41" s="3">
-        <v>3616300</v>
+        <v>6554400</v>
       </c>
       <c r="H41" s="3">
-        <v>4855700</v>
+        <v>3862200</v>
       </c>
       <c r="I41" s="3">
-        <v>3902100</v>
+        <v>5185800</v>
       </c>
       <c r="J41" s="3">
+        <v>4167400</v>
+      </c>
+      <c r="K41" s="3">
         <v>5114900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3571800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4270100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4412800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6093500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12234200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4338400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5371400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2067900</v>
+        <v>2726600</v>
       </c>
       <c r="E42" s="3">
-        <v>3608600</v>
+        <v>2208500</v>
       </c>
       <c r="F42" s="3">
-        <v>3377100</v>
+        <v>3853900</v>
       </c>
       <c r="G42" s="3">
-        <v>2651600</v>
+        <v>3606700</v>
       </c>
       <c r="H42" s="3">
-        <v>2398000</v>
+        <v>2831900</v>
       </c>
       <c r="I42" s="3">
-        <v>3997300</v>
+        <v>2561000</v>
       </c>
       <c r="J42" s="3">
+        <v>4269100</v>
+      </c>
+      <c r="K42" s="3">
         <v>3179900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3624500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5669000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5489900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5192600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5685100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12002200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11532700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3624100</v>
+        <v>2798700</v>
       </c>
       <c r="E43" s="3">
-        <v>6840500</v>
+        <v>3870400</v>
       </c>
       <c r="F43" s="3">
-        <v>2936200</v>
+        <v>7305600</v>
       </c>
       <c r="G43" s="3">
-        <v>1679100</v>
+        <v>3135900</v>
       </c>
       <c r="H43" s="3">
-        <v>1981500</v>
+        <v>1793300</v>
       </c>
       <c r="I43" s="3">
-        <v>5367400</v>
+        <v>2116200</v>
       </c>
       <c r="J43" s="3">
+        <v>5732300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1710100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1536100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7641000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8521500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4906500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5880300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7654400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7869200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1179600</v>
+        <v>1373300</v>
       </c>
       <c r="E44" s="3">
-        <v>1755500</v>
+        <v>1259800</v>
       </c>
       <c r="F44" s="3">
-        <v>1657000</v>
+        <v>1874900</v>
       </c>
       <c r="G44" s="3">
-        <v>1367900</v>
+        <v>1769600</v>
       </c>
       <c r="H44" s="3">
-        <v>1305900</v>
+        <v>1460900</v>
       </c>
       <c r="I44" s="3">
-        <v>1806500</v>
+        <v>1394600</v>
       </c>
       <c r="J44" s="3">
+        <v>1929300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2056800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1553700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1437300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2158700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2521100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2024100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1935600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2310100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25396200</v>
+        <v>20420400</v>
       </c>
       <c r="E45" s="3">
-        <v>15539600</v>
+        <v>27122700</v>
       </c>
       <c r="F45" s="3">
-        <v>13547100</v>
+        <v>19618400</v>
       </c>
       <c r="G45" s="3">
-        <v>60717500</v>
+        <v>14468000</v>
       </c>
       <c r="H45" s="3">
-        <v>59648700</v>
+        <v>64845400</v>
       </c>
       <c r="I45" s="3">
-        <v>53058500</v>
+        <v>63703900</v>
       </c>
       <c r="J45" s="3">
+        <v>56665600</v>
+      </c>
+      <c r="K45" s="3">
         <v>60091700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52903800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9127700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5632400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7180700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8292600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9004300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8707300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>31318500</v>
       </c>
       <c r="E46" s="3">
-        <v>31279700</v>
+        <v>37765300</v>
       </c>
       <c r="F46" s="3">
-        <v>27654600</v>
+        <v>33406300</v>
       </c>
       <c r="G46" s="3">
-        <v>70032400</v>
+        <v>29534600</v>
       </c>
       <c r="H46" s="3">
-        <v>70189700</v>
+        <v>74793600</v>
       </c>
       <c r="I46" s="3">
-        <v>68131800</v>
+        <v>74961600</v>
       </c>
       <c r="J46" s="3">
+        <v>72763700</v>
+      </c>
+      <c r="K46" s="3">
         <v>72153500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63189900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28145000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26215300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25894400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34116300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34934900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35790600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8308100</v>
+        <v>9048000</v>
       </c>
       <c r="E47" s="3">
-        <v>8881800</v>
+        <v>8872900</v>
       </c>
       <c r="F47" s="3">
-        <v>8348000</v>
+        <v>9424200</v>
       </c>
       <c r="G47" s="3">
-        <v>2126600</v>
+        <v>8915500</v>
       </c>
       <c r="H47" s="3">
-        <v>2092300</v>
+        <v>2271200</v>
       </c>
       <c r="I47" s="3">
-        <v>2462200</v>
+        <v>2234500</v>
       </c>
       <c r="J47" s="3">
+        <v>2629600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2008100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1944600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4478700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5105100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4516000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4481200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4690500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5381900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21373400</v>
+        <v>22578000</v>
       </c>
       <c r="E48" s="3">
-        <v>21151800</v>
+        <v>22826400</v>
       </c>
       <c r="F48" s="3">
-        <v>21531700</v>
+        <v>22432500</v>
       </c>
       <c r="G48" s="3">
-        <v>14417600</v>
+        <v>22995600</v>
       </c>
       <c r="H48" s="3">
-        <v>14385500</v>
+        <v>15397800</v>
       </c>
       <c r="I48" s="3">
-        <v>13744200</v>
+        <v>15363500</v>
       </c>
       <c r="J48" s="3">
+        <v>14678600</v>
+      </c>
+      <c r="K48" s="3">
         <v>13499400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13162800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27510400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27990300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27179100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27115100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29009500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28779500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5204600</v>
+        <v>5480400</v>
       </c>
       <c r="E49" s="3">
-        <v>5326400</v>
+        <v>5558400</v>
       </c>
       <c r="F49" s="3">
-        <v>5036300</v>
+        <v>5751300</v>
       </c>
       <c r="G49" s="3">
-        <v>2413500</v>
+        <v>5378600</v>
       </c>
       <c r="H49" s="3">
-        <v>2452200</v>
+        <v>2577500</v>
       </c>
       <c r="I49" s="3">
-        <v>2429000</v>
+        <v>2618900</v>
       </c>
       <c r="J49" s="3">
+        <v>2594100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2426800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2328900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13676700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13893600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13744400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14279600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14989600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14964900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5667600</v>
+        <v>5150300</v>
       </c>
       <c r="E52" s="3">
-        <v>4459200</v>
+        <v>6052900</v>
       </c>
       <c r="F52" s="3">
-        <v>2224100</v>
+        <v>5175200</v>
       </c>
       <c r="G52" s="3">
-        <v>2382400</v>
+        <v>2375300</v>
       </c>
       <c r="H52" s="3">
-        <v>2281700</v>
+        <v>2544400</v>
       </c>
       <c r="I52" s="3">
-        <v>1960500</v>
+        <v>2436800</v>
       </c>
       <c r="J52" s="3">
+        <v>2093700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2389100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2775700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4765300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4279300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4656300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4650600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5197600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4764500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="3">
+        <v>73575200</v>
       </c>
       <c r="E54" s="3">
-        <v>71099100</v>
+        <v>81076000</v>
       </c>
       <c r="F54" s="3">
-        <v>64794600</v>
+        <v>75725700</v>
       </c>
       <c r="G54" s="3">
-        <v>91372600</v>
+        <v>69199700</v>
       </c>
       <c r="H54" s="3">
-        <v>91401400</v>
+        <v>97584500</v>
       </c>
       <c r="I54" s="3">
-        <v>88727600</v>
+        <v>97615300</v>
       </c>
       <c r="J54" s="3">
+        <v>94759800</v>
+      </c>
+      <c r="K54" s="3">
         <v>92476800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83401900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78576200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>77483500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75990100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84642900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>88822200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>89681400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>2487600</v>
       </c>
       <c r="E57" s="3">
-        <v>3308400</v>
+        <v>2704100</v>
       </c>
       <c r="F57" s="3">
-        <v>2646100</v>
+        <v>3533300</v>
       </c>
       <c r="G57" s="3">
-        <v>2550800</v>
+        <v>2825900</v>
       </c>
       <c r="H57" s="3">
-        <v>2819900</v>
+        <v>2724200</v>
       </c>
       <c r="I57" s="3">
-        <v>2690400</v>
+        <v>3011700</v>
       </c>
       <c r="J57" s="3">
+        <v>2873300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2291600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2299200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5138600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5696300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4651800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4757200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5730500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6375000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>2602400</v>
       </c>
       <c r="E58" s="3">
-        <v>2004800</v>
+        <v>3114600</v>
       </c>
       <c r="F58" s="3">
-        <v>4574400</v>
+        <v>1997900</v>
       </c>
       <c r="G58" s="3">
-        <v>2423400</v>
+        <v>4885400</v>
       </c>
       <c r="H58" s="3">
-        <v>3927500</v>
+        <v>2588200</v>
       </c>
       <c r="I58" s="3">
-        <v>848400</v>
+        <v>4194600</v>
       </c>
       <c r="J58" s="3">
+        <v>906100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1031200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>729100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3687100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3127000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5084900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3852900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4299700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2514300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>16761700</v>
       </c>
       <c r="E59" s="3">
-        <v>16535400</v>
+        <v>22605200</v>
       </c>
       <c r="F59" s="3">
-        <v>13712100</v>
+        <v>17889000</v>
       </c>
       <c r="G59" s="3">
-        <v>50893100</v>
+        <v>14644300</v>
       </c>
       <c r="H59" s="3">
-        <v>49381200</v>
+        <v>54353100</v>
       </c>
       <c r="I59" s="3">
-        <v>47238000</v>
+        <v>52738400</v>
       </c>
       <c r="J59" s="3">
+        <v>50449500</v>
+      </c>
+      <c r="K59" s="3">
         <v>51325100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46528800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13774400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13946300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13215900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21579200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22555900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24876600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>21851700</v>
       </c>
       <c r="E60" s="3">
-        <v>21848500</v>
+        <v>28423900</v>
       </c>
       <c r="F60" s="3">
-        <v>20932500</v>
+        <v>23191900</v>
       </c>
       <c r="G60" s="3">
-        <v>55867300</v>
+        <v>22355600</v>
       </c>
       <c r="H60" s="3">
-        <v>56128700</v>
+        <v>59665500</v>
       </c>
       <c r="I60" s="3">
-        <v>50776800</v>
+        <v>59944600</v>
       </c>
       <c r="J60" s="3">
+        <v>54228900</v>
+      </c>
+      <c r="K60" s="3">
         <v>54647900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49557100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22600100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22769700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22952500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30189400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32586100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33765800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>4910200</v>
       </c>
       <c r="E61" s="3">
-        <v>4346200</v>
+        <v>4839200</v>
       </c>
       <c r="F61" s="3">
-        <v>4130200</v>
+        <v>4641700</v>
       </c>
       <c r="G61" s="3">
-        <v>2805600</v>
+        <v>4411000</v>
       </c>
       <c r="H61" s="3">
-        <v>2678200</v>
+        <v>2996300</v>
       </c>
       <c r="I61" s="3">
-        <v>2213000</v>
+        <v>2860300</v>
       </c>
       <c r="J61" s="3">
+        <v>2363400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2158700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1731500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15890300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16172400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15289400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17165300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18529800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18829100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>27270600</v>
       </c>
       <c r="E62" s="3">
-        <v>25578900</v>
+        <v>27406600</v>
       </c>
       <c r="F62" s="3">
-        <v>21974800</v>
+        <v>28464100</v>
       </c>
       <c r="G62" s="3">
-        <v>19247900</v>
+        <v>23468700</v>
       </c>
       <c r="H62" s="3">
-        <v>18698500</v>
+        <v>20556400</v>
       </c>
       <c r="I62" s="3">
-        <v>19946800</v>
+        <v>19969700</v>
       </c>
       <c r="J62" s="3">
+        <v>21302800</v>
+      </c>
+      <c r="K62" s="3">
         <v>18493600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18421100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24908100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25087700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25078700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25138200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26906100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27707800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>54562400</v>
       </c>
       <c r="E66" s="3">
-        <v>52330800</v>
+        <v>61268300</v>
       </c>
       <c r="F66" s="3">
-        <v>47544800</v>
+        <v>55650700</v>
       </c>
       <c r="G66" s="3">
-        <v>82961500</v>
+        <v>50777200</v>
       </c>
       <c r="H66" s="3">
-        <v>83143100</v>
+        <v>88601600</v>
       </c>
       <c r="I66" s="3">
-        <v>79051600</v>
+        <v>88795600</v>
       </c>
       <c r="J66" s="3">
+        <v>84425900</v>
+      </c>
+      <c r="K66" s="3">
         <v>81244700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75294300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69468300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69900000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68985600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78183600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84445100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86448800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>10773900</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
-        <v>9866500</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>10537300</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>1267100</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>1353200</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>1261600</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>1347300</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1371400</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2655800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2728700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3031600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>932000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-765300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>19012800</v>
       </c>
       <c r="E76" s="3">
-        <v>18768300</v>
+        <v>19807700</v>
       </c>
       <c r="F76" s="3">
-        <v>17249800</v>
+        <v>20075000</v>
       </c>
       <c r="G76" s="3">
-        <v>8411100</v>
+        <v>18422500</v>
       </c>
       <c r="H76" s="3">
-        <v>8258300</v>
+        <v>8982900</v>
       </c>
       <c r="I76" s="3">
-        <v>9676000</v>
+        <v>8819700</v>
       </c>
       <c r="J76" s="3">
+        <v>10333800</v>
+      </c>
+      <c r="K76" s="3">
         <v>11232200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8107600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9107900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7583500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7004600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6459300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4377100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3232700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>806300</v>
+        <v>333600</v>
       </c>
       <c r="E81" s="3">
-        <v>-656800</v>
+        <v>861200</v>
       </c>
       <c r="F81" s="3">
-        <v>9149900</v>
+        <v>-701500</v>
       </c>
       <c r="G81" s="3">
-        <v>-145100</v>
+        <v>9771900</v>
       </c>
       <c r="H81" s="3">
-        <v>1064400</v>
+        <v>-155000</v>
       </c>
       <c r="I81" s="3">
-        <v>443000</v>
+        <v>1136800</v>
       </c>
       <c r="J81" s="3">
+        <v>473200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-251400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-502900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>680800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-357900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-504900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1933200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1110400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>336700</v>
+        <v>446000</v>
       </c>
       <c r="E83" s="3">
-        <v>1830900</v>
+        <v>359600</v>
       </c>
       <c r="F83" s="3">
-        <v>652400</v>
+        <v>1955300</v>
       </c>
       <c r="G83" s="3">
-        <v>284700</v>
+        <v>696700</v>
       </c>
       <c r="H83" s="3">
-        <v>282400</v>
+        <v>304000</v>
       </c>
       <c r="I83" s="3">
-        <v>258100</v>
+        <v>301600</v>
       </c>
       <c r="J83" s="3">
+        <v>275600</v>
+      </c>
+      <c r="K83" s="3">
         <v>265800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>522600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>741600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1098400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>918900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>145600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5558000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1343500</v>
+        <v>2836600</v>
       </c>
       <c r="E89" s="3">
-        <v>542700</v>
+        <v>-1434900</v>
       </c>
       <c r="F89" s="3">
-        <v>-342200</v>
+        <v>579600</v>
       </c>
       <c r="G89" s="3">
-        <v>1496400</v>
+        <v>-365500</v>
       </c>
       <c r="H89" s="3">
-        <v>-3383700</v>
+        <v>1598100</v>
       </c>
       <c r="I89" s="3">
-        <v>1941600</v>
+        <v>-3613800</v>
       </c>
       <c r="J89" s="3">
+        <v>2073600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3429100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1575600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>399700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1298100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3194300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2047100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-529900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700300</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>-405400</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
-        <v>-214900</v>
+        <v>-432900</v>
       </c>
       <c r="I91" s="3">
-        <v>715500</v>
+        <v>-229500</v>
       </c>
       <c r="J91" s="3">
+        <v>764200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-417200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>336600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-232300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>52700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-419100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>585900</v>
+        <v>-763000</v>
       </c>
       <c r="E94" s="3">
-        <v>-584800</v>
+        <v>625800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1660300</v>
+        <v>-624600</v>
       </c>
       <c r="G94" s="3">
-        <v>-608100</v>
+        <v>-1773200</v>
       </c>
       <c r="H94" s="3">
-        <v>2045700</v>
+        <v>-649400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1774400</v>
+        <v>2184800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1895000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-995700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-905900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>31400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5607700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-819300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>313500</v>
+        <v>-1297600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1766600</v>
+        <v>334800</v>
       </c>
       <c r="F100" s="3">
-        <v>2965000</v>
+        <v>-1886700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2586200</v>
+        <v>3166600</v>
       </c>
       <c r="H100" s="3">
-        <v>1635900</v>
+        <v>-2762100</v>
       </c>
       <c r="I100" s="3">
-        <v>-964700</v>
+        <v>1747100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1030300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-399800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-141600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>407400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-976100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-669800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1103400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4138900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11100</v>
+        <v>-82800</v>
       </c>
       <c r="E101" s="3">
-        <v>-777500</v>
+        <v>-11800</v>
       </c>
       <c r="F101" s="3">
-        <v>785300</v>
+        <v>-830400</v>
       </c>
       <c r="G101" s="3">
-        <v>-7800</v>
+        <v>838700</v>
       </c>
       <c r="H101" s="3">
-        <v>16600</v>
+        <v>-8300</v>
       </c>
       <c r="I101" s="3">
-        <v>-1100</v>
+        <v>17700</v>
       </c>
       <c r="J101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-455200</v>
+        <v>693200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2586200</v>
+        <v>-486200</v>
       </c>
       <c r="F102" s="3">
-        <v>1747800</v>
+        <v>-2762100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1705700</v>
+        <v>1866600</v>
       </c>
       <c r="H102" s="3">
-        <v>314600</v>
+        <v>-1821700</v>
       </c>
       <c r="I102" s="3">
-        <v>-798600</v>
+        <v>335900</v>
       </c>
       <c r="J102" s="3">
+        <v>-852900</v>
+      </c>
+      <c r="K102" s="3">
         <v>2023600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>252500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-75800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8128800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1918000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3160700</v>
+        <v>3489300</v>
       </c>
       <c r="E8" s="3">
-        <v>4498600</v>
+        <v>3196200</v>
       </c>
       <c r="F8" s="3">
-        <v>4752900</v>
+        <v>4549100</v>
       </c>
       <c r="G8" s="3">
-        <v>2533800</v>
+        <v>4806300</v>
       </c>
       <c r="H8" s="3">
-        <v>3223400</v>
+        <v>2562300</v>
       </c>
       <c r="I8" s="3">
-        <v>4395700</v>
+        <v>3259600</v>
       </c>
       <c r="J8" s="3">
+        <v>4445100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4369600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3350500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3296200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4046100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3904500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3293000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3504000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5028600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13997700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1872500</v>
+        <v>1931900</v>
       </c>
       <c r="E9" s="3">
-        <v>2441500</v>
+        <v>1893600</v>
       </c>
       <c r="F9" s="3">
-        <v>2378800</v>
+        <v>2469000</v>
       </c>
       <c r="G9" s="3">
-        <v>1831100</v>
+        <v>2405600</v>
       </c>
       <c r="H9" s="3">
-        <v>2956100</v>
+        <v>1851700</v>
       </c>
       <c r="I9" s="3">
-        <v>3153600</v>
+        <v>2989300</v>
       </c>
       <c r="J9" s="3">
+        <v>3189100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3025900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2628300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2809800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2753800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2897000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2447100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2564900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3498000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10903500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1288200</v>
+        <v>1557500</v>
       </c>
       <c r="E10" s="3">
-        <v>2057100</v>
+        <v>1302700</v>
       </c>
       <c r="F10" s="3">
-        <v>2374100</v>
+        <v>2080200</v>
       </c>
       <c r="G10" s="3">
-        <v>702600</v>
+        <v>2400800</v>
       </c>
       <c r="H10" s="3">
-        <v>267300</v>
+        <v>710500</v>
       </c>
       <c r="I10" s="3">
-        <v>1242000</v>
+        <v>270300</v>
       </c>
       <c r="J10" s="3">
+        <v>1256000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1343800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>722200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>486400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1292300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1007500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>846000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>939100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1530600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3094200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,11 +1071,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>55600</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1063,17 +1083,17 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>80800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>337700</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>446000</v>
+        <v>462900</v>
       </c>
       <c r="E15" s="3">
-        <v>423500</v>
+        <v>451000</v>
       </c>
       <c r="F15" s="3">
-        <v>2455700</v>
+        <v>428200</v>
       </c>
       <c r="G15" s="3">
-        <v>682500</v>
+        <v>2483300</v>
       </c>
       <c r="H15" s="3">
-        <v>306400</v>
+        <v>690200</v>
       </c>
       <c r="I15" s="3">
-        <v>300500</v>
+        <v>309800</v>
       </c>
       <c r="J15" s="3">
+        <v>303800</v>
+      </c>
+      <c r="K15" s="3">
         <v>592600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>259200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>251400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>230600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>967200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1348600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1171400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>304000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5561500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2816500</v>
+        <v>2916300</v>
       </c>
       <c r="E17" s="3">
-        <v>2996300</v>
+        <v>2848200</v>
       </c>
       <c r="F17" s="3">
-        <v>4670100</v>
+        <v>3030000</v>
       </c>
       <c r="G17" s="3">
-        <v>2783400</v>
+        <v>4722600</v>
       </c>
       <c r="H17" s="3">
-        <v>3771100</v>
+        <v>2814700</v>
       </c>
       <c r="I17" s="3">
-        <v>3850300</v>
+        <v>3813500</v>
       </c>
       <c r="J17" s="3">
+        <v>3893600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4141300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3454600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3542100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3591600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4027900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3326700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1837800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4304400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20440700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>344200</v>
+        <v>573000</v>
       </c>
       <c r="E18" s="3">
-        <v>1502300</v>
+        <v>348100</v>
       </c>
       <c r="F18" s="3">
-        <v>82800</v>
+        <v>1519200</v>
       </c>
       <c r="G18" s="3">
-        <v>-249600</v>
+        <v>83700</v>
       </c>
       <c r="H18" s="3">
-        <v>-547700</v>
+        <v>-252400</v>
       </c>
       <c r="I18" s="3">
-        <v>545300</v>
+        <v>-553800</v>
       </c>
       <c r="J18" s="3">
+        <v>551400</v>
+      </c>
+      <c r="K18" s="3">
         <v>228300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-104100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-246000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>454600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-123400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-33700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1666200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>724200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>265000</v>
+        <v>58600</v>
       </c>
       <c r="E20" s="3">
-        <v>-202300</v>
+        <v>267900</v>
       </c>
       <c r="F20" s="3">
-        <v>-580800</v>
+        <v>-204600</v>
       </c>
       <c r="G20" s="3">
-        <v>101700</v>
+        <v>-587300</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>102900</v>
       </c>
       <c r="I20" s="3">
-        <v>52000</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-67400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-124500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>123400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>563200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-628000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1055100</v>
+        <v>1099300</v>
       </c>
       <c r="E21" s="3">
-        <v>1659600</v>
+        <v>1067000</v>
       </c>
       <c r="F21" s="3">
-        <v>1457300</v>
+        <v>1678300</v>
       </c>
       <c r="G21" s="3">
-        <v>548900</v>
+        <v>1473700</v>
       </c>
       <c r="H21" s="3">
-        <v>-231800</v>
+        <v>555000</v>
       </c>
       <c r="I21" s="3">
-        <v>899000</v>
+        <v>-234500</v>
       </c>
       <c r="J21" s="3">
+        <v>909100</v>
+      </c>
+      <c r="K21" s="3">
         <v>436500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>194900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>668700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>136900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>342200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2539100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1070500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>97000</v>
+        <v>75400</v>
       </c>
       <c r="E22" s="3">
-        <v>101700</v>
+        <v>98100</v>
       </c>
       <c r="F22" s="3">
-        <v>91100</v>
+        <v>102900</v>
       </c>
       <c r="G22" s="3">
-        <v>73300</v>
+        <v>92100</v>
       </c>
       <c r="H22" s="3">
-        <v>79300</v>
+        <v>74200</v>
       </c>
       <c r="I22" s="3">
-        <v>61500</v>
+        <v>80100</v>
       </c>
       <c r="J22" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K22" s="3">
         <v>53200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>56100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>120100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>218800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>265300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>198400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>512200</v>
+        <v>556200</v>
       </c>
       <c r="E23" s="3">
-        <v>1198300</v>
+        <v>518000</v>
       </c>
       <c r="F23" s="3">
-        <v>-589100</v>
+        <v>1211800</v>
       </c>
       <c r="G23" s="3">
-        <v>-221200</v>
+        <v>-595700</v>
       </c>
       <c r="H23" s="3">
-        <v>-615100</v>
+        <v>-223700</v>
       </c>
       <c r="I23" s="3">
-        <v>535900</v>
+        <v>-622000</v>
       </c>
       <c r="J23" s="3">
+        <v>541900</v>
+      </c>
+      <c r="K23" s="3">
         <v>107600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-121800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-316200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>390900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-304100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2010600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>659700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>188100</v>
+        <v>61000</v>
       </c>
       <c r="E24" s="3">
-        <v>343000</v>
+        <v>190200</v>
       </c>
       <c r="F24" s="3">
-        <v>121800</v>
+        <v>346900</v>
       </c>
       <c r="G24" s="3">
-        <v>-52000</v>
+        <v>123200</v>
       </c>
       <c r="H24" s="3">
-        <v>-270900</v>
+        <v>-52600</v>
       </c>
       <c r="I24" s="3">
-        <v>92300</v>
+        <v>-273900</v>
       </c>
       <c r="J24" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K24" s="3">
         <v>127800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-53900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>301800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>72800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-529400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>324100</v>
+        <v>495200</v>
       </c>
       <c r="E26" s="3">
-        <v>855200</v>
+        <v>327800</v>
       </c>
       <c r="F26" s="3">
-        <v>-710900</v>
+        <v>864900</v>
       </c>
       <c r="G26" s="3">
-        <v>-169200</v>
+        <v>-718900</v>
       </c>
       <c r="H26" s="3">
-        <v>-344200</v>
+        <v>-171100</v>
       </c>
       <c r="I26" s="3">
-        <v>443600</v>
+        <v>-348100</v>
       </c>
       <c r="J26" s="3">
+        <v>448600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-343700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>323900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-360200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1708800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>586900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>309900</v>
+        <v>480900</v>
       </c>
       <c r="E27" s="3">
-        <v>825700</v>
+        <v>313400</v>
       </c>
       <c r="F27" s="3">
-        <v>-731000</v>
+        <v>834900</v>
       </c>
       <c r="G27" s="3">
-        <v>-259100</v>
+        <v>-739300</v>
       </c>
       <c r="H27" s="3">
-        <v>-507500</v>
+        <v>-262000</v>
       </c>
       <c r="I27" s="3">
-        <v>-61500</v>
+        <v>-513200</v>
       </c>
       <c r="J27" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-397500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-87500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-379900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-561000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>85300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1761500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>190200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1814,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>23700</v>
+        <v>204600</v>
       </c>
       <c r="E29" s="3">
-        <v>35500</v>
+        <v>23900</v>
       </c>
       <c r="F29" s="3">
-        <v>29600</v>
+        <v>35900</v>
       </c>
       <c r="G29" s="3">
-        <v>10031000</v>
+        <v>29900</v>
       </c>
       <c r="H29" s="3">
-        <v>352500</v>
+        <v>10143800</v>
       </c>
       <c r="I29" s="3">
-        <v>1198300</v>
+        <v>356500</v>
       </c>
       <c r="J29" s="3">
+        <v>1211800</v>
+      </c>
+      <c r="K29" s="3">
         <v>870600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-163900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-123000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>714800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>203100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-590200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>171700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>920300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-265000</v>
+        <v>-58600</v>
       </c>
       <c r="E32" s="3">
-        <v>202300</v>
+        <v>-267900</v>
       </c>
       <c r="F32" s="3">
-        <v>580800</v>
+        <v>204600</v>
       </c>
       <c r="G32" s="3">
-        <v>-101700</v>
+        <v>587300</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-102900</v>
       </c>
       <c r="I32" s="3">
-        <v>-52000</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="K32" s="3">
         <v>67400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>124500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-123400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-563200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>628000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>333600</v>
+        <v>685400</v>
       </c>
       <c r="E33" s="3">
-        <v>861200</v>
+        <v>337300</v>
       </c>
       <c r="F33" s="3">
-        <v>-701500</v>
+        <v>870800</v>
       </c>
       <c r="G33" s="3">
-        <v>9771900</v>
+        <v>-709300</v>
       </c>
       <c r="H33" s="3">
-        <v>-155000</v>
+        <v>9881800</v>
       </c>
       <c r="I33" s="3">
-        <v>1136800</v>
+        <v>-156700</v>
       </c>
       <c r="J33" s="3">
+        <v>1149500</v>
+      </c>
+      <c r="K33" s="3">
         <v>473200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-251400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-502900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>680800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-357900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-504900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1933200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1110400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>333600</v>
+        <v>685400</v>
       </c>
       <c r="E35" s="3">
-        <v>861200</v>
+        <v>337300</v>
       </c>
       <c r="F35" s="3">
-        <v>-701500</v>
+        <v>870800</v>
       </c>
       <c r="G35" s="3">
-        <v>9771900</v>
+        <v>-709300</v>
       </c>
       <c r="H35" s="3">
-        <v>-155000</v>
+        <v>9881800</v>
       </c>
       <c r="I35" s="3">
-        <v>1136800</v>
+        <v>-156700</v>
       </c>
       <c r="J35" s="3">
+        <v>1149500</v>
+      </c>
+      <c r="K35" s="3">
         <v>473200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-251400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-502900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>680800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-357900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-504900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1933200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1110400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3999400</v>
+        <v>4898400</v>
       </c>
       <c r="E41" s="3">
-        <v>3303800</v>
+        <v>4044400</v>
       </c>
       <c r="F41" s="3">
-        <v>3775800</v>
+        <v>3341000</v>
       </c>
       <c r="G41" s="3">
-        <v>6554400</v>
+        <v>3818300</v>
       </c>
       <c r="H41" s="3">
-        <v>3862200</v>
+        <v>6628100</v>
       </c>
       <c r="I41" s="3">
-        <v>5185800</v>
+        <v>3905600</v>
       </c>
       <c r="J41" s="3">
+        <v>5244100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4167400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5114900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3571800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4270100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4412800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6093500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12234200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4338400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5371400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2726600</v>
+        <v>4359000</v>
       </c>
       <c r="E42" s="3">
-        <v>2208500</v>
+        <v>2757200</v>
       </c>
       <c r="F42" s="3">
-        <v>3853900</v>
+        <v>2233300</v>
       </c>
       <c r="G42" s="3">
-        <v>3606700</v>
+        <v>3897200</v>
       </c>
       <c r="H42" s="3">
-        <v>2831900</v>
+        <v>3647200</v>
       </c>
       <c r="I42" s="3">
-        <v>2561000</v>
+        <v>2863700</v>
       </c>
       <c r="J42" s="3">
+        <v>2589800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4269100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3179900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3624500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5669000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5489900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5192600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5685100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12002200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11532700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2798700</v>
+        <v>2711800</v>
       </c>
       <c r="E43" s="3">
-        <v>3870400</v>
+        <v>2830200</v>
       </c>
       <c r="F43" s="3">
-        <v>7305600</v>
+        <v>3914000</v>
       </c>
       <c r="G43" s="3">
-        <v>3135900</v>
+        <v>7387700</v>
       </c>
       <c r="H43" s="3">
-        <v>1793300</v>
+        <v>3171100</v>
       </c>
       <c r="I43" s="3">
-        <v>2116200</v>
+        <v>1813400</v>
       </c>
       <c r="J43" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="K43" s="3">
         <v>5732300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1710100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1536100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7641000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8521500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4906500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5880300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7654400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7869200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1373300</v>
+        <v>2008400</v>
       </c>
       <c r="E44" s="3">
-        <v>1259800</v>
+        <v>1388800</v>
       </c>
       <c r="F44" s="3">
-        <v>1874900</v>
+        <v>1274000</v>
       </c>
       <c r="G44" s="3">
-        <v>1769600</v>
+        <v>1896000</v>
       </c>
       <c r="H44" s="3">
-        <v>1460900</v>
+        <v>1789500</v>
       </c>
       <c r="I44" s="3">
-        <v>1394600</v>
+        <v>1477300</v>
       </c>
       <c r="J44" s="3">
+        <v>1410300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1929300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2056800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1553700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1437300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2158700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2521100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2024100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1935600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2310100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20420400</v>
+        <v>12500300</v>
       </c>
       <c r="E45" s="3">
-        <v>27122700</v>
+        <v>20650000</v>
       </c>
       <c r="F45" s="3">
-        <v>19618400</v>
+        <v>27427700</v>
       </c>
       <c r="G45" s="3">
-        <v>14468000</v>
+        <v>19839000</v>
       </c>
       <c r="H45" s="3">
-        <v>64845400</v>
+        <v>14630700</v>
       </c>
       <c r="I45" s="3">
-        <v>63703900</v>
+        <v>65574500</v>
       </c>
       <c r="J45" s="3">
+        <v>64420200</v>
+      </c>
+      <c r="K45" s="3">
         <v>56665600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60091700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52903800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9127700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5632400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7180700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8292600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9004300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8707300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31318500</v>
+        <v>26477900</v>
       </c>
       <c r="E46" s="3">
-        <v>37765300</v>
+        <v>31670600</v>
       </c>
       <c r="F46" s="3">
-        <v>33406300</v>
+        <v>38189900</v>
       </c>
       <c r="G46" s="3">
-        <v>29534600</v>
+        <v>33781900</v>
       </c>
       <c r="H46" s="3">
-        <v>74793600</v>
+        <v>29866700</v>
       </c>
       <c r="I46" s="3">
-        <v>74961600</v>
+        <v>75634500</v>
       </c>
       <c r="J46" s="3">
+        <v>75804400</v>
+      </c>
+      <c r="K46" s="3">
         <v>72763700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>72153500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63189900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28145000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26215300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25894400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34116300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34934900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35790600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9048000</v>
+        <v>9149700</v>
       </c>
       <c r="E47" s="3">
-        <v>8872900</v>
+        <v>9149700</v>
       </c>
       <c r="F47" s="3">
-        <v>9424200</v>
+        <v>8972700</v>
       </c>
       <c r="G47" s="3">
-        <v>8915500</v>
+        <v>9530100</v>
       </c>
       <c r="H47" s="3">
-        <v>2271200</v>
+        <v>9015800</v>
       </c>
       <c r="I47" s="3">
-        <v>2234500</v>
+        <v>2296700</v>
       </c>
       <c r="J47" s="3">
+        <v>2259600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2629600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2008100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1944600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4478700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5105100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4516000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4481200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4690500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5381900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22578000</v>
+        <v>23036400</v>
       </c>
       <c r="E48" s="3">
-        <v>22826400</v>
+        <v>22831900</v>
       </c>
       <c r="F48" s="3">
-        <v>22432500</v>
+        <v>23083100</v>
       </c>
       <c r="G48" s="3">
-        <v>22995600</v>
+        <v>22684700</v>
       </c>
       <c r="H48" s="3">
-        <v>15397800</v>
+        <v>23254100</v>
       </c>
       <c r="I48" s="3">
-        <v>15363500</v>
+        <v>15570900</v>
       </c>
       <c r="J48" s="3">
+        <v>15536200</v>
+      </c>
+      <c r="K48" s="3">
         <v>14678600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13499400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13162800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27510400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27990300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27179100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27115100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29009500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28779500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5480400</v>
+        <v>5414000</v>
       </c>
       <c r="E49" s="3">
-        <v>5558400</v>
+        <v>5542000</v>
       </c>
       <c r="F49" s="3">
-        <v>5751300</v>
+        <v>5620900</v>
       </c>
       <c r="G49" s="3">
-        <v>5378600</v>
+        <v>5815900</v>
       </c>
       <c r="H49" s="3">
-        <v>2577500</v>
+        <v>5439100</v>
       </c>
       <c r="I49" s="3">
-        <v>2618900</v>
+        <v>2606500</v>
       </c>
       <c r="J49" s="3">
+        <v>2648400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2594100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2426800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2328900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13676700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13893600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13744400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14279600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14989600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14964900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5150300</v>
+        <v>5062300</v>
       </c>
       <c r="E52" s="3">
-        <v>6052900</v>
+        <v>5208300</v>
       </c>
       <c r="F52" s="3">
-        <v>5175200</v>
+        <v>6121000</v>
       </c>
       <c r="G52" s="3">
-        <v>2375300</v>
+        <v>5233400</v>
       </c>
       <c r="H52" s="3">
-        <v>2544400</v>
+        <v>2402000</v>
       </c>
       <c r="I52" s="3">
-        <v>2436800</v>
+        <v>2573000</v>
       </c>
       <c r="J52" s="3">
+        <v>2464200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2093700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2389100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2775700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4765300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4279300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4656300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4650600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5197600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4764500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73575200</v>
+        <v>69140400</v>
       </c>
       <c r="E54" s="3">
-        <v>81076000</v>
+        <v>74402400</v>
       </c>
       <c r="F54" s="3">
-        <v>75725700</v>
+        <v>81987500</v>
       </c>
       <c r="G54" s="3">
-        <v>69199700</v>
+        <v>76577100</v>
       </c>
       <c r="H54" s="3">
-        <v>97584500</v>
+        <v>69977700</v>
       </c>
       <c r="I54" s="3">
-        <v>97615300</v>
+        <v>98681700</v>
       </c>
       <c r="J54" s="3">
+        <v>98712800</v>
+      </c>
+      <c r="K54" s="3">
         <v>94759800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92476800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83401900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78576200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>77483500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75990100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84642900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>88822200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89681400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2487600</v>
+        <v>2329000</v>
       </c>
       <c r="E57" s="3">
-        <v>2704100</v>
+        <v>2515600</v>
       </c>
       <c r="F57" s="3">
-        <v>3533300</v>
+        <v>2734500</v>
       </c>
       <c r="G57" s="3">
-        <v>2825900</v>
+        <v>3573000</v>
       </c>
       <c r="H57" s="3">
-        <v>2724200</v>
+        <v>2857700</v>
       </c>
       <c r="I57" s="3">
-        <v>3011700</v>
+        <v>2754800</v>
       </c>
       <c r="J57" s="3">
+        <v>3045500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2873300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2291600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2299200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5138600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5696300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4651800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4757200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5730500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6375000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2602400</v>
+        <v>1704600</v>
       </c>
       <c r="E58" s="3">
-        <v>3114600</v>
+        <v>2631600</v>
       </c>
       <c r="F58" s="3">
-        <v>1997900</v>
+        <v>3149600</v>
       </c>
       <c r="G58" s="3">
-        <v>4885400</v>
+        <v>2020400</v>
       </c>
       <c r="H58" s="3">
-        <v>2588200</v>
+        <v>4940300</v>
       </c>
       <c r="I58" s="3">
-        <v>4194600</v>
+        <v>2617300</v>
       </c>
       <c r="J58" s="3">
+        <v>4241700</v>
+      </c>
+      <c r="K58" s="3">
         <v>906100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1031200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>729100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3687100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3127000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5084900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3852900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4299700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2514300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16761700</v>
+        <v>11253800</v>
       </c>
       <c r="E59" s="3">
-        <v>22605200</v>
+        <v>16950200</v>
       </c>
       <c r="F59" s="3">
-        <v>17889000</v>
+        <v>22859400</v>
       </c>
       <c r="G59" s="3">
-        <v>14644300</v>
+        <v>18090100</v>
       </c>
       <c r="H59" s="3">
-        <v>54353100</v>
+        <v>14809000</v>
       </c>
       <c r="I59" s="3">
-        <v>52738400</v>
+        <v>54964200</v>
       </c>
       <c r="J59" s="3">
+        <v>53331400</v>
+      </c>
+      <c r="K59" s="3">
         <v>50449500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51325100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46528800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13774400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13946300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13215900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21579200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22555900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>24876600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21851700</v>
+        <v>15287400</v>
       </c>
       <c r="E60" s="3">
-        <v>28423900</v>
+        <v>22097400</v>
       </c>
       <c r="F60" s="3">
-        <v>23191900</v>
+        <v>28743500</v>
       </c>
       <c r="G60" s="3">
-        <v>22355600</v>
+        <v>23452700</v>
       </c>
       <c r="H60" s="3">
-        <v>59665500</v>
+        <v>22607000</v>
       </c>
       <c r="I60" s="3">
-        <v>59944600</v>
+        <v>60336300</v>
       </c>
       <c r="J60" s="3">
+        <v>60618600</v>
+      </c>
+      <c r="K60" s="3">
         <v>54228900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54647900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49557100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22600100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22769700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22952500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>30189400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32586100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33765800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4910200</v>
+        <v>4418800</v>
       </c>
       <c r="E61" s="3">
-        <v>4839200</v>
+        <v>4965400</v>
       </c>
       <c r="F61" s="3">
-        <v>4641700</v>
+        <v>4893700</v>
       </c>
       <c r="G61" s="3">
-        <v>4411000</v>
+        <v>4693900</v>
       </c>
       <c r="H61" s="3">
-        <v>2996300</v>
+        <v>4460600</v>
       </c>
       <c r="I61" s="3">
-        <v>2860300</v>
+        <v>3030000</v>
       </c>
       <c r="J61" s="3">
+        <v>2892400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2363400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2158700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1731500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15890300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16172400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15289400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17165300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18529800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18829100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27270600</v>
+        <v>27800900</v>
       </c>
       <c r="E62" s="3">
-        <v>27406600</v>
+        <v>27577200</v>
       </c>
       <c r="F62" s="3">
-        <v>28464100</v>
+        <v>27714800</v>
       </c>
       <c r="G62" s="3">
-        <v>23468700</v>
+        <v>28784200</v>
       </c>
       <c r="H62" s="3">
-        <v>20556400</v>
+        <v>23732600</v>
       </c>
       <c r="I62" s="3">
-        <v>19969700</v>
+        <v>20787600</v>
       </c>
       <c r="J62" s="3">
+        <v>20194200</v>
+      </c>
+      <c r="K62" s="3">
         <v>21302800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18493600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18421100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24908100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25087700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25078700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25138200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26906100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27707800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54562400</v>
+        <v>47779800</v>
       </c>
       <c r="E66" s="3">
-        <v>61268300</v>
+        <v>55175900</v>
       </c>
       <c r="F66" s="3">
-        <v>55650700</v>
+        <v>61957200</v>
       </c>
       <c r="G66" s="3">
-        <v>50777200</v>
+        <v>56276400</v>
       </c>
       <c r="H66" s="3">
-        <v>88601600</v>
+        <v>51348100</v>
       </c>
       <c r="I66" s="3">
-        <v>88795600</v>
+        <v>89597800</v>
       </c>
       <c r="J66" s="3">
+        <v>89793900</v>
+      </c>
+      <c r="K66" s="3">
         <v>84425900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81244700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75294300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69468300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69900000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68985600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78183600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>84445100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86448800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>10773900</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>10537300</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>10895000</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>1353200</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>10655700</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>1368500</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>1347300</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1371400</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2655800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2728700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3031600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>932000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-765300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19012800</v>
+        <v>21360500</v>
       </c>
       <c r="E76" s="3">
-        <v>19807700</v>
+        <v>19226500</v>
       </c>
       <c r="F76" s="3">
-        <v>20075000</v>
+        <v>20030400</v>
       </c>
       <c r="G76" s="3">
-        <v>18422500</v>
+        <v>20300700</v>
       </c>
       <c r="H76" s="3">
-        <v>8982900</v>
+        <v>18629600</v>
       </c>
       <c r="I76" s="3">
-        <v>8819700</v>
+        <v>9083900</v>
       </c>
       <c r="J76" s="3">
+        <v>8918900</v>
+      </c>
+      <c r="K76" s="3">
         <v>10333800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11232200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8107600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9107900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7583500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7004600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6459300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4377100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3232700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>333600</v>
+        <v>685400</v>
       </c>
       <c r="E81" s="3">
-        <v>861200</v>
+        <v>337300</v>
       </c>
       <c r="F81" s="3">
-        <v>-701500</v>
+        <v>870800</v>
       </c>
       <c r="G81" s="3">
-        <v>9771900</v>
+        <v>-709300</v>
       </c>
       <c r="H81" s="3">
-        <v>-155000</v>
+        <v>9881800</v>
       </c>
       <c r="I81" s="3">
-        <v>1136800</v>
+        <v>-156700</v>
       </c>
       <c r="J81" s="3">
+        <v>1149500</v>
+      </c>
+      <c r="K81" s="3">
         <v>473200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-251400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-502900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>680800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-357900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-504900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1933200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1110400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>446000</v>
+        <v>467700</v>
       </c>
       <c r="E83" s="3">
-        <v>359600</v>
+        <v>451000</v>
       </c>
       <c r="F83" s="3">
-        <v>1955300</v>
+        <v>363600</v>
       </c>
       <c r="G83" s="3">
-        <v>696700</v>
+        <v>1977300</v>
       </c>
       <c r="H83" s="3">
-        <v>304000</v>
+        <v>704600</v>
       </c>
       <c r="I83" s="3">
-        <v>301600</v>
+        <v>307400</v>
       </c>
       <c r="J83" s="3">
+        <v>305000</v>
+      </c>
+      <c r="K83" s="3">
         <v>275600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>265800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>522600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>741600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1098400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>918900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>145600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5558000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2836600</v>
+        <v>757200</v>
       </c>
       <c r="E89" s="3">
-        <v>-1434900</v>
+        <v>2868500</v>
       </c>
       <c r="F89" s="3">
-        <v>579600</v>
+        <v>-1451000</v>
       </c>
       <c r="G89" s="3">
-        <v>-365500</v>
+        <v>586100</v>
       </c>
       <c r="H89" s="3">
-        <v>1598100</v>
+        <v>-369600</v>
       </c>
       <c r="I89" s="3">
-        <v>-3613800</v>
+        <v>1616100</v>
       </c>
       <c r="J89" s="3">
+        <v>-3654400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2073600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3429100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1575600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>399700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1298100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3194300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2047100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-529900</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-700300</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+        <v>-535900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-708200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>-432900</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-229500</v>
+        <v>-437800</v>
       </c>
       <c r="J91" s="3">
+        <v>-232100</v>
+      </c>
+      <c r="K91" s="3">
         <v>764200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-417200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>336600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-232300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>52700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-419100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-763000</v>
+        <v>-2299100</v>
       </c>
       <c r="E94" s="3">
-        <v>625800</v>
+        <v>-771500</v>
       </c>
       <c r="F94" s="3">
-        <v>-624600</v>
+        <v>632800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1773200</v>
+        <v>-631600</v>
       </c>
       <c r="H94" s="3">
-        <v>-649400</v>
+        <v>-1793100</v>
       </c>
       <c r="I94" s="3">
-        <v>2184800</v>
+        <v>-656700</v>
       </c>
       <c r="J94" s="3">
+        <v>2209400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-995700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-905900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>31400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5607700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-819300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1297600</v>
+        <v>2320600</v>
       </c>
       <c r="E100" s="3">
-        <v>334800</v>
+        <v>-1312200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1886700</v>
+        <v>338500</v>
       </c>
       <c r="G100" s="3">
-        <v>3166600</v>
+        <v>-1907900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2762100</v>
+        <v>3202200</v>
       </c>
       <c r="I100" s="3">
-        <v>1747100</v>
+        <v>-2793100</v>
       </c>
       <c r="J100" s="3">
+        <v>1766800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-399800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-141600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>407400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-976100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-669800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1103400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4138900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-82800</v>
+        <v>68200</v>
       </c>
       <c r="E101" s="3">
-        <v>-11800</v>
+        <v>-83700</v>
       </c>
       <c r="F101" s="3">
-        <v>-830400</v>
+        <v>-12000</v>
       </c>
       <c r="G101" s="3">
-        <v>838700</v>
+        <v>-839700</v>
       </c>
       <c r="H101" s="3">
-        <v>-8300</v>
+        <v>848100</v>
       </c>
       <c r="I101" s="3">
-        <v>17700</v>
+        <v>-8400</v>
       </c>
       <c r="J101" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-28000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>693200</v>
+        <v>846900</v>
       </c>
       <c r="E102" s="3">
-        <v>-486200</v>
+        <v>701000</v>
       </c>
       <c r="F102" s="3">
-        <v>-2762100</v>
+        <v>-491600</v>
       </c>
       <c r="G102" s="3">
-        <v>1866600</v>
+        <v>-2793100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1821700</v>
+        <v>1887600</v>
       </c>
       <c r="I102" s="3">
-        <v>335900</v>
+        <v>-1842100</v>
       </c>
       <c r="J102" s="3">
+        <v>339700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-852900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2023600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>252500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-75800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8128800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1918000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3489300</v>
+        <v>5053800</v>
       </c>
       <c r="E8" s="3">
-        <v>3196200</v>
+        <v>3431600</v>
       </c>
       <c r="F8" s="3">
-        <v>4549100</v>
+        <v>3143300</v>
       </c>
       <c r="G8" s="3">
-        <v>4806300</v>
+        <v>4473800</v>
       </c>
       <c r="H8" s="3">
-        <v>2562300</v>
+        <v>4726800</v>
       </c>
       <c r="I8" s="3">
-        <v>3259600</v>
+        <v>2519800</v>
       </c>
       <c r="J8" s="3">
+        <v>3205700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4445100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4369600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3350500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3296200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4046100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3904500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3293000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3504000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5028600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13997700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1931900</v>
+        <v>5355000</v>
       </c>
       <c r="E9" s="3">
-        <v>1893600</v>
+        <v>1899900</v>
       </c>
       <c r="F9" s="3">
-        <v>2469000</v>
+        <v>1862200</v>
       </c>
       <c r="G9" s="3">
-        <v>2405600</v>
+        <v>2428100</v>
       </c>
       <c r="H9" s="3">
-        <v>1851700</v>
+        <v>2365700</v>
       </c>
       <c r="I9" s="3">
-        <v>2989300</v>
+        <v>1821100</v>
       </c>
       <c r="J9" s="3">
+        <v>2939800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3189100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3025900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2628300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2809800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2753800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2897000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2447100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2564900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3498000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10903500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1557500</v>
+        <v>-301200</v>
       </c>
       <c r="E10" s="3">
-        <v>1302700</v>
+        <v>1531700</v>
       </c>
       <c r="F10" s="3">
-        <v>2080200</v>
+        <v>1281100</v>
       </c>
       <c r="G10" s="3">
-        <v>2400800</v>
+        <v>2045800</v>
       </c>
       <c r="H10" s="3">
-        <v>710500</v>
+        <v>2361000</v>
       </c>
       <c r="I10" s="3">
-        <v>270300</v>
+        <v>698800</v>
       </c>
       <c r="J10" s="3">
+        <v>265900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1256000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1343800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>722200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>486400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1292300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1007500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>846000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>939100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1530600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3094200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,11 +1093,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>55600</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1086,17 +1105,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>80800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>337700</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1104,64 +1123,70 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>462900</v>
+        <v>2390400</v>
       </c>
       <c r="E15" s="3">
-        <v>451000</v>
+        <v>455300</v>
       </c>
       <c r="F15" s="3">
-        <v>428200</v>
+        <v>443500</v>
       </c>
       <c r="G15" s="3">
-        <v>2483300</v>
+        <v>421200</v>
       </c>
       <c r="H15" s="3">
-        <v>690200</v>
+        <v>2442200</v>
       </c>
       <c r="I15" s="3">
-        <v>309800</v>
+        <v>678800</v>
       </c>
       <c r="J15" s="3">
+        <v>304700</v>
+      </c>
+      <c r="K15" s="3">
         <v>303800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>592600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>259200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>251400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>230600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>967200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1348600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1171400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>304000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5561500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2916300</v>
+        <v>5882000</v>
       </c>
       <c r="E17" s="3">
-        <v>2848200</v>
+        <v>2868100</v>
       </c>
       <c r="F17" s="3">
-        <v>3030000</v>
+        <v>2801000</v>
       </c>
       <c r="G17" s="3">
-        <v>4722600</v>
+        <v>2979800</v>
       </c>
       <c r="H17" s="3">
-        <v>2814700</v>
+        <v>4644400</v>
       </c>
       <c r="I17" s="3">
-        <v>3813500</v>
+        <v>2768100</v>
       </c>
       <c r="J17" s="3">
+        <v>3750400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3893600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4141300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3454600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3542100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3591600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4027900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3326700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1837800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4304400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20440700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>573000</v>
+        <v>-828200</v>
       </c>
       <c r="E18" s="3">
-        <v>348100</v>
+        <v>563500</v>
       </c>
       <c r="F18" s="3">
-        <v>1519200</v>
+        <v>342300</v>
       </c>
       <c r="G18" s="3">
-        <v>83700</v>
+        <v>1494000</v>
       </c>
       <c r="H18" s="3">
-        <v>-252400</v>
+        <v>82300</v>
       </c>
       <c r="I18" s="3">
-        <v>-553800</v>
+        <v>-248200</v>
       </c>
       <c r="J18" s="3">
+        <v>-544700</v>
+      </c>
+      <c r="K18" s="3">
         <v>551400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>228300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-104100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-246000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>454600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-123400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1666200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>724200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58600</v>
+        <v>63500</v>
       </c>
       <c r="E20" s="3">
-        <v>267900</v>
+        <v>57600</v>
       </c>
       <c r="F20" s="3">
-        <v>-204600</v>
+        <v>263500</v>
       </c>
       <c r="G20" s="3">
-        <v>-587300</v>
+        <v>-201200</v>
       </c>
       <c r="H20" s="3">
-        <v>102900</v>
+        <v>-577600</v>
       </c>
       <c r="I20" s="3">
-        <v>12000</v>
+        <v>101200</v>
       </c>
       <c r="J20" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K20" s="3">
         <v>52600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-67400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>33200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-124500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>123400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>563200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-628000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1099300</v>
+        <v>1714000</v>
       </c>
       <c r="E21" s="3">
-        <v>1067000</v>
+        <v>1081100</v>
       </c>
       <c r="F21" s="3">
-        <v>1678300</v>
+        <v>1049300</v>
       </c>
       <c r="G21" s="3">
-        <v>1473700</v>
+        <v>1650500</v>
       </c>
       <c r="H21" s="3">
-        <v>555000</v>
+        <v>1449300</v>
       </c>
       <c r="I21" s="3">
-        <v>-234500</v>
+        <v>545800</v>
       </c>
       <c r="J21" s="3">
+        <v>-230600</v>
+      </c>
+      <c r="K21" s="3">
         <v>909100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>436500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>194900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>668700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>136900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>342200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2539100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1070500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>75400</v>
+        <v>76500</v>
       </c>
       <c r="E22" s="3">
-        <v>98100</v>
+        <v>74100</v>
       </c>
       <c r="F22" s="3">
-        <v>102900</v>
+        <v>96500</v>
       </c>
       <c r="G22" s="3">
-        <v>92100</v>
+        <v>101200</v>
       </c>
       <c r="H22" s="3">
-        <v>74200</v>
+        <v>90600</v>
       </c>
       <c r="I22" s="3">
-        <v>80100</v>
+        <v>72900</v>
       </c>
       <c r="J22" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K22" s="3">
         <v>62200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>120100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>218800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>265300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>198400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>556200</v>
+        <v>-841100</v>
       </c>
       <c r="E23" s="3">
-        <v>518000</v>
+        <v>547000</v>
       </c>
       <c r="F23" s="3">
-        <v>1211800</v>
+        <v>509400</v>
       </c>
       <c r="G23" s="3">
-        <v>-595700</v>
+        <v>1191700</v>
       </c>
       <c r="H23" s="3">
-        <v>-223700</v>
+        <v>-585800</v>
       </c>
       <c r="I23" s="3">
-        <v>-622000</v>
+        <v>-220000</v>
       </c>
       <c r="J23" s="3">
+        <v>-611700</v>
+      </c>
+      <c r="K23" s="3">
         <v>541900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>107600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-121800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-316200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>390900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-304100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2010600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>659700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61000</v>
+        <v>-161200</v>
       </c>
       <c r="E24" s="3">
-        <v>190200</v>
+        <v>60000</v>
       </c>
       <c r="F24" s="3">
-        <v>346900</v>
+        <v>187000</v>
       </c>
       <c r="G24" s="3">
-        <v>123200</v>
+        <v>341200</v>
       </c>
       <c r="H24" s="3">
-        <v>-52600</v>
+        <v>121200</v>
       </c>
       <c r="I24" s="3">
-        <v>-273900</v>
+        <v>-51800</v>
       </c>
       <c r="J24" s="3">
+        <v>-269400</v>
+      </c>
+      <c r="K24" s="3">
         <v>93300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>301800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-529400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>495200</v>
+        <v>-680000</v>
       </c>
       <c r="E26" s="3">
-        <v>327800</v>
+        <v>487000</v>
       </c>
       <c r="F26" s="3">
-        <v>864900</v>
+        <v>322300</v>
       </c>
       <c r="G26" s="3">
-        <v>-718900</v>
+        <v>850500</v>
       </c>
       <c r="H26" s="3">
-        <v>-171100</v>
+        <v>-707000</v>
       </c>
       <c r="I26" s="3">
-        <v>-348100</v>
+        <v>-168200</v>
       </c>
       <c r="J26" s="3">
+        <v>-342300</v>
+      </c>
+      <c r="K26" s="3">
         <v>448600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-343700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>323900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-360200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1708800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>586900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>480900</v>
+        <v>-691700</v>
       </c>
       <c r="E27" s="3">
-        <v>313400</v>
+        <v>472900</v>
       </c>
       <c r="F27" s="3">
-        <v>834900</v>
+        <v>308200</v>
       </c>
       <c r="G27" s="3">
-        <v>-739300</v>
+        <v>821100</v>
       </c>
       <c r="H27" s="3">
-        <v>-262000</v>
+        <v>-727000</v>
       </c>
       <c r="I27" s="3">
-        <v>-513200</v>
+        <v>-257600</v>
       </c>
       <c r="J27" s="3">
+        <v>-504700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-62200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-397500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-87500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-379900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-561000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>85300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1761500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>190200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,64 +1874,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>204600</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>23900</v>
+        <v>201200</v>
       </c>
       <c r="F29" s="3">
-        <v>35900</v>
+        <v>23500</v>
       </c>
       <c r="G29" s="3">
-        <v>29900</v>
+        <v>35300</v>
       </c>
       <c r="H29" s="3">
-        <v>10143800</v>
+        <v>29400</v>
       </c>
       <c r="I29" s="3">
-        <v>356500</v>
+        <v>9975900</v>
       </c>
       <c r="J29" s="3">
+        <v>350600</v>
+      </c>
+      <c r="K29" s="3">
         <v>1211800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>870600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-163900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-123000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>714800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>203100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-590200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>171700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>920300</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58600</v>
+        <v>-63500</v>
       </c>
       <c r="E32" s="3">
-        <v>-267900</v>
+        <v>-57600</v>
       </c>
       <c r="F32" s="3">
-        <v>204600</v>
+        <v>-263500</v>
       </c>
       <c r="G32" s="3">
-        <v>587300</v>
+        <v>201200</v>
       </c>
       <c r="H32" s="3">
-        <v>-102900</v>
+        <v>577600</v>
       </c>
       <c r="I32" s="3">
-        <v>-12000</v>
+        <v>-101200</v>
       </c>
       <c r="J32" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>67400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-33200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>124500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-123400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-563200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>628000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>685400</v>
+        <v>-691700</v>
       </c>
       <c r="E33" s="3">
-        <v>337300</v>
+        <v>674100</v>
       </c>
       <c r="F33" s="3">
-        <v>870800</v>
+        <v>331700</v>
       </c>
       <c r="G33" s="3">
-        <v>-709300</v>
+        <v>856400</v>
       </c>
       <c r="H33" s="3">
-        <v>9881800</v>
+        <v>-697600</v>
       </c>
       <c r="I33" s="3">
-        <v>-156700</v>
+        <v>9718200</v>
       </c>
       <c r="J33" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1149500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>473200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-251400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-502900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>680800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-357900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-504900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1933200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1110400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>685400</v>
+        <v>-691700</v>
       </c>
       <c r="E35" s="3">
-        <v>337300</v>
+        <v>674100</v>
       </c>
       <c r="F35" s="3">
-        <v>870800</v>
+        <v>331700</v>
       </c>
       <c r="G35" s="3">
-        <v>-709300</v>
+        <v>856400</v>
       </c>
       <c r="H35" s="3">
-        <v>9881800</v>
+        <v>-697600</v>
       </c>
       <c r="I35" s="3">
-        <v>-156700</v>
+        <v>9718200</v>
       </c>
       <c r="J35" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1149500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>473200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-251400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-502900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>680800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-357900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-504900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1933200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1110400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4898400</v>
+        <v>5616100</v>
       </c>
       <c r="E41" s="3">
-        <v>4044400</v>
+        <v>4817400</v>
       </c>
       <c r="F41" s="3">
-        <v>3341000</v>
+        <v>3977400</v>
       </c>
       <c r="G41" s="3">
-        <v>3818300</v>
+        <v>3285700</v>
       </c>
       <c r="H41" s="3">
-        <v>6628100</v>
+        <v>3755100</v>
       </c>
       <c r="I41" s="3">
-        <v>3905600</v>
+        <v>6518400</v>
       </c>
       <c r="J41" s="3">
+        <v>3840900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5244100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4167400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5114900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3571800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4270100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4412800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6093500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12234200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4338400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5371400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4359000</v>
+        <v>4963200</v>
       </c>
       <c r="E42" s="3">
-        <v>2757200</v>
+        <v>4286800</v>
       </c>
       <c r="F42" s="3">
-        <v>2233300</v>
+        <v>2711600</v>
       </c>
       <c r="G42" s="3">
-        <v>3897200</v>
+        <v>2196300</v>
       </c>
       <c r="H42" s="3">
-        <v>3647200</v>
+        <v>3832700</v>
       </c>
       <c r="I42" s="3">
-        <v>2863700</v>
+        <v>3586800</v>
       </c>
       <c r="J42" s="3">
+        <v>2816300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2589800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4269100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3179900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3624500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5669000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5489900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5192600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5685100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12002200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11532700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2711800</v>
+        <v>6725500</v>
       </c>
       <c r="E43" s="3">
-        <v>2830200</v>
+        <v>2666900</v>
       </c>
       <c r="F43" s="3">
-        <v>3914000</v>
+        <v>2783400</v>
       </c>
       <c r="G43" s="3">
-        <v>7387700</v>
+        <v>3849200</v>
       </c>
       <c r="H43" s="3">
-        <v>3171100</v>
+        <v>7265400</v>
       </c>
       <c r="I43" s="3">
-        <v>1813400</v>
+        <v>3118600</v>
       </c>
       <c r="J43" s="3">
+        <v>1783400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2140000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5732300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1710100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1536100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7641000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8521500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4906500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5880300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7654400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7869200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2008400</v>
+        <v>1919900</v>
       </c>
       <c r="E44" s="3">
-        <v>1388800</v>
+        <v>1975200</v>
       </c>
       <c r="F44" s="3">
-        <v>1274000</v>
+        <v>1365800</v>
       </c>
       <c r="G44" s="3">
-        <v>1896000</v>
+        <v>1252900</v>
       </c>
       <c r="H44" s="3">
-        <v>1789500</v>
+        <v>1864600</v>
       </c>
       <c r="I44" s="3">
-        <v>1477300</v>
+        <v>1759900</v>
       </c>
       <c r="J44" s="3">
+        <v>1452900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1410300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1929300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2056800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1553700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1437300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2158700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2521100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2024100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1935600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2310100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12500300</v>
+        <v>12781600</v>
       </c>
       <c r="E45" s="3">
-        <v>20650000</v>
+        <v>12293400</v>
       </c>
       <c r="F45" s="3">
-        <v>27427700</v>
+        <v>20308200</v>
       </c>
       <c r="G45" s="3">
-        <v>19839000</v>
+        <v>26973700</v>
       </c>
       <c r="H45" s="3">
-        <v>14630700</v>
+        <v>16504900</v>
       </c>
       <c r="I45" s="3">
-        <v>65574500</v>
+        <v>14388500</v>
       </c>
       <c r="J45" s="3">
+        <v>64489100</v>
+      </c>
+      <c r="K45" s="3">
         <v>64420200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>56665600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60091700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52903800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9127700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5632400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7180700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8292600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9004300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8707300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26477900</v>
+        <v>32006300</v>
       </c>
       <c r="E46" s="3">
-        <v>31670600</v>
+        <v>26039600</v>
       </c>
       <c r="F46" s="3">
-        <v>38189900</v>
+        <v>31146400</v>
       </c>
       <c r="G46" s="3">
-        <v>33781900</v>
+        <v>37557700</v>
       </c>
       <c r="H46" s="3">
-        <v>29866700</v>
+        <v>33222700</v>
       </c>
       <c r="I46" s="3">
-        <v>75634500</v>
+        <v>29372400</v>
       </c>
       <c r="J46" s="3">
+        <v>74382600</v>
+      </c>
+      <c r="K46" s="3">
         <v>75804400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>72763700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72153500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63189900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28145000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26215300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25894400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34116300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34934900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35790600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9149700</v>
+        <v>9192400</v>
       </c>
       <c r="E47" s="3">
-        <v>9149700</v>
+        <v>8998300</v>
       </c>
       <c r="F47" s="3">
-        <v>8972700</v>
+        <v>8998300</v>
       </c>
       <c r="G47" s="3">
-        <v>9530100</v>
+        <v>8824200</v>
       </c>
       <c r="H47" s="3">
-        <v>9015800</v>
+        <v>9423000</v>
       </c>
       <c r="I47" s="3">
-        <v>2296700</v>
+        <v>8866500</v>
       </c>
       <c r="J47" s="3">
+        <v>2258700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2259600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2629600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2008100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1944600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4478700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5105100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4516000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4481200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4690500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5381900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23036400</v>
+        <v>21059900</v>
       </c>
       <c r="E48" s="3">
-        <v>22831900</v>
+        <v>22655100</v>
       </c>
       <c r="F48" s="3">
-        <v>23083100</v>
+        <v>22453900</v>
       </c>
       <c r="G48" s="3">
-        <v>22684700</v>
+        <v>22701000</v>
       </c>
       <c r="H48" s="3">
-        <v>23254100</v>
+        <v>22370400</v>
       </c>
       <c r="I48" s="3">
-        <v>15570900</v>
+        <v>22869200</v>
       </c>
       <c r="J48" s="3">
+        <v>15313200</v>
+      </c>
+      <c r="K48" s="3">
         <v>15536200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14678600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13499400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13162800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27510400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27990300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27179100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27115100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29009500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28779500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5414000</v>
+        <v>5779700</v>
       </c>
       <c r="E49" s="3">
-        <v>5542000</v>
+        <v>5324400</v>
       </c>
       <c r="F49" s="3">
-        <v>5620900</v>
+        <v>5450300</v>
       </c>
       <c r="G49" s="3">
-        <v>5815900</v>
+        <v>5527900</v>
       </c>
       <c r="H49" s="3">
-        <v>5439100</v>
+        <v>5619700</v>
       </c>
       <c r="I49" s="3">
-        <v>2606500</v>
+        <v>5349100</v>
       </c>
       <c r="J49" s="3">
+        <v>2563400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2648400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2594100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2426800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2328900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13676700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13893600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13744400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14279600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14989600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14964900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5062300</v>
+        <v>4508000</v>
       </c>
       <c r="E52" s="3">
-        <v>5208300</v>
+        <v>4978500</v>
       </c>
       <c r="F52" s="3">
-        <v>6121000</v>
+        <v>5122000</v>
       </c>
       <c r="G52" s="3">
-        <v>5233400</v>
+        <v>6019600</v>
       </c>
       <c r="H52" s="3">
-        <v>2402000</v>
+        <v>4664400</v>
       </c>
       <c r="I52" s="3">
-        <v>2573000</v>
+        <v>2362200</v>
       </c>
       <c r="J52" s="3">
+        <v>2530400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2464200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2093700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2389100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2775700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4765300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4279300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4656300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4650600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5197600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4764500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69140400</v>
+        <v>72546200</v>
       </c>
       <c r="E54" s="3">
-        <v>74402400</v>
+        <v>67995900</v>
       </c>
       <c r="F54" s="3">
-        <v>81987500</v>
+        <v>73170900</v>
       </c>
       <c r="G54" s="3">
-        <v>76577100</v>
+        <v>80630500</v>
       </c>
       <c r="H54" s="3">
-        <v>69977700</v>
+        <v>75300200</v>
       </c>
       <c r="I54" s="3">
-        <v>98681700</v>
+        <v>68819400</v>
       </c>
       <c r="J54" s="3">
+        <v>97048300</v>
+      </c>
+      <c r="K54" s="3">
         <v>98712800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>94759800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92476800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83401900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78576200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>77483500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75990100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84642900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>88822200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89681400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2329000</v>
+        <v>2808100</v>
       </c>
       <c r="E57" s="3">
-        <v>2515600</v>
+        <v>2290500</v>
       </c>
       <c r="F57" s="3">
-        <v>2734500</v>
+        <v>2474000</v>
       </c>
       <c r="G57" s="3">
-        <v>3573000</v>
+        <v>2689300</v>
       </c>
       <c r="H57" s="3">
-        <v>2857700</v>
+        <v>3513900</v>
       </c>
       <c r="I57" s="3">
-        <v>2754800</v>
+        <v>2810400</v>
       </c>
       <c r="J57" s="3">
+        <v>2709200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3045500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2873300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2291600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2299200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5138600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5696300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4651800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4757200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5730500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6375000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1704600</v>
+        <v>1467000</v>
       </c>
       <c r="E58" s="3">
-        <v>2631600</v>
+        <v>1676400</v>
       </c>
       <c r="F58" s="3">
-        <v>3149600</v>
+        <v>2588100</v>
       </c>
       <c r="G58" s="3">
-        <v>2020400</v>
+        <v>3097500</v>
       </c>
       <c r="H58" s="3">
-        <v>4940300</v>
+        <v>1986900</v>
       </c>
       <c r="I58" s="3">
-        <v>2617300</v>
+        <v>4858500</v>
       </c>
       <c r="J58" s="3">
+        <v>2574000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4241700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>906100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1031200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>729100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3687100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3127000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5084900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3852900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4299700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2514300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11253800</v>
+        <v>15037900</v>
       </c>
       <c r="E59" s="3">
-        <v>16950200</v>
+        <v>11067600</v>
       </c>
       <c r="F59" s="3">
-        <v>22859400</v>
+        <v>16669600</v>
       </c>
       <c r="G59" s="3">
-        <v>18090100</v>
+        <v>22481000</v>
       </c>
       <c r="H59" s="3">
-        <v>14809000</v>
+        <v>17562500</v>
       </c>
       <c r="I59" s="3">
-        <v>54964200</v>
+        <v>14563800</v>
       </c>
       <c r="J59" s="3">
+        <v>54054400</v>
+      </c>
+      <c r="K59" s="3">
         <v>53331400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50449500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51325100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46528800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13774400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13946300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13215900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21579200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22555900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>24876600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15287400</v>
+        <v>19313000</v>
       </c>
       <c r="E60" s="3">
-        <v>22097400</v>
+        <v>15034400</v>
       </c>
       <c r="F60" s="3">
-        <v>28743500</v>
+        <v>21731600</v>
       </c>
       <c r="G60" s="3">
-        <v>23452700</v>
+        <v>28267700</v>
       </c>
       <c r="H60" s="3">
-        <v>22607000</v>
+        <v>23063300</v>
       </c>
       <c r="I60" s="3">
-        <v>60336300</v>
+        <v>22232800</v>
       </c>
       <c r="J60" s="3">
+        <v>59337600</v>
+      </c>
+      <c r="K60" s="3">
         <v>60618600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54228900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54647900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49557100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22600100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22769700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22952500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30189400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32586100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33765800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4418800</v>
+        <v>4648000</v>
       </c>
       <c r="E61" s="3">
-        <v>4965400</v>
+        <v>4345600</v>
       </c>
       <c r="F61" s="3">
-        <v>4893700</v>
+        <v>4883200</v>
       </c>
       <c r="G61" s="3">
-        <v>4693900</v>
+        <v>4812700</v>
       </c>
       <c r="H61" s="3">
-        <v>4460600</v>
+        <v>4616200</v>
       </c>
       <c r="I61" s="3">
-        <v>3030000</v>
+        <v>4386800</v>
       </c>
       <c r="J61" s="3">
+        <v>2979800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2892400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2363400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2158700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1731500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15890300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16172400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15289400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17165300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18529800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18829100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27800900</v>
+        <v>27444200</v>
       </c>
       <c r="E62" s="3">
-        <v>27577200</v>
+        <v>27340700</v>
       </c>
       <c r="F62" s="3">
-        <v>27714800</v>
+        <v>27120700</v>
       </c>
       <c r="G62" s="3">
-        <v>28784200</v>
+        <v>27256000</v>
       </c>
       <c r="H62" s="3">
-        <v>23732600</v>
+        <v>27072500</v>
       </c>
       <c r="I62" s="3">
-        <v>20787600</v>
+        <v>23339800</v>
       </c>
       <c r="J62" s="3">
+        <v>20443500</v>
+      </c>
+      <c r="K62" s="3">
         <v>20194200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21302800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18493600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18421100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24908100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25087700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25078700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25138200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26906100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27707800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47779800</v>
+        <v>52333300</v>
       </c>
       <c r="E66" s="3">
-        <v>55175900</v>
+        <v>46988900</v>
       </c>
       <c r="F66" s="3">
-        <v>61957200</v>
+        <v>54262600</v>
       </c>
       <c r="G66" s="3">
-        <v>56276400</v>
+        <v>60931600</v>
       </c>
       <c r="H66" s="3">
-        <v>51348100</v>
+        <v>55343700</v>
       </c>
       <c r="I66" s="3">
-        <v>89597800</v>
+        <v>50498100</v>
       </c>
       <c r="J66" s="3">
+        <v>88114700</v>
+      </c>
+      <c r="K66" s="3">
         <v>89793900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84425900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>81244700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75294300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69468300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69900000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68985600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78183600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>84445100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86448800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>10111200</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
-        <v>10895000</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>10714700</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>10655700</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>10479400</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>1368500</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>1345800</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1347300</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1371400</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2655800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2728700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3031600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>932000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-765300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21360500</v>
+        <v>20212900</v>
       </c>
       <c r="E76" s="3">
-        <v>19226500</v>
+        <v>21007000</v>
       </c>
       <c r="F76" s="3">
-        <v>20030400</v>
+        <v>18908300</v>
       </c>
       <c r="G76" s="3">
-        <v>20300700</v>
+        <v>19698800</v>
       </c>
       <c r="H76" s="3">
-        <v>18629600</v>
+        <v>19956400</v>
       </c>
       <c r="I76" s="3">
-        <v>9083900</v>
+        <v>18321300</v>
       </c>
       <c r="J76" s="3">
+        <v>8933600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8918900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10333800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11232200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8107600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9107900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7583500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7004600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6459300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4377100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3232700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>685400</v>
+        <v>-691700</v>
       </c>
       <c r="E81" s="3">
-        <v>337300</v>
+        <v>674100</v>
       </c>
       <c r="F81" s="3">
-        <v>870800</v>
+        <v>331700</v>
       </c>
       <c r="G81" s="3">
-        <v>-709300</v>
+        <v>856400</v>
       </c>
       <c r="H81" s="3">
-        <v>9881800</v>
+        <v>-697600</v>
       </c>
       <c r="I81" s="3">
-        <v>-156700</v>
+        <v>9718200</v>
       </c>
       <c r="J81" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1149500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>473200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-251400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-502900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>680800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-357900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-504900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1933200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1110400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>467700</v>
+        <v>2478700</v>
       </c>
       <c r="E83" s="3">
-        <v>451000</v>
+        <v>460000</v>
       </c>
       <c r="F83" s="3">
-        <v>363600</v>
+        <v>443500</v>
       </c>
       <c r="G83" s="3">
-        <v>1977300</v>
+        <v>357600</v>
       </c>
       <c r="H83" s="3">
-        <v>704600</v>
+        <v>1944600</v>
       </c>
       <c r="I83" s="3">
-        <v>307400</v>
+        <v>692900</v>
       </c>
       <c r="J83" s="3">
+        <v>302300</v>
+      </c>
+      <c r="K83" s="3">
         <v>305000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>275600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>265800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>522600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>741600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1098400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>918900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>145600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5558000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>757200</v>
+        <v>2772800</v>
       </c>
       <c r="E89" s="3">
-        <v>2868500</v>
+        <v>744700</v>
       </c>
       <c r="F89" s="3">
-        <v>-1451000</v>
+        <v>2821000</v>
       </c>
       <c r="G89" s="3">
-        <v>586100</v>
+        <v>-1427000</v>
       </c>
       <c r="H89" s="3">
-        <v>-369600</v>
+        <v>576400</v>
       </c>
       <c r="I89" s="3">
-        <v>1616100</v>
+        <v>-363500</v>
       </c>
       <c r="J89" s="3">
+        <v>1589300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2073600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3429100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1575600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>399700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1298100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3194300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2047100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>-535900</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
-        <v>-708200</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+        <v>-527000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-696400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>-437800</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
+        <v>-430600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-232100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>764200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-417200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>336600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-232300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>52700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-419100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2299100</v>
+        <v>-2724500</v>
       </c>
       <c r="E94" s="3">
-        <v>-771500</v>
+        <v>-2261000</v>
       </c>
       <c r="F94" s="3">
-        <v>632800</v>
+        <v>-758800</v>
       </c>
       <c r="G94" s="3">
-        <v>-631600</v>
+        <v>622300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1793100</v>
+        <v>-621100</v>
       </c>
       <c r="I94" s="3">
-        <v>-656700</v>
+        <v>-1763400</v>
       </c>
       <c r="J94" s="3">
+        <v>-645800</v>
+      </c>
+      <c r="K94" s="3">
         <v>2209400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-995700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-905900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>31400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5607700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-819300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2320600</v>
+        <v>763500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1312200</v>
+        <v>2282200</v>
       </c>
       <c r="F100" s="3">
-        <v>338500</v>
+        <v>-1290500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1907900</v>
+        <v>332900</v>
       </c>
       <c r="H100" s="3">
-        <v>3202200</v>
+        <v>-1876400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2793100</v>
+        <v>3149200</v>
       </c>
       <c r="J100" s="3">
+        <v>-2746900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1766800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-399800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-141600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>407400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-976100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-669800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1103400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4138900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68200</v>
+        <v>-12900</v>
       </c>
       <c r="E101" s="3">
-        <v>-83700</v>
+        <v>67100</v>
       </c>
       <c r="F101" s="3">
-        <v>-12000</v>
+        <v>-82300</v>
       </c>
       <c r="G101" s="3">
-        <v>-839700</v>
+        <v>-11800</v>
       </c>
       <c r="H101" s="3">
-        <v>848100</v>
+        <v>-825800</v>
       </c>
       <c r="I101" s="3">
-        <v>-8400</v>
+        <v>834100</v>
       </c>
       <c r="J101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K101" s="3">
         <v>17900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>23100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-28000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>846900</v>
+        <v>798800</v>
       </c>
       <c r="E102" s="3">
-        <v>701000</v>
+        <v>832900</v>
       </c>
       <c r="F102" s="3">
-        <v>-491600</v>
+        <v>689400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2793100</v>
+        <v>-483500</v>
       </c>
       <c r="H102" s="3">
-        <v>1887600</v>
+        <v>-2746900</v>
       </c>
       <c r="I102" s="3">
-        <v>-1842100</v>
+        <v>1856400</v>
       </c>
       <c r="J102" s="3">
+        <v>-1811700</v>
+      </c>
+      <c r="K102" s="3">
         <v>339700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-852900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2023600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>252500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-75800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8128800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1918000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5053800</v>
+        <v>5766000</v>
       </c>
       <c r="E8" s="3">
-        <v>3431600</v>
+        <v>5262600</v>
       </c>
       <c r="F8" s="3">
-        <v>3143300</v>
+        <v>3573300</v>
       </c>
       <c r="G8" s="3">
-        <v>4473800</v>
+        <v>3273200</v>
       </c>
       <c r="H8" s="3">
-        <v>4726800</v>
+        <v>4658600</v>
       </c>
       <c r="I8" s="3">
-        <v>2519800</v>
+        <v>4922000</v>
       </c>
       <c r="J8" s="3">
+        <v>2623900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3205700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4445100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4369600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3350500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3296200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4046100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3904500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3293000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3504000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5028600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13997700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5355000</v>
+        <v>4363400</v>
       </c>
       <c r="E9" s="3">
-        <v>1899900</v>
+        <v>5576200</v>
       </c>
       <c r="F9" s="3">
-        <v>1862200</v>
+        <v>1978400</v>
       </c>
       <c r="G9" s="3">
-        <v>2428100</v>
+        <v>1939200</v>
       </c>
       <c r="H9" s="3">
-        <v>2365700</v>
+        <v>2528400</v>
       </c>
       <c r="I9" s="3">
-        <v>1821100</v>
+        <v>2463500</v>
       </c>
       <c r="J9" s="3">
+        <v>1896300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2939800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3189100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3025900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2628300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2809800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2753800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2897000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2447100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2564900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3498000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10903500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-301200</v>
+        <v>1402600</v>
       </c>
       <c r="E10" s="3">
-        <v>1531700</v>
+        <v>-313600</v>
       </c>
       <c r="F10" s="3">
-        <v>1281100</v>
+        <v>1594900</v>
       </c>
       <c r="G10" s="3">
-        <v>2045800</v>
+        <v>1334000</v>
       </c>
       <c r="H10" s="3">
-        <v>2361000</v>
+        <v>2130300</v>
       </c>
       <c r="I10" s="3">
-        <v>698800</v>
+        <v>2458600</v>
       </c>
       <c r="J10" s="3">
+        <v>727600</v>
+      </c>
+      <c r="K10" s="3">
         <v>265900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1256000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1343800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>722200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>486400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1292300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1007500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>846000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>939100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1530600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3094200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,11 +1116,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>55600</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1108,17 +1128,17 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>80800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>337700</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2390400</v>
+        <v>436100</v>
       </c>
       <c r="E15" s="3">
-        <v>455300</v>
+        <v>2489200</v>
       </c>
       <c r="F15" s="3">
-        <v>443500</v>
+        <v>474100</v>
       </c>
       <c r="G15" s="3">
-        <v>421200</v>
+        <v>461800</v>
       </c>
       <c r="H15" s="3">
-        <v>2442200</v>
+        <v>438500</v>
       </c>
       <c r="I15" s="3">
-        <v>678800</v>
+        <v>2543100</v>
       </c>
       <c r="J15" s="3">
+        <v>706800</v>
+      </c>
+      <c r="K15" s="3">
         <v>304700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>303800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>592600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>259200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>251400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>230600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>967200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1348600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1171400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>304000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5561500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5882000</v>
+        <v>5227000</v>
       </c>
       <c r="E17" s="3">
-        <v>2868100</v>
+        <v>6125000</v>
       </c>
       <c r="F17" s="3">
-        <v>2801000</v>
+        <v>2986500</v>
       </c>
       <c r="G17" s="3">
-        <v>2979800</v>
+        <v>2916700</v>
       </c>
       <c r="H17" s="3">
-        <v>4644400</v>
+        <v>3089400</v>
       </c>
       <c r="I17" s="3">
-        <v>2768100</v>
+        <v>4836300</v>
       </c>
       <c r="J17" s="3">
+        <v>2882400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3750400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3893600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4141300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3454600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3542100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3591600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4027900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3326700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1837800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4304400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20440700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-828200</v>
+        <v>539000</v>
       </c>
       <c r="E18" s="3">
-        <v>563500</v>
+        <v>-862400</v>
       </c>
       <c r="F18" s="3">
-        <v>342300</v>
+        <v>586800</v>
       </c>
       <c r="G18" s="3">
-        <v>1494000</v>
+        <v>356500</v>
       </c>
       <c r="H18" s="3">
-        <v>82300</v>
+        <v>1569200</v>
       </c>
       <c r="I18" s="3">
-        <v>-248200</v>
+        <v>85700</v>
       </c>
       <c r="J18" s="3">
+        <v>-258500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-544700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>551400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>228300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-104100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-246000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>454600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-123400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-33700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1666200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>724200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>63500</v>
+        <v>336900</v>
       </c>
       <c r="E20" s="3">
-        <v>57600</v>
+        <v>66100</v>
       </c>
       <c r="F20" s="3">
-        <v>263500</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="3">
-        <v>-201200</v>
+        <v>274400</v>
       </c>
       <c r="H20" s="3">
-        <v>-577600</v>
+        <v>-207000</v>
       </c>
       <c r="I20" s="3">
-        <v>101200</v>
+        <v>-601500</v>
       </c>
       <c r="J20" s="3">
+        <v>105300</v>
+      </c>
+      <c r="K20" s="3">
         <v>11800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-67400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>33200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-124500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>123400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>563200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-628000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1714000</v>
+        <v>1312000</v>
       </c>
       <c r="E21" s="3">
-        <v>1081100</v>
+        <v>1784800</v>
       </c>
       <c r="F21" s="3">
-        <v>1049300</v>
+        <v>1125800</v>
       </c>
       <c r="G21" s="3">
-        <v>1650500</v>
+        <v>1092700</v>
       </c>
       <c r="H21" s="3">
-        <v>1449300</v>
+        <v>1734600</v>
       </c>
       <c r="I21" s="3">
-        <v>545800</v>
+        <v>1509200</v>
       </c>
       <c r="J21" s="3">
+        <v>568400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-230600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>909100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>436500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>194900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>668700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>136900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>342200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2539100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1070500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>76500</v>
+        <v>107800</v>
       </c>
       <c r="E22" s="3">
-        <v>74100</v>
+        <v>79600</v>
       </c>
       <c r="F22" s="3">
-        <v>96500</v>
+        <v>77200</v>
       </c>
       <c r="G22" s="3">
-        <v>101200</v>
+        <v>100400</v>
       </c>
       <c r="H22" s="3">
-        <v>90600</v>
+        <v>105300</v>
       </c>
       <c r="I22" s="3">
-        <v>72900</v>
+        <v>94300</v>
       </c>
       <c r="J22" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K22" s="3">
         <v>78800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>62200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>120100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>218800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>265300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>198400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-841100</v>
+        <v>768100</v>
       </c>
       <c r="E23" s="3">
-        <v>547000</v>
+        <v>-875900</v>
       </c>
       <c r="F23" s="3">
-        <v>509400</v>
+        <v>569600</v>
       </c>
       <c r="G23" s="3">
-        <v>1191700</v>
+        <v>530400</v>
       </c>
       <c r="H23" s="3">
-        <v>-585800</v>
+        <v>1256800</v>
       </c>
       <c r="I23" s="3">
-        <v>-220000</v>
+        <v>-610000</v>
       </c>
       <c r="J23" s="3">
+        <v>-229100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-611700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>541900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>107600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-121800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-316200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>390900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-304100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2010600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>659700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-161200</v>
+        <v>-346700</v>
       </c>
       <c r="E24" s="3">
-        <v>60000</v>
+        <v>-167800</v>
       </c>
       <c r="F24" s="3">
-        <v>187000</v>
+        <v>62500</v>
       </c>
       <c r="G24" s="3">
-        <v>341200</v>
+        <v>194800</v>
       </c>
       <c r="H24" s="3">
-        <v>121200</v>
+        <v>383400</v>
       </c>
       <c r="I24" s="3">
-        <v>-51800</v>
+        <v>126200</v>
       </c>
       <c r="J24" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-269400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>127800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>56100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-53900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>301800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-529400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-680000</v>
+        <v>1114700</v>
       </c>
       <c r="E26" s="3">
-        <v>487000</v>
+        <v>-708000</v>
       </c>
       <c r="F26" s="3">
-        <v>322300</v>
+        <v>507100</v>
       </c>
       <c r="G26" s="3">
-        <v>850500</v>
+        <v>335600</v>
       </c>
       <c r="H26" s="3">
-        <v>-707000</v>
+        <v>873400</v>
       </c>
       <c r="I26" s="3">
-        <v>-168200</v>
+        <v>-736200</v>
       </c>
       <c r="J26" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-342300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>448600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-343700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>323900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-360200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1708800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>586900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-691700</v>
+        <v>1096400</v>
       </c>
       <c r="E27" s="3">
-        <v>472900</v>
+        <v>-720300</v>
       </c>
       <c r="F27" s="3">
-        <v>308200</v>
+        <v>492400</v>
       </c>
       <c r="G27" s="3">
-        <v>821100</v>
+        <v>320900</v>
       </c>
       <c r="H27" s="3">
-        <v>-727000</v>
+        <v>841600</v>
       </c>
       <c r="I27" s="3">
-        <v>-257600</v>
+        <v>-757000</v>
       </c>
       <c r="J27" s="3">
+        <v>-268300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-504700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-62200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-397500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-87500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-379900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-561000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1761500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>190200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1886,58 +1947,61 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>201200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>23500</v>
+        <v>209500</v>
       </c>
       <c r="G29" s="3">
-        <v>35300</v>
+        <v>24500</v>
       </c>
       <c r="H29" s="3">
-        <v>29400</v>
+        <v>36700</v>
       </c>
       <c r="I29" s="3">
-        <v>9975900</v>
+        <v>30600</v>
       </c>
       <c r="J29" s="3">
+        <v>10387900</v>
+      </c>
+      <c r="K29" s="3">
         <v>350600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1211800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>870600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-163900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-123000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>714800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>203100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-590200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>171700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>920300</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-63500</v>
+        <v>-336900</v>
       </c>
       <c r="E32" s="3">
-        <v>-57600</v>
+        <v>-66100</v>
       </c>
       <c r="F32" s="3">
-        <v>-263500</v>
+        <v>-60000</v>
       </c>
       <c r="G32" s="3">
-        <v>201200</v>
+        <v>-274400</v>
       </c>
       <c r="H32" s="3">
-        <v>577600</v>
+        <v>207000</v>
       </c>
       <c r="I32" s="3">
-        <v>-101200</v>
+        <v>601500</v>
       </c>
       <c r="J32" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>67400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-33200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>124500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-123400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-563200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>628000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-691700</v>
+        <v>1096400</v>
       </c>
       <c r="E33" s="3">
-        <v>674100</v>
+        <v>-720300</v>
       </c>
       <c r="F33" s="3">
-        <v>331700</v>
+        <v>701900</v>
       </c>
       <c r="G33" s="3">
-        <v>856400</v>
+        <v>345400</v>
       </c>
       <c r="H33" s="3">
-        <v>-697600</v>
+        <v>878300</v>
       </c>
       <c r="I33" s="3">
-        <v>9718200</v>
+        <v>-726400</v>
       </c>
       <c r="J33" s="3">
+        <v>10119600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-154100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1149500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>473200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-251400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-502900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>680800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-357900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-504900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1933200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1110400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-691700</v>
+        <v>1096400</v>
       </c>
       <c r="E35" s="3">
-        <v>674100</v>
+        <v>-720300</v>
       </c>
       <c r="F35" s="3">
-        <v>331700</v>
+        <v>701900</v>
       </c>
       <c r="G35" s="3">
-        <v>856400</v>
+        <v>345400</v>
       </c>
       <c r="H35" s="3">
-        <v>-697600</v>
+        <v>878300</v>
       </c>
       <c r="I35" s="3">
-        <v>9718200</v>
+        <v>-726400</v>
       </c>
       <c r="J35" s="3">
+        <v>10119600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-154100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1149500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>473200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-251400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-502900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>680800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-357900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-504900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1933200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1110400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5616100</v>
+        <v>7765200</v>
       </c>
       <c r="E41" s="3">
-        <v>4817400</v>
+        <v>5848100</v>
       </c>
       <c r="F41" s="3">
-        <v>3977400</v>
+        <v>5016300</v>
       </c>
       <c r="G41" s="3">
-        <v>3285700</v>
+        <v>4141700</v>
       </c>
       <c r="H41" s="3">
-        <v>3755100</v>
+        <v>3910200</v>
       </c>
       <c r="I41" s="3">
-        <v>6518400</v>
+        <v>3910200</v>
       </c>
       <c r="J41" s="3">
+        <v>6787700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3840900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5244100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4167400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5114900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3571800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4270100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4412800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6093500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12234200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4338400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5371400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4963200</v>
+        <v>3449600</v>
       </c>
       <c r="E42" s="3">
-        <v>4286800</v>
+        <v>5168200</v>
       </c>
       <c r="F42" s="3">
-        <v>2711600</v>
+        <v>4463900</v>
       </c>
       <c r="G42" s="3">
-        <v>2196300</v>
+        <v>2823600</v>
       </c>
       <c r="H42" s="3">
-        <v>3832700</v>
+        <v>3991000</v>
       </c>
       <c r="I42" s="3">
-        <v>3586800</v>
+        <v>3991000</v>
       </c>
       <c r="J42" s="3">
+        <v>3735000</v>
+      </c>
+      <c r="K42" s="3">
         <v>2816300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2589800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4269100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3179900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3624500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5669000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5489900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5192600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5685100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12002200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11532700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6725500</v>
+        <v>3992200</v>
       </c>
       <c r="E43" s="3">
-        <v>2666900</v>
+        <v>7003300</v>
       </c>
       <c r="F43" s="3">
-        <v>2783400</v>
+        <v>2777100</v>
       </c>
       <c r="G43" s="3">
-        <v>3849200</v>
+        <v>2898300</v>
       </c>
       <c r="H43" s="3">
-        <v>7265400</v>
+        <v>4435700</v>
       </c>
       <c r="I43" s="3">
-        <v>3118600</v>
+        <v>7565500</v>
       </c>
       <c r="J43" s="3">
+        <v>3247400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1783400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2140000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5732300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1710100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1536100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7641000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8521500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4906500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5880300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7654400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7869200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1919900</v>
+        <v>1222500</v>
       </c>
       <c r="E44" s="3">
-        <v>1975200</v>
+        <v>1999200</v>
       </c>
       <c r="F44" s="3">
-        <v>1365800</v>
+        <v>2056800</v>
       </c>
       <c r="G44" s="3">
-        <v>1252900</v>
+        <v>1422200</v>
       </c>
       <c r="H44" s="3">
-        <v>1864600</v>
+        <v>1941600</v>
       </c>
       <c r="I44" s="3">
-        <v>1759900</v>
+        <v>1941600</v>
       </c>
       <c r="J44" s="3">
+        <v>1832600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1452900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1410300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1929300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2056800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1553700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1437300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2158700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2521100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2024100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1935600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2310100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12781600</v>
+        <v>18632100</v>
       </c>
       <c r="E45" s="3">
-        <v>12293400</v>
+        <v>16650100</v>
       </c>
       <c r="F45" s="3">
-        <v>20308200</v>
+        <v>12801100</v>
       </c>
       <c r="G45" s="3">
-        <v>26973700</v>
+        <v>21147000</v>
       </c>
       <c r="H45" s="3">
-        <v>16504900</v>
+        <v>20315200</v>
       </c>
       <c r="I45" s="3">
-        <v>14388500</v>
+        <v>17186600</v>
       </c>
       <c r="J45" s="3">
+        <v>14982900</v>
+      </c>
+      <c r="K45" s="3">
         <v>64489100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>64420200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>56665600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60091700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52903800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9127700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5632400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7180700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8292600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9004300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8707300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32006300</v>
+        <v>35061700</v>
       </c>
       <c r="E46" s="3">
-        <v>26039600</v>
+        <v>33349100</v>
       </c>
       <c r="F46" s="3">
-        <v>31146400</v>
+        <v>27115200</v>
       </c>
       <c r="G46" s="3">
-        <v>37557700</v>
+        <v>32432800</v>
       </c>
       <c r="H46" s="3">
-        <v>33222700</v>
+        <v>34593700</v>
       </c>
       <c r="I46" s="3">
-        <v>29372400</v>
+        <v>34594900</v>
       </c>
       <c r="J46" s="3">
+        <v>30585600</v>
+      </c>
+      <c r="K46" s="3">
         <v>74382600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75804400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72763700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72153500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>63189900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28145000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26215300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25894400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34116300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34934900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>35790600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9192400</v>
+        <v>9833000</v>
       </c>
       <c r="E47" s="3">
-        <v>8998300</v>
+        <v>9546300</v>
       </c>
       <c r="F47" s="3">
-        <v>8998300</v>
+        <v>9369900</v>
       </c>
       <c r="G47" s="3">
-        <v>8824200</v>
+        <v>9369900</v>
       </c>
       <c r="H47" s="3">
-        <v>9423000</v>
+        <v>9296400</v>
       </c>
       <c r="I47" s="3">
-        <v>8866500</v>
+        <v>9812200</v>
       </c>
       <c r="J47" s="3">
+        <v>9232700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2258700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2259600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2629600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2008100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1944600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4478700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5105100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4516000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4481200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4690500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5381900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21059900</v>
+        <v>23380200</v>
       </c>
       <c r="E48" s="3">
-        <v>22655100</v>
+        <v>21929800</v>
       </c>
       <c r="F48" s="3">
-        <v>22453900</v>
+        <v>23590900</v>
       </c>
       <c r="G48" s="3">
-        <v>22701000</v>
+        <v>23381400</v>
       </c>
       <c r="H48" s="3">
-        <v>22370400</v>
+        <v>23294400</v>
       </c>
       <c r="I48" s="3">
-        <v>22869200</v>
+        <v>23294400</v>
       </c>
       <c r="J48" s="3">
+        <v>23813800</v>
+      </c>
+      <c r="K48" s="3">
         <v>15313200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15536200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14678600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13499400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13162800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27510400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27990300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27179100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27115100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29009500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28779500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5779700</v>
+        <v>6138400</v>
       </c>
       <c r="E49" s="3">
-        <v>5324400</v>
+        <v>6018400</v>
       </c>
       <c r="F49" s="3">
-        <v>5450300</v>
+        <v>5544300</v>
       </c>
       <c r="G49" s="3">
-        <v>5527900</v>
+        <v>5675400</v>
       </c>
       <c r="H49" s="3">
-        <v>5619700</v>
+        <v>5851800</v>
       </c>
       <c r="I49" s="3">
-        <v>5349100</v>
+        <v>5851800</v>
       </c>
       <c r="J49" s="3">
+        <v>5570000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2563400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2648400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2594100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2426800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2328900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13676700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13893600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13744400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14279600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14989600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14964900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4508000</v>
+        <v>5098400</v>
       </c>
       <c r="E52" s="3">
-        <v>4978500</v>
+        <v>5027400</v>
       </c>
       <c r="F52" s="3">
-        <v>5122000</v>
+        <v>5184200</v>
       </c>
       <c r="G52" s="3">
-        <v>6019600</v>
+        <v>5333600</v>
       </c>
       <c r="H52" s="3">
-        <v>4664400</v>
+        <v>5326300</v>
       </c>
       <c r="I52" s="3">
-        <v>2362200</v>
+        <v>4857100</v>
       </c>
       <c r="J52" s="3">
+        <v>2459800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2530400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2464200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2093700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2389100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2775700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4765300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4279300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4656300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4650600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5197600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4764500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72546200</v>
+        <v>79511700</v>
       </c>
       <c r="E54" s="3">
-        <v>67995900</v>
+        <v>75536600</v>
       </c>
       <c r="F54" s="3">
-        <v>73170900</v>
+        <v>70804400</v>
       </c>
       <c r="G54" s="3">
-        <v>80630500</v>
+        <v>76193200</v>
       </c>
       <c r="H54" s="3">
-        <v>75300200</v>
+        <v>78362600</v>
       </c>
       <c r="I54" s="3">
-        <v>68819400</v>
+        <v>78410400</v>
       </c>
       <c r="J54" s="3">
+        <v>71661900</v>
+      </c>
+      <c r="K54" s="3">
         <v>97048300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98712800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>94759800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92476800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83401900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78576200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>77483500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>75990100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84642900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>88822200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>89681400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2808100</v>
+        <v>3263400</v>
       </c>
       <c r="E57" s="3">
-        <v>2290500</v>
+        <v>2924100</v>
       </c>
       <c r="F57" s="3">
-        <v>2474000</v>
+        <v>2385100</v>
       </c>
       <c r="G57" s="3">
-        <v>2689300</v>
+        <v>2576200</v>
       </c>
       <c r="H57" s="3">
-        <v>3513900</v>
+        <v>3659000</v>
       </c>
       <c r="I57" s="3">
-        <v>2810400</v>
+        <v>3659000</v>
       </c>
       <c r="J57" s="3">
+        <v>2926500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2709200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3045500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2873300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2291600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2299200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5138600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5696300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4651800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4757200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5730500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6375000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1467000</v>
+        <v>1565500</v>
       </c>
       <c r="E58" s="3">
-        <v>1676400</v>
+        <v>1527600</v>
       </c>
       <c r="F58" s="3">
-        <v>2588100</v>
+        <v>1745600</v>
       </c>
       <c r="G58" s="3">
-        <v>3097500</v>
+        <v>2695000</v>
       </c>
       <c r="H58" s="3">
-        <v>1986900</v>
+        <v>2069000</v>
       </c>
       <c r="I58" s="3">
-        <v>4858500</v>
+        <v>2069000</v>
       </c>
       <c r="J58" s="3">
+        <v>5059200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2574000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4241700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>906100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1031200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>729100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3687100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3127000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5084900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3852900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4299700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2514300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15037900</v>
+        <v>17871400</v>
       </c>
       <c r="E59" s="3">
-        <v>11067600</v>
+        <v>16052300</v>
       </c>
       <c r="F59" s="3">
-        <v>16669600</v>
+        <v>11524700</v>
       </c>
       <c r="G59" s="3">
-        <v>22481000</v>
+        <v>17358100</v>
       </c>
       <c r="H59" s="3">
-        <v>17562500</v>
+        <v>18341800</v>
       </c>
       <c r="I59" s="3">
-        <v>14563800</v>
+        <v>18287900</v>
       </c>
       <c r="J59" s="3">
+        <v>15165400</v>
+      </c>
+      <c r="K59" s="3">
         <v>54054400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53331400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50449500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51325100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46528800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13774400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13946300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13215900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21579200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22555900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>24876600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19313000</v>
+        <v>22700300</v>
       </c>
       <c r="E60" s="3">
-        <v>15034400</v>
+        <v>20213600</v>
       </c>
       <c r="F60" s="3">
-        <v>21731600</v>
+        <v>15655400</v>
       </c>
       <c r="G60" s="3">
-        <v>28267700</v>
+        <v>22629200</v>
       </c>
       <c r="H60" s="3">
-        <v>23063300</v>
+        <v>24069800</v>
       </c>
       <c r="I60" s="3">
-        <v>22232800</v>
+        <v>24015900</v>
       </c>
       <c r="J60" s="3">
+        <v>23151100</v>
+      </c>
+      <c r="K60" s="3">
         <v>59337600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60618600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54228900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54647900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49557100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22600100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22769700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22952500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30189400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32586100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33765800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4648000</v>
+        <v>5333600</v>
       </c>
       <c r="E61" s="3">
-        <v>4345600</v>
+        <v>4839900</v>
       </c>
       <c r="F61" s="3">
-        <v>4883200</v>
+        <v>4525100</v>
       </c>
       <c r="G61" s="3">
-        <v>4812700</v>
+        <v>5084900</v>
       </c>
       <c r="H61" s="3">
-        <v>4616200</v>
+        <v>4806900</v>
       </c>
       <c r="I61" s="3">
-        <v>4386800</v>
+        <v>4806900</v>
       </c>
       <c r="J61" s="3">
+        <v>4568000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2979800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2892400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2363400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2158700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1731500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15890300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16172400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15289400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17165300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18529800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18829100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27444200</v>
+        <v>26729300</v>
       </c>
       <c r="E62" s="3">
-        <v>27340700</v>
+        <v>29769700</v>
       </c>
       <c r="F62" s="3">
-        <v>27120700</v>
+        <v>28470000</v>
       </c>
       <c r="G62" s="3">
-        <v>27256000</v>
+        <v>28240900</v>
       </c>
       <c r="H62" s="3">
-        <v>27072500</v>
+        <v>28515300</v>
       </c>
       <c r="I62" s="3">
-        <v>23339800</v>
+        <v>28190700</v>
       </c>
       <c r="J62" s="3">
+        <v>24303800</v>
+      </c>
+      <c r="K62" s="3">
         <v>20443500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20194200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21302800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18493600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18421100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24908100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25087700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25078700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25138200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26906100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27707800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52333300</v>
+        <v>55790900</v>
       </c>
       <c r="E66" s="3">
-        <v>46988900</v>
+        <v>54814600</v>
       </c>
       <c r="F66" s="3">
-        <v>54262600</v>
+        <v>48929800</v>
       </c>
       <c r="G66" s="3">
-        <v>60931600</v>
+        <v>56503900</v>
       </c>
       <c r="H66" s="3">
-        <v>55343700</v>
+        <v>58007000</v>
       </c>
       <c r="I66" s="3">
-        <v>50498100</v>
+        <v>57629700</v>
       </c>
       <c r="J66" s="3">
+        <v>52583900</v>
+      </c>
+      <c r="K66" s="3">
         <v>88114700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89793900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84425900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81244700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>75294300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69468300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69900000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68985600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78183600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>84445100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86448800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>10111200</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>10714700</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>10528800</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>10479400</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>11157200</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>10912200</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>1345800</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1347300</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1371400</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2655800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2728700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3031600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>932000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-765300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20212900</v>
+        <v>23720700</v>
       </c>
       <c r="E76" s="3">
-        <v>21007000</v>
+        <v>20721900</v>
       </c>
       <c r="F76" s="3">
-        <v>18908300</v>
+        <v>21874600</v>
       </c>
       <c r="G76" s="3">
-        <v>19698800</v>
+        <v>19689300</v>
       </c>
       <c r="H76" s="3">
-        <v>19956400</v>
+        <v>20355700</v>
       </c>
       <c r="I76" s="3">
-        <v>18321300</v>
+        <v>20780700</v>
       </c>
       <c r="J76" s="3">
+        <v>19078000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8933600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8918900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10333800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11232200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8107600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9107900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7583500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7004600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6459300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4377100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3232700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-691700</v>
+        <v>1096400</v>
       </c>
       <c r="E81" s="3">
-        <v>674100</v>
+        <v>-720300</v>
       </c>
       <c r="F81" s="3">
-        <v>331700</v>
+        <v>701900</v>
       </c>
       <c r="G81" s="3">
-        <v>856400</v>
+        <v>345400</v>
       </c>
       <c r="H81" s="3">
-        <v>-697600</v>
+        <v>878300</v>
       </c>
       <c r="I81" s="3">
-        <v>9718200</v>
+        <v>-726400</v>
       </c>
       <c r="J81" s="3">
+        <v>10119600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-154100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1149500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>473200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-251400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-502900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>680800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-357900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-504900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1933200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1110400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2478700</v>
+        <v>436100</v>
       </c>
       <c r="E83" s="3">
-        <v>460000</v>
+        <v>2581100</v>
       </c>
       <c r="F83" s="3">
-        <v>443500</v>
+        <v>479000</v>
       </c>
       <c r="G83" s="3">
-        <v>357600</v>
+        <v>461800</v>
       </c>
       <c r="H83" s="3">
-        <v>1944600</v>
+        <v>372400</v>
       </c>
       <c r="I83" s="3">
-        <v>692900</v>
+        <v>2024900</v>
       </c>
       <c r="J83" s="3">
+        <v>721500</v>
+      </c>
+      <c r="K83" s="3">
         <v>302300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>305000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>275600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>265800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>522600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>741600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1098400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>918900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>145600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5558000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2772800</v>
+        <v>1955100</v>
       </c>
       <c r="E89" s="3">
-        <v>744700</v>
+        <v>2887300</v>
       </c>
       <c r="F89" s="3">
-        <v>2821000</v>
+        <v>775400</v>
       </c>
       <c r="G89" s="3">
-        <v>-1427000</v>
+        <v>2937500</v>
       </c>
       <c r="H89" s="3">
-        <v>576400</v>
+        <v>-1485900</v>
       </c>
       <c r="I89" s="3">
-        <v>-363500</v>
+        <v>600200</v>
       </c>
       <c r="J89" s="3">
+        <v>-378500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1589300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2073600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3429100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1575600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>399700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1298100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3194300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2047100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5068,56 +5289,59 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>-527000</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>-696400</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+        <v>-548800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-725200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-430600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-232100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>764200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-417200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>336600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-232300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>52700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-419100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2724500</v>
+        <v>-257200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2261000</v>
+        <v>-2837100</v>
       </c>
       <c r="F94" s="3">
-        <v>-758800</v>
+        <v>-2354400</v>
       </c>
       <c r="G94" s="3">
-        <v>622300</v>
+        <v>-790100</v>
       </c>
       <c r="H94" s="3">
-        <v>-621100</v>
+        <v>648000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1763400</v>
+        <v>-646800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1836300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-645800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2209400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-995700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-905900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>31400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5607700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-819300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>763500</v>
+        <v>176400</v>
       </c>
       <c r="E100" s="3">
-        <v>2282200</v>
+        <v>795000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1290500</v>
+        <v>2376500</v>
       </c>
       <c r="G100" s="3">
-        <v>332900</v>
+        <v>-1343800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1876400</v>
+        <v>346700</v>
       </c>
       <c r="I100" s="3">
-        <v>3149200</v>
+        <v>-1953900</v>
       </c>
       <c r="J100" s="3">
+        <v>3279300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2746900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1766800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-399800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-141600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>407400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-976100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-669800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1103400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4138900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12900</v>
+        <v>42900</v>
       </c>
       <c r="E101" s="3">
-        <v>67100</v>
+        <v>-13500</v>
       </c>
       <c r="F101" s="3">
-        <v>-82300</v>
+        <v>69800</v>
       </c>
       <c r="G101" s="3">
-        <v>-11800</v>
+        <v>-85700</v>
       </c>
       <c r="H101" s="3">
-        <v>-825800</v>
+        <v>-12200</v>
       </c>
       <c r="I101" s="3">
-        <v>834100</v>
+        <v>-859900</v>
       </c>
       <c r="J101" s="3">
+        <v>868500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>23100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>798800</v>
+        <v>1917100</v>
       </c>
       <c r="E102" s="3">
-        <v>832900</v>
+        <v>831800</v>
       </c>
       <c r="F102" s="3">
-        <v>689400</v>
+        <v>867300</v>
       </c>
       <c r="G102" s="3">
-        <v>-483500</v>
+        <v>717800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2746900</v>
+        <v>-503500</v>
       </c>
       <c r="I102" s="3">
-        <v>1856400</v>
+        <v>-2860400</v>
       </c>
       <c r="J102" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1811700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>339700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-852900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2023600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>252500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8128800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1918000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5766000</v>
+        <v>4367300</v>
       </c>
       <c r="E8" s="3">
-        <v>5262600</v>
+        <v>5495000</v>
       </c>
       <c r="F8" s="3">
-        <v>3573300</v>
+        <v>5015200</v>
       </c>
       <c r="G8" s="3">
-        <v>3273200</v>
+        <v>3405300</v>
       </c>
       <c r="H8" s="3">
-        <v>4658600</v>
+        <v>3119300</v>
       </c>
       <c r="I8" s="3">
-        <v>4922000</v>
+        <v>4439700</v>
       </c>
       <c r="J8" s="3">
+        <v>4690700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2623900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3205700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4445100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4369600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3350500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3296200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4046100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3904500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3293000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3504000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5028600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13997700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4363400</v>
+        <v>3231400</v>
       </c>
       <c r="E9" s="3">
-        <v>5576200</v>
+        <v>4158300</v>
       </c>
       <c r="F9" s="3">
-        <v>1978400</v>
+        <v>5314100</v>
       </c>
       <c r="G9" s="3">
-        <v>1939200</v>
+        <v>1885400</v>
       </c>
       <c r="H9" s="3">
-        <v>2528400</v>
+        <v>1848000</v>
       </c>
       <c r="I9" s="3">
-        <v>2463500</v>
+        <v>2409500</v>
       </c>
       <c r="J9" s="3">
+        <v>2347700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1896300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2939800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3189100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3025900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2628300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2809800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2753800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2897000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2447100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2564900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3498000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10903500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1402600</v>
+        <v>1135900</v>
       </c>
       <c r="E10" s="3">
-        <v>-313600</v>
+        <v>1336700</v>
       </c>
       <c r="F10" s="3">
-        <v>1594900</v>
+        <v>-298900</v>
       </c>
       <c r="G10" s="3">
-        <v>1334000</v>
+        <v>1520000</v>
       </c>
       <c r="H10" s="3">
-        <v>2130300</v>
+        <v>1271300</v>
       </c>
       <c r="I10" s="3">
-        <v>2458600</v>
+        <v>2030100</v>
       </c>
       <c r="J10" s="3">
+        <v>2343000</v>
+      </c>
+      <c r="K10" s="3">
         <v>727600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1256000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1343800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>722200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>486400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1292300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1007500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>846000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>939100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1530600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3094200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,11 +1139,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>55600</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1131,17 +1151,17 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>80800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>337700</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>436100</v>
+        <v>1347200</v>
       </c>
       <c r="E15" s="3">
-        <v>2489200</v>
+        <v>415600</v>
       </c>
       <c r="F15" s="3">
-        <v>474100</v>
+        <v>2372200</v>
       </c>
       <c r="G15" s="3">
-        <v>461800</v>
+        <v>451800</v>
       </c>
       <c r="H15" s="3">
-        <v>438500</v>
+        <v>440100</v>
       </c>
       <c r="I15" s="3">
-        <v>2543100</v>
+        <v>417900</v>
       </c>
       <c r="J15" s="3">
+        <v>2423500</v>
+      </c>
+      <c r="K15" s="3">
         <v>706800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>304700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>303800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>592600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>259200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>251400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>230600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>967200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1348600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1171400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>304000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5561500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5227000</v>
+        <v>3661000</v>
       </c>
       <c r="E17" s="3">
-        <v>6125000</v>
+        <v>4981300</v>
       </c>
       <c r="F17" s="3">
-        <v>2986500</v>
+        <v>5837100</v>
       </c>
       <c r="G17" s="3">
-        <v>2916700</v>
+        <v>2846100</v>
       </c>
       <c r="H17" s="3">
-        <v>3089400</v>
+        <v>2765600</v>
       </c>
       <c r="I17" s="3">
-        <v>4836300</v>
+        <v>2944200</v>
       </c>
       <c r="J17" s="3">
+        <v>4608900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2882400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3750400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3893600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4141300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3454600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3542100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3591600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4027900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3326700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1837800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4304400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20440700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>539000</v>
+        <v>706300</v>
       </c>
       <c r="E18" s="3">
-        <v>-862400</v>
+        <v>513700</v>
       </c>
       <c r="F18" s="3">
-        <v>586800</v>
+        <v>-821900</v>
       </c>
       <c r="G18" s="3">
-        <v>356500</v>
+        <v>559200</v>
       </c>
       <c r="H18" s="3">
-        <v>1569200</v>
+        <v>353700</v>
       </c>
       <c r="I18" s="3">
-        <v>85700</v>
+        <v>1495500</v>
       </c>
       <c r="J18" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-258500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-544700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>551400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>228300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-104100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-246000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>454600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-123400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-33700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1666200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>724200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>336900</v>
+        <v>423800</v>
       </c>
       <c r="E20" s="3">
-        <v>66100</v>
+        <v>321000</v>
       </c>
       <c r="F20" s="3">
-        <v>60000</v>
+        <v>63000</v>
       </c>
       <c r="G20" s="3">
-        <v>274400</v>
+        <v>57200</v>
       </c>
       <c r="H20" s="3">
-        <v>-207000</v>
+        <v>261500</v>
       </c>
       <c r="I20" s="3">
-        <v>-601500</v>
+        <v>-197300</v>
       </c>
       <c r="J20" s="3">
+        <v>-573200</v>
+      </c>
+      <c r="K20" s="3">
         <v>105300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>52600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-67400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>33200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-124500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>123400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>563200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-628000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1312000</v>
+        <v>2291600</v>
       </c>
       <c r="E21" s="3">
-        <v>1784800</v>
+        <v>1250300</v>
       </c>
       <c r="F21" s="3">
-        <v>1125800</v>
+        <v>1700900</v>
       </c>
       <c r="G21" s="3">
-        <v>1092700</v>
+        <v>1072800</v>
       </c>
       <c r="H21" s="3">
-        <v>1734600</v>
+        <v>1055300</v>
       </c>
       <c r="I21" s="3">
-        <v>1509200</v>
+        <v>1653100</v>
       </c>
       <c r="J21" s="3">
+        <v>1438200</v>
+      </c>
+      <c r="K21" s="3">
         <v>568400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-230600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>909100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>436500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>194900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>668700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>136900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>342200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2539100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1070500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>107800</v>
+        <v>85200</v>
       </c>
       <c r="E22" s="3">
-        <v>79600</v>
+        <v>102700</v>
       </c>
       <c r="F22" s="3">
-        <v>77200</v>
+        <v>75900</v>
       </c>
       <c r="G22" s="3">
+        <v>73500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>95700</v>
+      </c>
+      <c r="I22" s="3">
         <v>100400</v>
       </c>
-      <c r="H22" s="3">
-        <v>105300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>94300</v>
-      </c>
       <c r="J22" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K22" s="3">
         <v>75900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>78800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>62200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>53200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>120100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>218800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>265300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>198400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>768100</v>
+        <v>1044800</v>
       </c>
       <c r="E23" s="3">
-        <v>-875900</v>
+        <v>732000</v>
       </c>
       <c r="F23" s="3">
-        <v>569600</v>
+        <v>-834700</v>
       </c>
       <c r="G23" s="3">
-        <v>530400</v>
+        <v>542800</v>
       </c>
       <c r="H23" s="3">
-        <v>1256800</v>
+        <v>519500</v>
       </c>
       <c r="I23" s="3">
-        <v>-610000</v>
+        <v>1197800</v>
       </c>
       <c r="J23" s="3">
+        <v>-581400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-229100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-611700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>541900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>107600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-121800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-316200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>390900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-304100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2010600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>659700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-346700</v>
+        <v>450600</v>
       </c>
       <c r="E24" s="3">
-        <v>-167800</v>
+        <v>-330400</v>
       </c>
       <c r="F24" s="3">
-        <v>62500</v>
+        <v>-159900</v>
       </c>
       <c r="G24" s="3">
-        <v>194800</v>
+        <v>59500</v>
       </c>
       <c r="H24" s="3">
-        <v>383400</v>
+        <v>184500</v>
       </c>
       <c r="I24" s="3">
-        <v>126200</v>
+        <v>365400</v>
       </c>
       <c r="J24" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-53900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-269400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>93300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>127800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>56100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-53900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>301800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>72800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-529400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1114700</v>
+        <v>594200</v>
       </c>
       <c r="E26" s="3">
-        <v>-708000</v>
+        <v>1062300</v>
       </c>
       <c r="F26" s="3">
-        <v>507100</v>
+        <v>-674800</v>
       </c>
       <c r="G26" s="3">
-        <v>335600</v>
+        <v>483300</v>
       </c>
       <c r="H26" s="3">
-        <v>873400</v>
+        <v>335000</v>
       </c>
       <c r="I26" s="3">
-        <v>-736200</v>
+        <v>832400</v>
       </c>
       <c r="J26" s="3">
+        <v>-701600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-175200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-342300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>448600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-343700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>323900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-360200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1708800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>586900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1096400</v>
+        <v>626900</v>
       </c>
       <c r="E27" s="3">
-        <v>-720300</v>
+        <v>1044800</v>
       </c>
       <c r="F27" s="3">
-        <v>492400</v>
+        <v>-686400</v>
       </c>
       <c r="G27" s="3">
-        <v>320900</v>
+        <v>469300</v>
       </c>
       <c r="H27" s="3">
-        <v>841600</v>
+        <v>322200</v>
       </c>
       <c r="I27" s="3">
-        <v>-757000</v>
+        <v>802000</v>
       </c>
       <c r="J27" s="3">
+        <v>-721500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-268300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-504700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-62200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-397500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-87500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-379900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-561000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1761500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>190200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,70 +1996,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>209500</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>24500</v>
+        <v>199600</v>
       </c>
       <c r="H29" s="3">
-        <v>36700</v>
+        <v>23300</v>
       </c>
       <c r="I29" s="3">
-        <v>30600</v>
+        <v>35000</v>
       </c>
       <c r="J29" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K29" s="3">
         <v>10387900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>350600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1211800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>870600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-163900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-123000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>714800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>203100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-590200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>171700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>920300</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-336900</v>
+        <v>-423800</v>
       </c>
       <c r="E32" s="3">
-        <v>-66100</v>
+        <v>-321000</v>
       </c>
       <c r="F32" s="3">
-        <v>-60000</v>
+        <v>-63000</v>
       </c>
       <c r="G32" s="3">
-        <v>-274400</v>
+        <v>-57200</v>
       </c>
       <c r="H32" s="3">
-        <v>207000</v>
+        <v>-261500</v>
       </c>
       <c r="I32" s="3">
-        <v>601500</v>
+        <v>197300</v>
       </c>
       <c r="J32" s="3">
+        <v>573200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-105300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-52600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>67400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-33200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>124500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-123400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-563200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>628000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1096400</v>
+        <v>626900</v>
       </c>
       <c r="E33" s="3">
-        <v>-720300</v>
+        <v>1044800</v>
       </c>
       <c r="F33" s="3">
-        <v>701900</v>
+        <v>-686400</v>
       </c>
       <c r="G33" s="3">
-        <v>345400</v>
+        <v>668900</v>
       </c>
       <c r="H33" s="3">
-        <v>878300</v>
+        <v>345600</v>
       </c>
       <c r="I33" s="3">
-        <v>-726400</v>
+        <v>837000</v>
       </c>
       <c r="J33" s="3">
+        <v>-692300</v>
+      </c>
+      <c r="K33" s="3">
         <v>10119600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-154100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1149500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>473200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-251400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-502900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>680800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-357900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-504900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1933200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1110400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1096400</v>
+        <v>626900</v>
       </c>
       <c r="E35" s="3">
-        <v>-720300</v>
+        <v>1044800</v>
       </c>
       <c r="F35" s="3">
-        <v>701900</v>
+        <v>-686400</v>
       </c>
       <c r="G35" s="3">
-        <v>345400</v>
+        <v>668900</v>
       </c>
       <c r="H35" s="3">
-        <v>878300</v>
+        <v>345600</v>
       </c>
       <c r="I35" s="3">
-        <v>-726400</v>
+        <v>837000</v>
       </c>
       <c r="J35" s="3">
+        <v>-692300</v>
+      </c>
+      <c r="K35" s="3">
         <v>10119600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-154100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1149500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>473200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-251400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-502900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>680800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-357900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-504900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1933200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1110400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7765200</v>
+        <v>8222100</v>
       </c>
       <c r="E41" s="3">
-        <v>5848100</v>
+        <v>7400200</v>
       </c>
       <c r="F41" s="3">
-        <v>5016300</v>
+        <v>5573200</v>
       </c>
       <c r="G41" s="3">
-        <v>4141700</v>
+        <v>4780500</v>
       </c>
       <c r="H41" s="3">
-        <v>3910200</v>
+        <v>3947000</v>
       </c>
       <c r="I41" s="3">
-        <v>3910200</v>
+        <v>3726400</v>
       </c>
       <c r="J41" s="3">
+        <v>3726400</v>
+      </c>
+      <c r="K41" s="3">
         <v>6787700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3840900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5244100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4167400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5114900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3571800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4270100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4412800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6093500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12234200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4338400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5371400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3449600</v>
+        <v>4661500</v>
       </c>
       <c r="E42" s="3">
-        <v>5168200</v>
+        <v>3287400</v>
       </c>
       <c r="F42" s="3">
-        <v>4463900</v>
+        <v>4925300</v>
       </c>
       <c r="G42" s="3">
-        <v>2823600</v>
+        <v>4254000</v>
       </c>
       <c r="H42" s="3">
-        <v>3991000</v>
+        <v>2690900</v>
       </c>
       <c r="I42" s="3">
-        <v>3991000</v>
+        <v>3803400</v>
       </c>
       <c r="J42" s="3">
+        <v>3803400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3735000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2816300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2589800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4269100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3179900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3624500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5669000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5489900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5192600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5685100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12002200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11532700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3992200</v>
+        <v>3449700</v>
       </c>
       <c r="E43" s="3">
-        <v>7003300</v>
+        <v>3804600</v>
       </c>
       <c r="F43" s="3">
-        <v>2777100</v>
+        <v>6674100</v>
       </c>
       <c r="G43" s="3">
-        <v>2898300</v>
+        <v>2646500</v>
       </c>
       <c r="H43" s="3">
-        <v>4435700</v>
+        <v>2762100</v>
       </c>
       <c r="I43" s="3">
-        <v>7565500</v>
+        <v>4227200</v>
       </c>
       <c r="J43" s="3">
+        <v>7209900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3247400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1783400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2140000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5732300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1710100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1536100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7641000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8521500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4906500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5880300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7654400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7869200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1222500</v>
+        <v>1979900</v>
       </c>
       <c r="E44" s="3">
-        <v>1999200</v>
+        <v>1165100</v>
       </c>
       <c r="F44" s="3">
+        <v>1905200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1960100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1355400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1850300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1850300</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1832600</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1452900</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1410300</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1929300</v>
+      </c>
+      <c r="O44" s="3">
         <v>2056800</v>
       </c>
-      <c r="G44" s="3">
-        <v>1422200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1941600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1941600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1832600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1452900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1410300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1929300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2056800</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1553700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1437300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2158700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2521100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2024100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1935600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2310100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18632100</v>
+        <v>39049900</v>
       </c>
       <c r="E45" s="3">
-        <v>16650100</v>
+        <v>17756300</v>
       </c>
       <c r="F45" s="3">
-        <v>12801100</v>
+        <v>15867400</v>
       </c>
       <c r="G45" s="3">
-        <v>21147000</v>
+        <v>12199400</v>
       </c>
       <c r="H45" s="3">
-        <v>20315200</v>
+        <v>20153000</v>
       </c>
       <c r="I45" s="3">
-        <v>17186600</v>
+        <v>19360300</v>
       </c>
       <c r="J45" s="3">
+        <v>16378800</v>
+      </c>
+      <c r="K45" s="3">
         <v>14982900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>64489100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>64420200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>56665600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60091700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52903800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9127700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5632400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7180700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8292600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9004300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8707300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35061700</v>
+        <v>57363000</v>
       </c>
       <c r="E46" s="3">
-        <v>33349100</v>
+        <v>33413600</v>
       </c>
       <c r="F46" s="3">
-        <v>27115200</v>
+        <v>31781600</v>
       </c>
       <c r="G46" s="3">
-        <v>32432800</v>
+        <v>25840600</v>
       </c>
       <c r="H46" s="3">
-        <v>34593700</v>
+        <v>30908300</v>
       </c>
       <c r="I46" s="3">
-        <v>34594900</v>
+        <v>32967700</v>
       </c>
       <c r="J46" s="3">
+        <v>32968800</v>
+      </c>
+      <c r="K46" s="3">
         <v>30585600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>74382600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75804400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72763700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72153500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>63189900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28145000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26215300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25894400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34116300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34934900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>35790600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9833000</v>
+        <v>8717100</v>
       </c>
       <c r="E47" s="3">
-        <v>9546300</v>
+        <v>9370800</v>
       </c>
       <c r="F47" s="3">
-        <v>9369900</v>
+        <v>9097600</v>
       </c>
       <c r="G47" s="3">
-        <v>9369900</v>
+        <v>8929500</v>
       </c>
       <c r="H47" s="3">
-        <v>9296400</v>
+        <v>8929500</v>
       </c>
       <c r="I47" s="3">
-        <v>9812200</v>
+        <v>8859500</v>
       </c>
       <c r="J47" s="3">
+        <v>9351000</v>
+      </c>
+      <c r="K47" s="3">
         <v>9232700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2258700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2259600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2629600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2008100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1944600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4478700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5105100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4516000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4481200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4690500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5381900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23380200</v>
+        <v>22560200</v>
       </c>
       <c r="E48" s="3">
-        <v>21929800</v>
+        <v>22281200</v>
       </c>
       <c r="F48" s="3">
-        <v>23590900</v>
+        <v>20899000</v>
       </c>
       <c r="G48" s="3">
-        <v>23381400</v>
+        <v>22482000</v>
       </c>
       <c r="H48" s="3">
-        <v>23294400</v>
+        <v>22282400</v>
       </c>
       <c r="I48" s="3">
-        <v>23294400</v>
+        <v>22199500</v>
       </c>
       <c r="J48" s="3">
+        <v>22199500</v>
+      </c>
+      <c r="K48" s="3">
         <v>23813800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15313200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15536200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14678600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13499400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13162800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27510400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27990300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27179100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27115100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29009500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28779500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6138400</v>
+        <v>6914600</v>
       </c>
       <c r="E49" s="3">
-        <v>6018400</v>
+        <v>5849900</v>
       </c>
       <c r="F49" s="3">
-        <v>5544300</v>
+        <v>5735500</v>
       </c>
       <c r="G49" s="3">
-        <v>5675400</v>
+        <v>5283700</v>
       </c>
       <c r="H49" s="3">
-        <v>5851800</v>
+        <v>5408600</v>
       </c>
       <c r="I49" s="3">
-        <v>5851800</v>
+        <v>5576700</v>
       </c>
       <c r="J49" s="3">
+        <v>5576700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5570000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2563400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2648400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2594100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2426800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2328900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13676700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13893600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>13744400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14279600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14989600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14964900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5098400</v>
+        <v>5109800</v>
       </c>
       <c r="E52" s="3">
-        <v>5027400</v>
+        <v>4858800</v>
       </c>
       <c r="F52" s="3">
-        <v>5184200</v>
+        <v>4791100</v>
       </c>
       <c r="G52" s="3">
-        <v>5333600</v>
+        <v>4940500</v>
       </c>
       <c r="H52" s="3">
-        <v>5326300</v>
+        <v>5082900</v>
       </c>
       <c r="I52" s="3">
-        <v>4857100</v>
+        <v>5075900</v>
       </c>
       <c r="J52" s="3">
+        <v>4628800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2459800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2530400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2464200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2093700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2389100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2775700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4765300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4279300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4656300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4650600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5197600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4764500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79511700</v>
+        <v>100664600</v>
       </c>
       <c r="E54" s="3">
-        <v>75536600</v>
+        <v>75774200</v>
       </c>
       <c r="F54" s="3">
-        <v>70804400</v>
+        <v>71986000</v>
       </c>
       <c r="G54" s="3">
-        <v>76193200</v>
+        <v>67476300</v>
       </c>
       <c r="H54" s="3">
-        <v>78362600</v>
+        <v>72611700</v>
       </c>
       <c r="I54" s="3">
-        <v>78410400</v>
+        <v>74679200</v>
       </c>
       <c r="J54" s="3">
+        <v>74724700</v>
+      </c>
+      <c r="K54" s="3">
         <v>71661900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97048300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98712800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>94759800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92476800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>83401900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78576200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77483500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>75990100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>84642900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>88822200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>89681400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3263400</v>
+        <v>3037600</v>
       </c>
       <c r="E57" s="3">
-        <v>2924100</v>
+        <v>3110000</v>
       </c>
       <c r="F57" s="3">
-        <v>2385100</v>
+        <v>2786600</v>
       </c>
       <c r="G57" s="3">
-        <v>2576200</v>
+        <v>2272900</v>
       </c>
       <c r="H57" s="3">
-        <v>3659000</v>
+        <v>2455100</v>
       </c>
       <c r="I57" s="3">
-        <v>3659000</v>
+        <v>3487100</v>
       </c>
       <c r="J57" s="3">
+        <v>3487100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2926500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2709200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3045500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2873300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2291600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2299200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5138600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5696300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4651800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4757200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5730500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6375000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1565500</v>
+        <v>1642500</v>
       </c>
       <c r="E58" s="3">
-        <v>1527600</v>
+        <v>1491900</v>
       </c>
       <c r="F58" s="3">
-        <v>1745600</v>
+        <v>1455800</v>
       </c>
       <c r="G58" s="3">
-        <v>2695000</v>
+        <v>1663600</v>
       </c>
       <c r="H58" s="3">
-        <v>2069000</v>
+        <v>2568300</v>
       </c>
       <c r="I58" s="3">
-        <v>2069000</v>
+        <v>1971800</v>
       </c>
       <c r="J58" s="3">
+        <v>4084800</v>
+      </c>
+      <c r="K58" s="3">
         <v>5059200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2574000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4241700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>906100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1031200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>729100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3687100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3127000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5084900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3852900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4299700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2514300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17871400</v>
+        <v>39365100</v>
       </c>
       <c r="E59" s="3">
-        <v>16052300</v>
+        <v>17031300</v>
       </c>
       <c r="F59" s="3">
-        <v>11524700</v>
+        <v>15297700</v>
       </c>
       <c r="G59" s="3">
-        <v>17358100</v>
+        <v>10983000</v>
       </c>
       <c r="H59" s="3">
-        <v>18341800</v>
+        <v>16542200</v>
       </c>
       <c r="I59" s="3">
-        <v>18287900</v>
+        <v>17479600</v>
       </c>
       <c r="J59" s="3">
+        <v>17428300</v>
+      </c>
+      <c r="K59" s="3">
         <v>15165400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54054400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53331400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50449500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51325100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46528800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13774400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13946300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13215900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21579200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22555900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>24876600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22700300</v>
+        <v>44045200</v>
       </c>
       <c r="E60" s="3">
-        <v>20213600</v>
+        <v>21633300</v>
       </c>
       <c r="F60" s="3">
-        <v>15655400</v>
+        <v>19263400</v>
       </c>
       <c r="G60" s="3">
-        <v>22629200</v>
+        <v>14919500</v>
       </c>
       <c r="H60" s="3">
-        <v>24069800</v>
+        <v>21565600</v>
       </c>
       <c r="I60" s="3">
-        <v>24015900</v>
+        <v>22938400</v>
       </c>
       <c r="J60" s="3">
+        <v>22887100</v>
+      </c>
+      <c r="K60" s="3">
         <v>23151100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59337600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60618600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54228900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54647900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49557100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22600100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22769700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22952500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30189400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32586100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33765800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5333600</v>
+        <v>5803200</v>
       </c>
       <c r="E61" s="3">
-        <v>4839900</v>
+        <v>5082900</v>
       </c>
       <c r="F61" s="3">
-        <v>4525100</v>
+        <v>4612400</v>
       </c>
       <c r="G61" s="3">
-        <v>5084900</v>
+        <v>4312400</v>
       </c>
       <c r="H61" s="3">
-        <v>4806900</v>
+        <v>4845900</v>
       </c>
       <c r="I61" s="3">
-        <v>4806900</v>
+        <v>4580900</v>
       </c>
       <c r="J61" s="3">
+        <v>4580900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4568000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2979800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2892400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2363400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2158700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1731500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15890300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16172400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15289400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17165300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18529800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18829100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26729300</v>
+        <v>26054300</v>
       </c>
       <c r="E62" s="3">
-        <v>29769700</v>
+        <v>25472900</v>
       </c>
       <c r="F62" s="3">
-        <v>28470000</v>
+        <v>28370400</v>
       </c>
       <c r="G62" s="3">
-        <v>28240900</v>
+        <v>27131800</v>
       </c>
       <c r="H62" s="3">
-        <v>28515300</v>
+        <v>26913500</v>
       </c>
       <c r="I62" s="3">
-        <v>28190700</v>
+        <v>27175000</v>
       </c>
       <c r="J62" s="3">
+        <v>26865600</v>
+      </c>
+      <c r="K62" s="3">
         <v>24303800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20443500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20194200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21302800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18493600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18421100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24908100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25087700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25078700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25138200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26906100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27707800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55790900</v>
+        <v>78047200</v>
       </c>
       <c r="E66" s="3">
-        <v>54814600</v>
+        <v>53168500</v>
       </c>
       <c r="F66" s="3">
-        <v>48929800</v>
+        <v>52238100</v>
       </c>
       <c r="G66" s="3">
-        <v>56503900</v>
+        <v>46629900</v>
       </c>
       <c r="H66" s="3">
-        <v>58007000</v>
+        <v>53848000</v>
       </c>
       <c r="I66" s="3">
-        <v>57629700</v>
+        <v>55280400</v>
       </c>
       <c r="J66" s="3">
+        <v>54920800</v>
+      </c>
+      <c r="K66" s="3">
         <v>52583900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88114700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89793900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84425900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81244700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75294300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69468300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69900000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68985600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78183600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>84445100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86448800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
-        <v>10528800</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>11157200</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>10033900</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>10912200</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>10632800</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="J72" s="3">
+        <v>10399300</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>1345800</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1347300</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1371400</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2655800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2728700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3031600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>932000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-765300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23720700</v>
+        <v>22617400</v>
       </c>
       <c r="E76" s="3">
-        <v>20721900</v>
+        <v>22605700</v>
       </c>
       <c r="F76" s="3">
-        <v>21874600</v>
+        <v>19747900</v>
       </c>
       <c r="G76" s="3">
-        <v>19689300</v>
+        <v>20846400</v>
       </c>
       <c r="H76" s="3">
-        <v>20355700</v>
+        <v>18763800</v>
       </c>
       <c r="I76" s="3">
-        <v>20780700</v>
+        <v>19398900</v>
       </c>
       <c r="J76" s="3">
+        <v>19803900</v>
+      </c>
+      <c r="K76" s="3">
         <v>19078000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8933600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8918900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10333800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11232200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8107600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9107900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7583500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7004600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6459300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4377100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3232700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1096400</v>
+        <v>626900</v>
       </c>
       <c r="E81" s="3">
-        <v>-720300</v>
+        <v>1044800</v>
       </c>
       <c r="F81" s="3">
-        <v>701900</v>
+        <v>-686400</v>
       </c>
       <c r="G81" s="3">
-        <v>345400</v>
+        <v>668900</v>
       </c>
       <c r="H81" s="3">
-        <v>878300</v>
+        <v>345600</v>
       </c>
       <c r="I81" s="3">
-        <v>-726400</v>
+        <v>837000</v>
       </c>
       <c r="J81" s="3">
+        <v>-692300</v>
+      </c>
+      <c r="K81" s="3">
         <v>10119600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-154100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1149500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>473200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-251400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-502900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>680800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-357900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-504900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1933200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1110400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>436100</v>
+        <v>1161600</v>
       </c>
       <c r="E83" s="3">
-        <v>2581100</v>
+        <v>415600</v>
       </c>
       <c r="F83" s="3">
-        <v>479000</v>
+        <v>2459700</v>
       </c>
       <c r="G83" s="3">
-        <v>461800</v>
+        <v>456500</v>
       </c>
       <c r="H83" s="3">
-        <v>372400</v>
+        <v>440100</v>
       </c>
       <c r="I83" s="3">
-        <v>2024900</v>
+        <v>354900</v>
       </c>
       <c r="J83" s="3">
+        <v>1929700</v>
+      </c>
+      <c r="K83" s="3">
         <v>721500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>302300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>305000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>275600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>265800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>522600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>741600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1098400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>918900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>145600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5558000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1955100</v>
+        <v>3987900</v>
       </c>
       <c r="E89" s="3">
-        <v>2887300</v>
+        <v>1863200</v>
       </c>
       <c r="F89" s="3">
-        <v>775400</v>
+        <v>2751600</v>
       </c>
       <c r="G89" s="3">
-        <v>2937500</v>
+        <v>739000</v>
       </c>
       <c r="H89" s="3">
-        <v>-1485900</v>
+        <v>2799400</v>
       </c>
       <c r="I89" s="3">
-        <v>600200</v>
+        <v>-1416100</v>
       </c>
       <c r="J89" s="3">
+        <v>572000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-378500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1589300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2073600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3429100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1575600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>399700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1298100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3194300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2047100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5292,56 +5513,59 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>-548800</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
-        <v>-725200</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+        <v>-523000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-691100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-430600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-232100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>764200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-417200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>336600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-232300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>52700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-419100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-257200</v>
+        <v>-2474900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2837100</v>
+        <v>-245200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2354400</v>
+        <v>-2703700</v>
       </c>
       <c r="G94" s="3">
-        <v>-790100</v>
+        <v>-2243800</v>
       </c>
       <c r="H94" s="3">
-        <v>648000</v>
+        <v>-753000</v>
       </c>
       <c r="I94" s="3">
-        <v>-646800</v>
+        <v>617600</v>
       </c>
       <c r="J94" s="3">
+        <v>-616400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1836300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-645800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2209400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-995700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-905900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>31400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5607700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-819300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>176400</v>
+        <v>-702800</v>
       </c>
       <c r="E100" s="3">
-        <v>795000</v>
+        <v>168100</v>
       </c>
       <c r="F100" s="3">
-        <v>2376500</v>
+        <v>757600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1343800</v>
+        <v>2264800</v>
       </c>
       <c r="H100" s="3">
-        <v>346700</v>
+        <v>-1280600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1953900</v>
+        <v>330400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1862000</v>
+      </c>
+      <c r="K100" s="3">
         <v>3279300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2746900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1766800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-399800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-141600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>407400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-976100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-669800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1103400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4138900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>42900</v>
+        <v>11700</v>
       </c>
       <c r="E101" s="3">
-        <v>-13500</v>
+        <v>40900</v>
       </c>
       <c r="F101" s="3">
-        <v>69800</v>
+        <v>-12800</v>
       </c>
       <c r="G101" s="3">
-        <v>-85700</v>
+        <v>66500</v>
       </c>
       <c r="H101" s="3">
-        <v>-12200</v>
+        <v>-81700</v>
       </c>
       <c r="I101" s="3">
-        <v>-859900</v>
+        <v>-11700</v>
       </c>
       <c r="J101" s="3">
+        <v>-819500</v>
+      </c>
+      <c r="K101" s="3">
         <v>868500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>23100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>12900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1917100</v>
+        <v>821900</v>
       </c>
       <c r="E102" s="3">
-        <v>831800</v>
+        <v>1827000</v>
       </c>
       <c r="F102" s="3">
-        <v>867300</v>
+        <v>792700</v>
       </c>
       <c r="G102" s="3">
-        <v>717800</v>
+        <v>826500</v>
       </c>
       <c r="H102" s="3">
-        <v>-503500</v>
+        <v>684100</v>
       </c>
       <c r="I102" s="3">
-        <v>-2860400</v>
+        <v>-479800</v>
       </c>
       <c r="J102" s="3">
+        <v>-2725900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1933000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1811700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>339700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-852900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2023600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>252500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-75800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8128800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1918000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,294 +666,307 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4367300</v>
+        <v>5425300</v>
       </c>
       <c r="E8" s="3">
-        <v>5495000</v>
+        <v>4224000</v>
       </c>
       <c r="F8" s="3">
-        <v>5015200</v>
+        <v>5314700</v>
       </c>
       <c r="G8" s="3">
-        <v>3405300</v>
+        <v>4850600</v>
       </c>
       <c r="H8" s="3">
-        <v>3119300</v>
+        <v>3293600</v>
       </c>
       <c r="I8" s="3">
-        <v>4439700</v>
+        <v>3017000</v>
       </c>
       <c r="J8" s="3">
+        <v>4294000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4690700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2623900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3205700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4445100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4369600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3350500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3296200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4046100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3904500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3293000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3504000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5028600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13997700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3231400</v>
+        <v>4413700</v>
       </c>
       <c r="E9" s="3">
-        <v>4158300</v>
+        <v>3125300</v>
       </c>
       <c r="F9" s="3">
-        <v>5314100</v>
+        <v>4021900</v>
       </c>
       <c r="G9" s="3">
-        <v>1885400</v>
+        <v>5139700</v>
       </c>
       <c r="H9" s="3">
-        <v>1848000</v>
+        <v>1823500</v>
       </c>
       <c r="I9" s="3">
-        <v>2409500</v>
+        <v>1787400</v>
       </c>
       <c r="J9" s="3">
+        <v>2330500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2347700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1896300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2939800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3189100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3025900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2628300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2809800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2753800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2897000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2447100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2564900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3498000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10903500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1135900</v>
+        <v>1011700</v>
       </c>
       <c r="E10" s="3">
-        <v>1336700</v>
+        <v>1098600</v>
       </c>
       <c r="F10" s="3">
-        <v>-298900</v>
+        <v>1292800</v>
       </c>
       <c r="G10" s="3">
-        <v>1520000</v>
+        <v>-289000</v>
       </c>
       <c r="H10" s="3">
-        <v>1271300</v>
+        <v>1470100</v>
       </c>
       <c r="I10" s="3">
-        <v>2030100</v>
+        <v>1229600</v>
       </c>
       <c r="J10" s="3">
+        <v>1963500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2343000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>727600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>265900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1256000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1343800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>722200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>486400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1292300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1007500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>846000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>939100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1530600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3094200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,11 +1162,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>55600</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1154,17 +1174,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>80800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>337700</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1347200</v>
+        <v>408700</v>
       </c>
       <c r="E15" s="3">
-        <v>415600</v>
+        <v>1303000</v>
       </c>
       <c r="F15" s="3">
-        <v>2372200</v>
+        <v>402000</v>
       </c>
       <c r="G15" s="3">
-        <v>451800</v>
+        <v>2294300</v>
       </c>
       <c r="H15" s="3">
-        <v>440100</v>
+        <v>438100</v>
       </c>
       <c r="I15" s="3">
-        <v>417900</v>
+        <v>425700</v>
       </c>
       <c r="J15" s="3">
+        <v>404200</v>
+      </c>
+      <c r="K15" s="3">
         <v>2423500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>706800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>304700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>303800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>592600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>259200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>251400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>230600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>967200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1348600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1171400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>304000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5561500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3661000</v>
+        <v>3176200</v>
       </c>
       <c r="E17" s="3">
-        <v>4981300</v>
+        <v>3540900</v>
       </c>
       <c r="F17" s="3">
-        <v>5837100</v>
+        <v>4817900</v>
       </c>
       <c r="G17" s="3">
-        <v>2846100</v>
+        <v>5645500</v>
       </c>
       <c r="H17" s="3">
-        <v>2765600</v>
+        <v>2741500</v>
       </c>
       <c r="I17" s="3">
-        <v>2944200</v>
+        <v>2674800</v>
       </c>
       <c r="J17" s="3">
+        <v>2847600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4608900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2882400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3750400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3893600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4141300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3454600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3542100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3591600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4027900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3326700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1837800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4304400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20440700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>706300</v>
+        <v>2249200</v>
       </c>
       <c r="E18" s="3">
-        <v>513700</v>
+        <v>683100</v>
       </c>
       <c r="F18" s="3">
-        <v>-821900</v>
+        <v>496800</v>
       </c>
       <c r="G18" s="3">
-        <v>559200</v>
+        <v>-794900</v>
       </c>
       <c r="H18" s="3">
-        <v>353700</v>
+        <v>552100</v>
       </c>
       <c r="I18" s="3">
-        <v>1495500</v>
+        <v>342100</v>
       </c>
       <c r="J18" s="3">
+        <v>1446400</v>
+      </c>
+      <c r="K18" s="3">
         <v>81700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-258500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-544700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>551400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>228300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-104100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-246000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>454600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-123400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-33700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1666200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>724200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>423800</v>
+        <v>31600</v>
       </c>
       <c r="E20" s="3">
-        <v>321000</v>
+        <v>409900</v>
       </c>
       <c r="F20" s="3">
-        <v>63000</v>
+        <v>310500</v>
       </c>
       <c r="G20" s="3">
-        <v>57200</v>
+        <v>61000</v>
       </c>
       <c r="H20" s="3">
-        <v>261500</v>
+        <v>57600</v>
       </c>
       <c r="I20" s="3">
-        <v>-197300</v>
+        <v>252900</v>
       </c>
       <c r="J20" s="3">
+        <v>-190800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-573200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>105300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>52600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-67400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>33200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-124500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>123400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>563200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-628000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2291600</v>
+        <v>2732400</v>
       </c>
       <c r="E21" s="3">
-        <v>1250300</v>
+        <v>2216400</v>
       </c>
       <c r="F21" s="3">
-        <v>1700900</v>
+        <v>1209300</v>
       </c>
       <c r="G21" s="3">
-        <v>1072800</v>
+        <v>1645100</v>
       </c>
       <c r="H21" s="3">
-        <v>1055300</v>
+        <v>1051200</v>
       </c>
       <c r="I21" s="3">
-        <v>1653100</v>
+        <v>1020700</v>
       </c>
       <c r="J21" s="3">
+        <v>1598800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1438200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>568400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-230600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>909100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>436500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>194900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>668700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>136900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>342200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2539100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1070500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>85200</v>
+        <v>93700</v>
       </c>
       <c r="E22" s="3">
-        <v>102700</v>
+        <v>82400</v>
       </c>
       <c r="F22" s="3">
+        <v>99400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>73400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>71100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>92600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>89900</v>
+      </c>
+      <c r="L22" s="3">
         <v>75900</v>
       </c>
-      <c r="G22" s="3">
-        <v>73500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>95700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>89900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>75900</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>78800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>62200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>50500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>120100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>218800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>265300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>198400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1044800</v>
+        <v>2187100</v>
       </c>
       <c r="E23" s="3">
-        <v>732000</v>
+        <v>1010500</v>
       </c>
       <c r="F23" s="3">
-        <v>-834700</v>
+        <v>707900</v>
       </c>
       <c r="G23" s="3">
-        <v>542800</v>
+        <v>-807300</v>
       </c>
       <c r="H23" s="3">
-        <v>519500</v>
+        <v>538600</v>
       </c>
       <c r="I23" s="3">
-        <v>1197800</v>
+        <v>502400</v>
       </c>
       <c r="J23" s="3">
+        <v>1158500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-581400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-229100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-611700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>541900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>107600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-121800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-316200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>390900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-304100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-30300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2010600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>659700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>450600</v>
+        <v>597300</v>
       </c>
       <c r="E24" s="3">
-        <v>-330400</v>
+        <v>435800</v>
       </c>
       <c r="F24" s="3">
-        <v>-159900</v>
+        <v>-319500</v>
       </c>
       <c r="G24" s="3">
-        <v>59500</v>
+        <v>-154700</v>
       </c>
       <c r="H24" s="3">
-        <v>184500</v>
+        <v>59800</v>
       </c>
       <c r="I24" s="3">
-        <v>365400</v>
+        <v>178400</v>
       </c>
       <c r="J24" s="3">
+        <v>353400</v>
+      </c>
+      <c r="K24" s="3">
         <v>120200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-53900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-269400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>93300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>127800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>56100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-53900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>301800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>72800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-529400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>594200</v>
+        <v>1589800</v>
       </c>
       <c r="E26" s="3">
-        <v>1062300</v>
+        <v>574700</v>
       </c>
       <c r="F26" s="3">
-        <v>-674800</v>
+        <v>1027500</v>
       </c>
       <c r="G26" s="3">
-        <v>483300</v>
+        <v>-652600</v>
       </c>
       <c r="H26" s="3">
-        <v>335000</v>
+        <v>478700</v>
       </c>
       <c r="I26" s="3">
-        <v>832400</v>
+        <v>324100</v>
       </c>
       <c r="J26" s="3">
+        <v>805000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-701600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-175200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-342300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>448600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-343700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>323900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-360200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1708800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>586900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>626900</v>
+        <v>1553600</v>
       </c>
       <c r="E27" s="3">
-        <v>1044800</v>
+        <v>606300</v>
       </c>
       <c r="F27" s="3">
-        <v>-686400</v>
+        <v>1010500</v>
       </c>
       <c r="G27" s="3">
-        <v>469300</v>
+        <v>-663900</v>
       </c>
       <c r="H27" s="3">
-        <v>322200</v>
+        <v>466300</v>
       </c>
       <c r="I27" s="3">
-        <v>802000</v>
+        <v>311600</v>
       </c>
       <c r="J27" s="3">
+        <v>775700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-721500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-268300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-504700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-62200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-397500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-87500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-379900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-34000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-561000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1761500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>190200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2057,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>199600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>23300</v>
+        <v>193100</v>
       </c>
       <c r="I29" s="3">
-        <v>35000</v>
+        <v>22600</v>
       </c>
       <c r="J29" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K29" s="3">
         <v>29200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>10387900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>350600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1211800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>870600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-163900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-123000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>714800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>203100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-590200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>171700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>920300</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-423800</v>
+        <v>-31600</v>
       </c>
       <c r="E32" s="3">
-        <v>-321000</v>
+        <v>-409900</v>
       </c>
       <c r="F32" s="3">
-        <v>-63000</v>
+        <v>-310500</v>
       </c>
       <c r="G32" s="3">
-        <v>-57200</v>
+        <v>-61000</v>
       </c>
       <c r="H32" s="3">
-        <v>-261500</v>
+        <v>-57600</v>
       </c>
       <c r="I32" s="3">
-        <v>197300</v>
+        <v>-252900</v>
       </c>
       <c r="J32" s="3">
+        <v>190800</v>
+      </c>
+      <c r="K32" s="3">
         <v>573200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-105300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-52600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>67400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-33200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>124500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-123400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-563200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>628000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>626900</v>
+        <v>1553600</v>
       </c>
       <c r="E33" s="3">
-        <v>1044800</v>
+        <v>606300</v>
       </c>
       <c r="F33" s="3">
-        <v>-686400</v>
+        <v>1010500</v>
       </c>
       <c r="G33" s="3">
-        <v>668900</v>
+        <v>-663900</v>
       </c>
       <c r="H33" s="3">
-        <v>345600</v>
+        <v>659400</v>
       </c>
       <c r="I33" s="3">
-        <v>837000</v>
+        <v>334200</v>
       </c>
       <c r="J33" s="3">
+        <v>809600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-692300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10119600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-154100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1149500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>473200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-251400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-502900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>680800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-357900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-504900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1933200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1110400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>626900</v>
+        <v>1553600</v>
       </c>
       <c r="E35" s="3">
-        <v>1044800</v>
+        <v>606300</v>
       </c>
       <c r="F35" s="3">
-        <v>-686400</v>
+        <v>1010500</v>
       </c>
       <c r="G35" s="3">
-        <v>668900</v>
+        <v>-663900</v>
       </c>
       <c r="H35" s="3">
-        <v>345600</v>
+        <v>659400</v>
       </c>
       <c r="I35" s="3">
-        <v>837000</v>
+        <v>334200</v>
       </c>
       <c r="J35" s="3">
+        <v>809600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-692300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10119600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-154100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1149500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>473200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-251400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-502900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>680800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-357900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-504900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1933200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1110400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8222100</v>
+        <v>4037700</v>
       </c>
       <c r="E41" s="3">
-        <v>7400200</v>
+        <v>7952300</v>
       </c>
       <c r="F41" s="3">
-        <v>5573200</v>
+        <v>7157400</v>
       </c>
       <c r="G41" s="3">
-        <v>4780500</v>
+        <v>5390300</v>
       </c>
       <c r="H41" s="3">
-        <v>3947000</v>
+        <v>4623700</v>
       </c>
       <c r="I41" s="3">
+        <v>3817500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3604100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3726400</v>
       </c>
-      <c r="J41" s="3">
-        <v>3726400</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6787700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3840900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5244100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4167400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5114900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3571800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4270100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4412800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6093500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12234200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4338400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5371400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4661500</v>
+        <v>3958600</v>
       </c>
       <c r="E42" s="3">
-        <v>3287400</v>
+        <v>4508500</v>
       </c>
       <c r="F42" s="3">
-        <v>4925300</v>
+        <v>3179500</v>
       </c>
       <c r="G42" s="3">
-        <v>4254000</v>
+        <v>4763700</v>
       </c>
       <c r="H42" s="3">
-        <v>2690900</v>
+        <v>4114400</v>
       </c>
       <c r="I42" s="3">
+        <v>2602600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3678600</v>
+      </c>
+      <c r="K42" s="3">
         <v>3803400</v>
       </c>
-      <c r="J42" s="3">
-        <v>3803400</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3735000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2816300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2589800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4269100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3179900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3624500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5669000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5489900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5192600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5685100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12002200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11532700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3449700</v>
+        <v>5064000</v>
       </c>
       <c r="E43" s="3">
-        <v>3804600</v>
+        <v>3336500</v>
       </c>
       <c r="F43" s="3">
-        <v>6674100</v>
+        <v>3679700</v>
       </c>
       <c r="G43" s="3">
-        <v>2646500</v>
+        <v>6455100</v>
       </c>
       <c r="H43" s="3">
-        <v>2762100</v>
+        <v>2559700</v>
       </c>
       <c r="I43" s="3">
-        <v>4227200</v>
+        <v>2671500</v>
       </c>
       <c r="J43" s="3">
+        <v>4088500</v>
+      </c>
+      <c r="K43" s="3">
         <v>7209900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3247400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1783400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2140000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5732300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1710100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1536100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7641000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8521500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4906500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5880300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7654400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7869200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1979900</v>
+        <v>6282300</v>
       </c>
       <c r="E44" s="3">
-        <v>1165100</v>
+        <v>1915000</v>
       </c>
       <c r="F44" s="3">
-        <v>1905200</v>
+        <v>1126800</v>
       </c>
       <c r="G44" s="3">
-        <v>1960100</v>
+        <v>1842700</v>
       </c>
       <c r="H44" s="3">
-        <v>1355400</v>
+        <v>1895800</v>
       </c>
       <c r="I44" s="3">
+        <v>1310900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1789600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1850300</v>
       </c>
-      <c r="J44" s="3">
-        <v>1850300</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1832600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1452900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1410300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1929300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2056800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1553700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1437300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2158700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2521100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2024100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1935600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2310100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39049900</v>
+        <v>101963400</v>
       </c>
       <c r="E45" s="3">
-        <v>17756300</v>
+        <v>37768400</v>
       </c>
       <c r="F45" s="3">
-        <v>15867400</v>
+        <v>17173600</v>
       </c>
       <c r="G45" s="3">
-        <v>12199400</v>
+        <v>15346700</v>
       </c>
       <c r="H45" s="3">
-        <v>20153000</v>
+        <v>11799100</v>
       </c>
       <c r="I45" s="3">
-        <v>19360300</v>
+        <v>19491700</v>
       </c>
       <c r="J45" s="3">
+        <v>18725000</v>
+      </c>
+      <c r="K45" s="3">
         <v>16378800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14982900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>64489100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>64420200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>56665600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60091700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52903800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9127700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5632400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7180700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8292600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9004300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8707300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>57363000</v>
+        <v>121306000</v>
       </c>
       <c r="E46" s="3">
-        <v>33413600</v>
+        <v>55480600</v>
       </c>
       <c r="F46" s="3">
-        <v>31781600</v>
+        <v>32317100</v>
       </c>
       <c r="G46" s="3">
-        <v>25840600</v>
+        <v>30738600</v>
       </c>
       <c r="H46" s="3">
-        <v>30908300</v>
+        <v>24992600</v>
       </c>
       <c r="I46" s="3">
-        <v>32967700</v>
+        <v>29894100</v>
       </c>
       <c r="J46" s="3">
+        <v>31885800</v>
+      </c>
+      <c r="K46" s="3">
         <v>32968800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30585600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>74382600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75804400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72763700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>72153500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>63189900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28145000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26215300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25894400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34116300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34934900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35790600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8717100</v>
+        <v>8857800</v>
       </c>
       <c r="E47" s="3">
-        <v>9370800</v>
+        <v>8431000</v>
       </c>
       <c r="F47" s="3">
-        <v>9097600</v>
+        <v>9063300</v>
       </c>
       <c r="G47" s="3">
-        <v>8929500</v>
+        <v>8799100</v>
       </c>
       <c r="H47" s="3">
-        <v>8929500</v>
+        <v>8636500</v>
       </c>
       <c r="I47" s="3">
-        <v>8859500</v>
+        <v>8636500</v>
       </c>
       <c r="J47" s="3">
+        <v>8568700</v>
+      </c>
+      <c r="K47" s="3">
         <v>9351000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9232700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2258700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2259600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2629600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2008100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1944600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4478700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5105100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4516000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4481200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4690500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5381900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22560200</v>
+        <v>22392300</v>
       </c>
       <c r="E48" s="3">
-        <v>22281200</v>
+        <v>21819900</v>
       </c>
       <c r="F48" s="3">
-        <v>20899000</v>
+        <v>21550000</v>
       </c>
       <c r="G48" s="3">
-        <v>22482000</v>
+        <v>20213100</v>
       </c>
       <c r="H48" s="3">
-        <v>22282400</v>
+        <v>21744200</v>
       </c>
       <c r="I48" s="3">
+        <v>21551100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21471000</v>
+      </c>
+      <c r="K48" s="3">
         <v>22199500</v>
       </c>
-      <c r="J48" s="3">
-        <v>22199500</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23813800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15313200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15536200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14678600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13499400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13162800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27510400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27990300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27179100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27115100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29009500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>28779500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6914600</v>
+        <v>6593900</v>
       </c>
       <c r="E49" s="3">
-        <v>5849900</v>
+        <v>6687700</v>
       </c>
       <c r="F49" s="3">
-        <v>5735500</v>
+        <v>5657900</v>
       </c>
       <c r="G49" s="3">
-        <v>5283700</v>
+        <v>5547300</v>
       </c>
       <c r="H49" s="3">
-        <v>5408600</v>
+        <v>5110300</v>
       </c>
       <c r="I49" s="3">
+        <v>5231100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5393700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5576700</v>
       </c>
-      <c r="J49" s="3">
-        <v>5576700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5570000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2563400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2648400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2594100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2426800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2328900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13676700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>13893600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13744400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14279600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14989600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14964900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5109800</v>
+        <v>5272900</v>
       </c>
       <c r="E52" s="3">
-        <v>4858800</v>
+        <v>4942100</v>
       </c>
       <c r="F52" s="3">
-        <v>4791100</v>
+        <v>4699300</v>
       </c>
       <c r="G52" s="3">
-        <v>4940500</v>
+        <v>4633800</v>
       </c>
       <c r="H52" s="3">
-        <v>5082900</v>
+        <v>4778400</v>
       </c>
       <c r="I52" s="3">
-        <v>5075900</v>
+        <v>4916100</v>
       </c>
       <c r="J52" s="3">
+        <v>4909300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4628800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2459800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2530400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2464200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2093700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2389100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2775700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4765300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4279300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4656300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4650600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5197600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4764500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100664600</v>
+        <v>164422900</v>
       </c>
       <c r="E54" s="3">
-        <v>75774200</v>
+        <v>97361200</v>
       </c>
       <c r="F54" s="3">
-        <v>71986000</v>
+        <v>73287600</v>
       </c>
       <c r="G54" s="3">
-        <v>67476300</v>
+        <v>69623700</v>
       </c>
       <c r="H54" s="3">
-        <v>72611700</v>
+        <v>65262000</v>
       </c>
       <c r="I54" s="3">
-        <v>74679200</v>
+        <v>70228900</v>
       </c>
       <c r="J54" s="3">
+        <v>72228500</v>
+      </c>
+      <c r="K54" s="3">
         <v>74724700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71661900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97048300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98712800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>94759800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92476800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>83401900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78576200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77483500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>75990100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84642900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>88822200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>89681400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3037600</v>
+        <v>4175400</v>
       </c>
       <c r="E57" s="3">
-        <v>3110000</v>
+        <v>2937900</v>
       </c>
       <c r="F57" s="3">
-        <v>2786600</v>
+        <v>3007900</v>
       </c>
       <c r="G57" s="3">
-        <v>2272900</v>
+        <v>2695200</v>
       </c>
       <c r="H57" s="3">
-        <v>2455100</v>
+        <v>2198400</v>
       </c>
       <c r="I57" s="3">
+        <v>2374500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3372600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3487100</v>
       </c>
-      <c r="J57" s="3">
-        <v>3487100</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2926500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2709200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3045500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2873300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2291600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2299200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5138600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5696300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4651800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4757200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5730500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6375000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1642500</v>
+        <v>7572900</v>
       </c>
       <c r="E58" s="3">
-        <v>1491900</v>
+        <v>1588600</v>
       </c>
       <c r="F58" s="3">
-        <v>1455800</v>
+        <v>1443000</v>
       </c>
       <c r="G58" s="3">
-        <v>1663600</v>
+        <v>1408000</v>
       </c>
       <c r="H58" s="3">
-        <v>2568300</v>
+        <v>1609000</v>
       </c>
       <c r="I58" s="3">
-        <v>1971800</v>
+        <v>2484000</v>
       </c>
       <c r="J58" s="3">
+        <v>1907000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4084800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5059200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2574000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4241700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>906100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1031200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>729100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3687100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3127000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5084900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3852900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4299700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2514300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39365100</v>
+        <v>104702600</v>
       </c>
       <c r="E59" s="3">
-        <v>17031300</v>
+        <v>38073300</v>
       </c>
       <c r="F59" s="3">
-        <v>15297700</v>
+        <v>16472400</v>
       </c>
       <c r="G59" s="3">
-        <v>10983000</v>
+        <v>14795700</v>
       </c>
       <c r="H59" s="3">
-        <v>16542200</v>
+        <v>10622600</v>
       </c>
       <c r="I59" s="3">
-        <v>17479600</v>
+        <v>15999300</v>
       </c>
       <c r="J59" s="3">
+        <v>16906000</v>
+      </c>
+      <c r="K59" s="3">
         <v>17428300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15165400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54054400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53331400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50449500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51325100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46528800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13774400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13946300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13215900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21579200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22555900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>24876600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44045200</v>
+        <v>116450900</v>
       </c>
       <c r="E60" s="3">
-        <v>21633300</v>
+        <v>42599800</v>
       </c>
       <c r="F60" s="3">
-        <v>19263400</v>
+        <v>20923400</v>
       </c>
       <c r="G60" s="3">
-        <v>14919500</v>
+        <v>18631300</v>
       </c>
       <c r="H60" s="3">
-        <v>21565600</v>
+        <v>14429900</v>
       </c>
       <c r="I60" s="3">
-        <v>22938400</v>
+        <v>20857900</v>
       </c>
       <c r="J60" s="3">
+        <v>22185700</v>
+      </c>
+      <c r="K60" s="3">
         <v>22887100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23151100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59337600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60618600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54228900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54647900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49557100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22600100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22769700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22952500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>30189400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>32586100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33765800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5803200</v>
+        <v>5887100</v>
       </c>
       <c r="E61" s="3">
-        <v>5082900</v>
+        <v>5612800</v>
       </c>
       <c r="F61" s="3">
-        <v>4612400</v>
+        <v>4916100</v>
       </c>
       <c r="G61" s="3">
-        <v>4312400</v>
+        <v>4461100</v>
       </c>
       <c r="H61" s="3">
-        <v>4845900</v>
+        <v>4170900</v>
       </c>
       <c r="I61" s="3">
+        <v>4686900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4430600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4580900</v>
       </c>
-      <c r="J61" s="3">
-        <v>4580900</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4568000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2979800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2892400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2363400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2158700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1731500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15890300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16172400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15289400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17165300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18529800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18829100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26054300</v>
+        <v>23276400</v>
       </c>
       <c r="E62" s="3">
-        <v>25472900</v>
+        <v>25199300</v>
       </c>
       <c r="F62" s="3">
-        <v>28370400</v>
+        <v>24637000</v>
       </c>
       <c r="G62" s="3">
-        <v>27131800</v>
+        <v>27439400</v>
       </c>
       <c r="H62" s="3">
-        <v>26913500</v>
+        <v>26241400</v>
       </c>
       <c r="I62" s="3">
-        <v>27175000</v>
+        <v>26030300</v>
       </c>
       <c r="J62" s="3">
+        <v>26283200</v>
+      </c>
+      <c r="K62" s="3">
         <v>26865600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24303800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20443500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20194200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21302800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18493600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18421100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24908100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25087700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25078700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25138200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26906100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27707800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78047200</v>
+        <v>147671600</v>
       </c>
       <c r="E66" s="3">
-        <v>53168500</v>
+        <v>75486000</v>
       </c>
       <c r="F66" s="3">
-        <v>52238100</v>
+        <v>51423700</v>
       </c>
       <c r="G66" s="3">
-        <v>46629900</v>
+        <v>50523800</v>
       </c>
       <c r="H66" s="3">
-        <v>53848000</v>
+        <v>45099600</v>
       </c>
       <c r="I66" s="3">
-        <v>55280400</v>
+        <v>52080900</v>
       </c>
       <c r="J66" s="3">
+        <v>53466300</v>
+      </c>
+      <c r="K66" s="3">
         <v>54920800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52583900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88114700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89793900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84425900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81244700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>75294300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69468300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69900000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68985600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78183600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>84445100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86448800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4480,62 +4654,65 @@
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>10033900</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>10632800</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>9704600</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>10283800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>10399300</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1345800</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1347300</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1371400</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2655800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2728700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3031600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>932000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-765300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22617400</v>
+        <v>16751300</v>
       </c>
       <c r="E76" s="3">
-        <v>22605700</v>
+        <v>21875200</v>
       </c>
       <c r="F76" s="3">
-        <v>19747900</v>
+        <v>21863900</v>
       </c>
       <c r="G76" s="3">
-        <v>20846400</v>
+        <v>19099900</v>
       </c>
       <c r="H76" s="3">
-        <v>18763800</v>
+        <v>20162300</v>
       </c>
       <c r="I76" s="3">
-        <v>19398900</v>
+        <v>18148000</v>
       </c>
       <c r="J76" s="3">
+        <v>18762300</v>
+      </c>
+      <c r="K76" s="3">
         <v>19803900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19078000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8933600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8918900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10333800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11232200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8107600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9107900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7583500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7004600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6459300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4377100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3232700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>626900</v>
+        <v>1553600</v>
       </c>
       <c r="E81" s="3">
-        <v>1044800</v>
+        <v>606300</v>
       </c>
       <c r="F81" s="3">
-        <v>-686400</v>
+        <v>1010500</v>
       </c>
       <c r="G81" s="3">
-        <v>668900</v>
+        <v>-663900</v>
       </c>
       <c r="H81" s="3">
-        <v>345600</v>
+        <v>659400</v>
       </c>
       <c r="I81" s="3">
-        <v>837000</v>
+        <v>334200</v>
       </c>
       <c r="J81" s="3">
+        <v>809600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-692300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10119600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-154100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1149500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>473200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-251400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-502900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>680800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-357900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-504900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1933200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1110400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1161600</v>
+        <v>451600</v>
       </c>
       <c r="E83" s="3">
-        <v>415600</v>
+        <v>1123500</v>
       </c>
       <c r="F83" s="3">
-        <v>2459700</v>
+        <v>402000</v>
       </c>
       <c r="G83" s="3">
-        <v>456500</v>
+        <v>2379000</v>
       </c>
       <c r="H83" s="3">
-        <v>440100</v>
+        <v>441500</v>
       </c>
       <c r="I83" s="3">
-        <v>354900</v>
+        <v>425700</v>
       </c>
       <c r="J83" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1929700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>721500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>302300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>305000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>275600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>265800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>522600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>741600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1098400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>918900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>145600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5558000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3987900</v>
+        <v>-1796400</v>
       </c>
       <c r="E89" s="3">
-        <v>1863200</v>
+        <v>3857000</v>
       </c>
       <c r="F89" s="3">
-        <v>2751600</v>
+        <v>1802000</v>
       </c>
       <c r="G89" s="3">
-        <v>739000</v>
+        <v>2661300</v>
       </c>
       <c r="H89" s="3">
-        <v>2799400</v>
+        <v>714700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1416100</v>
+        <v>2707600</v>
       </c>
       <c r="J89" s="3">
+        <v>-1369600</v>
+      </c>
+      <c r="K89" s="3">
         <v>572000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-378500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1589300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2073600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3429100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1575600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>399700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1298100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3194300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2047100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5516,56 +5737,59 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>-523000</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-691100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+        <v>-505800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-668400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-430600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-232100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>764200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-417200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>336600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-232300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>52700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-419100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2474900</v>
+        <v>-131000</v>
       </c>
       <c r="E94" s="3">
-        <v>-245200</v>
+        <v>-2393700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2703700</v>
+        <v>-237100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2243800</v>
+        <v>-2615000</v>
       </c>
       <c r="H94" s="3">
-        <v>-753000</v>
+        <v>-2170100</v>
       </c>
       <c r="I94" s="3">
-        <v>617600</v>
+        <v>-728300</v>
       </c>
       <c r="J94" s="3">
+        <v>597300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-616400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1836300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-645800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2209400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-995700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-905900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>31400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5607700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-819300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-702800</v>
+        <v>-1968000</v>
       </c>
       <c r="E100" s="3">
-        <v>168100</v>
+        <v>-679700</v>
       </c>
       <c r="F100" s="3">
-        <v>757600</v>
+        <v>162600</v>
       </c>
       <c r="G100" s="3">
-        <v>2264800</v>
+        <v>732800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1280600</v>
+        <v>2190500</v>
       </c>
       <c r="I100" s="3">
-        <v>330400</v>
+        <v>-1238600</v>
       </c>
       <c r="J100" s="3">
+        <v>319500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1862000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3279300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2746900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1766800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-399800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-141600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>407400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-976100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-669800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1103400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4138900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>40900</v>
+        <v>11300</v>
       </c>
       <c r="F101" s="3">
-        <v>-12800</v>
+        <v>39500</v>
       </c>
       <c r="G101" s="3">
-        <v>66500</v>
+        <v>-12400</v>
       </c>
       <c r="H101" s="3">
-        <v>-81700</v>
+        <v>64400</v>
       </c>
       <c r="I101" s="3">
-        <v>-11700</v>
+        <v>-79000</v>
       </c>
       <c r="J101" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-819500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>868500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-28000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>821900</v>
+        <v>-3895400</v>
       </c>
       <c r="E102" s="3">
-        <v>1827000</v>
+        <v>794900</v>
       </c>
       <c r="F102" s="3">
-        <v>792700</v>
+        <v>1767000</v>
       </c>
       <c r="G102" s="3">
-        <v>826500</v>
+        <v>766700</v>
       </c>
       <c r="H102" s="3">
-        <v>684100</v>
+        <v>799400</v>
       </c>
       <c r="I102" s="3">
-        <v>-479800</v>
+        <v>661700</v>
       </c>
       <c r="J102" s="3">
+        <v>-464100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2725900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1933000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1811700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>339700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-852900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2023600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>252500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-75800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8128800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1918000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5425300</v>
+        <v>5241800</v>
       </c>
       <c r="E8" s="3">
-        <v>4224000</v>
+        <v>4081100</v>
       </c>
       <c r="F8" s="3">
-        <v>5314700</v>
+        <v>5134900</v>
       </c>
       <c r="G8" s="3">
-        <v>4850600</v>
+        <v>4686500</v>
       </c>
       <c r="H8" s="3">
-        <v>3293600</v>
+        <v>3182200</v>
       </c>
       <c r="I8" s="3">
-        <v>3017000</v>
+        <v>2914900</v>
       </c>
       <c r="J8" s="3">
-        <v>4294000</v>
+        <v>4148700</v>
       </c>
       <c r="K8" s="3">
         <v>4690700</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4413700</v>
+        <v>4264400</v>
       </c>
       <c r="E9" s="3">
-        <v>3125300</v>
+        <v>3019600</v>
       </c>
       <c r="F9" s="3">
-        <v>4021900</v>
+        <v>3885800</v>
       </c>
       <c r="G9" s="3">
-        <v>5139700</v>
+        <v>4965800</v>
       </c>
       <c r="H9" s="3">
-        <v>1823500</v>
+        <v>1761800</v>
       </c>
       <c r="I9" s="3">
-        <v>1787400</v>
+        <v>1726900</v>
       </c>
       <c r="J9" s="3">
-        <v>2330500</v>
+        <v>2251600</v>
       </c>
       <c r="K9" s="3">
         <v>2347700</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1011700</v>
+        <v>977500</v>
       </c>
       <c r="E10" s="3">
-        <v>1098600</v>
+        <v>1061500</v>
       </c>
       <c r="F10" s="3">
-        <v>1292800</v>
+        <v>1249100</v>
       </c>
       <c r="G10" s="3">
-        <v>-289000</v>
+        <v>-279300</v>
       </c>
       <c r="H10" s="3">
-        <v>1470100</v>
+        <v>1420400</v>
       </c>
       <c r="I10" s="3">
-        <v>1229600</v>
+        <v>1188000</v>
       </c>
       <c r="J10" s="3">
-        <v>1963500</v>
+        <v>1897100</v>
       </c>
       <c r="K10" s="3">
         <v>2343000</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>408700</v>
+        <v>394900</v>
       </c>
       <c r="E15" s="3">
-        <v>1303000</v>
+        <v>1258900</v>
       </c>
       <c r="F15" s="3">
-        <v>402000</v>
+        <v>388400</v>
       </c>
       <c r="G15" s="3">
-        <v>2294300</v>
+        <v>2216700</v>
       </c>
       <c r="H15" s="3">
-        <v>438100</v>
+        <v>423300</v>
       </c>
       <c r="I15" s="3">
-        <v>425700</v>
+        <v>411300</v>
       </c>
       <c r="J15" s="3">
-        <v>404200</v>
+        <v>390500</v>
       </c>
       <c r="K15" s="3">
         <v>2423500</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3176200</v>
+        <v>3068700</v>
       </c>
       <c r="E17" s="3">
-        <v>3540900</v>
+        <v>3421100</v>
       </c>
       <c r="F17" s="3">
-        <v>4817900</v>
+        <v>4654900</v>
       </c>
       <c r="G17" s="3">
-        <v>5645500</v>
+        <v>5454600</v>
       </c>
       <c r="H17" s="3">
-        <v>2741500</v>
+        <v>2648700</v>
       </c>
       <c r="I17" s="3">
-        <v>2674800</v>
+        <v>2584400</v>
       </c>
       <c r="J17" s="3">
-        <v>2847600</v>
+        <v>2751300</v>
       </c>
       <c r="K17" s="3">
         <v>4608900</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2249200</v>
+        <v>2173100</v>
       </c>
       <c r="E18" s="3">
-        <v>683100</v>
+        <v>660000</v>
       </c>
       <c r="F18" s="3">
-        <v>496800</v>
+        <v>480000</v>
       </c>
       <c r="G18" s="3">
-        <v>-794900</v>
+        <v>-768000</v>
       </c>
       <c r="H18" s="3">
-        <v>552100</v>
+        <v>533500</v>
       </c>
       <c r="I18" s="3">
-        <v>342100</v>
+        <v>330500</v>
       </c>
       <c r="J18" s="3">
-        <v>1446400</v>
+        <v>1397500</v>
       </c>
       <c r="K18" s="3">
         <v>81700</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31600</v>
+        <v>30500</v>
       </c>
       <c r="E20" s="3">
-        <v>409900</v>
+        <v>396000</v>
       </c>
       <c r="F20" s="3">
-        <v>310500</v>
+        <v>300000</v>
       </c>
       <c r="G20" s="3">
-        <v>61000</v>
+        <v>58900</v>
       </c>
       <c r="H20" s="3">
-        <v>57600</v>
+        <v>55600</v>
       </c>
       <c r="I20" s="3">
-        <v>252900</v>
+        <v>244400</v>
       </c>
       <c r="J20" s="3">
-        <v>-190800</v>
+        <v>-184400</v>
       </c>
       <c r="K20" s="3">
         <v>-573200</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2732400</v>
+        <v>2640000</v>
       </c>
       <c r="E21" s="3">
-        <v>2216400</v>
+        <v>2141500</v>
       </c>
       <c r="F21" s="3">
-        <v>1209300</v>
+        <v>1168400</v>
       </c>
       <c r="G21" s="3">
-        <v>1645100</v>
+        <v>1589500</v>
       </c>
       <c r="H21" s="3">
-        <v>1051200</v>
+        <v>1015600</v>
       </c>
       <c r="I21" s="3">
-        <v>1020700</v>
+        <v>986200</v>
       </c>
       <c r="J21" s="3">
-        <v>1598800</v>
+        <v>1544700</v>
       </c>
       <c r="K21" s="3">
         <v>1438200</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>93700</v>
+        <v>90500</v>
       </c>
       <c r="E22" s="3">
-        <v>82400</v>
+        <v>79600</v>
       </c>
       <c r="F22" s="3">
-        <v>99400</v>
+        <v>96000</v>
       </c>
       <c r="G22" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="H22" s="3">
-        <v>71100</v>
+        <v>68700</v>
       </c>
       <c r="I22" s="3">
-        <v>92600</v>
+        <v>89500</v>
       </c>
       <c r="J22" s="3">
-        <v>97100</v>
+        <v>93800</v>
       </c>
       <c r="K22" s="3">
         <v>89900</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2187100</v>
+        <v>2113100</v>
       </c>
       <c r="E23" s="3">
-        <v>1010500</v>
+        <v>976400</v>
       </c>
       <c r="F23" s="3">
-        <v>707900</v>
+        <v>684000</v>
       </c>
       <c r="G23" s="3">
-        <v>-807300</v>
+        <v>-780000</v>
       </c>
       <c r="H23" s="3">
-        <v>538600</v>
+        <v>520400</v>
       </c>
       <c r="I23" s="3">
-        <v>502400</v>
+        <v>485500</v>
       </c>
       <c r="J23" s="3">
-        <v>1158500</v>
+        <v>1119300</v>
       </c>
       <c r="K23" s="3">
         <v>-581400</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>597300</v>
+        <v>577100</v>
       </c>
       <c r="E24" s="3">
-        <v>435800</v>
+        <v>421100</v>
       </c>
       <c r="F24" s="3">
-        <v>-319500</v>
+        <v>-308700</v>
       </c>
       <c r="G24" s="3">
-        <v>-154700</v>
+        <v>-149500</v>
       </c>
       <c r="H24" s="3">
-        <v>59800</v>
+        <v>57800</v>
       </c>
       <c r="I24" s="3">
-        <v>178400</v>
+        <v>172400</v>
       </c>
       <c r="J24" s="3">
-        <v>353400</v>
+        <v>341500</v>
       </c>
       <c r="K24" s="3">
         <v>120200</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1589800</v>
+        <v>1536000</v>
       </c>
       <c r="E26" s="3">
-        <v>574700</v>
+        <v>555300</v>
       </c>
       <c r="F26" s="3">
-        <v>1027500</v>
+        <v>992700</v>
       </c>
       <c r="G26" s="3">
-        <v>-652600</v>
+        <v>-630500</v>
       </c>
       <c r="H26" s="3">
-        <v>478700</v>
+        <v>462500</v>
       </c>
       <c r="I26" s="3">
-        <v>324100</v>
+        <v>313100</v>
       </c>
       <c r="J26" s="3">
-        <v>805000</v>
+        <v>777800</v>
       </c>
       <c r="K26" s="3">
         <v>-701600</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1553600</v>
+        <v>1501100</v>
       </c>
       <c r="E27" s="3">
-        <v>606300</v>
+        <v>585800</v>
       </c>
       <c r="F27" s="3">
-        <v>1010500</v>
+        <v>976400</v>
       </c>
       <c r="G27" s="3">
-        <v>-663900</v>
+        <v>-641500</v>
       </c>
       <c r="H27" s="3">
-        <v>466300</v>
+        <v>450500</v>
       </c>
       <c r="I27" s="3">
-        <v>311600</v>
+        <v>301100</v>
       </c>
       <c r="J27" s="3">
-        <v>775700</v>
+        <v>749500</v>
       </c>
       <c r="K27" s="3">
         <v>-721500</v>
@@ -2078,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>193100</v>
+        <v>186500</v>
       </c>
       <c r="I29" s="3">
-        <v>22600</v>
+        <v>21800</v>
       </c>
       <c r="J29" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="K29" s="3">
         <v>29200</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31600</v>
+        <v>-30500</v>
       </c>
       <c r="E32" s="3">
-        <v>-409900</v>
+        <v>-396000</v>
       </c>
       <c r="F32" s="3">
-        <v>-310500</v>
+        <v>-300000</v>
       </c>
       <c r="G32" s="3">
-        <v>-61000</v>
+        <v>-58900</v>
       </c>
       <c r="H32" s="3">
-        <v>-57600</v>
+        <v>-55600</v>
       </c>
       <c r="I32" s="3">
-        <v>-252900</v>
+        <v>-244400</v>
       </c>
       <c r="J32" s="3">
-        <v>190800</v>
+        <v>184400</v>
       </c>
       <c r="K32" s="3">
         <v>573200</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1553600</v>
+        <v>1501100</v>
       </c>
       <c r="E33" s="3">
-        <v>606300</v>
+        <v>585800</v>
       </c>
       <c r="F33" s="3">
-        <v>1010500</v>
+        <v>976400</v>
       </c>
       <c r="G33" s="3">
-        <v>-663900</v>
+        <v>-641500</v>
       </c>
       <c r="H33" s="3">
-        <v>659400</v>
+        <v>637100</v>
       </c>
       <c r="I33" s="3">
-        <v>334200</v>
+        <v>322900</v>
       </c>
       <c r="J33" s="3">
-        <v>809600</v>
+        <v>782200</v>
       </c>
       <c r="K33" s="3">
         <v>-692300</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1553600</v>
+        <v>1501100</v>
       </c>
       <c r="E35" s="3">
-        <v>606300</v>
+        <v>585800</v>
       </c>
       <c r="F35" s="3">
-        <v>1010500</v>
+        <v>976400</v>
       </c>
       <c r="G35" s="3">
-        <v>-663900</v>
+        <v>-641500</v>
       </c>
       <c r="H35" s="3">
-        <v>659400</v>
+        <v>637100</v>
       </c>
       <c r="I35" s="3">
-        <v>334200</v>
+        <v>322900</v>
       </c>
       <c r="J35" s="3">
-        <v>809600</v>
+        <v>782200</v>
       </c>
       <c r="K35" s="3">
         <v>-692300</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4037700</v>
+        <v>3901100</v>
       </c>
       <c r="E41" s="3">
-        <v>7952300</v>
+        <v>7683300</v>
       </c>
       <c r="F41" s="3">
-        <v>7157400</v>
+        <v>6915300</v>
       </c>
       <c r="G41" s="3">
-        <v>5390300</v>
+        <v>5208000</v>
       </c>
       <c r="H41" s="3">
-        <v>4623700</v>
+        <v>4467300</v>
       </c>
       <c r="I41" s="3">
-        <v>3817500</v>
+        <v>3688400</v>
       </c>
       <c r="J41" s="3">
-        <v>3604100</v>
+        <v>3482200</v>
       </c>
       <c r="K41" s="3">
         <v>3726400</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3958600</v>
+        <v>3824700</v>
       </c>
       <c r="E42" s="3">
-        <v>4508500</v>
+        <v>4356000</v>
       </c>
       <c r="F42" s="3">
-        <v>3179500</v>
+        <v>3072000</v>
       </c>
       <c r="G42" s="3">
-        <v>4763700</v>
+        <v>4602500</v>
       </c>
       <c r="H42" s="3">
-        <v>4114400</v>
+        <v>3975300</v>
       </c>
       <c r="I42" s="3">
-        <v>2602600</v>
+        <v>2514500</v>
       </c>
       <c r="J42" s="3">
-        <v>3678600</v>
+        <v>3554200</v>
       </c>
       <c r="K42" s="3">
         <v>3803400</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5064000</v>
+        <v>4892700</v>
       </c>
       <c r="E43" s="3">
-        <v>3336500</v>
+        <v>3223600</v>
       </c>
       <c r="F43" s="3">
-        <v>3679700</v>
+        <v>3555300</v>
       </c>
       <c r="G43" s="3">
-        <v>6455100</v>
+        <v>6236700</v>
       </c>
       <c r="H43" s="3">
-        <v>2559700</v>
+        <v>2473100</v>
       </c>
       <c r="I43" s="3">
-        <v>2671500</v>
+        <v>2581100</v>
       </c>
       <c r="J43" s="3">
-        <v>4088500</v>
+        <v>3950200</v>
       </c>
       <c r="K43" s="3">
         <v>7209900</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6282300</v>
+        <v>6069800</v>
       </c>
       <c r="E44" s="3">
-        <v>1915000</v>
+        <v>1850200</v>
       </c>
       <c r="F44" s="3">
-        <v>1126800</v>
+        <v>1088700</v>
       </c>
       <c r="G44" s="3">
-        <v>1842700</v>
+        <v>1780400</v>
       </c>
       <c r="H44" s="3">
-        <v>1895800</v>
+        <v>1831600</v>
       </c>
       <c r="I44" s="3">
-        <v>1310900</v>
+        <v>1266500</v>
       </c>
       <c r="J44" s="3">
-        <v>1789600</v>
+        <v>1729100</v>
       </c>
       <c r="K44" s="3">
         <v>1850300</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>101963400</v>
+        <v>98514600</v>
       </c>
       <c r="E45" s="3">
-        <v>37768400</v>
+        <v>36490900</v>
       </c>
       <c r="F45" s="3">
-        <v>17173600</v>
+        <v>16592700</v>
       </c>
       <c r="G45" s="3">
-        <v>15346700</v>
+        <v>14827600</v>
       </c>
       <c r="H45" s="3">
-        <v>11799100</v>
+        <v>11400000</v>
       </c>
       <c r="I45" s="3">
-        <v>19491700</v>
+        <v>18832400</v>
       </c>
       <c r="J45" s="3">
-        <v>18725000</v>
+        <v>18091700</v>
       </c>
       <c r="K45" s="3">
         <v>16378800</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>121306000</v>
+        <v>117203000</v>
       </c>
       <c r="E46" s="3">
-        <v>55480600</v>
+        <v>53604000</v>
       </c>
       <c r="F46" s="3">
-        <v>32317100</v>
+        <v>31224000</v>
       </c>
       <c r="G46" s="3">
-        <v>30738600</v>
+        <v>29698900</v>
       </c>
       <c r="H46" s="3">
-        <v>24992600</v>
+        <v>24147300</v>
       </c>
       <c r="I46" s="3">
-        <v>29894100</v>
+        <v>28882900</v>
       </c>
       <c r="J46" s="3">
-        <v>31885800</v>
+        <v>30807300</v>
       </c>
       <c r="K46" s="3">
         <v>32968800</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8857800</v>
+        <v>8558200</v>
       </c>
       <c r="E47" s="3">
-        <v>8431000</v>
+        <v>8145800</v>
       </c>
       <c r="F47" s="3">
-        <v>9063300</v>
+        <v>8756700</v>
       </c>
       <c r="G47" s="3">
-        <v>8799100</v>
+        <v>8501500</v>
       </c>
       <c r="H47" s="3">
-        <v>8636500</v>
+        <v>8344400</v>
       </c>
       <c r="I47" s="3">
-        <v>8636500</v>
+        <v>8344400</v>
       </c>
       <c r="J47" s="3">
-        <v>8568700</v>
+        <v>8278900</v>
       </c>
       <c r="K47" s="3">
         <v>9351000</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22392300</v>
+        <v>21634900</v>
       </c>
       <c r="E48" s="3">
-        <v>21819900</v>
+        <v>21081800</v>
       </c>
       <c r="F48" s="3">
-        <v>21550000</v>
+        <v>20821100</v>
       </c>
       <c r="G48" s="3">
-        <v>20213100</v>
+        <v>19529500</v>
       </c>
       <c r="H48" s="3">
-        <v>21744200</v>
+        <v>21008700</v>
       </c>
       <c r="I48" s="3">
-        <v>21551100</v>
+        <v>20822200</v>
       </c>
       <c r="J48" s="3">
-        <v>21471000</v>
+        <v>20744700</v>
       </c>
       <c r="K48" s="3">
         <v>22199500</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6593900</v>
+        <v>6370900</v>
       </c>
       <c r="E49" s="3">
-        <v>6687700</v>
+        <v>6461500</v>
       </c>
       <c r="F49" s="3">
-        <v>5657900</v>
+        <v>5466600</v>
       </c>
       <c r="G49" s="3">
-        <v>5547300</v>
+        <v>5359600</v>
       </c>
       <c r="H49" s="3">
-        <v>5110300</v>
+        <v>4937500</v>
       </c>
       <c r="I49" s="3">
-        <v>5231100</v>
+        <v>5054200</v>
       </c>
       <c r="J49" s="3">
-        <v>5393700</v>
+        <v>5211300</v>
       </c>
       <c r="K49" s="3">
         <v>5576700</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5272900</v>
+        <v>5094500</v>
       </c>
       <c r="E52" s="3">
-        <v>4942100</v>
+        <v>4774900</v>
       </c>
       <c r="F52" s="3">
-        <v>4699300</v>
+        <v>4540400</v>
       </c>
       <c r="G52" s="3">
-        <v>4633800</v>
+        <v>4477100</v>
       </c>
       <c r="H52" s="3">
-        <v>4778400</v>
+        <v>4616700</v>
       </c>
       <c r="I52" s="3">
-        <v>4916100</v>
+        <v>4749800</v>
       </c>
       <c r="J52" s="3">
-        <v>4909300</v>
+        <v>4743300</v>
       </c>
       <c r="K52" s="3">
         <v>4628800</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>164422900</v>
+        <v>158861600</v>
       </c>
       <c r="E54" s="3">
-        <v>97361200</v>
+        <v>94068100</v>
       </c>
       <c r="F54" s="3">
-        <v>73287600</v>
+        <v>70808800</v>
       </c>
       <c r="G54" s="3">
-        <v>69623700</v>
+        <v>67268800</v>
       </c>
       <c r="H54" s="3">
-        <v>65262000</v>
+        <v>63054600</v>
       </c>
       <c r="I54" s="3">
-        <v>70228900</v>
+        <v>67853500</v>
       </c>
       <c r="J54" s="3">
-        <v>72228500</v>
+        <v>69785500</v>
       </c>
       <c r="K54" s="3">
         <v>74724700</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4175400</v>
+        <v>4034200</v>
       </c>
       <c r="E57" s="3">
-        <v>2937900</v>
+        <v>2838500</v>
       </c>
       <c r="F57" s="3">
-        <v>3007900</v>
+        <v>2906200</v>
       </c>
       <c r="G57" s="3">
-        <v>2695200</v>
+        <v>2604000</v>
       </c>
       <c r="H57" s="3">
-        <v>2198400</v>
+        <v>2124000</v>
       </c>
       <c r="I57" s="3">
-        <v>2374500</v>
+        <v>2294200</v>
       </c>
       <c r="J57" s="3">
-        <v>3372600</v>
+        <v>3258500</v>
       </c>
       <c r="K57" s="3">
         <v>3487100</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7572900</v>
+        <v>7316700</v>
       </c>
       <c r="E58" s="3">
-        <v>1588600</v>
+        <v>1534900</v>
       </c>
       <c r="F58" s="3">
-        <v>1443000</v>
+        <v>1394200</v>
       </c>
       <c r="G58" s="3">
-        <v>1408000</v>
+        <v>1360400</v>
       </c>
       <c r="H58" s="3">
-        <v>1609000</v>
+        <v>1554500</v>
       </c>
       <c r="I58" s="3">
-        <v>2484000</v>
+        <v>2400000</v>
       </c>
       <c r="J58" s="3">
-        <v>1907000</v>
+        <v>1842500</v>
       </c>
       <c r="K58" s="3">
         <v>4084800</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104702600</v>
+        <v>101161200</v>
       </c>
       <c r="E59" s="3">
-        <v>38073300</v>
+        <v>36785500</v>
       </c>
       <c r="F59" s="3">
-        <v>16472400</v>
+        <v>15915300</v>
       </c>
       <c r="G59" s="3">
-        <v>14795700</v>
+        <v>14295300</v>
       </c>
       <c r="H59" s="3">
-        <v>10622600</v>
+        <v>10263300</v>
       </c>
       <c r="I59" s="3">
-        <v>15999300</v>
+        <v>15458200</v>
       </c>
       <c r="J59" s="3">
-        <v>16906000</v>
+        <v>16334200</v>
       </c>
       <c r="K59" s="3">
         <v>17428300</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>116450900</v>
+        <v>112512100</v>
       </c>
       <c r="E60" s="3">
-        <v>42599800</v>
+        <v>41158900</v>
       </c>
       <c r="F60" s="3">
-        <v>20923400</v>
+        <v>20215700</v>
       </c>
       <c r="G60" s="3">
-        <v>18631300</v>
+        <v>18001100</v>
       </c>
       <c r="H60" s="3">
-        <v>14429900</v>
+        <v>13941800</v>
       </c>
       <c r="I60" s="3">
-        <v>20857900</v>
+        <v>20152400</v>
       </c>
       <c r="J60" s="3">
-        <v>22185700</v>
+        <v>21435300</v>
       </c>
       <c r="K60" s="3">
         <v>22887100</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5887100</v>
+        <v>5688000</v>
       </c>
       <c r="E61" s="3">
-        <v>5612800</v>
+        <v>5422900</v>
       </c>
       <c r="F61" s="3">
-        <v>4916100</v>
+        <v>4749800</v>
       </c>
       <c r="G61" s="3">
-        <v>4461100</v>
+        <v>4310200</v>
       </c>
       <c r="H61" s="3">
-        <v>4170900</v>
+        <v>4029800</v>
       </c>
       <c r="I61" s="3">
-        <v>4686900</v>
+        <v>4528400</v>
       </c>
       <c r="J61" s="3">
-        <v>4430600</v>
+        <v>4280700</v>
       </c>
       <c r="K61" s="3">
         <v>4580900</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23276400</v>
+        <v>22489100</v>
       </c>
       <c r="E62" s="3">
-        <v>25199300</v>
+        <v>24346900</v>
       </c>
       <c r="F62" s="3">
-        <v>24637000</v>
+        <v>23803700</v>
       </c>
       <c r="G62" s="3">
-        <v>27439400</v>
+        <v>26511300</v>
       </c>
       <c r="H62" s="3">
-        <v>26241400</v>
+        <v>25353800</v>
       </c>
       <c r="I62" s="3">
-        <v>26030300</v>
+        <v>25149800</v>
       </c>
       <c r="J62" s="3">
-        <v>26283200</v>
+        <v>25394200</v>
       </c>
       <c r="K62" s="3">
         <v>26865600</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>147671600</v>
+        <v>142676800</v>
       </c>
       <c r="E66" s="3">
-        <v>75486000</v>
+        <v>72932800</v>
       </c>
       <c r="F66" s="3">
-        <v>51423700</v>
+        <v>49684400</v>
       </c>
       <c r="G66" s="3">
-        <v>50523800</v>
+        <v>48814900</v>
       </c>
       <c r="H66" s="3">
-        <v>45099600</v>
+        <v>43574200</v>
       </c>
       <c r="I66" s="3">
-        <v>52080900</v>
+        <v>50319300</v>
       </c>
       <c r="J66" s="3">
-        <v>53466300</v>
+        <v>51657900</v>
       </c>
       <c r="K66" s="3">
         <v>54920800</v>
@@ -4658,13 +4658,13 @@
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>9704600</v>
+        <v>9376400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>10283800</v>
+        <v>9936000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16751300</v>
+        <v>16184700</v>
       </c>
       <c r="E76" s="3">
-        <v>21875200</v>
+        <v>21135300</v>
       </c>
       <c r="F76" s="3">
-        <v>21863900</v>
+        <v>21124400</v>
       </c>
       <c r="G76" s="3">
-        <v>19099900</v>
+        <v>18453800</v>
       </c>
       <c r="H76" s="3">
-        <v>20162300</v>
+        <v>19480400</v>
       </c>
       <c r="I76" s="3">
-        <v>18148000</v>
+        <v>17534200</v>
       </c>
       <c r="J76" s="3">
-        <v>18762300</v>
+        <v>18127700</v>
       </c>
       <c r="K76" s="3">
         <v>19803900</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1553600</v>
+        <v>1501100</v>
       </c>
       <c r="E81" s="3">
-        <v>606300</v>
+        <v>585800</v>
       </c>
       <c r="F81" s="3">
-        <v>1010500</v>
+        <v>976400</v>
       </c>
       <c r="G81" s="3">
-        <v>-663900</v>
+        <v>-641500</v>
       </c>
       <c r="H81" s="3">
-        <v>659400</v>
+        <v>637100</v>
       </c>
       <c r="I81" s="3">
-        <v>334200</v>
+        <v>322900</v>
       </c>
       <c r="J81" s="3">
-        <v>809600</v>
+        <v>782200</v>
       </c>
       <c r="K81" s="3">
         <v>-692300</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>451600</v>
+        <v>436400</v>
       </c>
       <c r="E83" s="3">
-        <v>1123500</v>
+        <v>1085500</v>
       </c>
       <c r="F83" s="3">
-        <v>402000</v>
+        <v>388400</v>
       </c>
       <c r="G83" s="3">
-        <v>2379000</v>
+        <v>2298500</v>
       </c>
       <c r="H83" s="3">
-        <v>441500</v>
+        <v>426500</v>
       </c>
       <c r="I83" s="3">
-        <v>425700</v>
+        <v>411300</v>
       </c>
       <c r="J83" s="3">
-        <v>343200</v>
+        <v>331600</v>
       </c>
       <c r="K83" s="3">
         <v>1929700</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1796400</v>
+        <v>-1735600</v>
       </c>
       <c r="E89" s="3">
-        <v>3857000</v>
+        <v>3726500</v>
       </c>
       <c r="F89" s="3">
-        <v>1802000</v>
+        <v>1741100</v>
       </c>
       <c r="G89" s="3">
-        <v>2661300</v>
+        <v>2571300</v>
       </c>
       <c r="H89" s="3">
-        <v>714700</v>
+        <v>690500</v>
       </c>
       <c r="I89" s="3">
-        <v>2707600</v>
+        <v>2616000</v>
       </c>
       <c r="J89" s="3">
-        <v>-1369600</v>
+        <v>-1323300</v>
       </c>
       <c r="K89" s="3">
         <v>572000</v>
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-505800</v>
+        <v>-488700</v>
       </c>
       <c r="J91" s="3">
-        <v>-668400</v>
+        <v>-645800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-131000</v>
+        <v>-126500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2393700</v>
+        <v>-2312700</v>
       </c>
       <c r="F94" s="3">
-        <v>-237100</v>
+        <v>-229100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2615000</v>
+        <v>-2526500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2170100</v>
+        <v>-2096700</v>
       </c>
       <c r="I94" s="3">
-        <v>-728300</v>
+        <v>-703600</v>
       </c>
       <c r="J94" s="3">
-        <v>597300</v>
+        <v>577100</v>
       </c>
       <c r="K94" s="3">
         <v>-616400</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1968000</v>
+        <v>-1901500</v>
       </c>
       <c r="E100" s="3">
-        <v>-679700</v>
+        <v>-656700</v>
       </c>
       <c r="F100" s="3">
-        <v>162600</v>
+        <v>157100</v>
       </c>
       <c r="G100" s="3">
-        <v>732800</v>
+        <v>708000</v>
       </c>
       <c r="H100" s="3">
-        <v>2190500</v>
+        <v>2116400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1238600</v>
+        <v>-1196700</v>
       </c>
       <c r="J100" s="3">
-        <v>319500</v>
+        <v>308700</v>
       </c>
       <c r="K100" s="3">
         <v>-1862000</v>
@@ -6367,22 +6367,22 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F101" s="3">
-        <v>39500</v>
+        <v>38200</v>
       </c>
       <c r="G101" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="H101" s="3">
-        <v>64400</v>
+        <v>62200</v>
       </c>
       <c r="I101" s="3">
-        <v>-79000</v>
+        <v>-76400</v>
       </c>
       <c r="J101" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K101" s="3">
         <v>-819500</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3895400</v>
+        <v>-3763600</v>
       </c>
       <c r="E102" s="3">
-        <v>794900</v>
+        <v>768000</v>
       </c>
       <c r="F102" s="3">
-        <v>1767000</v>
+        <v>1707300</v>
       </c>
       <c r="G102" s="3">
-        <v>766700</v>
+        <v>740700</v>
       </c>
       <c r="H102" s="3">
-        <v>799400</v>
+        <v>772400</v>
       </c>
       <c r="I102" s="3">
-        <v>661700</v>
+        <v>639300</v>
       </c>
       <c r="J102" s="3">
-        <v>-464100</v>
+        <v>-448400</v>
       </c>
       <c r="K102" s="3">
         <v>-2725900</v>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,332 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5241800</v>
+        <v>8244000</v>
       </c>
       <c r="E8" s="3">
-        <v>4081100</v>
+        <v>11700200</v>
       </c>
       <c r="F8" s="3">
-        <v>5134900</v>
+        <v>4987100</v>
       </c>
       <c r="G8" s="3">
-        <v>4686500</v>
+        <v>3882800</v>
       </c>
       <c r="H8" s="3">
-        <v>3182200</v>
+        <v>4885400</v>
       </c>
       <c r="I8" s="3">
+        <v>4458800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3027600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2914900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4148700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4690700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2623900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3205700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4445100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4369600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3350500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3296200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4046100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3904500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3293000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3504000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5028600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>13997700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4264400</v>
+        <v>7799800</v>
       </c>
       <c r="E9" s="3">
-        <v>3019600</v>
+        <v>7757300</v>
       </c>
       <c r="F9" s="3">
-        <v>3885800</v>
+        <v>4057200</v>
       </c>
       <c r="G9" s="3">
-        <v>4965800</v>
+        <v>2872900</v>
       </c>
       <c r="H9" s="3">
-        <v>1761800</v>
+        <v>3697000</v>
       </c>
       <c r="I9" s="3">
+        <v>4724500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1676200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1726900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2251600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2347700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1896300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2939800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3189100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3025900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2628300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2809800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2753800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2897000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2447100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2564900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3498000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>10903500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>977500</v>
+        <v>444200</v>
       </c>
       <c r="E10" s="3">
-        <v>1061500</v>
+        <v>3943000</v>
       </c>
       <c r="F10" s="3">
-        <v>1249100</v>
+        <v>930000</v>
       </c>
       <c r="G10" s="3">
-        <v>-279300</v>
+        <v>1009900</v>
       </c>
       <c r="H10" s="3">
-        <v>1420400</v>
+        <v>1188400</v>
       </c>
       <c r="I10" s="3">
+        <v>-265700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1351300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1188000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1897100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2343000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>727600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>265900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1256000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1343800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>722200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>486400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1292300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1007500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>846000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>939100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1530600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>3094200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1015,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,31 +1159,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1165,106 +1203,118 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>55600</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>55600</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>80800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>337700</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>394900</v>
+        <v>396500</v>
       </c>
       <c r="E15" s="3">
-        <v>1258900</v>
+        <v>520000</v>
       </c>
       <c r="F15" s="3">
-        <v>388400</v>
+        <v>375700</v>
       </c>
       <c r="G15" s="3">
-        <v>2216700</v>
+        <v>1197700</v>
       </c>
       <c r="H15" s="3">
-        <v>423300</v>
+        <v>369500</v>
       </c>
       <c r="I15" s="3">
+        <v>2090300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>402700</v>
+      </c>
+      <c r="K15" s="3">
         <v>411300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>390500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2423500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>706800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>304700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>303800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>592600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>259200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>251400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>230600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>967200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>1348600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>1171400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>304000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>5561500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1336,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3068700</v>
+        <v>5276700</v>
       </c>
       <c r="E17" s="3">
-        <v>3421100</v>
+        <v>13696100</v>
       </c>
       <c r="F17" s="3">
-        <v>4654900</v>
+        <v>2919600</v>
       </c>
       <c r="G17" s="3">
-        <v>5454600</v>
+        <v>3254900</v>
       </c>
       <c r="H17" s="3">
-        <v>2648700</v>
+        <v>4428700</v>
       </c>
       <c r="I17" s="3">
+        <v>5157300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2520000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2584400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2751300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4608900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2882400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3750400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3893600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4141300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3454600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3542100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3591600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4027900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3326700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1837800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4304400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>20440700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2173100</v>
+        <v>2967400</v>
       </c>
       <c r="E18" s="3">
-        <v>660000</v>
+        <v>-1995900</v>
       </c>
       <c r="F18" s="3">
-        <v>480000</v>
+        <v>2067500</v>
       </c>
       <c r="G18" s="3">
-        <v>-768000</v>
+        <v>627900</v>
       </c>
       <c r="H18" s="3">
-        <v>533500</v>
+        <v>456700</v>
       </c>
       <c r="I18" s="3">
+        <v>-698500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>507500</v>
+      </c>
+      <c r="K18" s="3">
         <v>330500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1397500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>81700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-258500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-544700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>551400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>228300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-104100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-246000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>454600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-123400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-33700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1666200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>724200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1512,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30500</v>
+        <v>-24900</v>
       </c>
       <c r="E20" s="3">
-        <v>396000</v>
+        <v>85100</v>
       </c>
       <c r="F20" s="3">
-        <v>300000</v>
+        <v>29100</v>
       </c>
       <c r="G20" s="3">
-        <v>58900</v>
+        <v>376800</v>
       </c>
       <c r="H20" s="3">
-        <v>55600</v>
+        <v>285400</v>
       </c>
       <c r="I20" s="3">
+        <v>57100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K20" s="3">
         <v>244400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-184400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-573200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>105300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>52600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-67400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>33200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-19800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-16500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-124500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>123400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>563200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-628000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2640000</v>
+        <v>3388700</v>
       </c>
       <c r="E21" s="3">
-        <v>2141500</v>
+        <v>-1530900</v>
       </c>
       <c r="F21" s="3">
-        <v>1168400</v>
+        <v>2511700</v>
       </c>
       <c r="G21" s="3">
-        <v>1589500</v>
+        <v>2037400</v>
       </c>
       <c r="H21" s="3">
-        <v>1015600</v>
+        <v>1111600</v>
       </c>
       <c r="I21" s="3">
+        <v>1545400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>966300</v>
+      </c>
+      <c r="K21" s="3">
         <v>986200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1544700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1438200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>568400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-230600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>909100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>436500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>194900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>36200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>668700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>136900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>342200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2539100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1070500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>90500</v>
+        <v>110000</v>
       </c>
       <c r="E22" s="3">
-        <v>79600</v>
+        <v>99600</v>
       </c>
       <c r="F22" s="3">
-        <v>96000</v>
+        <v>86100</v>
       </c>
       <c r="G22" s="3">
-        <v>70900</v>
+        <v>75800</v>
       </c>
       <c r="H22" s="3">
-        <v>68700</v>
+        <v>91300</v>
       </c>
       <c r="I22" s="3">
+        <v>67500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K22" s="3">
         <v>89500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>93800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>89900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>75900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>78800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>62200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>53200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>50900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>50500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>47200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>56100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>120100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>218800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>265300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>198400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2113100</v>
+        <v>2832400</v>
       </c>
       <c r="E23" s="3">
-        <v>976400</v>
+        <v>-2010400</v>
       </c>
       <c r="F23" s="3">
-        <v>684000</v>
+        <v>2010400</v>
       </c>
       <c r="G23" s="3">
-        <v>-780000</v>
+        <v>928900</v>
       </c>
       <c r="H23" s="3">
-        <v>520400</v>
+        <v>650800</v>
       </c>
       <c r="I23" s="3">
+        <v>-708900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>495100</v>
+      </c>
+      <c r="K23" s="3">
         <v>485500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1119300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-581400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-229100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-611700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>541900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>107600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-121800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-316200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>390900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-304100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-30300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2010600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>659700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>577100</v>
+        <v>493000</v>
       </c>
       <c r="E24" s="3">
-        <v>421100</v>
+        <v>60200</v>
       </c>
       <c r="F24" s="3">
-        <v>-308700</v>
+        <v>549000</v>
       </c>
       <c r="G24" s="3">
-        <v>-149500</v>
+        <v>400600</v>
       </c>
       <c r="H24" s="3">
-        <v>57800</v>
+        <v>-293700</v>
       </c>
       <c r="I24" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K24" s="3">
         <v>172400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>341500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>120200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-53900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-269400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>93300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>127800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-100800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>27500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>67000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>56100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-53900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>301800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>72800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-529400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1952,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1536000</v>
+        <v>2339400</v>
       </c>
       <c r="E26" s="3">
-        <v>555300</v>
+        <v>-2070600</v>
       </c>
       <c r="F26" s="3">
-        <v>992700</v>
+        <v>1461400</v>
       </c>
       <c r="G26" s="3">
-        <v>-630500</v>
+        <v>528300</v>
       </c>
       <c r="H26" s="3">
-        <v>462500</v>
+        <v>944500</v>
       </c>
       <c r="I26" s="3">
+        <v>-555300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>440100</v>
+      </c>
+      <c r="K26" s="3">
         <v>313100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>777800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-701600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-175200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-342300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>448600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-20100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-343700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>323900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-360200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>23600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1708800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>586900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1501100</v>
+        <v>2248100</v>
       </c>
       <c r="E27" s="3">
-        <v>585800</v>
+        <v>-2166100</v>
       </c>
       <c r="F27" s="3">
-        <v>976400</v>
+        <v>1428200</v>
       </c>
       <c r="G27" s="3">
-        <v>-641500</v>
+        <v>557400</v>
       </c>
       <c r="H27" s="3">
-        <v>450500</v>
+        <v>928900</v>
       </c>
       <c r="I27" s="3">
+        <v>-566700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>428700</v>
+      </c>
+      <c r="K27" s="3">
         <v>301100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>749500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-721500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-268300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-504700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-62200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-397500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-87500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-379900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-34000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-561000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>85300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1761500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>190200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2174,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2071,65 +2191,71 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>186500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K29" s="3">
         <v>21800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>32700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>29200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>10387900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>350600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>1211800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>870600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-163900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-123000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>714800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>203100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-590200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>171700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>920300</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2322,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2396,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30500</v>
+        <v>24900</v>
       </c>
       <c r="E32" s="3">
-        <v>-396000</v>
+        <v>-85100</v>
       </c>
       <c r="F32" s="3">
-        <v>-300000</v>
+        <v>-29100</v>
       </c>
       <c r="G32" s="3">
-        <v>-58900</v>
+        <v>-376800</v>
       </c>
       <c r="H32" s="3">
-        <v>-55600</v>
+        <v>-285400</v>
       </c>
       <c r="I32" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-244400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>184400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>573200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-105300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-52600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>67400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>19800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>16500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>124500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-123400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-563200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-200700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>628000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1501100</v>
+        <v>2248100</v>
       </c>
       <c r="E33" s="3">
-        <v>585800</v>
+        <v>-2166100</v>
       </c>
       <c r="F33" s="3">
-        <v>976400</v>
+        <v>1428200</v>
       </c>
       <c r="G33" s="3">
-        <v>-641500</v>
+        <v>557400</v>
       </c>
       <c r="H33" s="3">
-        <v>637100</v>
+        <v>928900</v>
       </c>
       <c r="I33" s="3">
+        <v>-566700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>606100</v>
+      </c>
+      <c r="K33" s="3">
         <v>322900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>782200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-692300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>10119600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-154100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1149500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>473200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-251400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-502900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>680800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-357900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-504900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1933200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1110400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2618,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1501100</v>
+        <v>2248100</v>
       </c>
       <c r="E35" s="3">
-        <v>585800</v>
+        <v>-2166100</v>
       </c>
       <c r="F35" s="3">
-        <v>976400</v>
+        <v>1428200</v>
       </c>
       <c r="G35" s="3">
-        <v>-641500</v>
+        <v>557400</v>
       </c>
       <c r="H35" s="3">
-        <v>637100</v>
+        <v>928900</v>
       </c>
       <c r="I35" s="3">
+        <v>-566700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>606100</v>
+      </c>
+      <c r="K35" s="3">
         <v>322900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>782200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-692300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>10119600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-154100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1149500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>473200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-251400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-502900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>680800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-357900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-504900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1933200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1110400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2803,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2831,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3901100</v>
+        <v>6608300</v>
       </c>
       <c r="E41" s="3">
-        <v>7683300</v>
+        <v>6045800</v>
       </c>
       <c r="F41" s="3">
-        <v>6915300</v>
+        <v>3711500</v>
       </c>
       <c r="G41" s="3">
-        <v>5208000</v>
+        <v>7309900</v>
       </c>
       <c r="H41" s="3">
-        <v>4467300</v>
+        <v>6579200</v>
       </c>
       <c r="I41" s="3">
+        <v>4954900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4250200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3688400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3482200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3726400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6787700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3840900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5244100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4167400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5114900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3571800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4270100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4412800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6093500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>12234200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4338400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5371400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3824700</v>
+        <v>7847600</v>
       </c>
       <c r="E42" s="3">
-        <v>4356000</v>
+        <v>8344700</v>
       </c>
       <c r="F42" s="3">
-        <v>3072000</v>
+        <v>3638900</v>
       </c>
       <c r="G42" s="3">
-        <v>4602500</v>
+        <v>4144300</v>
       </c>
       <c r="H42" s="3">
-        <v>3975300</v>
+        <v>2922700</v>
       </c>
       <c r="I42" s="3">
+        <v>4378900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3782100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2514500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3554200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3803400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3735000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2816300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2589800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4269100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3179900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3624500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>5669000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5489900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5192600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>5685100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>12002200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>11532700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4892700</v>
+        <v>7602600</v>
       </c>
       <c r="E43" s="3">
-        <v>3223600</v>
+        <v>20022100</v>
       </c>
       <c r="F43" s="3">
-        <v>3555300</v>
+        <v>4655000</v>
       </c>
       <c r="G43" s="3">
-        <v>6236700</v>
+        <v>3067000</v>
       </c>
       <c r="H43" s="3">
-        <v>2473100</v>
+        <v>3382500</v>
       </c>
       <c r="I43" s="3">
+        <v>5933700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2352900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2581100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3950200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7209900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3247400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1783400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2140000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5732300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1710100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1536100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>7641000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>8521500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4906500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>5880300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>7654400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>7869200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6069800</v>
+        <v>2938300</v>
       </c>
       <c r="E44" s="3">
-        <v>1850200</v>
+        <v>2935200</v>
       </c>
       <c r="F44" s="3">
-        <v>1088700</v>
+        <v>5774900</v>
       </c>
       <c r="G44" s="3">
-        <v>1780400</v>
+        <v>1760300</v>
       </c>
       <c r="H44" s="3">
-        <v>1831600</v>
+        <v>1035800</v>
       </c>
       <c r="I44" s="3">
+        <v>1693900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1742600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1266500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1729100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1850300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1832600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1452900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1410300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1929300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2056800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1553700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1437300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2158700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2521100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2024100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1935600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2310100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>98514600</v>
+        <v>118660000</v>
       </c>
       <c r="E45" s="3">
-        <v>36490900</v>
+        <v>70018800</v>
       </c>
       <c r="F45" s="3">
-        <v>16592700</v>
+        <v>93727600</v>
       </c>
       <c r="G45" s="3">
-        <v>14827600</v>
+        <v>34717800</v>
       </c>
       <c r="H45" s="3">
-        <v>11400000</v>
+        <v>15786500</v>
       </c>
       <c r="I45" s="3">
+        <v>11294400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10846100</v>
+      </c>
+      <c r="K45" s="3">
         <v>18832400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18091700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16378800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14982900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>64489100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>64420200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>56665600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>60091700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>52903800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>9127700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>5632400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>7180700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>8292600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>9004300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>8707300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>117203000</v>
+        <v>143656800</v>
       </c>
       <c r="E46" s="3">
-        <v>53604000</v>
+        <v>107366600</v>
       </c>
       <c r="F46" s="3">
-        <v>31224000</v>
+        <v>111507800</v>
       </c>
       <c r="G46" s="3">
-        <v>29698900</v>
+        <v>50999300</v>
       </c>
       <c r="H46" s="3">
-        <v>24147300</v>
+        <v>29706800</v>
       </c>
       <c r="I46" s="3">
+        <v>28255800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>22973900</v>
+      </c>
+      <c r="K46" s="3">
         <v>28882900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>30807300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>32968800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>30585600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>74382600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>75804400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>72763700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>72153500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>63189900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>28145000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>26215300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>25894400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>34116300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>34934900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>35790600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8558200</v>
+        <v>8166200</v>
       </c>
       <c r="E47" s="3">
-        <v>8145800</v>
+        <v>9177100</v>
       </c>
       <c r="F47" s="3">
-        <v>8756700</v>
+        <v>8142300</v>
       </c>
       <c r="G47" s="3">
-        <v>8501500</v>
+        <v>7750000</v>
       </c>
       <c r="H47" s="3">
+        <v>8331200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>8081100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7938900</v>
+      </c>
+      <c r="K47" s="3">
         <v>8344400</v>
       </c>
-      <c r="I47" s="3">
-        <v>8344400</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8278900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9351000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>9232700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2258700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2259600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2629600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2008100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1944600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4478700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>5105100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>4516000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>4481200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>4690500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>5381900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21634900</v>
+        <v>20728900</v>
       </c>
       <c r="E48" s="3">
-        <v>21081800</v>
+        <v>20741400</v>
       </c>
       <c r="F48" s="3">
-        <v>20821100</v>
+        <v>20583600</v>
       </c>
       <c r="G48" s="3">
-        <v>19529500</v>
+        <v>20057400</v>
       </c>
       <c r="H48" s="3">
-        <v>21008700</v>
+        <v>19809400</v>
       </c>
       <c r="I48" s="3">
+        <v>18580500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>19987900</v>
+      </c>
+      <c r="K48" s="3">
         <v>20822200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20744700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>22199500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>23813800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>15313200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>15536200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>14678600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>13499400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>13162800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>27510400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>27990300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>27179100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>27115100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>29009500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>28779500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6370900</v>
+        <v>6037500</v>
       </c>
       <c r="E49" s="3">
-        <v>6461500</v>
+        <v>6107000</v>
       </c>
       <c r="F49" s="3">
-        <v>5466600</v>
+        <v>6061300</v>
       </c>
       <c r="G49" s="3">
-        <v>5359600</v>
+        <v>6147500</v>
       </c>
       <c r="H49" s="3">
-        <v>4937500</v>
+        <v>5200900</v>
       </c>
       <c r="I49" s="3">
+        <v>5084700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4697500</v>
+      </c>
+      <c r="K49" s="3">
         <v>5054200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5211300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5576700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5570000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2563400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2648400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2594100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2426800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2328900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13676700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>13893600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>13744400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>14279600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>14989600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>14964900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3567,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3641,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5094500</v>
+        <v>4695500</v>
       </c>
       <c r="E52" s="3">
-        <v>4774900</v>
+        <v>4310400</v>
       </c>
       <c r="F52" s="3">
-        <v>4540400</v>
+        <v>4847000</v>
       </c>
       <c r="G52" s="3">
-        <v>4477100</v>
+        <v>4542900</v>
       </c>
       <c r="H52" s="3">
-        <v>4616700</v>
+        <v>4319700</v>
       </c>
       <c r="I52" s="3">
+        <v>3976200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4392400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4749800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4743300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4628800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2459800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2530400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2464200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2093700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2389100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2775700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4765300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4279300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>4656300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>4650600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5197600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>4764500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3789,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>158861600</v>
+        <v>183284800</v>
       </c>
       <c r="E54" s="3">
-        <v>94068100</v>
+        <v>147702500</v>
       </c>
       <c r="F54" s="3">
-        <v>70808800</v>
+        <v>151142100</v>
       </c>
       <c r="G54" s="3">
-        <v>67268800</v>
+        <v>89497100</v>
       </c>
       <c r="H54" s="3">
-        <v>63054600</v>
+        <v>67368000</v>
       </c>
       <c r="I54" s="3">
+        <v>63978200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>59990600</v>
+      </c>
+      <c r="K54" s="3">
         <v>67853500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>69785500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>74724700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>71661900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>97048300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>98712800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>94759800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>92476800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>83401900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>78576200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>77483500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>75990100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>84642900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>88822200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>89681400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3895,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3923,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4034200</v>
+        <v>6080000</v>
       </c>
       <c r="E57" s="3">
-        <v>2838500</v>
+        <v>4595800</v>
       </c>
       <c r="F57" s="3">
-        <v>2906200</v>
+        <v>3838200</v>
       </c>
       <c r="G57" s="3">
-        <v>2604000</v>
+        <v>2700600</v>
       </c>
       <c r="H57" s="3">
-        <v>2124000</v>
+        <v>2765000</v>
       </c>
       <c r="I57" s="3">
+        <v>2477500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2020800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2294200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3258500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3487100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2926500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2709200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3045500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2873300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2291600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2299200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5138600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5696300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4651800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4757200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5730500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>6375000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7316700</v>
+        <v>11184400</v>
       </c>
       <c r="E58" s="3">
-        <v>1534900</v>
+        <v>11412700</v>
       </c>
       <c r="F58" s="3">
-        <v>1394200</v>
+        <v>6961200</v>
       </c>
       <c r="G58" s="3">
-        <v>1360400</v>
+        <v>1460300</v>
       </c>
       <c r="H58" s="3">
-        <v>1554500</v>
+        <v>1326400</v>
       </c>
       <c r="I58" s="3">
+        <v>1294300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2400000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1842500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4084800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5059200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2574000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4241700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>906100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1031200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>729100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3687100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3127000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5084900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3852900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4299700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2514300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>101161200</v>
+        <v>126500300</v>
       </c>
       <c r="E59" s="3">
-        <v>36785500</v>
+        <v>84675000</v>
       </c>
       <c r="F59" s="3">
-        <v>15915300</v>
+        <v>96245500</v>
       </c>
       <c r="G59" s="3">
-        <v>14295300</v>
+        <v>34998000</v>
       </c>
       <c r="H59" s="3">
-        <v>10263300</v>
+        <v>15141900</v>
       </c>
       <c r="I59" s="3">
+        <v>13354700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9764600</v>
+      </c>
+      <c r="K59" s="3">
         <v>15458200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16334200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17428300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15165400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>54054400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>53331400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>50449500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>51325100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>46528800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>13774400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>13946300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>13215900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>21579200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>22555900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>24876600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>112512100</v>
+        <v>143764700</v>
       </c>
       <c r="E60" s="3">
-        <v>41158900</v>
+        <v>100683600</v>
       </c>
       <c r="F60" s="3">
-        <v>20215700</v>
+        <v>107044900</v>
       </c>
       <c r="G60" s="3">
-        <v>18001100</v>
+        <v>39158900</v>
       </c>
       <c r="H60" s="3">
-        <v>13941800</v>
+        <v>19233300</v>
       </c>
       <c r="I60" s="3">
+        <v>17126400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>13264400</v>
+      </c>
+      <c r="K60" s="3">
         <v>20152400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>21435300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>22887100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>23151100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>59337600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>60618600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>54228900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>54647900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>49557100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>22600100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>22769700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>22952500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>30189400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>32586100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>33765800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5688000</v>
+        <v>7256000</v>
       </c>
       <c r="E61" s="3">
-        <v>5422900</v>
+        <v>7055600</v>
       </c>
       <c r="F61" s="3">
-        <v>4749800</v>
+        <v>5411600</v>
       </c>
       <c r="G61" s="3">
-        <v>4310200</v>
+        <v>5159400</v>
       </c>
       <c r="H61" s="3">
-        <v>4029800</v>
+        <v>4519000</v>
       </c>
       <c r="I61" s="3">
+        <v>4100700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3834000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4528400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4280700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4580900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4568000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2979800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2892400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2363400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2158700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1731500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>15890300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>16172400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>15289400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>17165300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>18529800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>18829100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22489100</v>
+        <v>20538000</v>
       </c>
       <c r="E62" s="3">
-        <v>24346900</v>
+        <v>22323200</v>
       </c>
       <c r="F62" s="3">
-        <v>23803700</v>
+        <v>21396300</v>
       </c>
       <c r="G62" s="3">
-        <v>26511300</v>
+        <v>23163900</v>
       </c>
       <c r="H62" s="3">
-        <v>25353800</v>
+        <v>22647000</v>
       </c>
       <c r="I62" s="3">
+        <v>24374000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>24121800</v>
+      </c>
+      <c r="K62" s="3">
         <v>25149800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>25394200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>26865600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>24303800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>20443500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>20194200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>21302800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>18493600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>18421100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>24908100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>25087700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>25078700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>25138200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>26906100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>27707800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4437,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4511,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4585,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>142676800</v>
+        <v>173388500</v>
       </c>
       <c r="E66" s="3">
-        <v>72932800</v>
+        <v>131870400</v>
       </c>
       <c r="F66" s="3">
-        <v>49684400</v>
+        <v>135743800</v>
       </c>
       <c r="G66" s="3">
-        <v>48814900</v>
+        <v>69388800</v>
       </c>
       <c r="H66" s="3">
-        <v>43574200</v>
+        <v>47270100</v>
       </c>
       <c r="I66" s="3">
+        <v>46421100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>41456800</v>
+      </c>
+      <c r="K66" s="3">
         <v>50319300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51657900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>54920800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>52583900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>88114700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>89793900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>84425900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>81244700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>75294300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>69468300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>69900000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>68985600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>78183600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>84445100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>86448800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4691,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4761,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4835,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4909,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4983,14 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4657,62 +5003,68 @@
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>9376400</v>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>9936000</v>
+        <v>8920800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="3">
-        <v>10399300</v>
+        <v>9936000</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3">
-        <v>1345800</v>
+        <v>10399300</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O72" s="3">
-        <v>1347300</v>
+        <v>1345800</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3">
-        <v>1371400</v>
+        <v>1347300</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="3">
+        <v>1371400</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>2655800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>2728700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3031600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>932000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-765300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5131,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5205,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5279,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16184700</v>
+        <v>9896400</v>
       </c>
       <c r="E76" s="3">
-        <v>21135300</v>
+        <v>15832100</v>
       </c>
       <c r="F76" s="3">
-        <v>21124400</v>
+        <v>15398300</v>
       </c>
       <c r="G76" s="3">
-        <v>18453800</v>
+        <v>20108300</v>
       </c>
       <c r="H76" s="3">
-        <v>19480400</v>
+        <v>20097900</v>
       </c>
       <c r="I76" s="3">
+        <v>17557100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>18533800</v>
+      </c>
+      <c r="K76" s="3">
         <v>17534200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>18127700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>19803900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>19078000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8933600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8918900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10333800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11232200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8107600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9107900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7583500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7004600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6459300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4377100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3232700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5427,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1501100</v>
+        <v>2248100</v>
       </c>
       <c r="E81" s="3">
-        <v>585800</v>
+        <v>-2166100</v>
       </c>
       <c r="F81" s="3">
-        <v>976400</v>
+        <v>1428200</v>
       </c>
       <c r="G81" s="3">
-        <v>-641500</v>
+        <v>557400</v>
       </c>
       <c r="H81" s="3">
-        <v>637100</v>
+        <v>928900</v>
       </c>
       <c r="I81" s="3">
+        <v>-566700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>606100</v>
+      </c>
+      <c r="K81" s="3">
         <v>322900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>782200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-692300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>10119600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-154100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1149500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>473200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-251400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-502900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>680800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-357900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-504900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1933200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1110400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5612,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>436400</v>
+        <v>446300</v>
       </c>
       <c r="E83" s="3">
-        <v>1085500</v>
+        <v>379900</v>
       </c>
       <c r="F83" s="3">
-        <v>388400</v>
+        <v>415200</v>
       </c>
       <c r="G83" s="3">
-        <v>2298500</v>
+        <v>1032700</v>
       </c>
       <c r="H83" s="3">
-        <v>426500</v>
+        <v>369500</v>
       </c>
       <c r="I83" s="3">
+        <v>2186900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>405800</v>
+      </c>
+      <c r="K83" s="3">
         <v>411300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>331600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1929700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>721500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>302300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>305000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>275600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>265800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>9900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>522600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>741600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1098400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>918900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>145600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>5558000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5756,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5830,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5904,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5978,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6052,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1735600</v>
+        <v>2789900</v>
       </c>
       <c r="E89" s="3">
-        <v>3726500</v>
+        <v>3999000</v>
       </c>
       <c r="F89" s="3">
-        <v>1741100</v>
+        <v>-1651300</v>
       </c>
       <c r="G89" s="3">
-        <v>2571300</v>
+        <v>3545500</v>
       </c>
       <c r="H89" s="3">
-        <v>690500</v>
+        <v>1656500</v>
       </c>
       <c r="I89" s="3">
+        <v>2446300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>657000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2616000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1323300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>572000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-378500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1589300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2073600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3429100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1575600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>399700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1298100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3194300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2047100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6158,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5740,56 +6180,62 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-488700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-645800</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-430600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-232100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>764200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-500600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-417200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-11000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>336600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-232300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>52700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-419100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6302,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6376,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-126500</v>
+        <v>-139100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2312700</v>
+        <v>-5492600</v>
       </c>
       <c r="F94" s="3">
-        <v>-229100</v>
+        <v>-120400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2526500</v>
+        <v>-2200300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2096700</v>
+        <v>-218000</v>
       </c>
       <c r="I94" s="3">
+        <v>-2403800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1994800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-703600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>577100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-616400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1836300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-645800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>2209400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-995700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-905900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>31400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>5607700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-819300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6482,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6552,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6626,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6700,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6774,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1901500</v>
+        <v>-2065400</v>
       </c>
       <c r="E100" s="3">
-        <v>-656700</v>
+        <v>3796600</v>
       </c>
       <c r="F100" s="3">
-        <v>157100</v>
+        <v>-1809100</v>
       </c>
       <c r="G100" s="3">
-        <v>708000</v>
+        <v>-624800</v>
       </c>
       <c r="H100" s="3">
-        <v>2116400</v>
+        <v>149500</v>
       </c>
       <c r="I100" s="3">
+        <v>673600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2013500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1196700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>308700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1862000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3279300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2746900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1766800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-399800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-141600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>407400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-976100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-669800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1103400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>4138900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-11400</v>
       </c>
       <c r="E101" s="3">
-        <v>10900</v>
+        <v>13500</v>
       </c>
       <c r="F101" s="3">
-        <v>38200</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-12000</v>
+        <v>10400</v>
       </c>
       <c r="H101" s="3">
-        <v>62200</v>
+        <v>36300</v>
       </c>
       <c r="I101" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-76400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-10900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-819500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>868500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-8200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>17900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>23100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-28000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>12900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-2300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3763600</v>
+        <v>574000</v>
       </c>
       <c r="E102" s="3">
-        <v>768000</v>
+        <v>2316600</v>
       </c>
       <c r="F102" s="3">
-        <v>1707300</v>
+        <v>-3580800</v>
       </c>
       <c r="G102" s="3">
-        <v>740700</v>
+        <v>730700</v>
       </c>
       <c r="H102" s="3">
-        <v>772400</v>
+        <v>1624300</v>
       </c>
       <c r="I102" s="3">
+        <v>704700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>734800</v>
+      </c>
+      <c r="K102" s="3">
         <v>639300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-448400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2725900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1933000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1811700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>339700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-852900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2023600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>252500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-75800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>8128800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1918000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,344 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8244000</v>
+        <v>8223600</v>
       </c>
       <c r="E8" s="3">
-        <v>11700200</v>
+        <v>7922300</v>
       </c>
       <c r="F8" s="3">
-        <v>4987100</v>
+        <v>11243700</v>
       </c>
       <c r="G8" s="3">
-        <v>3882800</v>
+        <v>4792500</v>
       </c>
       <c r="H8" s="3">
-        <v>4885400</v>
+        <v>3731300</v>
       </c>
       <c r="I8" s="3">
-        <v>4458800</v>
+        <v>4694800</v>
       </c>
       <c r="J8" s="3">
+        <v>4284800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3027600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2914900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4148700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4690700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2623900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3205700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4445100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4369600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3350500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3296200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4046100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3904500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3293000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3504000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5028600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>13997700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7799800</v>
+        <v>8202600</v>
       </c>
       <c r="E9" s="3">
-        <v>7757300</v>
+        <v>7495500</v>
       </c>
       <c r="F9" s="3">
-        <v>4057200</v>
+        <v>7454600</v>
       </c>
       <c r="G9" s="3">
-        <v>2872900</v>
+        <v>3898800</v>
       </c>
       <c r="H9" s="3">
-        <v>3697000</v>
+        <v>2760800</v>
       </c>
       <c r="I9" s="3">
-        <v>4724500</v>
+        <v>3552700</v>
       </c>
       <c r="J9" s="3">
+        <v>4540200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1676200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1726900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2251600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2347700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1896300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2939800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3189100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3025900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2628300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2809800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2753800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2897000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2447100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2564900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3498000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10903500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>444200</v>
+        <v>20900</v>
       </c>
       <c r="E10" s="3">
-        <v>3943000</v>
+        <v>426900</v>
       </c>
       <c r="F10" s="3">
-        <v>930000</v>
+        <v>3789100</v>
       </c>
       <c r="G10" s="3">
-        <v>1009900</v>
+        <v>893700</v>
       </c>
       <c r="H10" s="3">
-        <v>1188400</v>
+        <v>970500</v>
       </c>
       <c r="I10" s="3">
-        <v>-265700</v>
+        <v>1142000</v>
       </c>
       <c r="J10" s="3">
+        <v>-255300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1351300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1188000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1897100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2343000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>727600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>265900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1256000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1343800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>722200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>486400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1292300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1007500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>846000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>939100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1530600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3094200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1029,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1181,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1191,8 +1210,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1209,11 +1228,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>55600</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1221,17 +1240,17 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>80800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>337700</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1239,82 +1258,88 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>396500</v>
+        <v>402000</v>
       </c>
       <c r="E15" s="3">
-        <v>520000</v>
+        <v>381000</v>
       </c>
       <c r="F15" s="3">
-        <v>375700</v>
+        <v>499700</v>
       </c>
       <c r="G15" s="3">
-        <v>1197700</v>
+        <v>361100</v>
       </c>
       <c r="H15" s="3">
-        <v>369500</v>
+        <v>1151000</v>
       </c>
       <c r="I15" s="3">
-        <v>2090300</v>
+        <v>355100</v>
       </c>
       <c r="J15" s="3">
+        <v>2008800</v>
+      </c>
+      <c r="K15" s="3">
         <v>402700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>411300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>390500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2423500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>706800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>304700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>303800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>592600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>259200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>251400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>230600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>967200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1348600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1171400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>304000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5561500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5276700</v>
+        <v>8931700</v>
       </c>
       <c r="E17" s="3">
-        <v>13696100</v>
+        <v>5070800</v>
       </c>
       <c r="F17" s="3">
-        <v>2919600</v>
+        <v>13161700</v>
       </c>
       <c r="G17" s="3">
-        <v>3254900</v>
+        <v>2805700</v>
       </c>
       <c r="H17" s="3">
-        <v>4428700</v>
+        <v>3127800</v>
       </c>
       <c r="I17" s="3">
-        <v>5157300</v>
+        <v>4255900</v>
       </c>
       <c r="J17" s="3">
+        <v>4956100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2520000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2584400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2751300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4608900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2882400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3750400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3893600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4141300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3454600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3542100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3591600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4027900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3326700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1837800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4304400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20440700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2967400</v>
+        <v>-708200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1995900</v>
+        <v>2851600</v>
       </c>
       <c r="F18" s="3">
-        <v>2067500</v>
+        <v>-1918000</v>
       </c>
       <c r="G18" s="3">
-        <v>627900</v>
+        <v>1986800</v>
       </c>
       <c r="H18" s="3">
-        <v>456700</v>
+        <v>603400</v>
       </c>
       <c r="I18" s="3">
-        <v>-698500</v>
+        <v>438900</v>
       </c>
       <c r="J18" s="3">
+        <v>-671300</v>
+      </c>
+      <c r="K18" s="3">
         <v>507500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>330500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1397500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-258500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-544700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>551400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>228300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-104100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-246000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>454600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-123400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-33700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1666200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>724200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,378 +1546,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-24900</v>
+        <v>671300</v>
       </c>
       <c r="E20" s="3">
-        <v>85100</v>
+        <v>-23900</v>
       </c>
       <c r="F20" s="3">
-        <v>29100</v>
+        <v>81800</v>
       </c>
       <c r="G20" s="3">
-        <v>376800</v>
+        <v>27900</v>
       </c>
       <c r="H20" s="3">
-        <v>285400</v>
+        <v>362100</v>
       </c>
       <c r="I20" s="3">
-        <v>57100</v>
+        <v>274300</v>
       </c>
       <c r="J20" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K20" s="3">
         <v>52900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>244400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-184400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-573200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>105300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>52600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-67400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>33200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-19800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-16500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-124500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>123400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>563200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-628000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3388700</v>
+        <v>-270300</v>
       </c>
       <c r="E21" s="3">
-        <v>-1530900</v>
+        <v>3256500</v>
       </c>
       <c r="F21" s="3">
-        <v>2511700</v>
+        <v>-1471200</v>
       </c>
       <c r="G21" s="3">
-        <v>2037400</v>
+        <v>2413700</v>
       </c>
       <c r="H21" s="3">
-        <v>1111600</v>
+        <v>1957900</v>
       </c>
       <c r="I21" s="3">
-        <v>1545400</v>
+        <v>1068200</v>
       </c>
       <c r="J21" s="3">
+        <v>1485100</v>
+      </c>
+      <c r="K21" s="3">
         <v>966300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>986200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1544700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1438200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>568400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-230600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>909100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>436500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>194900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>36200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>668700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>136900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>342200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2539100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1070500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110000</v>
+        <v>114700</v>
       </c>
       <c r="E22" s="3">
-        <v>99600</v>
+        <v>105700</v>
       </c>
       <c r="F22" s="3">
-        <v>86100</v>
+        <v>95800</v>
       </c>
       <c r="G22" s="3">
-        <v>75800</v>
+        <v>82800</v>
       </c>
       <c r="H22" s="3">
-        <v>91300</v>
+        <v>72800</v>
       </c>
       <c r="I22" s="3">
-        <v>67500</v>
+        <v>87800</v>
       </c>
       <c r="J22" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K22" s="3">
         <v>65400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>89500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>93800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>89900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>75900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>78800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>62200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>53200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>50900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>50500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>120100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>218800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>265300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>198400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2832400</v>
+        <v>-151600</v>
       </c>
       <c r="E23" s="3">
-        <v>-2010400</v>
+        <v>2721900</v>
       </c>
       <c r="F23" s="3">
-        <v>2010400</v>
+        <v>-1932000</v>
       </c>
       <c r="G23" s="3">
-        <v>928900</v>
+        <v>1932000</v>
       </c>
       <c r="H23" s="3">
-        <v>650800</v>
+        <v>892700</v>
       </c>
       <c r="I23" s="3">
-        <v>-708900</v>
+        <v>625400</v>
       </c>
       <c r="J23" s="3">
+        <v>-681200</v>
+      </c>
+      <c r="K23" s="3">
         <v>495100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>485500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1119300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-581400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-229100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-611700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>541900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>107600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-121800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-316200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>390900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-304100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-30300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2010600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>659700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>493000</v>
+        <v>-89800</v>
       </c>
       <c r="E24" s="3">
-        <v>60200</v>
+        <v>473800</v>
       </c>
       <c r="F24" s="3">
-        <v>549000</v>
+        <v>57800</v>
       </c>
       <c r="G24" s="3">
-        <v>400600</v>
+        <v>527600</v>
       </c>
       <c r="H24" s="3">
-        <v>-293700</v>
+        <v>385000</v>
       </c>
       <c r="I24" s="3">
-        <v>-153600</v>
+        <v>-282300</v>
       </c>
       <c r="J24" s="3">
+        <v>-147600</v>
+      </c>
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>172400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>341500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>120200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-53900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-269400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>93300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>127800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>56100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-53900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>301800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>72800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-529400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2339400</v>
+        <v>-61800</v>
       </c>
       <c r="E26" s="3">
-        <v>-2070600</v>
+        <v>2248100</v>
       </c>
       <c r="F26" s="3">
-        <v>1461400</v>
+        <v>-1989800</v>
       </c>
       <c r="G26" s="3">
-        <v>528300</v>
+        <v>1404300</v>
       </c>
       <c r="H26" s="3">
-        <v>944500</v>
+        <v>507700</v>
       </c>
       <c r="I26" s="3">
-        <v>-555300</v>
+        <v>907600</v>
       </c>
       <c r="J26" s="3">
+        <v>-533600</v>
+      </c>
+      <c r="K26" s="3">
         <v>440100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>313100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>777800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-701600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-175200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-342300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>448600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-21000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-343700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>323900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-360200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1708800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>586900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2248100</v>
+        <v>-82800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2166100</v>
+        <v>2160400</v>
       </c>
       <c r="F27" s="3">
-        <v>1428200</v>
+        <v>-2081600</v>
       </c>
       <c r="G27" s="3">
-        <v>557400</v>
+        <v>1372400</v>
       </c>
       <c r="H27" s="3">
-        <v>928900</v>
+        <v>535600</v>
       </c>
       <c r="I27" s="3">
-        <v>-566700</v>
+        <v>892700</v>
       </c>
       <c r="J27" s="3">
+        <v>-544600</v>
+      </c>
+      <c r="K27" s="3">
         <v>428700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>301100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>749500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-721500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-268300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-504700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-62200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-397500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-87500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-379900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-34000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-561000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>85300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1761500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>190200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2197,65 +2257,68 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>177500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>21800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>32700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>29200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>10387900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>350600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1211800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>870600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-163900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-123000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>714800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>203100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-590200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>171700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>920300</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>24900</v>
+        <v>-671300</v>
       </c>
       <c r="E32" s="3">
-        <v>-85100</v>
+        <v>23900</v>
       </c>
       <c r="F32" s="3">
-        <v>-29100</v>
+        <v>-81800</v>
       </c>
       <c r="G32" s="3">
-        <v>-376800</v>
+        <v>-27900</v>
       </c>
       <c r="H32" s="3">
-        <v>-285400</v>
+        <v>-362100</v>
       </c>
       <c r="I32" s="3">
-        <v>-57100</v>
+        <v>-274300</v>
       </c>
       <c r="J32" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-244400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>184400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>573200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-105300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>67400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-33200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>19800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>16500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>124500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-123400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-563200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>628000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2248100</v>
+        <v>-82800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2166100</v>
+        <v>2160400</v>
       </c>
       <c r="F33" s="3">
-        <v>1428200</v>
+        <v>-2081600</v>
       </c>
       <c r="G33" s="3">
-        <v>557400</v>
+        <v>1372400</v>
       </c>
       <c r="H33" s="3">
-        <v>928900</v>
+        <v>535600</v>
       </c>
       <c r="I33" s="3">
-        <v>-566700</v>
+        <v>892700</v>
       </c>
       <c r="J33" s="3">
+        <v>-544600</v>
+      </c>
+      <c r="K33" s="3">
         <v>606100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>322900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>782200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-692300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10119600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-154100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1149500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>473200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-251400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-502900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>680800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-357900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-504900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1933200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1110400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2248100</v>
+        <v>-82800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2166100</v>
+        <v>2160400</v>
       </c>
       <c r="F35" s="3">
-        <v>1428200</v>
+        <v>-2081600</v>
       </c>
       <c r="G35" s="3">
-        <v>557400</v>
+        <v>1372400</v>
       </c>
       <c r="H35" s="3">
-        <v>928900</v>
+        <v>535600</v>
       </c>
       <c r="I35" s="3">
-        <v>-566700</v>
+        <v>892700</v>
       </c>
       <c r="J35" s="3">
+        <v>-544600</v>
+      </c>
+      <c r="K35" s="3">
         <v>606100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>322900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>782200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-692300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10119600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-154100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1149500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>473200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-251400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-502900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>680800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-357900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-504900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1933200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1110400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,674 +2918,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6608300</v>
+        <v>4603000</v>
       </c>
       <c r="E41" s="3">
-        <v>6045800</v>
+        <v>6350400</v>
       </c>
       <c r="F41" s="3">
-        <v>3711500</v>
+        <v>5809900</v>
       </c>
       <c r="G41" s="3">
-        <v>7309900</v>
+        <v>3566700</v>
       </c>
       <c r="H41" s="3">
-        <v>6579200</v>
+        <v>7024700</v>
       </c>
       <c r="I41" s="3">
-        <v>4954900</v>
+        <v>6322500</v>
       </c>
       <c r="J41" s="3">
+        <v>4761600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4250200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3688400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3482200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3726400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6787700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3840900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5244100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4167400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5114900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3571800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4270100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4412800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6093500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12234200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4338400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5371400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7847600</v>
+        <v>7989200</v>
       </c>
       <c r="E42" s="3">
-        <v>8344700</v>
+        <v>7541300</v>
       </c>
       <c r="F42" s="3">
-        <v>3638900</v>
+        <v>8019100</v>
       </c>
       <c r="G42" s="3">
-        <v>4144300</v>
+        <v>3496900</v>
       </c>
       <c r="H42" s="3">
-        <v>2922700</v>
+        <v>3982600</v>
       </c>
       <c r="I42" s="3">
-        <v>4378900</v>
+        <v>2808700</v>
       </c>
       <c r="J42" s="3">
+        <v>4208000</v>
+      </c>
+      <c r="K42" s="3">
         <v>3782100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2514500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3554200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3803400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3735000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2816300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2589800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4269100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3179900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3624500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5669000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5489900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5192600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5685100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12002200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11532700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7602600</v>
+        <v>5839800</v>
       </c>
       <c r="E43" s="3">
-        <v>20022100</v>
+        <v>7306000</v>
       </c>
       <c r="F43" s="3">
-        <v>4655000</v>
+        <v>19240800</v>
       </c>
       <c r="G43" s="3">
-        <v>3067000</v>
+        <v>4473300</v>
       </c>
       <c r="H43" s="3">
-        <v>3382500</v>
+        <v>2947300</v>
       </c>
       <c r="I43" s="3">
-        <v>5933700</v>
+        <v>3250500</v>
       </c>
       <c r="J43" s="3">
+        <v>5702100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2352900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2581100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3950200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7209900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3247400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1783400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2140000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5732300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1710100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1536100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7641000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8521500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4906500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5880300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7654400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7869200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2938300</v>
+        <v>8021100</v>
       </c>
       <c r="E44" s="3">
-        <v>2935200</v>
+        <v>2823600</v>
       </c>
       <c r="F44" s="3">
-        <v>5774900</v>
+        <v>2820600</v>
       </c>
       <c r="G44" s="3">
-        <v>1760300</v>
+        <v>5549500</v>
       </c>
       <c r="H44" s="3">
-        <v>1035800</v>
+        <v>1691600</v>
       </c>
       <c r="I44" s="3">
-        <v>1693900</v>
+        <v>995400</v>
       </c>
       <c r="J44" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1742600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1266500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1729100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1850300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1832600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1452900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1410300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1929300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2056800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1553700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1437300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2158700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2521100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2024100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1935600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2310100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>118660000</v>
+        <v>122754000</v>
       </c>
       <c r="E45" s="3">
-        <v>70018800</v>
+        <v>114029700</v>
       </c>
       <c r="F45" s="3">
-        <v>93727600</v>
+        <v>67286600</v>
       </c>
       <c r="G45" s="3">
-        <v>34717800</v>
+        <v>90070200</v>
       </c>
       <c r="H45" s="3">
-        <v>15786500</v>
+        <v>33363000</v>
       </c>
       <c r="I45" s="3">
-        <v>11294400</v>
+        <v>15170500</v>
       </c>
       <c r="J45" s="3">
+        <v>10853700</v>
+      </c>
+      <c r="K45" s="3">
         <v>10846100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18832400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18091700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16378800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14982900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>64489100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>64420200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>56665600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60091700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52903800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9127700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5632400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7180700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8292600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9004300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8707300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>143656800</v>
+        <v>149207100</v>
       </c>
       <c r="E46" s="3">
-        <v>107366600</v>
+        <v>138051100</v>
       </c>
       <c r="F46" s="3">
-        <v>111507800</v>
+        <v>103177000</v>
       </c>
       <c r="G46" s="3">
-        <v>50999300</v>
+        <v>107156700</v>
       </c>
       <c r="H46" s="3">
-        <v>29706800</v>
+        <v>49009200</v>
       </c>
       <c r="I46" s="3">
-        <v>28255800</v>
+        <v>28547600</v>
       </c>
       <c r="J46" s="3">
+        <v>27153200</v>
+      </c>
+      <c r="K46" s="3">
         <v>22973900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28882900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30807300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32968800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30585600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>74382600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>75804400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>72763700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>72153500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>63189900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28145000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26215300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>25894400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34116300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>34934900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>35790600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8166200</v>
+        <v>7636100</v>
       </c>
       <c r="E47" s="3">
-        <v>9177100</v>
+        <v>7847500</v>
       </c>
       <c r="F47" s="3">
-        <v>8142300</v>
+        <v>8819000</v>
       </c>
       <c r="G47" s="3">
-        <v>7750000</v>
+        <v>7824600</v>
       </c>
       <c r="H47" s="3">
-        <v>8331200</v>
+        <v>7447600</v>
       </c>
       <c r="I47" s="3">
-        <v>8081100</v>
+        <v>8006100</v>
       </c>
       <c r="J47" s="3">
+        <v>7765800</v>
+      </c>
+      <c r="K47" s="3">
         <v>7938900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8344400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8278900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9351000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9232700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2258700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2259600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2629600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2008100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1944600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4478700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5105100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4516000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4481200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4690500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5381900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20728900</v>
+        <v>21446100</v>
       </c>
       <c r="E48" s="3">
-        <v>20741400</v>
+        <v>19920100</v>
       </c>
       <c r="F48" s="3">
-        <v>20583600</v>
+        <v>19932000</v>
       </c>
       <c r="G48" s="3">
-        <v>20057400</v>
+        <v>19780400</v>
       </c>
       <c r="H48" s="3">
-        <v>19809400</v>
+        <v>19274800</v>
       </c>
       <c r="I48" s="3">
-        <v>18580500</v>
+        <v>19036400</v>
       </c>
       <c r="J48" s="3">
+        <v>17855500</v>
+      </c>
+      <c r="K48" s="3">
         <v>19987900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20822200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20744700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22199500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23813800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15313200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15536200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14678600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13499400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13162800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27510400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27990300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27179100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27115100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>29009500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>28779500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6037500</v>
+        <v>5716100</v>
       </c>
       <c r="E49" s="3">
-        <v>6107000</v>
+        <v>5801900</v>
       </c>
       <c r="F49" s="3">
-        <v>6061300</v>
+        <v>5868700</v>
       </c>
       <c r="G49" s="3">
-        <v>6147500</v>
+        <v>5824800</v>
       </c>
       <c r="H49" s="3">
-        <v>5200900</v>
+        <v>5907600</v>
       </c>
       <c r="I49" s="3">
-        <v>5084700</v>
+        <v>4998000</v>
       </c>
       <c r="J49" s="3">
+        <v>4886300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4697500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5054200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5211300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5576700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5570000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2563400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2648400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2594100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2426800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2328900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13676700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13893600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>13744400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14279600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14989600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>14964900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4695500</v>
+        <v>5110700</v>
       </c>
       <c r="E52" s="3">
-        <v>4310400</v>
+        <v>4512200</v>
       </c>
       <c r="F52" s="3">
-        <v>4847000</v>
+        <v>4142200</v>
       </c>
       <c r="G52" s="3">
-        <v>4542900</v>
+        <v>4657900</v>
       </c>
       <c r="H52" s="3">
-        <v>4319700</v>
+        <v>4365600</v>
       </c>
       <c r="I52" s="3">
-        <v>3976200</v>
+        <v>4151200</v>
       </c>
       <c r="J52" s="3">
+        <v>3821000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4392400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4749800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4743300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4628800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2459800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2530400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2464200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2093700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2389100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2775700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4765300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4279300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4656300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4650600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5197600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4764500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>183284800</v>
+        <v>189116000</v>
       </c>
       <c r="E54" s="3">
-        <v>147702500</v>
+        <v>176132900</v>
       </c>
       <c r="F54" s="3">
-        <v>151142100</v>
+        <v>141939000</v>
       </c>
       <c r="G54" s="3">
-        <v>89497100</v>
+        <v>145244400</v>
       </c>
       <c r="H54" s="3">
-        <v>67368000</v>
+        <v>86004800</v>
       </c>
       <c r="I54" s="3">
-        <v>63978200</v>
+        <v>64739200</v>
       </c>
       <c r="J54" s="3">
+        <v>61481700</v>
+      </c>
+      <c r="K54" s="3">
         <v>59990600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67853500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69785500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74724700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71661900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97048300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98712800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>94759800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92476800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>83401900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78576200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77483500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>75990100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>84642900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>88822200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>89681400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,452 +4054,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6080000</v>
+        <v>5673200</v>
       </c>
       <c r="E57" s="3">
-        <v>4595800</v>
+        <v>5842800</v>
       </c>
       <c r="F57" s="3">
-        <v>3838200</v>
+        <v>4416500</v>
       </c>
       <c r="G57" s="3">
-        <v>2700600</v>
+        <v>3688400</v>
       </c>
       <c r="H57" s="3">
-        <v>2765000</v>
+        <v>2595200</v>
       </c>
       <c r="I57" s="3">
-        <v>2477500</v>
+        <v>2657100</v>
       </c>
       <c r="J57" s="3">
+        <v>2380800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2020800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2294200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3258500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3487100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2926500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2709200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3045500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2873300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2291600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2299200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5138600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5696300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4651800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4757200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5730500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6375000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11184400</v>
+        <v>9852300</v>
       </c>
       <c r="E58" s="3">
-        <v>11412700</v>
+        <v>10748000</v>
       </c>
       <c r="F58" s="3">
-        <v>6961200</v>
+        <v>10967400</v>
       </c>
       <c r="G58" s="3">
-        <v>1460300</v>
+        <v>6689600</v>
       </c>
       <c r="H58" s="3">
-        <v>1326400</v>
+        <v>1403300</v>
       </c>
       <c r="I58" s="3">
-        <v>1294300</v>
+        <v>1274700</v>
       </c>
       <c r="J58" s="3">
+        <v>1243800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1479000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1842500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4084800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5059200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2574000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4241700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>906100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1031200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>729100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3687100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3127000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5084900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3852900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4299700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2514300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>126500300</v>
+        <v>135595500</v>
       </c>
       <c r="E59" s="3">
-        <v>84675000</v>
+        <v>121564100</v>
       </c>
       <c r="F59" s="3">
-        <v>96245500</v>
+        <v>81370900</v>
       </c>
       <c r="G59" s="3">
-        <v>34998000</v>
+        <v>92489900</v>
       </c>
       <c r="H59" s="3">
-        <v>15141900</v>
+        <v>33632300</v>
       </c>
       <c r="I59" s="3">
-        <v>13354700</v>
+        <v>14551100</v>
       </c>
       <c r="J59" s="3">
+        <v>12833500</v>
+      </c>
+      <c r="K59" s="3">
         <v>9764600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15458200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16334200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17428300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15165400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54054400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>53331400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50449500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51325100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46528800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13774400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13946300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13215900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21579200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>22555900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>24876600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>143764700</v>
+        <v>151121100</v>
       </c>
       <c r="E60" s="3">
-        <v>100683600</v>
+        <v>138154900</v>
       </c>
       <c r="F60" s="3">
-        <v>107044900</v>
+        <v>96754800</v>
       </c>
       <c r="G60" s="3">
-        <v>39158900</v>
+        <v>102867800</v>
       </c>
       <c r="H60" s="3">
-        <v>19233300</v>
+        <v>37630900</v>
       </c>
       <c r="I60" s="3">
-        <v>17126400</v>
+        <v>18482800</v>
       </c>
       <c r="J60" s="3">
+        <v>16458100</v>
+      </c>
+      <c r="K60" s="3">
         <v>13264400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20152400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21435300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22887100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23151100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>59337600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60618600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54228900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54647900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>49557100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22600100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22769700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22952500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>30189400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>32586100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>33765800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7256000</v>
+        <v>9118200</v>
       </c>
       <c r="E61" s="3">
-        <v>7055600</v>
+        <v>6972800</v>
       </c>
       <c r="F61" s="3">
-        <v>5411600</v>
+        <v>6780300</v>
       </c>
       <c r="G61" s="3">
-        <v>5159400</v>
+        <v>5200400</v>
       </c>
       <c r="H61" s="3">
-        <v>4519000</v>
+        <v>4958100</v>
       </c>
       <c r="I61" s="3">
-        <v>4100700</v>
+        <v>4342700</v>
       </c>
       <c r="J61" s="3">
+        <v>3940700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3834000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4528400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4280700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4580900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4568000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2979800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2892400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2363400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2158700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1731500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15890300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16172400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15289400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17165300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18529800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18829100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20538000</v>
+        <v>19431300</v>
       </c>
       <c r="E62" s="3">
-        <v>22323200</v>
+        <v>19736600</v>
       </c>
       <c r="F62" s="3">
-        <v>21396300</v>
+        <v>21452100</v>
       </c>
       <c r="G62" s="3">
-        <v>23163900</v>
+        <v>20561400</v>
       </c>
       <c r="H62" s="3">
-        <v>22647000</v>
+        <v>22260000</v>
       </c>
       <c r="I62" s="3">
-        <v>24374000</v>
+        <v>21763300</v>
       </c>
       <c r="J62" s="3">
+        <v>23422900</v>
+      </c>
+      <c r="K62" s="3">
         <v>24121800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25149800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25394200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26865600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24303800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20443500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20194200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21302800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18493600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18421100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>24908100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25087700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25078700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25138200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26906100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>27707800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>173388500</v>
+        <v>181364200</v>
       </c>
       <c r="E66" s="3">
-        <v>131870400</v>
+        <v>166622700</v>
       </c>
       <c r="F66" s="3">
-        <v>135743800</v>
+        <v>126724700</v>
       </c>
       <c r="G66" s="3">
-        <v>69388800</v>
+        <v>130447000</v>
       </c>
       <c r="H66" s="3">
-        <v>47270100</v>
+        <v>66681200</v>
       </c>
       <c r="I66" s="3">
-        <v>46421100</v>
+        <v>45425600</v>
       </c>
       <c r="J66" s="3">
+        <v>44609700</v>
+      </c>
+      <c r="K66" s="3">
         <v>41456800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50319300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51657900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54920800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52583900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88114700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89793900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>84425900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>81244700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75294300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>69468300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>69900000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>68985600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>78183600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>84445100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>86448800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,8 +5159,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5009,62 +5182,65 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>8920800</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="J72" s="3">
+        <v>8572700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>9936000</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10399300</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1345800</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1347300</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1371400</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2655800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2728700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3031600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>932000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-765300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9896400</v>
+        <v>7751800</v>
       </c>
       <c r="E76" s="3">
-        <v>15832100</v>
+        <v>9510200</v>
       </c>
       <c r="F76" s="3">
-        <v>15398300</v>
+        <v>15214300</v>
       </c>
       <c r="G76" s="3">
-        <v>20108300</v>
+        <v>14797400</v>
       </c>
       <c r="H76" s="3">
-        <v>20097900</v>
+        <v>19323600</v>
       </c>
       <c r="I76" s="3">
-        <v>17557100</v>
+        <v>19313700</v>
       </c>
       <c r="J76" s="3">
+        <v>16872000</v>
+      </c>
+      <c r="K76" s="3">
         <v>18533800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17534200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18127700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19803900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19078000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8933600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8918900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10333800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11232200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8107600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9107900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7583500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7004600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6459300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4377100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3232700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2248100</v>
+        <v>-82800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2166100</v>
+        <v>2160400</v>
       </c>
       <c r="F81" s="3">
-        <v>1428200</v>
+        <v>-2081600</v>
       </c>
       <c r="G81" s="3">
-        <v>557400</v>
+        <v>1372400</v>
       </c>
       <c r="H81" s="3">
-        <v>928900</v>
+        <v>535600</v>
       </c>
       <c r="I81" s="3">
-        <v>-566700</v>
+        <v>892700</v>
       </c>
       <c r="J81" s="3">
+        <v>-544600</v>
+      </c>
+      <c r="K81" s="3">
         <v>606100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>322900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>782200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-692300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10119600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-154100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1149500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>473200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-251400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-502900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>680800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-357900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-504900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1933200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1110400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>446300</v>
+        <v>-233400</v>
       </c>
       <c r="E83" s="3">
-        <v>379900</v>
+        <v>428900</v>
       </c>
       <c r="F83" s="3">
-        <v>415200</v>
+        <v>365000</v>
       </c>
       <c r="G83" s="3">
-        <v>1032700</v>
+        <v>399000</v>
       </c>
       <c r="H83" s="3">
-        <v>369500</v>
+        <v>992400</v>
       </c>
       <c r="I83" s="3">
-        <v>2186900</v>
+        <v>355100</v>
       </c>
       <c r="J83" s="3">
+        <v>2101500</v>
+      </c>
+      <c r="K83" s="3">
         <v>405800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>411300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>331600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1929700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>721500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>302300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>305000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>275600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>265800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>522600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>741600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1098400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>918900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>145600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5558000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2789900</v>
+        <v>216400</v>
       </c>
       <c r="E89" s="3">
-        <v>3999000</v>
+        <v>2681000</v>
       </c>
       <c r="F89" s="3">
-        <v>-1651300</v>
+        <v>3843000</v>
       </c>
       <c r="G89" s="3">
-        <v>3545500</v>
+        <v>-1586900</v>
       </c>
       <c r="H89" s="3">
-        <v>1656500</v>
+        <v>3407100</v>
       </c>
       <c r="I89" s="3">
-        <v>2446300</v>
+        <v>1591900</v>
       </c>
       <c r="J89" s="3">
+        <v>2350900</v>
+      </c>
+      <c r="K89" s="3">
         <v>657000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2616000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1323300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>572000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-378500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1589300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2073600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3429100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1575600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>399700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1298100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3194300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2047100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-488700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-645800</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-430600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-232100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>764200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-417200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>336600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-232300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>52700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-419100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-139100</v>
+        <v>-1965900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5492600</v>
+        <v>-133700</v>
       </c>
       <c r="F94" s="3">
-        <v>-120400</v>
+        <v>-5278200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2200300</v>
+        <v>-115700</v>
       </c>
       <c r="H94" s="3">
-        <v>-218000</v>
+        <v>-2114500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2403800</v>
+        <v>-209500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2310000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1994800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-703600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>577100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-616400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1836300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-645800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2209400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-995700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-905900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>31400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5607700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-819300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2065400</v>
+        <v>-19000</v>
       </c>
       <c r="E100" s="3">
-        <v>3796600</v>
+        <v>-1984800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1809100</v>
+        <v>3648500</v>
       </c>
       <c r="G100" s="3">
-        <v>-624800</v>
+        <v>-1738500</v>
       </c>
       <c r="H100" s="3">
-        <v>149500</v>
+        <v>-600400</v>
       </c>
       <c r="I100" s="3">
-        <v>673600</v>
+        <v>143600</v>
       </c>
       <c r="J100" s="3">
+        <v>647300</v>
+      </c>
+      <c r="K100" s="3">
         <v>2013500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1196700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>308700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1862000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3279300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2746900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1766800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-399800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-141600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>407400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-976100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-669800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1103400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4138900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11400</v>
+        <v>10000</v>
       </c>
       <c r="E101" s="3">
-        <v>13500</v>
+        <v>-11000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G101" s="3">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>36300</v>
+        <v>10000</v>
       </c>
       <c r="I101" s="3">
-        <v>-11400</v>
+        <v>34900</v>
       </c>
       <c r="J101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K101" s="3">
         <v>59200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-76400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-819500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>868500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>17900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>23100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-28000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>12900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>574000</v>
+        <v>-1758400</v>
       </c>
       <c r="E102" s="3">
-        <v>2316600</v>
+        <v>551600</v>
       </c>
       <c r="F102" s="3">
-        <v>-3580800</v>
+        <v>2226200</v>
       </c>
       <c r="G102" s="3">
-        <v>730700</v>
+        <v>-3441000</v>
       </c>
       <c r="H102" s="3">
-        <v>1624300</v>
+        <v>702200</v>
       </c>
       <c r="I102" s="3">
-        <v>704700</v>
+        <v>1560900</v>
       </c>
       <c r="J102" s="3">
+        <v>677200</v>
+      </c>
+      <c r="K102" s="3">
         <v>734800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>639300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-448400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2725900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1933000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1811700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>339700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-852900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2023600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>252500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-75800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8128800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1918000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,356 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8223600</v>
+        <v>10967500</v>
       </c>
       <c r="E8" s="3">
-        <v>7922300</v>
+        <v>8416500</v>
       </c>
       <c r="F8" s="3">
-        <v>11243700</v>
+        <v>8108200</v>
       </c>
       <c r="G8" s="3">
-        <v>4792500</v>
+        <v>11507500</v>
       </c>
       <c r="H8" s="3">
-        <v>3731300</v>
+        <v>4904900</v>
       </c>
       <c r="I8" s="3">
-        <v>4694800</v>
+        <v>3818800</v>
       </c>
       <c r="J8" s="3">
+        <v>4804900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4284800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3027600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2914900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4148700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4690700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2623900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3205700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4445100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4369600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3350500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3296200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4046100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3904500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3293000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3504000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5028600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>13997700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8202600</v>
+        <v>11983200</v>
       </c>
       <c r="E9" s="3">
-        <v>7495500</v>
+        <v>8395100</v>
       </c>
       <c r="F9" s="3">
-        <v>7454600</v>
+        <v>7671300</v>
       </c>
       <c r="G9" s="3">
-        <v>3898800</v>
+        <v>7629500</v>
       </c>
       <c r="H9" s="3">
-        <v>2760800</v>
+        <v>3990300</v>
       </c>
       <c r="I9" s="3">
-        <v>3552700</v>
+        <v>2825600</v>
       </c>
       <c r="J9" s="3">
+        <v>3636100</v>
+      </c>
+      <c r="K9" s="3">
         <v>4540200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1676200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1726900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2251600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2347700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1896300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2939800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3189100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3025900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2628300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2809800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2753800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2897000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2447100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2564900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3498000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10903500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20900</v>
+        <v>-1015700</v>
       </c>
       <c r="E10" s="3">
-        <v>426900</v>
+        <v>21400</v>
       </c>
       <c r="F10" s="3">
-        <v>3789100</v>
+        <v>436900</v>
       </c>
       <c r="G10" s="3">
-        <v>893700</v>
+        <v>3878000</v>
       </c>
       <c r="H10" s="3">
-        <v>970500</v>
+        <v>914600</v>
       </c>
       <c r="I10" s="3">
-        <v>1142000</v>
+        <v>993200</v>
       </c>
       <c r="J10" s="3">
+        <v>1168800</v>
+      </c>
+      <c r="K10" s="3">
         <v>-255300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1351300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1188000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1897100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2343000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>727600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>265900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1256000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1343800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>722200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>486400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1292300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1007500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>846000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>939100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1530600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3094200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1042,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,8 +1120,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1200,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,8 +1232,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1231,11 +1250,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>55600</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1243,17 +1262,17 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>80800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>337700</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1261,85 +1280,91 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>402000</v>
+        <v>465500</v>
       </c>
       <c r="E15" s="3">
-        <v>381000</v>
+        <v>411400</v>
       </c>
       <c r="F15" s="3">
-        <v>499700</v>
+        <v>389900</v>
       </c>
       <c r="G15" s="3">
-        <v>361100</v>
+        <v>511400</v>
       </c>
       <c r="H15" s="3">
-        <v>1151000</v>
+        <v>369500</v>
       </c>
       <c r="I15" s="3">
-        <v>355100</v>
+        <v>1178000</v>
       </c>
       <c r="J15" s="3">
+        <v>363400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2008800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>402700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>411300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>390500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2423500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>706800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>304700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>303800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>592600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>259200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>251400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>230600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>967200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1348600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1171400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>304000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5561500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8931700</v>
+        <v>11449300</v>
       </c>
       <c r="E17" s="3">
-        <v>5070800</v>
+        <v>9141300</v>
       </c>
       <c r="F17" s="3">
-        <v>13161700</v>
+        <v>5189700</v>
       </c>
       <c r="G17" s="3">
-        <v>2805700</v>
+        <v>13470500</v>
       </c>
       <c r="H17" s="3">
-        <v>3127800</v>
+        <v>2871500</v>
       </c>
       <c r="I17" s="3">
-        <v>4255900</v>
+        <v>3201200</v>
       </c>
       <c r="J17" s="3">
+        <v>4355800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4956100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2520000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2584400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2751300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4608900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2882400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3750400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3893600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4141300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3454600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3542100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3591600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4027900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3326700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1837800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4304400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>20440700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-708200</v>
+        <v>-481800</v>
       </c>
       <c r="E18" s="3">
-        <v>2851600</v>
+        <v>-724800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1918000</v>
+        <v>2918500</v>
       </c>
       <c r="G18" s="3">
-        <v>1986800</v>
+        <v>-1963000</v>
       </c>
       <c r="H18" s="3">
-        <v>603400</v>
+        <v>2033400</v>
       </c>
       <c r="I18" s="3">
-        <v>438900</v>
+        <v>617600</v>
       </c>
       <c r="J18" s="3">
+        <v>449200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-671300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>507500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>330500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1397500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-258500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-544700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>551400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>228300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-104100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-246000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>454600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-123400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-33700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1666200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>724200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,393 +1579,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>671300</v>
+        <v>660500</v>
       </c>
       <c r="E20" s="3">
-        <v>-23900</v>
+        <v>687000</v>
       </c>
       <c r="F20" s="3">
-        <v>81800</v>
+        <v>-24500</v>
       </c>
       <c r="G20" s="3">
-        <v>27900</v>
+        <v>83700</v>
       </c>
       <c r="H20" s="3">
-        <v>362100</v>
+        <v>28600</v>
       </c>
       <c r="I20" s="3">
-        <v>274300</v>
+        <v>370600</v>
       </c>
       <c r="J20" s="3">
+        <v>280700</v>
+      </c>
+      <c r="K20" s="3">
         <v>54900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>244400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-184400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-573200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>105300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>52600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-67400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>33200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-19800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-16500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-124500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>123400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>563200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-628000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-270300</v>
+        <v>444000</v>
       </c>
       <c r="E21" s="3">
-        <v>3256500</v>
+        <v>-276600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1471200</v>
+        <v>3332900</v>
       </c>
       <c r="G21" s="3">
-        <v>2413700</v>
+        <v>-1505700</v>
       </c>
       <c r="H21" s="3">
-        <v>1957900</v>
+        <v>2470300</v>
       </c>
       <c r="I21" s="3">
-        <v>1068200</v>
+        <v>2003800</v>
       </c>
       <c r="J21" s="3">
+        <v>1093300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1485100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>966300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>986200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1544700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1438200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>568400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-230600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>909100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>436500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>194900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>36200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>668700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>136900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>342200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2539100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1070500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114700</v>
+        <v>162300</v>
       </c>
       <c r="E22" s="3">
-        <v>105700</v>
+        <v>117400</v>
       </c>
       <c r="F22" s="3">
-        <v>95800</v>
+        <v>108200</v>
       </c>
       <c r="G22" s="3">
-        <v>82800</v>
+        <v>98000</v>
       </c>
       <c r="H22" s="3">
-        <v>72800</v>
+        <v>84700</v>
       </c>
       <c r="I22" s="3">
-        <v>87800</v>
+        <v>74500</v>
       </c>
       <c r="J22" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K22" s="3">
         <v>64800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>89500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>93800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>89900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>75900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>78800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>62200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>53200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>50900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>50500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>47200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>56100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>120100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>218800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>265300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>198400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-151600</v>
+        <v>16300</v>
       </c>
       <c r="E23" s="3">
-        <v>2721900</v>
+        <v>-155200</v>
       </c>
       <c r="F23" s="3">
-        <v>-1932000</v>
+        <v>2785800</v>
       </c>
       <c r="G23" s="3">
-        <v>1932000</v>
+        <v>-1977300</v>
       </c>
       <c r="H23" s="3">
-        <v>892700</v>
+        <v>1977300</v>
       </c>
       <c r="I23" s="3">
-        <v>625400</v>
+        <v>913600</v>
       </c>
       <c r="J23" s="3">
+        <v>640000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-681200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>495100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>485500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1119300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-581400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-229100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-611700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>541900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>107600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-121800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-316200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>390900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-304100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-30300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2010600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>659700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-89800</v>
+        <v>-57200</v>
       </c>
       <c r="E24" s="3">
-        <v>473800</v>
+        <v>-91900</v>
       </c>
       <c r="F24" s="3">
-        <v>57800</v>
+        <v>484900</v>
       </c>
       <c r="G24" s="3">
-        <v>527600</v>
+        <v>59200</v>
       </c>
       <c r="H24" s="3">
-        <v>385000</v>
+        <v>540000</v>
       </c>
       <c r="I24" s="3">
-        <v>-282300</v>
+        <v>394000</v>
       </c>
       <c r="J24" s="3">
+        <v>-288900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-147600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>172400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>341500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>120200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-53900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-269400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>93300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>127800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>56100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-53900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>301800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>72800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-529400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-61800</v>
+        <v>73500</v>
       </c>
       <c r="E26" s="3">
-        <v>2248100</v>
+        <v>-63300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1989800</v>
+        <v>2300900</v>
       </c>
       <c r="G26" s="3">
-        <v>1404300</v>
+        <v>-2036500</v>
       </c>
       <c r="H26" s="3">
-        <v>507700</v>
+        <v>1437300</v>
       </c>
       <c r="I26" s="3">
-        <v>907600</v>
+        <v>519600</v>
       </c>
       <c r="J26" s="3">
+        <v>928900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-533600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>440100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>313100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>777800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-701600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-175200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-342300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>448600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-21000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-343700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>323900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-360200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1708800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>586900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-82800</v>
+        <v>19400</v>
       </c>
       <c r="E27" s="3">
-        <v>2160400</v>
+        <v>-84700</v>
       </c>
       <c r="F27" s="3">
-        <v>-2081600</v>
+        <v>2211100</v>
       </c>
       <c r="G27" s="3">
-        <v>1372400</v>
+        <v>-2130400</v>
       </c>
       <c r="H27" s="3">
-        <v>535600</v>
+        <v>1404600</v>
       </c>
       <c r="I27" s="3">
-        <v>892700</v>
+        <v>548200</v>
       </c>
       <c r="J27" s="3">
+        <v>913600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-544600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>428700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>301100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>749500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-721500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-268300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-504700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-62200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-397500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-87500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-379900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-34000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-561000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>85300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1761500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>190200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2260,65 +2320,68 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>177500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>21800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>32700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>29200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>10387900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>350600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1211800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>870600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-163900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-123000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>714800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>203100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-590200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>171700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>920300</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-671300</v>
+        <v>-660500</v>
       </c>
       <c r="E32" s="3">
-        <v>23900</v>
+        <v>-687000</v>
       </c>
       <c r="F32" s="3">
-        <v>-81800</v>
+        <v>24500</v>
       </c>
       <c r="G32" s="3">
-        <v>-27900</v>
+        <v>-83700</v>
       </c>
       <c r="H32" s="3">
-        <v>-362100</v>
+        <v>-28600</v>
       </c>
       <c r="I32" s="3">
-        <v>-274300</v>
+        <v>-370600</v>
       </c>
       <c r="J32" s="3">
+        <v>-280700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-54900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-244400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>184400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>573200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-105300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-52600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>67400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-33200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>19800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>16500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>124500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-123400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-563200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>628000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-82800</v>
+        <v>19400</v>
       </c>
       <c r="E33" s="3">
-        <v>2160400</v>
+        <v>-84700</v>
       </c>
       <c r="F33" s="3">
-        <v>-2081600</v>
+        <v>2211100</v>
       </c>
       <c r="G33" s="3">
-        <v>1372400</v>
+        <v>-2130400</v>
       </c>
       <c r="H33" s="3">
-        <v>535600</v>
+        <v>1404600</v>
       </c>
       <c r="I33" s="3">
-        <v>892700</v>
+        <v>548200</v>
       </c>
       <c r="J33" s="3">
+        <v>913600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-544600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>606100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>322900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>782200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-692300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10119600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-154100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1149500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>473200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-251400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-502900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>680800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-357900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-504900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1933200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1110400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-82800</v>
+        <v>19400</v>
       </c>
       <c r="E35" s="3">
-        <v>2160400</v>
+        <v>-84700</v>
       </c>
       <c r="F35" s="3">
-        <v>-2081600</v>
+        <v>2211100</v>
       </c>
       <c r="G35" s="3">
-        <v>1372400</v>
+        <v>-2130400</v>
       </c>
       <c r="H35" s="3">
-        <v>535600</v>
+        <v>1404600</v>
       </c>
       <c r="I35" s="3">
-        <v>892700</v>
+        <v>548200</v>
       </c>
       <c r="J35" s="3">
+        <v>913600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-544600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>606100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>322900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>782200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-692300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10119600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-154100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1149500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>473200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-251400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-502900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>680800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-357900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-504900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1933200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1110400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,701 +3004,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4603000</v>
+        <v>3375800</v>
       </c>
       <c r="E41" s="3">
-        <v>6350400</v>
+        <v>4711000</v>
       </c>
       <c r="F41" s="3">
-        <v>5809900</v>
+        <v>6499400</v>
       </c>
       <c r="G41" s="3">
-        <v>3566700</v>
+        <v>5946200</v>
       </c>
       <c r="H41" s="3">
-        <v>7024700</v>
+        <v>3650400</v>
       </c>
       <c r="I41" s="3">
-        <v>6322500</v>
+        <v>7189500</v>
       </c>
       <c r="J41" s="3">
+        <v>6470900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4761600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4250200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3688400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3482200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3726400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6787700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3840900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5244100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4167400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5114900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3571800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4270100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4412800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6093500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12234200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4338400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5371400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7989200</v>
+        <v>4359800</v>
       </c>
       <c r="E42" s="3">
-        <v>7541300</v>
+        <v>8176600</v>
       </c>
       <c r="F42" s="3">
-        <v>8019100</v>
+        <v>7718300</v>
       </c>
       <c r="G42" s="3">
-        <v>3496900</v>
+        <v>8207200</v>
       </c>
       <c r="H42" s="3">
-        <v>3982600</v>
+        <v>3578900</v>
       </c>
       <c r="I42" s="3">
-        <v>2808700</v>
+        <v>4076100</v>
       </c>
       <c r="J42" s="3">
+        <v>2874600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4208000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3782100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2514500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3554200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3803400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3735000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2816300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2589800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4269100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3179900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3624500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5669000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5489900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5192600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5685100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12002200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11532700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5839800</v>
+        <v>9013700</v>
       </c>
       <c r="E43" s="3">
-        <v>7306000</v>
+        <v>5976800</v>
       </c>
       <c r="F43" s="3">
-        <v>19240800</v>
+        <v>7477400</v>
       </c>
       <c r="G43" s="3">
-        <v>4473300</v>
+        <v>19692300</v>
       </c>
       <c r="H43" s="3">
-        <v>2947300</v>
+        <v>4578300</v>
       </c>
       <c r="I43" s="3">
-        <v>3250500</v>
+        <v>3016500</v>
       </c>
       <c r="J43" s="3">
+        <v>3326800</v>
+      </c>
+      <c r="K43" s="3">
         <v>5702100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2352900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2581100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3950200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7209900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3247400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1783400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2140000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5732300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1710100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1536100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7641000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8521500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4906500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5880300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7654400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7869200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8021100</v>
+        <v>9989500</v>
       </c>
       <c r="E44" s="3">
-        <v>2823600</v>
+        <v>8209300</v>
       </c>
       <c r="F44" s="3">
-        <v>2820600</v>
+        <v>2889900</v>
       </c>
       <c r="G44" s="3">
-        <v>5549500</v>
+        <v>2886800</v>
       </c>
       <c r="H44" s="3">
-        <v>1691600</v>
+        <v>5679700</v>
       </c>
       <c r="I44" s="3">
-        <v>995400</v>
+        <v>1731300</v>
       </c>
       <c r="J44" s="3">
+        <v>1018800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1627800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1742600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1266500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1729100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1850300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1832600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1452900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1410300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1929300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2056800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1553700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1437300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2158700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2521100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2024100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1935600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2310100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>122754000</v>
+        <v>153446700</v>
       </c>
       <c r="E45" s="3">
-        <v>114029700</v>
+        <v>125633900</v>
       </c>
       <c r="F45" s="3">
-        <v>67286600</v>
+        <v>116705000</v>
       </c>
       <c r="G45" s="3">
-        <v>90070200</v>
+        <v>68865200</v>
       </c>
       <c r="H45" s="3">
-        <v>33363000</v>
+        <v>92183300</v>
       </c>
       <c r="I45" s="3">
-        <v>15170500</v>
+        <v>34145800</v>
       </c>
       <c r="J45" s="3">
+        <v>15526400</v>
+      </c>
+      <c r="K45" s="3">
         <v>10853700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10846100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18832400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18091700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16378800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14982900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>64489100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>64420200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>56665600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60091700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>52903800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9127700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5632400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7180700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8292600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9004300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8707300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>149207100</v>
+        <v>180185500</v>
       </c>
       <c r="E46" s="3">
-        <v>138051100</v>
+        <v>152707600</v>
       </c>
       <c r="F46" s="3">
-        <v>103177000</v>
+        <v>141289900</v>
       </c>
       <c r="G46" s="3">
-        <v>107156700</v>
+        <v>105597700</v>
       </c>
       <c r="H46" s="3">
-        <v>49009200</v>
+        <v>109670700</v>
       </c>
       <c r="I46" s="3">
-        <v>28547600</v>
+        <v>50159000</v>
       </c>
       <c r="J46" s="3">
+        <v>29217300</v>
+      </c>
+      <c r="K46" s="3">
         <v>27153200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22973900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28882900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30807300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32968800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30585600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>74382600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>75804400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>72763700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>72153500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>63189900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28145000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26215300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>25894400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>34116300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>34934900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>35790600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7636100</v>
+        <v>7904100</v>
       </c>
       <c r="E47" s="3">
-        <v>7847500</v>
+        <v>7815200</v>
       </c>
       <c r="F47" s="3">
-        <v>8819000</v>
+        <v>8031700</v>
       </c>
       <c r="G47" s="3">
-        <v>7824600</v>
+        <v>9025900</v>
       </c>
       <c r="H47" s="3">
-        <v>7447600</v>
+        <v>8008200</v>
       </c>
       <c r="I47" s="3">
-        <v>8006100</v>
+        <v>7622300</v>
       </c>
       <c r="J47" s="3">
+        <v>8194000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7765800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7938900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8344400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8278900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9351000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9232700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2258700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2259600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2629600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2008100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1944600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4478700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5105100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4516000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4481200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4690500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5381900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21446100</v>
+        <v>24835000</v>
       </c>
       <c r="E48" s="3">
-        <v>19920100</v>
+        <v>21949200</v>
       </c>
       <c r="F48" s="3">
-        <v>19932000</v>
+        <v>20387400</v>
       </c>
       <c r="G48" s="3">
-        <v>19780400</v>
+        <v>20399700</v>
       </c>
       <c r="H48" s="3">
-        <v>19274800</v>
+        <v>20244500</v>
       </c>
       <c r="I48" s="3">
-        <v>19036400</v>
+        <v>19727000</v>
       </c>
       <c r="J48" s="3">
+        <v>19483000</v>
+      </c>
+      <c r="K48" s="3">
         <v>17855500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19987900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20822200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20744700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22199500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23813800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15313200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15536200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14678600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13499400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13162800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27510400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27990300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27179100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27115100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>29009500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>28779500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5716100</v>
+        <v>5852200</v>
       </c>
       <c r="E49" s="3">
-        <v>5801900</v>
+        <v>5850200</v>
       </c>
       <c r="F49" s="3">
-        <v>5868700</v>
+        <v>5938000</v>
       </c>
       <c r="G49" s="3">
-        <v>5824800</v>
+        <v>6006400</v>
       </c>
       <c r="H49" s="3">
-        <v>5907600</v>
+        <v>5961500</v>
       </c>
       <c r="I49" s="3">
-        <v>4998000</v>
+        <v>6046200</v>
       </c>
       <c r="J49" s="3">
+        <v>5115200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4886300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4697500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5054200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5211300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5576700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5570000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2563400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2648400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2594100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2426800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2328900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13676700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>13893600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>13744400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14279600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>14989600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>14964900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5110700</v>
+        <v>6736300</v>
       </c>
       <c r="E52" s="3">
-        <v>4512200</v>
+        <v>5230600</v>
       </c>
       <c r="F52" s="3">
-        <v>4142200</v>
+        <v>4618100</v>
       </c>
       <c r="G52" s="3">
-        <v>4657900</v>
+        <v>4239400</v>
       </c>
       <c r="H52" s="3">
-        <v>4365600</v>
+        <v>4767100</v>
       </c>
       <c r="I52" s="3">
-        <v>4151200</v>
+        <v>4468000</v>
       </c>
       <c r="J52" s="3">
+        <v>4248600</v>
+      </c>
+      <c r="K52" s="3">
         <v>3821000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4392400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4749800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4743300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4628800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2459800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2530400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2464200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2093700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2389100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2775700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4765300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4279300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4656300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4650600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5197600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4764500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189116000</v>
+        <v>225513100</v>
       </c>
       <c r="E54" s="3">
-        <v>176132900</v>
+        <v>193552900</v>
       </c>
       <c r="F54" s="3">
-        <v>141939000</v>
+        <v>180265100</v>
       </c>
       <c r="G54" s="3">
-        <v>145244400</v>
+        <v>145269000</v>
       </c>
       <c r="H54" s="3">
-        <v>86004800</v>
+        <v>148652000</v>
       </c>
       <c r="I54" s="3">
-        <v>64739200</v>
+        <v>88022600</v>
       </c>
       <c r="J54" s="3">
+        <v>66258100</v>
+      </c>
+      <c r="K54" s="3">
         <v>61481700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59990600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67853500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69785500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74724700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71661900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97048300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98712800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>94759800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92476800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>83401900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>78576200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77483500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>75990100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>84642900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>88822200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>89681400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,470 +4184,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5673200</v>
+        <v>7429400</v>
       </c>
       <c r="E57" s="3">
-        <v>5842800</v>
+        <v>5806300</v>
       </c>
       <c r="F57" s="3">
-        <v>4416500</v>
+        <v>5979800</v>
       </c>
       <c r="G57" s="3">
-        <v>3688400</v>
+        <v>4520100</v>
       </c>
       <c r="H57" s="3">
-        <v>2595200</v>
+        <v>3774900</v>
       </c>
       <c r="I57" s="3">
-        <v>2657100</v>
+        <v>2656100</v>
       </c>
       <c r="J57" s="3">
+        <v>2719400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2380800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2020800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2294200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3258500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3487100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2926500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2709200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3045500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2873300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2291600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2299200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5138600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5696300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4651800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4757200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5730500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6375000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9852300</v>
+        <v>16677800</v>
       </c>
       <c r="E58" s="3">
-        <v>10748000</v>
+        <v>10083500</v>
       </c>
       <c r="F58" s="3">
-        <v>10967400</v>
+        <v>11000100</v>
       </c>
       <c r="G58" s="3">
-        <v>6689600</v>
+        <v>11224700</v>
       </c>
       <c r="H58" s="3">
-        <v>1403300</v>
+        <v>6846500</v>
       </c>
       <c r="I58" s="3">
-        <v>1274700</v>
+        <v>1436300</v>
       </c>
       <c r="J58" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1243800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1479000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1842500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4084800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5059200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2574000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4241700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>906100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1031200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>729100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3687100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3127000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5084900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3852900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4299700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2514300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>135595500</v>
+        <v>169835600</v>
       </c>
       <c r="E59" s="3">
-        <v>121564100</v>
+        <v>138776700</v>
       </c>
       <c r="F59" s="3">
-        <v>81370900</v>
+        <v>124416100</v>
       </c>
       <c r="G59" s="3">
-        <v>92489900</v>
+        <v>83279900</v>
       </c>
       <c r="H59" s="3">
-        <v>33632300</v>
+        <v>94659800</v>
       </c>
       <c r="I59" s="3">
-        <v>14551100</v>
+        <v>34421400</v>
       </c>
       <c r="J59" s="3">
+        <v>14892500</v>
+      </c>
+      <c r="K59" s="3">
         <v>12833500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9764600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15458200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16334200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17428300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15165400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54054400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53331400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>50449500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>51325100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46528800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13774400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13946300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13215900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21579200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>22555900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>24876600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>151121100</v>
+        <v>193942800</v>
       </c>
       <c r="E60" s="3">
-        <v>138154900</v>
+        <v>154666500</v>
       </c>
       <c r="F60" s="3">
-        <v>96754800</v>
+        <v>141396100</v>
       </c>
       <c r="G60" s="3">
-        <v>102867800</v>
+        <v>99024700</v>
       </c>
       <c r="H60" s="3">
-        <v>37630900</v>
+        <v>105281200</v>
       </c>
       <c r="I60" s="3">
-        <v>18482800</v>
+        <v>38513800</v>
       </c>
       <c r="J60" s="3">
+        <v>18916400</v>
+      </c>
+      <c r="K60" s="3">
         <v>16458100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13264400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20152400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21435300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22887100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23151100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>59337600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60618600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54228900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>54647900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>49557100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22600100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22769700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22952500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>30189400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>32586100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>33765800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9118200</v>
+        <v>10603000</v>
       </c>
       <c r="E61" s="3">
-        <v>6972800</v>
+        <v>9332200</v>
       </c>
       <c r="F61" s="3">
-        <v>6780300</v>
+        <v>7136400</v>
       </c>
       <c r="G61" s="3">
-        <v>5200400</v>
+        <v>6939400</v>
       </c>
       <c r="H61" s="3">
-        <v>4958100</v>
+        <v>5322500</v>
       </c>
       <c r="I61" s="3">
-        <v>4342700</v>
+        <v>5074400</v>
       </c>
       <c r="J61" s="3">
+        <v>4444600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3940700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3834000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4528400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4280700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4580900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4568000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2979800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2892400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2363400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2158700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1731500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15890300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16172400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15289400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17165300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18529800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18829100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19431300</v>
+        <v>20760000</v>
       </c>
       <c r="E62" s="3">
-        <v>19736600</v>
+        <v>19887200</v>
       </c>
       <c r="F62" s="3">
-        <v>21452100</v>
+        <v>20199600</v>
       </c>
       <c r="G62" s="3">
-        <v>20561400</v>
+        <v>21955400</v>
       </c>
       <c r="H62" s="3">
-        <v>22260000</v>
+        <v>21043800</v>
       </c>
       <c r="I62" s="3">
-        <v>21763300</v>
+        <v>22782200</v>
       </c>
       <c r="J62" s="3">
+        <v>22273900</v>
+      </c>
+      <c r="K62" s="3">
         <v>23422900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24121800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25149800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25394200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26865600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24303800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20443500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20194200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21302800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18493600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18421100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>24908100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25087700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25078700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25138200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>26906100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>27707800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>181364200</v>
+        <v>227033100</v>
       </c>
       <c r="E66" s="3">
-        <v>166622700</v>
+        <v>185619200</v>
       </c>
       <c r="F66" s="3">
-        <v>126724700</v>
+        <v>170531800</v>
       </c>
       <c r="G66" s="3">
-        <v>130447000</v>
+        <v>129697700</v>
       </c>
       <c r="H66" s="3">
-        <v>66681200</v>
+        <v>133507400</v>
       </c>
       <c r="I66" s="3">
-        <v>45425600</v>
+        <v>68245600</v>
       </c>
       <c r="J66" s="3">
+        <v>46491300</v>
+      </c>
+      <c r="K66" s="3">
         <v>44609700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41456800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50319300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51657900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54920800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52583900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>88114700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89793900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>84425900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>81244700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>75294300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>69468300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>69900000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>68985600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>78183600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>84445100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>86448800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,8 +5332,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5185,62 +5358,65 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>8572700</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9936000</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10399300</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1345800</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1347300</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1371400</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2655800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2728700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3031600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>932000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-765300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7751800</v>
+        <v>-1520000</v>
       </c>
       <c r="E76" s="3">
-        <v>9510200</v>
+        <v>7933700</v>
       </c>
       <c r="F76" s="3">
-        <v>15214300</v>
+        <v>9733300</v>
       </c>
       <c r="G76" s="3">
-        <v>14797400</v>
+        <v>15571300</v>
       </c>
       <c r="H76" s="3">
-        <v>19323600</v>
+        <v>15144600</v>
       </c>
       <c r="I76" s="3">
-        <v>19313700</v>
+        <v>19777000</v>
       </c>
       <c r="J76" s="3">
+        <v>19766800</v>
+      </c>
+      <c r="K76" s="3">
         <v>16872000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18533800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17534200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18127700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19803900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19078000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8933600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8918900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10333800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11232200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8107600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9107900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7583500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7004600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6459300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4377100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3232700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-82800</v>
+        <v>19400</v>
       </c>
       <c r="E81" s="3">
-        <v>2160400</v>
+        <v>-84700</v>
       </c>
       <c r="F81" s="3">
-        <v>-2081600</v>
+        <v>2211100</v>
       </c>
       <c r="G81" s="3">
-        <v>1372400</v>
+        <v>-2130400</v>
       </c>
       <c r="H81" s="3">
-        <v>535600</v>
+        <v>1404600</v>
       </c>
       <c r="I81" s="3">
-        <v>892700</v>
+        <v>548200</v>
       </c>
       <c r="J81" s="3">
+        <v>913600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-544600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>606100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>322900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>782200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-692300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10119600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-154100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1149500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>473200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-251400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-502900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>680800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-357900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-504900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1933200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1110400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>-233400</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>428900</v>
+        <v>-238900</v>
       </c>
       <c r="F83" s="3">
-        <v>365000</v>
+        <v>438900</v>
       </c>
       <c r="G83" s="3">
-        <v>399000</v>
+        <v>373600</v>
       </c>
       <c r="H83" s="3">
-        <v>992400</v>
+        <v>408300</v>
       </c>
       <c r="I83" s="3">
-        <v>355100</v>
+        <v>1015700</v>
       </c>
       <c r="J83" s="3">
+        <v>363400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2101500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>405800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>411300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>331600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1929700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>721500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>302300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>305000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>275600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>265800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>522600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>741600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1098400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>918900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>145600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5558000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>216400</v>
+        <v>-1685300</v>
       </c>
       <c r="E89" s="3">
-        <v>2681000</v>
+        <v>221500</v>
       </c>
       <c r="F89" s="3">
-        <v>3843000</v>
+        <v>2743900</v>
       </c>
       <c r="G89" s="3">
-        <v>-1586900</v>
+        <v>3933100</v>
       </c>
       <c r="H89" s="3">
-        <v>3407100</v>
+        <v>-1624100</v>
       </c>
       <c r="I89" s="3">
-        <v>1591900</v>
+        <v>3487100</v>
       </c>
       <c r="J89" s="3">
+        <v>1629200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2350900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>657000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2616000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1323300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>572000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-378500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1589300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2073600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3429100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1575600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>399700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1298100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3194300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2047100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,8 +6599,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6406,59 +6626,62 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-488700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-645800</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-430600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-232100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>764200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-417200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>336600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-232300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>52700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-419100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1965900</v>
+        <v>2630600</v>
       </c>
       <c r="E94" s="3">
-        <v>-133700</v>
+        <v>-2012000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5278200</v>
+        <v>-136800</v>
       </c>
       <c r="G94" s="3">
-        <v>-115700</v>
+        <v>-5402100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2114500</v>
+        <v>-118400</v>
       </c>
       <c r="I94" s="3">
-        <v>-209500</v>
+        <v>-2164100</v>
       </c>
       <c r="J94" s="3">
+        <v>-214400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2310000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1994800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-703600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>577100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-616400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1836300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-645800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2209400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-995700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-905900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>31400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5607700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-819300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6949,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7027,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7267,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19000</v>
+        <v>-2339700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1984800</v>
+        <v>-19400</v>
       </c>
       <c r="F100" s="3">
-        <v>3648500</v>
+        <v>-2031400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1738500</v>
+        <v>3734100</v>
       </c>
       <c r="H100" s="3">
-        <v>-600400</v>
+        <v>-1779300</v>
       </c>
       <c r="I100" s="3">
-        <v>143600</v>
+        <v>-614500</v>
       </c>
       <c r="J100" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K100" s="3">
         <v>647300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2013500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1196700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>308700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1862000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3279300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2746900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1766800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-399800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-141600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>407400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-976100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-669800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1103400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4138900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10000</v>
+        <v>59200</v>
       </c>
       <c r="E101" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="F101" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>34900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>59200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-76400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-819500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>868500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>23100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-28000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>12900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1758400</v>
+        <v>-1335200</v>
       </c>
       <c r="E102" s="3">
-        <v>551600</v>
+        <v>-1799700</v>
       </c>
       <c r="F102" s="3">
-        <v>2226200</v>
+        <v>564500</v>
       </c>
       <c r="G102" s="3">
-        <v>-3441000</v>
+        <v>2278400</v>
       </c>
       <c r="H102" s="3">
-        <v>702200</v>
+        <v>-3521800</v>
       </c>
       <c r="I102" s="3">
-        <v>1560900</v>
+        <v>718600</v>
       </c>
       <c r="J102" s="3">
+        <v>1597600</v>
+      </c>
+      <c r="K102" s="3">
         <v>677200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>734800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>639300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-448400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2725900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1933000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1811700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>339700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-852900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2023600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>252500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-75800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8128800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1918000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -779,25 +779,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10967500</v>
+        <v>11367200</v>
       </c>
       <c r="E8" s="3">
-        <v>8416500</v>
+        <v>8723200</v>
       </c>
       <c r="F8" s="3">
-        <v>8108200</v>
+        <v>8403700</v>
       </c>
       <c r="G8" s="3">
-        <v>11507500</v>
+        <v>11926800</v>
       </c>
       <c r="H8" s="3">
-        <v>4904900</v>
+        <v>5083700</v>
       </c>
       <c r="I8" s="3">
-        <v>3818800</v>
+        <v>3958000</v>
       </c>
       <c r="J8" s="3">
-        <v>4804900</v>
+        <v>4980000</v>
       </c>
       <c r="K8" s="3">
         <v>4284800</v>
@@ -859,25 +859,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11983200</v>
+        <v>12419900</v>
       </c>
       <c r="E9" s="3">
-        <v>8395100</v>
+        <v>8701000</v>
       </c>
       <c r="F9" s="3">
-        <v>7671300</v>
+        <v>7950900</v>
       </c>
       <c r="G9" s="3">
-        <v>7629500</v>
+        <v>7907500</v>
       </c>
       <c r="H9" s="3">
-        <v>3990300</v>
+        <v>4135700</v>
       </c>
       <c r="I9" s="3">
-        <v>2825600</v>
+        <v>2928500</v>
       </c>
       <c r="J9" s="3">
-        <v>3636100</v>
+        <v>3768600</v>
       </c>
       <c r="K9" s="3">
         <v>4540200</v>
@@ -939,25 +939,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-1015700</v>
+        <v>-1052700</v>
       </c>
       <c r="E10" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="F10" s="3">
-        <v>436900</v>
+        <v>452800</v>
       </c>
       <c r="G10" s="3">
-        <v>3878000</v>
+        <v>4019300</v>
       </c>
       <c r="H10" s="3">
-        <v>914600</v>
+        <v>948000</v>
       </c>
       <c r="I10" s="3">
-        <v>993200</v>
+        <v>1029400</v>
       </c>
       <c r="J10" s="3">
-        <v>1168800</v>
+        <v>1211400</v>
       </c>
       <c r="K10" s="3">
         <v>-255300</v>
@@ -1289,25 +1289,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>465500</v>
+        <v>482400</v>
       </c>
       <c r="E15" s="3">
-        <v>411400</v>
+        <v>426400</v>
       </c>
       <c r="F15" s="3">
-        <v>389900</v>
+        <v>404200</v>
       </c>
       <c r="G15" s="3">
-        <v>511400</v>
+        <v>530100</v>
       </c>
       <c r="H15" s="3">
-        <v>369500</v>
+        <v>383000</v>
       </c>
       <c r="I15" s="3">
-        <v>1178000</v>
+        <v>1220900</v>
       </c>
       <c r="J15" s="3">
-        <v>363400</v>
+        <v>376600</v>
       </c>
       <c r="K15" s="3">
         <v>2008800</v>
@@ -1396,25 +1396,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11449300</v>
+        <v>11866500</v>
       </c>
       <c r="E17" s="3">
-        <v>9141300</v>
+        <v>9474400</v>
       </c>
       <c r="F17" s="3">
-        <v>5189700</v>
+        <v>5378900</v>
       </c>
       <c r="G17" s="3">
-        <v>13470500</v>
+        <v>13961400</v>
       </c>
       <c r="H17" s="3">
-        <v>2871500</v>
+        <v>2976200</v>
       </c>
       <c r="I17" s="3">
-        <v>3201200</v>
+        <v>3317900</v>
       </c>
       <c r="J17" s="3">
-        <v>4355800</v>
+        <v>4514500</v>
       </c>
       <c r="K17" s="3">
         <v>4956100</v>
@@ -1476,25 +1476,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-481800</v>
+        <v>-499400</v>
       </c>
       <c r="E18" s="3">
-        <v>-724800</v>
+        <v>-751200</v>
       </c>
       <c r="F18" s="3">
-        <v>2918500</v>
+        <v>3024800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1963000</v>
+        <v>-2034500</v>
       </c>
       <c r="H18" s="3">
-        <v>2033400</v>
+        <v>2107500</v>
       </c>
       <c r="I18" s="3">
-        <v>617600</v>
+        <v>640100</v>
       </c>
       <c r="J18" s="3">
-        <v>449200</v>
+        <v>465500</v>
       </c>
       <c r="K18" s="3">
         <v>-671300</v>
@@ -1586,25 +1586,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>660500</v>
+        <v>684500</v>
       </c>
       <c r="E20" s="3">
-        <v>687000</v>
+        <v>712000</v>
       </c>
       <c r="F20" s="3">
-        <v>-24500</v>
+        <v>-25400</v>
       </c>
       <c r="G20" s="3">
-        <v>83700</v>
+        <v>86800</v>
       </c>
       <c r="H20" s="3">
-        <v>28600</v>
+        <v>29600</v>
       </c>
       <c r="I20" s="3">
-        <v>370600</v>
+        <v>384100</v>
       </c>
       <c r="J20" s="3">
-        <v>280700</v>
+        <v>291000</v>
       </c>
       <c r="K20" s="3">
         <v>54900</v>
@@ -1666,25 +1666,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>444000</v>
+        <v>460200</v>
       </c>
       <c r="E21" s="3">
-        <v>-276600</v>
+        <v>-286700</v>
       </c>
       <c r="F21" s="3">
-        <v>3332900</v>
+        <v>3454400</v>
       </c>
       <c r="G21" s="3">
-        <v>-1505700</v>
+        <v>-1560600</v>
       </c>
       <c r="H21" s="3">
-        <v>2470300</v>
+        <v>2560400</v>
       </c>
       <c r="I21" s="3">
-        <v>2003800</v>
+        <v>2076900</v>
       </c>
       <c r="J21" s="3">
-        <v>1093300</v>
+        <v>1133100</v>
       </c>
       <c r="K21" s="3">
         <v>1485100</v>
@@ -1746,25 +1746,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>162300</v>
+        <v>168200</v>
       </c>
       <c r="E22" s="3">
-        <v>117400</v>
+        <v>121700</v>
       </c>
       <c r="F22" s="3">
-        <v>108200</v>
+        <v>112100</v>
       </c>
       <c r="G22" s="3">
-        <v>98000</v>
+        <v>101600</v>
       </c>
       <c r="H22" s="3">
-        <v>84700</v>
+        <v>87800</v>
       </c>
       <c r="I22" s="3">
-        <v>74500</v>
+        <v>77200</v>
       </c>
       <c r="J22" s="3">
-        <v>89800</v>
+        <v>93100</v>
       </c>
       <c r="K22" s="3">
         <v>64800</v>
@@ -1826,25 +1826,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="E23" s="3">
-        <v>-155200</v>
+        <v>-160800</v>
       </c>
       <c r="F23" s="3">
-        <v>2785800</v>
+        <v>2887300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1977300</v>
+        <v>-2049300</v>
       </c>
       <c r="H23" s="3">
-        <v>1977300</v>
+        <v>2049300</v>
       </c>
       <c r="I23" s="3">
-        <v>913600</v>
+        <v>946900</v>
       </c>
       <c r="J23" s="3">
-        <v>640000</v>
+        <v>663400</v>
       </c>
       <c r="K23" s="3">
         <v>-681200</v>
@@ -1906,25 +1906,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-57200</v>
+        <v>-59200</v>
       </c>
       <c r="E24" s="3">
-        <v>-91900</v>
+        <v>-95200</v>
       </c>
       <c r="F24" s="3">
-        <v>484900</v>
+        <v>502600</v>
       </c>
       <c r="G24" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="H24" s="3">
-        <v>540000</v>
+        <v>559700</v>
       </c>
       <c r="I24" s="3">
-        <v>394000</v>
+        <v>408400</v>
       </c>
       <c r="J24" s="3">
-        <v>-288900</v>
+        <v>-299400</v>
       </c>
       <c r="K24" s="3">
         <v>-147600</v>
@@ -2066,25 +2066,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73500</v>
+        <v>76200</v>
       </c>
       <c r="E26" s="3">
-        <v>-63300</v>
+        <v>-65600</v>
       </c>
       <c r="F26" s="3">
-        <v>2300900</v>
+        <v>2384700</v>
       </c>
       <c r="G26" s="3">
-        <v>-2036500</v>
+        <v>-2110700</v>
       </c>
       <c r="H26" s="3">
-        <v>1437300</v>
+        <v>1489700</v>
       </c>
       <c r="I26" s="3">
-        <v>519600</v>
+        <v>538500</v>
       </c>
       <c r="J26" s="3">
-        <v>928900</v>
+        <v>962800</v>
       </c>
       <c r="K26" s="3">
         <v>-533600</v>
@@ -2146,25 +2146,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="E27" s="3">
-        <v>-84700</v>
+        <v>-87800</v>
       </c>
       <c r="F27" s="3">
-        <v>2211100</v>
+        <v>2291600</v>
       </c>
       <c r="G27" s="3">
-        <v>-2130400</v>
+        <v>-2208000</v>
       </c>
       <c r="H27" s="3">
-        <v>1404600</v>
+        <v>1455800</v>
       </c>
       <c r="I27" s="3">
-        <v>548200</v>
+        <v>568100</v>
       </c>
       <c r="J27" s="3">
-        <v>913600</v>
+        <v>946900</v>
       </c>
       <c r="K27" s="3">
         <v>-544600</v>
@@ -2546,25 +2546,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-660500</v>
+        <v>-684500</v>
       </c>
       <c r="E32" s="3">
-        <v>-687000</v>
+        <v>-712000</v>
       </c>
       <c r="F32" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="G32" s="3">
-        <v>-83700</v>
+        <v>-86800</v>
       </c>
       <c r="H32" s="3">
-        <v>-28600</v>
+        <v>-29600</v>
       </c>
       <c r="I32" s="3">
-        <v>-370600</v>
+        <v>-384100</v>
       </c>
       <c r="J32" s="3">
-        <v>-280700</v>
+        <v>-291000</v>
       </c>
       <c r="K32" s="3">
         <v>-54900</v>
@@ -2626,25 +2626,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="E33" s="3">
-        <v>-84700</v>
+        <v>-87800</v>
       </c>
       <c r="F33" s="3">
-        <v>2211100</v>
+        <v>2291600</v>
       </c>
       <c r="G33" s="3">
-        <v>-2130400</v>
+        <v>-2208000</v>
       </c>
       <c r="H33" s="3">
-        <v>1404600</v>
+        <v>1455800</v>
       </c>
       <c r="I33" s="3">
-        <v>548200</v>
+        <v>568100</v>
       </c>
       <c r="J33" s="3">
-        <v>913600</v>
+        <v>946900</v>
       </c>
       <c r="K33" s="3">
         <v>-544600</v>
@@ -2786,25 +2786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="E35" s="3">
-        <v>-84700</v>
+        <v>-87800</v>
       </c>
       <c r="F35" s="3">
-        <v>2211100</v>
+        <v>2291600</v>
       </c>
       <c r="G35" s="3">
-        <v>-2130400</v>
+        <v>-2208000</v>
       </c>
       <c r="H35" s="3">
-        <v>1404600</v>
+        <v>1455800</v>
       </c>
       <c r="I35" s="3">
-        <v>548200</v>
+        <v>568100</v>
       </c>
       <c r="J35" s="3">
-        <v>913600</v>
+        <v>946900</v>
       </c>
       <c r="K35" s="3">
         <v>-544600</v>
@@ -3011,25 +3011,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3375800</v>
+        <v>3498800</v>
       </c>
       <c r="E41" s="3">
-        <v>4711000</v>
+        <v>4882700</v>
       </c>
       <c r="F41" s="3">
-        <v>6499400</v>
+        <v>6736300</v>
       </c>
       <c r="G41" s="3">
-        <v>5946200</v>
+        <v>6162900</v>
       </c>
       <c r="H41" s="3">
-        <v>3650400</v>
+        <v>3783400</v>
       </c>
       <c r="I41" s="3">
-        <v>7189500</v>
+        <v>7451500</v>
       </c>
       <c r="J41" s="3">
-        <v>6470900</v>
+        <v>6706700</v>
       </c>
       <c r="K41" s="3">
         <v>4761600</v>
@@ -3091,25 +3091,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4359800</v>
+        <v>4518700</v>
       </c>
       <c r="E42" s="3">
-        <v>8176600</v>
+        <v>8474600</v>
       </c>
       <c r="F42" s="3">
-        <v>7718300</v>
+        <v>7999500</v>
       </c>
       <c r="G42" s="3">
-        <v>8207200</v>
+        <v>8506300</v>
       </c>
       <c r="H42" s="3">
-        <v>3578900</v>
+        <v>3709300</v>
       </c>
       <c r="I42" s="3">
-        <v>4076100</v>
+        <v>4224600</v>
       </c>
       <c r="J42" s="3">
-        <v>2874600</v>
+        <v>2979300</v>
       </c>
       <c r="K42" s="3">
         <v>4208000</v>
@@ -3171,25 +3171,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9013700</v>
+        <v>9342100</v>
       </c>
       <c r="E43" s="3">
-        <v>5976800</v>
+        <v>6194600</v>
       </c>
       <c r="F43" s="3">
-        <v>7477400</v>
+        <v>7749900</v>
       </c>
       <c r="G43" s="3">
-        <v>19692300</v>
+        <v>20409900</v>
       </c>
       <c r="H43" s="3">
-        <v>4578300</v>
+        <v>4745100</v>
       </c>
       <c r="I43" s="3">
-        <v>3016500</v>
+        <v>3126400</v>
       </c>
       <c r="J43" s="3">
-        <v>3326800</v>
+        <v>3448000</v>
       </c>
       <c r="K43" s="3">
         <v>5702100</v>
@@ -3251,25 +3251,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9989500</v>
+        <v>10353600</v>
       </c>
       <c r="E44" s="3">
-        <v>8209300</v>
+        <v>8508400</v>
       </c>
       <c r="F44" s="3">
-        <v>2889900</v>
+        <v>2995200</v>
       </c>
       <c r="G44" s="3">
-        <v>2886800</v>
+        <v>2992000</v>
       </c>
       <c r="H44" s="3">
-        <v>5679700</v>
+        <v>5886700</v>
       </c>
       <c r="I44" s="3">
-        <v>1731300</v>
+        <v>1794400</v>
       </c>
       <c r="J44" s="3">
-        <v>1018800</v>
+        <v>1055900</v>
       </c>
       <c r="K44" s="3">
         <v>1627800</v>
@@ -3331,25 +3331,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>153446700</v>
+        <v>159038600</v>
       </c>
       <c r="E45" s="3">
-        <v>125633900</v>
+        <v>130212300</v>
       </c>
       <c r="F45" s="3">
-        <v>116705000</v>
+        <v>120958000</v>
       </c>
       <c r="G45" s="3">
-        <v>68865200</v>
+        <v>71374800</v>
       </c>
       <c r="H45" s="3">
-        <v>92183300</v>
+        <v>95542700</v>
       </c>
       <c r="I45" s="3">
-        <v>34145800</v>
+        <v>35390100</v>
       </c>
       <c r="J45" s="3">
-        <v>15526400</v>
+        <v>16092200</v>
       </c>
       <c r="K45" s="3">
         <v>10853700</v>
@@ -3411,25 +3411,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>180185500</v>
+        <v>186751800</v>
       </c>
       <c r="E46" s="3">
-        <v>152707600</v>
+        <v>158272600</v>
       </c>
       <c r="F46" s="3">
-        <v>141289900</v>
+        <v>146438800</v>
       </c>
       <c r="G46" s="3">
-        <v>105597700</v>
+        <v>109445900</v>
       </c>
       <c r="H46" s="3">
-        <v>109670700</v>
+        <v>113667300</v>
       </c>
       <c r="I46" s="3">
-        <v>50159000</v>
+        <v>51986900</v>
       </c>
       <c r="J46" s="3">
-        <v>29217300</v>
+        <v>30282100</v>
       </c>
       <c r="K46" s="3">
         <v>27153200</v>
@@ -3491,25 +3491,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7904100</v>
+        <v>8192100</v>
       </c>
       <c r="E47" s="3">
-        <v>7815200</v>
+        <v>8100000</v>
       </c>
       <c r="F47" s="3">
-        <v>8031700</v>
+        <v>8324300</v>
       </c>
       <c r="G47" s="3">
-        <v>9025900</v>
+        <v>9354800</v>
       </c>
       <c r="H47" s="3">
-        <v>8008200</v>
+        <v>8300000</v>
       </c>
       <c r="I47" s="3">
-        <v>7622300</v>
+        <v>7900100</v>
       </c>
       <c r="J47" s="3">
-        <v>8194000</v>
+        <v>8492600</v>
       </c>
       <c r="K47" s="3">
         <v>7765800</v>
@@ -3571,25 +3571,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24835000</v>
+        <v>25740100</v>
       </c>
       <c r="E48" s="3">
-        <v>21949200</v>
+        <v>22749100</v>
       </c>
       <c r="F48" s="3">
-        <v>20387400</v>
+        <v>21130400</v>
       </c>
       <c r="G48" s="3">
-        <v>20399700</v>
+        <v>21143100</v>
       </c>
       <c r="H48" s="3">
-        <v>20244500</v>
+        <v>20982300</v>
       </c>
       <c r="I48" s="3">
-        <v>19727000</v>
+        <v>20445900</v>
       </c>
       <c r="J48" s="3">
-        <v>19483000</v>
+        <v>20193000</v>
       </c>
       <c r="K48" s="3">
         <v>17855500</v>
@@ -3651,25 +3651,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5852200</v>
+        <v>6065500</v>
       </c>
       <c r="E49" s="3">
-        <v>5850200</v>
+        <v>6063400</v>
       </c>
       <c r="F49" s="3">
-        <v>5938000</v>
+        <v>6154400</v>
       </c>
       <c r="G49" s="3">
-        <v>6006400</v>
+        <v>6225300</v>
       </c>
       <c r="H49" s="3">
-        <v>5961500</v>
+        <v>6178700</v>
       </c>
       <c r="I49" s="3">
-        <v>6046200</v>
+        <v>6266500</v>
       </c>
       <c r="J49" s="3">
-        <v>5115200</v>
+        <v>5301600</v>
       </c>
       <c r="K49" s="3">
         <v>4886300</v>
@@ -3891,25 +3891,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6736300</v>
+        <v>6981700</v>
       </c>
       <c r="E52" s="3">
-        <v>5230600</v>
+        <v>5421200</v>
       </c>
       <c r="F52" s="3">
-        <v>4618100</v>
+        <v>4786400</v>
       </c>
       <c r="G52" s="3">
-        <v>4239400</v>
+        <v>4393900</v>
       </c>
       <c r="H52" s="3">
-        <v>4767100</v>
+        <v>4940900</v>
       </c>
       <c r="I52" s="3">
-        <v>4468000</v>
+        <v>4630900</v>
       </c>
       <c r="J52" s="3">
-        <v>4248600</v>
+        <v>4403400</v>
       </c>
       <c r="K52" s="3">
         <v>3821000</v>
@@ -4051,25 +4051,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>225513100</v>
+        <v>233731200</v>
       </c>
       <c r="E54" s="3">
-        <v>193552900</v>
+        <v>200606300</v>
       </c>
       <c r="F54" s="3">
-        <v>180265100</v>
+        <v>186834300</v>
       </c>
       <c r="G54" s="3">
-        <v>145269000</v>
+        <v>150562900</v>
       </c>
       <c r="H54" s="3">
-        <v>148652000</v>
+        <v>154069100</v>
       </c>
       <c r="I54" s="3">
-        <v>88022600</v>
+        <v>91230300</v>
       </c>
       <c r="J54" s="3">
-        <v>66258100</v>
+        <v>68672700</v>
       </c>
       <c r="K54" s="3">
         <v>61481700</v>
@@ -4191,25 +4191,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7429400</v>
+        <v>7700100</v>
       </c>
       <c r="E57" s="3">
-        <v>5806300</v>
+        <v>6017900</v>
       </c>
       <c r="F57" s="3">
-        <v>5979800</v>
+        <v>6197800</v>
       </c>
       <c r="G57" s="3">
-        <v>4520100</v>
+        <v>4684800</v>
       </c>
       <c r="H57" s="3">
-        <v>3774900</v>
+        <v>3912500</v>
       </c>
       <c r="I57" s="3">
-        <v>2656100</v>
+        <v>2752900</v>
       </c>
       <c r="J57" s="3">
-        <v>2719400</v>
+        <v>2818500</v>
       </c>
       <c r="K57" s="3">
         <v>2380800</v>
@@ -4271,25 +4271,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16677800</v>
+        <v>17285600</v>
       </c>
       <c r="E58" s="3">
-        <v>10083500</v>
+        <v>10450900</v>
       </c>
       <c r="F58" s="3">
-        <v>11000100</v>
+        <v>11401000</v>
       </c>
       <c r="G58" s="3">
-        <v>11224700</v>
+        <v>11633800</v>
       </c>
       <c r="H58" s="3">
-        <v>6846500</v>
+        <v>7096000</v>
       </c>
       <c r="I58" s="3">
-        <v>1436300</v>
+        <v>1488600</v>
       </c>
       <c r="J58" s="3">
-        <v>1304600</v>
+        <v>1352100</v>
       </c>
       <c r="K58" s="3">
         <v>1243800</v>
@@ -4351,25 +4351,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>169835600</v>
+        <v>176024800</v>
       </c>
       <c r="E59" s="3">
-        <v>138776700</v>
+        <v>143834000</v>
       </c>
       <c r="F59" s="3">
-        <v>124416100</v>
+        <v>128950100</v>
       </c>
       <c r="G59" s="3">
-        <v>83279900</v>
+        <v>86314800</v>
       </c>
       <c r="H59" s="3">
-        <v>94659800</v>
+        <v>98109400</v>
       </c>
       <c r="I59" s="3">
-        <v>34421400</v>
+        <v>35675800</v>
       </c>
       <c r="J59" s="3">
-        <v>14892500</v>
+        <v>15435200</v>
       </c>
       <c r="K59" s="3">
         <v>12833500</v>
@@ -4431,25 +4431,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>193942800</v>
+        <v>201010500</v>
       </c>
       <c r="E60" s="3">
-        <v>154666500</v>
+        <v>160302900</v>
       </c>
       <c r="F60" s="3">
-        <v>141396100</v>
+        <v>146548900</v>
       </c>
       <c r="G60" s="3">
-        <v>99024700</v>
+        <v>102633400</v>
       </c>
       <c r="H60" s="3">
-        <v>105281200</v>
+        <v>109117900</v>
       </c>
       <c r="I60" s="3">
-        <v>38513800</v>
+        <v>39917300</v>
       </c>
       <c r="J60" s="3">
-        <v>18916400</v>
+        <v>19605800</v>
       </c>
       <c r="K60" s="3">
         <v>16458100</v>
@@ -4511,25 +4511,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10603000</v>
+        <v>10989400</v>
       </c>
       <c r="E61" s="3">
-        <v>9332200</v>
+        <v>9672200</v>
       </c>
       <c r="F61" s="3">
-        <v>7136400</v>
+        <v>7396500</v>
       </c>
       <c r="G61" s="3">
-        <v>6939400</v>
+        <v>7192300</v>
       </c>
       <c r="H61" s="3">
-        <v>5322500</v>
+        <v>5516400</v>
       </c>
       <c r="I61" s="3">
-        <v>5074400</v>
+        <v>5259300</v>
       </c>
       <c r="J61" s="3">
-        <v>4444600</v>
+        <v>4606500</v>
       </c>
       <c r="K61" s="3">
         <v>3940700</v>
@@ -4591,25 +4591,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20760000</v>
+        <v>21516500</v>
       </c>
       <c r="E62" s="3">
-        <v>19887200</v>
+        <v>20612000</v>
       </c>
       <c r="F62" s="3">
-        <v>20199600</v>
+        <v>20935700</v>
       </c>
       <c r="G62" s="3">
-        <v>21955400</v>
+        <v>22755500</v>
       </c>
       <c r="H62" s="3">
-        <v>21043800</v>
+        <v>21810700</v>
       </c>
       <c r="I62" s="3">
-        <v>22782200</v>
+        <v>23612400</v>
       </c>
       <c r="J62" s="3">
-        <v>22273900</v>
+        <v>23085600</v>
       </c>
       <c r="K62" s="3">
         <v>23422900</v>
@@ -4911,25 +4911,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>227033100</v>
+        <v>235306600</v>
       </c>
       <c r="E66" s="3">
-        <v>185619200</v>
+        <v>192383500</v>
       </c>
       <c r="F66" s="3">
-        <v>170531800</v>
+        <v>176746300</v>
       </c>
       <c r="G66" s="3">
-        <v>129697700</v>
+        <v>134424200</v>
       </c>
       <c r="H66" s="3">
-        <v>133507400</v>
+        <v>138372600</v>
       </c>
       <c r="I66" s="3">
-        <v>68245600</v>
+        <v>70732600</v>
       </c>
       <c r="J66" s="3">
-        <v>46491300</v>
+        <v>48185600</v>
       </c>
       <c r="K66" s="3">
         <v>44609700</v>
@@ -5661,25 +5661,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1520000</v>
+        <v>-1575400</v>
       </c>
       <c r="E76" s="3">
-        <v>7933700</v>
+        <v>8222800</v>
       </c>
       <c r="F76" s="3">
-        <v>9733300</v>
+        <v>10088000</v>
       </c>
       <c r="G76" s="3">
-        <v>15571300</v>
+        <v>16138700</v>
       </c>
       <c r="H76" s="3">
-        <v>15144600</v>
+        <v>15696500</v>
       </c>
       <c r="I76" s="3">
-        <v>19777000</v>
+        <v>20497700</v>
       </c>
       <c r="J76" s="3">
-        <v>19766800</v>
+        <v>20487100</v>
       </c>
       <c r="K76" s="3">
         <v>16872000</v>
@@ -5906,25 +5906,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="E81" s="3">
-        <v>-84700</v>
+        <v>-87800</v>
       </c>
       <c r="F81" s="3">
-        <v>2211100</v>
+        <v>2291600</v>
       </c>
       <c r="G81" s="3">
-        <v>-2130400</v>
+        <v>-2208000</v>
       </c>
       <c r="H81" s="3">
-        <v>1404600</v>
+        <v>1455800</v>
       </c>
       <c r="I81" s="3">
-        <v>548200</v>
+        <v>568100</v>
       </c>
       <c r="J81" s="3">
-        <v>913600</v>
+        <v>946900</v>
       </c>
       <c r="K81" s="3">
         <v>-544600</v>
@@ -6019,22 +6019,22 @@
         <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>-238900</v>
+        <v>-247600</v>
       </c>
       <c r="F83" s="3">
-        <v>438900</v>
+        <v>454900</v>
       </c>
       <c r="G83" s="3">
-        <v>373600</v>
+        <v>387200</v>
       </c>
       <c r="H83" s="3">
-        <v>408300</v>
+        <v>423200</v>
       </c>
       <c r="I83" s="3">
-        <v>1015700</v>
+        <v>1052700</v>
       </c>
       <c r="J83" s="3">
-        <v>363400</v>
+        <v>376600</v>
       </c>
       <c r="K83" s="3">
         <v>2101500</v>
@@ -6496,25 +6496,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1685300</v>
+        <v>-1746800</v>
       </c>
       <c r="E89" s="3">
-        <v>221500</v>
+        <v>229600</v>
       </c>
       <c r="F89" s="3">
-        <v>2743900</v>
+        <v>2843900</v>
       </c>
       <c r="G89" s="3">
-        <v>3933100</v>
+        <v>4076500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1624100</v>
+        <v>-1683300</v>
       </c>
       <c r="I89" s="3">
-        <v>3487100</v>
+        <v>3614100</v>
       </c>
       <c r="J89" s="3">
-        <v>1629200</v>
+        <v>1688600</v>
       </c>
       <c r="K89" s="3">
         <v>2350900</v>
@@ -6846,25 +6846,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2630600</v>
+        <v>2726500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2012000</v>
+        <v>-2085300</v>
       </c>
       <c r="F94" s="3">
-        <v>-136800</v>
+        <v>-141800</v>
       </c>
       <c r="G94" s="3">
-        <v>-5402100</v>
+        <v>-5598900</v>
       </c>
       <c r="H94" s="3">
-        <v>-118400</v>
+        <v>-122700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2164100</v>
+        <v>-2243000</v>
       </c>
       <c r="J94" s="3">
-        <v>-214400</v>
+        <v>-222200</v>
       </c>
       <c r="K94" s="3">
         <v>-2310000</v>
@@ -7276,25 +7276,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2339700</v>
+        <v>-2424900</v>
       </c>
       <c r="E100" s="3">
-        <v>-19400</v>
+        <v>-20100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2031400</v>
+        <v>-2105400</v>
       </c>
       <c r="G100" s="3">
-        <v>3734100</v>
+        <v>3870200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1779300</v>
+        <v>-1844100</v>
       </c>
       <c r="I100" s="3">
-        <v>-614500</v>
+        <v>-636900</v>
       </c>
       <c r="J100" s="3">
-        <v>147000</v>
+        <v>152400</v>
       </c>
       <c r="K100" s="3">
         <v>647300</v>
@@ -7356,25 +7356,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="E101" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="F101" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="G101" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="J101" s="3">
-        <v>35700</v>
+        <v>37000</v>
       </c>
       <c r="K101" s="3">
         <v>-11000</v>
@@ -7436,25 +7436,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1335200</v>
+        <v>-1383900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1799700</v>
+        <v>-1865300</v>
       </c>
       <c r="F102" s="3">
-        <v>564500</v>
+        <v>585100</v>
       </c>
       <c r="G102" s="3">
-        <v>2278400</v>
+        <v>2361500</v>
       </c>
       <c r="H102" s="3">
-        <v>-3521800</v>
+        <v>-3650100</v>
       </c>
       <c r="I102" s="3">
-        <v>718600</v>
+        <v>744800</v>
       </c>
       <c r="J102" s="3">
-        <v>1597600</v>
+        <v>1655800</v>
       </c>
       <c r="K102" s="3">
         <v>677200</v>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,380 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11367200</v>
+        <v>10132600</v>
       </c>
       <c r="E8" s="3">
-        <v>8723200</v>
+        <v>12313300</v>
       </c>
       <c r="F8" s="3">
-        <v>8403700</v>
+        <v>11570200</v>
       </c>
       <c r="G8" s="3">
-        <v>11926800</v>
+        <v>8879000</v>
       </c>
       <c r="H8" s="3">
-        <v>5083700</v>
+        <v>8613000</v>
       </c>
       <c r="I8" s="3">
+        <v>12188400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5174500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3958000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4980000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4284800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3027600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2914900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4148700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4690700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2623900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3205700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4445100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4369600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3350500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3296200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4046100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3904500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3293000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3504000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>5028600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>13997700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12419900</v>
+        <v>9962400</v>
       </c>
       <c r="E9" s="3">
-        <v>8701000</v>
+        <v>4167600</v>
       </c>
       <c r="F9" s="3">
-        <v>7950900</v>
+        <v>12641700</v>
       </c>
       <c r="G9" s="3">
-        <v>7907500</v>
+        <v>8856400</v>
       </c>
       <c r="H9" s="3">
-        <v>4135700</v>
+        <v>8152100</v>
       </c>
       <c r="I9" s="3">
+        <v>8097200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4209600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2928500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3768600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4540200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1676200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1726900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2251600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2347700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1896300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2939800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3189100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3025900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2628300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2809800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2753800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2897000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2447100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2564900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3498000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>10903500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-1052700</v>
+        <v>170200</v>
       </c>
       <c r="E10" s="3">
-        <v>22200</v>
+        <v>8145700</v>
       </c>
       <c r="F10" s="3">
-        <v>452800</v>
+        <v>-1071500</v>
       </c>
       <c r="G10" s="3">
-        <v>4019300</v>
+        <v>22600</v>
       </c>
       <c r="H10" s="3">
-        <v>948000</v>
+        <v>460900</v>
       </c>
       <c r="I10" s="3">
+        <v>4091100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>964900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1029400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1211400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-255300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1351300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1188000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1897100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2343000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>727600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>265900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1256000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1343800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>722200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>486400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1292300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1007500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>846000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>939100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1530600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>3094200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,8 +1067,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1123,8 +1149,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,8 +1235,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,11 +1273,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1253,118 +1291,130 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>55600</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>55600</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>80800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>337700</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>482400</v>
+        <v>532000</v>
       </c>
       <c r="E15" s="3">
-        <v>426400</v>
+        <v>626800</v>
       </c>
       <c r="F15" s="3">
-        <v>404200</v>
+        <v>491100</v>
       </c>
       <c r="G15" s="3">
-        <v>530100</v>
+        <v>434000</v>
       </c>
       <c r="H15" s="3">
-        <v>383000</v>
+        <v>411400</v>
       </c>
       <c r="I15" s="3">
+        <v>539500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>389800</v>
+      </c>
+      <c r="K15" s="3">
         <v>1220900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>376600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2008800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>402700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>411300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>390500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2423500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>706800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>304700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>303800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>592600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>259200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>251400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>230600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>967200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>1348600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>1171400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>304000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>5561500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1440,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11866500</v>
+        <v>7909800</v>
       </c>
       <c r="E17" s="3">
-        <v>9474400</v>
+        <v>14526300</v>
       </c>
       <c r="F17" s="3">
-        <v>5378900</v>
+        <v>12078500</v>
       </c>
       <c r="G17" s="3">
-        <v>13961400</v>
+        <v>9643600</v>
       </c>
       <c r="H17" s="3">
-        <v>2976200</v>
+        <v>5534200</v>
       </c>
       <c r="I17" s="3">
+        <v>14259200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3029300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3317900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4514500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4956100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2520000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2584400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2751300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4608900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2882400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3750400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3893600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4141300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3454600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3542100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3591600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4027900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3326700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1837800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>4304400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>20440700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-499400</v>
+        <v>2222700</v>
       </c>
       <c r="E18" s="3">
-        <v>-751200</v>
+        <v>-2213000</v>
       </c>
       <c r="F18" s="3">
-        <v>3024800</v>
+        <v>-508300</v>
       </c>
       <c r="G18" s="3">
-        <v>-2034500</v>
+        <v>-764600</v>
       </c>
       <c r="H18" s="3">
-        <v>2107500</v>
+        <v>3078900</v>
       </c>
       <c r="I18" s="3">
+        <v>-2070900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2145200</v>
+      </c>
+      <c r="K18" s="3">
         <v>640100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>465500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-671300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>507500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>330500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1397500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>81700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-258500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-544700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>551400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>228300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-104100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-246000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>454600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-123400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-33700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1666200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>724200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1580,408 +1644,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>684500</v>
+        <v>81800</v>
       </c>
       <c r="E20" s="3">
-        <v>712000</v>
+        <v>660100</v>
       </c>
       <c r="F20" s="3">
-        <v>-25400</v>
+        <v>696800</v>
       </c>
       <c r="G20" s="3">
-        <v>86800</v>
+        <v>724800</v>
       </c>
       <c r="H20" s="3">
-        <v>29600</v>
+        <v>-25800</v>
       </c>
       <c r="I20" s="3">
+        <v>88300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K20" s="3">
         <v>384100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>291000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>54900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>52900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>244400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-184400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-573200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>105300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>11800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>52600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-67400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>33200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-19800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-16500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-124500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>123400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>563200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>200700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-628000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>460200</v>
+        <v>2845200</v>
       </c>
       <c r="E21" s="3">
-        <v>-286700</v>
+        <v>-1417200</v>
       </c>
       <c r="F21" s="3">
-        <v>3454400</v>
+        <v>468500</v>
       </c>
       <c r="G21" s="3">
-        <v>-1560600</v>
+        <v>-291800</v>
       </c>
       <c r="H21" s="3">
-        <v>2560400</v>
+        <v>3516100</v>
       </c>
       <c r="I21" s="3">
+        <v>-1588400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2606100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2076900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1133100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1485100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>966300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>986200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1544700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1438200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>568400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-230600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>909100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>436500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>194900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>36200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>668700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>136900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>342200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>2539100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1070500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>168200</v>
+        <v>242300</v>
       </c>
       <c r="E22" s="3">
-        <v>121700</v>
+        <v>469500</v>
       </c>
       <c r="F22" s="3">
-        <v>112100</v>
+        <v>171200</v>
       </c>
       <c r="G22" s="3">
-        <v>101600</v>
+        <v>123800</v>
       </c>
       <c r="H22" s="3">
-        <v>87800</v>
+        <v>114200</v>
       </c>
       <c r="I22" s="3">
+        <v>103400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K22" s="3">
         <v>77200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>93100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>64800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>65400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>89500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>93800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>89900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>75900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>78800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>62200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>53200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>50900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>50500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>47200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>56100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>120100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>218800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>265300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>198400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16900</v>
+        <v>2062300</v>
       </c>
       <c r="E23" s="3">
-        <v>-160800</v>
+        <v>-2022400</v>
       </c>
       <c r="F23" s="3">
-        <v>2887300</v>
+        <v>17200</v>
       </c>
       <c r="G23" s="3">
-        <v>-2049300</v>
+        <v>-163700</v>
       </c>
       <c r="H23" s="3">
-        <v>2049300</v>
+        <v>2938900</v>
       </c>
       <c r="I23" s="3">
+        <v>-2086000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="K23" s="3">
         <v>946900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>663400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-681200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>495100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>485500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1119300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-581400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-229100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-611700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>541900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>107600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-121800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-316200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>390900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-304100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-30300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2010600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>659700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-59200</v>
+        <v>286500</v>
       </c>
       <c r="E24" s="3">
-        <v>-95200</v>
+        <v>-2806400</v>
       </c>
       <c r="F24" s="3">
-        <v>502600</v>
+        <v>-60300</v>
       </c>
       <c r="G24" s="3">
-        <v>61400</v>
+        <v>-96900</v>
       </c>
       <c r="H24" s="3">
-        <v>559700</v>
+        <v>511500</v>
       </c>
       <c r="I24" s="3">
+        <v>62500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>569700</v>
+      </c>
+      <c r="K24" s="3">
         <v>408400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-299400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-147600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>172400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>341500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>120200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-269400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>93300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>127800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-100800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>27500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>67000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>56100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-53900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>301800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>72800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-529400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2060,168 +2156,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>76200</v>
+        <v>1775800</v>
       </c>
       <c r="E26" s="3">
-        <v>-65600</v>
+        <v>784000</v>
       </c>
       <c r="F26" s="3">
-        <v>2384700</v>
+        <v>77500</v>
       </c>
       <c r="G26" s="3">
-        <v>-2110700</v>
+        <v>-66800</v>
       </c>
       <c r="H26" s="3">
-        <v>1489700</v>
+        <v>2427300</v>
       </c>
       <c r="I26" s="3">
+        <v>-2148400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1516300</v>
+      </c>
+      <c r="K26" s="3">
         <v>538500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>962800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-533600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>440100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>313100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>777800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-701600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-175200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-342300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>448600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-20100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-21000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-343700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>323900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-360200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>23600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1708800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>586900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20100</v>
+        <v>1720900</v>
       </c>
       <c r="E27" s="3">
-        <v>-87800</v>
+        <v>662300</v>
       </c>
       <c r="F27" s="3">
-        <v>2291600</v>
+        <v>20500</v>
       </c>
       <c r="G27" s="3">
-        <v>-2208000</v>
+        <v>-89400</v>
       </c>
       <c r="H27" s="3">
-        <v>1455800</v>
+        <v>2332600</v>
       </c>
       <c r="I27" s="3">
+        <v>-2247500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1481800</v>
+      </c>
+      <c r="K27" s="3">
         <v>568100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>946900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-544600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>428700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>301100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>749500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-721500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-268300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-504700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-62200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-397500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-87500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-379900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-34000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-561000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>85300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1761500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>190200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2414,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2323,65 +2443,71 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>177500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>21800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>32700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>29200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>10387900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>350600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>1211800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>870600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-163900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-123000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>714800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>203100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-590200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>171700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>920300</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2460,8 +2586,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,168 +2672,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-684500</v>
+        <v>-81800</v>
       </c>
       <c r="E32" s="3">
-        <v>-712000</v>
+        <v>-660100</v>
       </c>
       <c r="F32" s="3">
-        <v>25400</v>
+        <v>-696800</v>
       </c>
       <c r="G32" s="3">
-        <v>-86800</v>
+        <v>-724800</v>
       </c>
       <c r="H32" s="3">
-        <v>-29600</v>
+        <v>25800</v>
       </c>
       <c r="I32" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-384100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-291000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-54900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-52900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-244400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>184400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>573200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-105300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-11800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-52600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>67400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-33200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>19800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>16500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>124500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-123400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-563200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-200700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>628000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20100</v>
+        <v>1720900</v>
       </c>
       <c r="E33" s="3">
-        <v>-87800</v>
+        <v>662300</v>
       </c>
       <c r="F33" s="3">
-        <v>2291600</v>
+        <v>20500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2208000</v>
+        <v>-89400</v>
       </c>
       <c r="H33" s="3">
-        <v>1455800</v>
+        <v>2332600</v>
       </c>
       <c r="I33" s="3">
+        <v>-2247500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1481800</v>
+      </c>
+      <c r="K33" s="3">
         <v>568100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>946900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-544600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>606100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>322900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>782200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-692300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>10119600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-154100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1149500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>473200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-251400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-502900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>680800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-357900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-504900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1933200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1110400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2780,173 +2930,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20100</v>
+        <v>1720900</v>
       </c>
       <c r="E35" s="3">
-        <v>-87800</v>
+        <v>662300</v>
       </c>
       <c r="F35" s="3">
-        <v>2291600</v>
+        <v>20500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2208000</v>
+        <v>-89400</v>
       </c>
       <c r="H35" s="3">
-        <v>1455800</v>
+        <v>2332600</v>
       </c>
       <c r="I35" s="3">
+        <v>-2247500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1481800</v>
+      </c>
+      <c r="K35" s="3">
         <v>568100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>946900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-544600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>606100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>322900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>782200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-692300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>10119600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-154100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1149500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>473200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-251400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-502900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>680800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-357900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-504900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1933200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1110400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2975,8 +3143,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,728 +3175,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3498800</v>
+        <v>7317500</v>
       </c>
       <c r="E41" s="3">
-        <v>4882700</v>
+        <v>7525400</v>
       </c>
       <c r="F41" s="3">
-        <v>6736300</v>
+        <v>3561300</v>
       </c>
       <c r="G41" s="3">
-        <v>6162900</v>
+        <v>4969900</v>
       </c>
       <c r="H41" s="3">
-        <v>3783400</v>
+        <v>6856600</v>
       </c>
       <c r="I41" s="3">
+        <v>6272900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3851000</v>
+      </c>
+      <c r="K41" s="3">
         <v>7451500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6706700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4761600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4250200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3688400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3482200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3726400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6787700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3840900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5244100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4167400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5114900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3571800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4270100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4412800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>6093500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>12234200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>4338400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>5371400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4518700</v>
+        <v>9528400</v>
       </c>
       <c r="E42" s="3">
-        <v>8474600</v>
+        <v>14503700</v>
       </c>
       <c r="F42" s="3">
-        <v>7999500</v>
+        <v>4599400</v>
       </c>
       <c r="G42" s="3">
-        <v>8506300</v>
+        <v>8626000</v>
       </c>
       <c r="H42" s="3">
-        <v>3709300</v>
+        <v>8142400</v>
       </c>
       <c r="I42" s="3">
+        <v>8658300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3775600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4224600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2979300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4208000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3782100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2514500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3554200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3803400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3735000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2816300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2589800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>4269100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>3179900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>3624500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>5669000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>5489900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>5192600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>5685100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>12002200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>11532700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9342100</v>
+        <v>8546300</v>
       </c>
       <c r="E43" s="3">
-        <v>6194600</v>
+        <v>20111100</v>
       </c>
       <c r="F43" s="3">
-        <v>7749900</v>
+        <v>9509000</v>
       </c>
       <c r="G43" s="3">
-        <v>20409900</v>
+        <v>6305200</v>
       </c>
       <c r="H43" s="3">
-        <v>4745100</v>
+        <v>7888300</v>
       </c>
       <c r="I43" s="3">
+        <v>20774500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4829900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3126400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3448000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5702100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2352900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2581100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3950200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7209900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3247400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1783400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2140000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>5732300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1710100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1536100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>7641000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>8521500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4906500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>5880300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>7654400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>7869200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10353600</v>
+        <v>1955700</v>
       </c>
       <c r="E44" s="3">
-        <v>8508400</v>
+        <v>4529400</v>
       </c>
       <c r="F44" s="3">
-        <v>2995200</v>
+        <v>10538500</v>
       </c>
       <c r="G44" s="3">
-        <v>2992000</v>
+        <v>8660400</v>
       </c>
       <c r="H44" s="3">
-        <v>5886700</v>
+        <v>3048700</v>
       </c>
       <c r="I44" s="3">
+        <v>3045500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5991900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1794400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1055900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1627800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1742600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1266500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1729100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1850300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1832600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1452900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1410300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1929300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2056800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1553700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1437300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2158700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2521100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2024100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1935600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2310100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>159038600</v>
+        <v>48165400</v>
       </c>
       <c r="E45" s="3">
-        <v>130212300</v>
+        <v>56994900</v>
       </c>
       <c r="F45" s="3">
-        <v>120958000</v>
+        <v>161879600</v>
       </c>
       <c r="G45" s="3">
-        <v>71374800</v>
+        <v>132538400</v>
       </c>
       <c r="H45" s="3">
-        <v>95542700</v>
+        <v>123118700</v>
       </c>
       <c r="I45" s="3">
+        <v>72649800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>97249500</v>
+      </c>
+      <c r="K45" s="3">
         <v>35390100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>16092200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>10853700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10846100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>18832400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>18091700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>16378800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>14982900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>64489100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>64420200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>56665600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>60091700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>52903800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>9127700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>5632400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>7180700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>8292600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>9004300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>8707300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>186751800</v>
+        <v>75513300</v>
       </c>
       <c r="E46" s="3">
-        <v>158272600</v>
+        <v>103664500</v>
       </c>
       <c r="F46" s="3">
-        <v>146438800</v>
+        <v>190087900</v>
       </c>
       <c r="G46" s="3">
-        <v>109445900</v>
+        <v>161099900</v>
       </c>
       <c r="H46" s="3">
-        <v>113667300</v>
+        <v>149054800</v>
       </c>
       <c r="I46" s="3">
+        <v>111401000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>115697800</v>
+      </c>
+      <c r="K46" s="3">
         <v>51986900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>30282100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>27153200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>22973900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>28882900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>30807300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>32968800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>30585600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>74382600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>75804400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>72763700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>72153500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>63189900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>28145000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>26215300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>25894400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>34116300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>34934900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>35790600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8192100</v>
+        <v>9916100</v>
       </c>
       <c r="E47" s="3">
-        <v>8100000</v>
+        <v>9068600</v>
       </c>
       <c r="F47" s="3">
-        <v>8324300</v>
+        <v>8338400</v>
       </c>
       <c r="G47" s="3">
-        <v>9354800</v>
+        <v>8244700</v>
       </c>
       <c r="H47" s="3">
-        <v>8300000</v>
+        <v>8473000</v>
       </c>
       <c r="I47" s="3">
+        <v>9521900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8448300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7900100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8492600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7765800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7938900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>8344400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>8278900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>9351000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>9232700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2258700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2259600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2629600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2008100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1944600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>4478700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>5105100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>4516000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>4481200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>4690500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>5381900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25740100</v>
+        <v>30204900</v>
       </c>
       <c r="E48" s="3">
-        <v>22749100</v>
+        <v>25575300</v>
       </c>
       <c r="F48" s="3">
-        <v>21130400</v>
+        <v>26199900</v>
       </c>
       <c r="G48" s="3">
-        <v>21143100</v>
+        <v>23155500</v>
       </c>
       <c r="H48" s="3">
-        <v>20982300</v>
+        <v>21507800</v>
       </c>
       <c r="I48" s="3">
+        <v>21520800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21357100</v>
+      </c>
+      <c r="K48" s="3">
         <v>20445900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20193000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>17855500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19987900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>20822200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>20744700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>22199500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>23813800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>15313200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>15536200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>14678600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>13499400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>13162800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>27510400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>27990300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>27179100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>27115100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>29009500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>28779500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6065500</v>
+        <v>10378100</v>
       </c>
       <c r="E49" s="3">
-        <v>6063400</v>
+        <v>6103900</v>
       </c>
       <c r="F49" s="3">
-        <v>6154400</v>
+        <v>6173900</v>
       </c>
       <c r="G49" s="3">
-        <v>6225300</v>
+        <v>6171700</v>
       </c>
       <c r="H49" s="3">
-        <v>6178700</v>
+        <v>6264300</v>
       </c>
       <c r="I49" s="3">
+        <v>6336500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6289100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6266500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5301600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4886300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4697500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5054200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5211300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5576700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5570000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2563400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2648400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2594100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2426800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2328900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>13676700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>13893600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>13744400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>14279600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>14989600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>14964900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,8 +4031,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3885,88 +4117,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6981700</v>
+        <v>5217600</v>
       </c>
       <c r="E52" s="3">
-        <v>5421200</v>
+        <v>4790100</v>
       </c>
       <c r="F52" s="3">
-        <v>4786400</v>
+        <v>7106500</v>
       </c>
       <c r="G52" s="3">
-        <v>4393900</v>
+        <v>5518000</v>
       </c>
       <c r="H52" s="3">
-        <v>4940900</v>
+        <v>4871900</v>
       </c>
       <c r="I52" s="3">
+        <v>4472400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5029100</v>
+      </c>
+      <c r="K52" s="3">
         <v>4630900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4403400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3821000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4392400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4749800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4743300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4628800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2459800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2530400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2464200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2093700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2389100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2775700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>4765300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>4279300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>4656300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>4650600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>5197600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>4764500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,88 +4289,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>233731200</v>
+        <v>131230000</v>
       </c>
       <c r="E54" s="3">
-        <v>200606300</v>
+        <v>149202300</v>
       </c>
       <c r="F54" s="3">
-        <v>186834300</v>
+        <v>237906600</v>
       </c>
       <c r="G54" s="3">
-        <v>150562900</v>
+        <v>204189900</v>
       </c>
       <c r="H54" s="3">
-        <v>154069100</v>
+        <v>190171900</v>
       </c>
       <c r="I54" s="3">
+        <v>153252600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>156821400</v>
+      </c>
+      <c r="K54" s="3">
         <v>91230300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>68672700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>61481700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>59990600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>67853500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>69785500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>74724700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>71661900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>97048300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>98712800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>94759800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>92476800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>83401900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>78576200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>77483500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>75990100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>84642900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>88822200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>89681400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4155,8 +4411,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4185,488 +4443,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7700100</v>
+        <v>6479700</v>
       </c>
       <c r="E57" s="3">
-        <v>6017900</v>
+        <v>8038000</v>
       </c>
       <c r="F57" s="3">
-        <v>6197800</v>
+        <v>7837700</v>
       </c>
       <c r="G57" s="3">
-        <v>4684800</v>
+        <v>6125400</v>
       </c>
       <c r="H57" s="3">
-        <v>3912500</v>
+        <v>6308500</v>
       </c>
       <c r="I57" s="3">
+        <v>4768500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3982400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2752900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2818500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2380800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2020800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2294200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3258500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3487100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2926500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2709200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3045500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2873300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2291600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2299200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5138600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5696300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4651800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4757200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>5730500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>6375000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17285600</v>
+        <v>8214600</v>
       </c>
       <c r="E58" s="3">
-        <v>10450900</v>
+        <v>12076400</v>
       </c>
       <c r="F58" s="3">
-        <v>11401000</v>
+        <v>17594400</v>
       </c>
       <c r="G58" s="3">
-        <v>11633800</v>
+        <v>10637600</v>
       </c>
       <c r="H58" s="3">
-        <v>7096000</v>
+        <v>11604700</v>
       </c>
       <c r="I58" s="3">
+        <v>11841600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7222800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1488600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1352100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1243800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1479000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2400000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1842500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4084800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5059200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2574000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4241700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>906100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1031200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>729100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3687100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3127000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>5084900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>3852900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4299700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>2514300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>176024800</v>
+        <v>42395400</v>
       </c>
       <c r="E59" s="3">
-        <v>143834000</v>
+        <v>65698400</v>
       </c>
       <c r="F59" s="3">
-        <v>128950100</v>
+        <v>179169200</v>
       </c>
       <c r="G59" s="3">
-        <v>86314800</v>
+        <v>146403500</v>
       </c>
       <c r="H59" s="3">
-        <v>98109400</v>
+        <v>131253600</v>
       </c>
       <c r="I59" s="3">
+        <v>87856700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>99862000</v>
+      </c>
+      <c r="K59" s="3">
         <v>35675800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15435200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12833500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9764600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15458200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>16334200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17428300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>15165400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>54054400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>53331400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>50449500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>51325100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>46528800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>13774400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>13946300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>13215900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>21579200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>22555900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>24876600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>201010500</v>
+        <v>57089700</v>
       </c>
       <c r="E60" s="3">
-        <v>160302900</v>
+        <v>85812800</v>
       </c>
       <c r="F60" s="3">
-        <v>146548900</v>
+        <v>204601300</v>
       </c>
       <c r="G60" s="3">
-        <v>102633400</v>
+        <v>163166500</v>
       </c>
       <c r="H60" s="3">
-        <v>109117900</v>
+        <v>149166800</v>
       </c>
       <c r="I60" s="3">
+        <v>104466800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>111067200</v>
+      </c>
+      <c r="K60" s="3">
         <v>39917300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19605800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16458100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13264400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>20152400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21435300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>22887100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>23151100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>59337600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>60618600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>54228900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>54647900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>49557100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>22600100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>22769700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>22952500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>30189400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>32586100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>33765800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10989400</v>
+        <v>13872600</v>
       </c>
       <c r="E61" s="3">
-        <v>9672200</v>
+        <v>10541800</v>
       </c>
       <c r="F61" s="3">
-        <v>7396500</v>
+        <v>11185800</v>
       </c>
       <c r="G61" s="3">
-        <v>7192300</v>
+        <v>9845000</v>
       </c>
       <c r="H61" s="3">
-        <v>5516400</v>
+        <v>7528600</v>
       </c>
       <c r="I61" s="3">
+        <v>7320800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5615000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5259300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4606500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3940700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3834000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4528400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4280700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4580900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4568000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2979800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2892400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2363400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2158700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1731500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>15890300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>16172400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>15289400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>17165300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>18529800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>18829100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21516500</v>
+        <v>23920100</v>
       </c>
       <c r="E62" s="3">
-        <v>20612000</v>
+        <v>21317200</v>
       </c>
       <c r="F62" s="3">
-        <v>20935700</v>
+        <v>21900900</v>
       </c>
       <c r="G62" s="3">
-        <v>22755500</v>
+        <v>20980200</v>
       </c>
       <c r="H62" s="3">
-        <v>21810700</v>
+        <v>21309700</v>
       </c>
       <c r="I62" s="3">
+        <v>23162000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>22200300</v>
+      </c>
+      <c r="K62" s="3">
         <v>23612400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23085600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23422900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>24121800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>25149800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>25394200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>26865600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>24303800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>20443500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>20194200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>21302800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>18493600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>18421100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>24908100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>25087700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>25078700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>25138200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>26906100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>27707800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,8 +5041,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4825,8 +5127,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4905,88 +5213,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235306600</v>
+        <v>96675500</v>
       </c>
       <c r="E66" s="3">
-        <v>192383500</v>
+        <v>119505700</v>
       </c>
       <c r="F66" s="3">
-        <v>176746300</v>
+        <v>239510100</v>
       </c>
       <c r="G66" s="3">
-        <v>134424200</v>
+        <v>195820300</v>
       </c>
       <c r="H66" s="3">
-        <v>138372600</v>
+        <v>179903700</v>
       </c>
       <c r="I66" s="3">
+        <v>136825500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>140844500</v>
+      </c>
+      <c r="K66" s="3">
         <v>70732600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>48185600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>44609700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>41456800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>50319300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>51657900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>54920800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>52583900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>88114700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>89793900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>84425900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>81244700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>75294300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>69468300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>69900000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>68985600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>78183600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>84445100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>86448800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5015,8 +5335,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5095,8 +5417,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5175,8 +5503,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5255,8 +5589,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5335,88 +5675,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
-        <v>8572700</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3">
-        <v>9936000</v>
+        <v>8572700</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O72" s="3">
-        <v>10399300</v>
+        <v>9936000</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3">
-        <v>1345800</v>
+        <v>10399300</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="3">
-        <v>1347300</v>
+        <v>1345800</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3">
-        <v>1371400</v>
+        <v>1347300</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="3">
+        <v>1371400</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>2655800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2728700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>3031600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>932000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-765300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,8 +5847,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5575,8 +5933,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,88 +6019,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1575400</v>
+        <v>34554500</v>
       </c>
       <c r="E76" s="3">
-        <v>8222800</v>
+        <v>29696600</v>
       </c>
       <c r="F76" s="3">
-        <v>10088000</v>
+        <v>-1603500</v>
       </c>
       <c r="G76" s="3">
-        <v>16138700</v>
+        <v>8369700</v>
       </c>
       <c r="H76" s="3">
-        <v>15696500</v>
+        <v>10268200</v>
       </c>
       <c r="I76" s="3">
+        <v>16427000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>15976900</v>
+      </c>
+      <c r="K76" s="3">
         <v>20497700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20487100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>16872000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>18533800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17534200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>18127700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>19803900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>19078000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8933600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8918900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10333800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>11232200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8107600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>9107900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7583500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7004600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6459300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>4377100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3232700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5815,173 +6191,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20100</v>
+        <v>1720900</v>
       </c>
       <c r="E81" s="3">
-        <v>-87800</v>
+        <v>662300</v>
       </c>
       <c r="F81" s="3">
-        <v>2291600</v>
+        <v>20500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2208000</v>
+        <v>-89400</v>
       </c>
       <c r="H81" s="3">
-        <v>1455800</v>
+        <v>2332600</v>
       </c>
       <c r="I81" s="3">
+        <v>-2247500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1481800</v>
+      </c>
+      <c r="K81" s="3">
         <v>568100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>946900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-544600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>606100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>322900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>782200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-692300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>10119600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-154100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1149500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>473200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-251400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-502900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>680800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-357900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-504900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1933200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1110400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6010,88 +6404,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <v>540600</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
-        <v>-247600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>454900</v>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>387200</v>
+        <v>-252000</v>
       </c>
       <c r="H83" s="3">
-        <v>423200</v>
+        <v>463100</v>
       </c>
       <c r="I83" s="3">
+        <v>394100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>430800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1052700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>376600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2101500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>405800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>411300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>331600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1929700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>721500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>302300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>305000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>275600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>265800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>9900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>522600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>741600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1098400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>918900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>145600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>5558000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6170,8 +6572,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6250,8 +6658,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6330,8 +6744,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6410,8 +6830,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6490,88 +6916,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1746800</v>
+        <v>954100</v>
       </c>
       <c r="E89" s="3">
-        <v>229600</v>
+        <v>1240600</v>
       </c>
       <c r="F89" s="3">
-        <v>2843900</v>
+        <v>-1778000</v>
       </c>
       <c r="G89" s="3">
-        <v>4076500</v>
+        <v>233700</v>
       </c>
       <c r="H89" s="3">
-        <v>-1683300</v>
+        <v>2894700</v>
       </c>
       <c r="I89" s="3">
+        <v>4149300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1713300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3614100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1688600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2350900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>657000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2616000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1323300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>572000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-378500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1589300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2073600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>3429100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1575600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>399700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1298100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>3194300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>2047100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6600,25 +7038,27 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-4484000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-3769000</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-2318000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-448000</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-592000</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -6629,59 +7069,65 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-488700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-645800</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-430600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-232100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>764200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-500600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-417200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-11000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>336600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-232300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>52700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-419100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6760,8 +7206,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6840,88 +7292,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2726500</v>
+        <v>-806600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2085300</v>
+        <v>-11161000</v>
       </c>
       <c r="F94" s="3">
-        <v>-141800</v>
+        <v>2775200</v>
       </c>
       <c r="G94" s="3">
-        <v>-5598900</v>
+        <v>-2122600</v>
       </c>
       <c r="H94" s="3">
-        <v>-122700</v>
+        <v>-144300</v>
       </c>
       <c r="I94" s="3">
+        <v>-5699000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2243000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-222200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2310000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1994800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-703600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>577100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-616400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1836300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-645800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>2209400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-995700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-905900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>31400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>5607700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-819300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,8 +7414,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7030,8 +7496,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7110,8 +7582,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7190,8 +7668,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7270,244 +7754,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2424900</v>
+        <v>-425400</v>
       </c>
       <c r="E100" s="3">
-        <v>-20100</v>
+        <v>13909200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2105400</v>
+        <v>-2468300</v>
       </c>
       <c r="G100" s="3">
-        <v>3870200</v>
+        <v>-20500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1844100</v>
+        <v>-2143000</v>
       </c>
       <c r="I100" s="3">
+        <v>3939300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1877000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-636900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>152400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>647300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2013500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1196700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>308700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1862000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3279300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2746900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1766800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-399800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-141600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>407400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-976100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-669800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1103400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>4138900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>61400</v>
+        <v>70000</v>
       </c>
       <c r="E101" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>62500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>10600</v>
       </c>
-      <c r="F101" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>13800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>37000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>59200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-76400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-10900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-819500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>868500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-8200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>17900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>23100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-28000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>12900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1383900</v>
+        <v>-207800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1865300</v>
+        <v>3964100</v>
       </c>
       <c r="F102" s="3">
-        <v>585100</v>
+        <v>-1408600</v>
       </c>
       <c r="G102" s="3">
-        <v>2361500</v>
+        <v>-1898600</v>
       </c>
       <c r="H102" s="3">
-        <v>-3650100</v>
+        <v>595500</v>
       </c>
       <c r="I102" s="3">
+        <v>2403600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3715300</v>
+      </c>
+      <c r="K102" s="3">
         <v>744800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1655800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>677200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>734800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>639300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-448400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2725900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1933000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1811700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>339700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-852900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2023600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>252500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-75800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>8128800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1918000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>291100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10132600</v>
+        <v>10200300</v>
       </c>
       <c r="E8" s="3">
-        <v>12313300</v>
+        <v>12395600</v>
       </c>
       <c r="F8" s="3">
-        <v>11570200</v>
+        <v>11647600</v>
       </c>
       <c r="G8" s="3">
-        <v>8879000</v>
+        <v>8938400</v>
       </c>
       <c r="H8" s="3">
-        <v>8613000</v>
+        <v>8670600</v>
       </c>
       <c r="I8" s="3">
-        <v>12188400</v>
+        <v>12269800</v>
       </c>
       <c r="J8" s="3">
-        <v>5174500</v>
+        <v>5209100</v>
       </c>
       <c r="K8" s="3">
         <v>3958000</v>
@@ -871,25 +871,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9962400</v>
+        <v>10029000</v>
       </c>
       <c r="E9" s="3">
-        <v>4167600</v>
+        <v>4195500</v>
       </c>
       <c r="F9" s="3">
-        <v>12641700</v>
+        <v>12726200</v>
       </c>
       <c r="G9" s="3">
-        <v>8856400</v>
+        <v>8915600</v>
       </c>
       <c r="H9" s="3">
-        <v>8152100</v>
+        <v>8206600</v>
       </c>
       <c r="I9" s="3">
-        <v>8097200</v>
+        <v>8151300</v>
       </c>
       <c r="J9" s="3">
-        <v>4209600</v>
+        <v>4237700</v>
       </c>
       <c r="K9" s="3">
         <v>2928500</v>
@@ -957,25 +957,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>170200</v>
+        <v>171300</v>
       </c>
       <c r="E10" s="3">
-        <v>8145700</v>
+        <v>8200100</v>
       </c>
       <c r="F10" s="3">
-        <v>-1071500</v>
+        <v>-1078700</v>
       </c>
       <c r="G10" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="H10" s="3">
-        <v>460900</v>
+        <v>464000</v>
       </c>
       <c r="I10" s="3">
-        <v>4091100</v>
+        <v>4118500</v>
       </c>
       <c r="J10" s="3">
-        <v>964900</v>
+        <v>971400</v>
       </c>
       <c r="K10" s="3">
         <v>1029400</v>
@@ -1333,25 +1333,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>532000</v>
+        <v>535500</v>
       </c>
       <c r="E15" s="3">
-        <v>626800</v>
+        <v>630900</v>
       </c>
       <c r="F15" s="3">
-        <v>491100</v>
+        <v>494300</v>
       </c>
       <c r="G15" s="3">
-        <v>434000</v>
+        <v>436900</v>
       </c>
       <c r="H15" s="3">
-        <v>411400</v>
+        <v>414100</v>
       </c>
       <c r="I15" s="3">
-        <v>539500</v>
+        <v>543100</v>
       </c>
       <c r="J15" s="3">
-        <v>389800</v>
+        <v>392400</v>
       </c>
       <c r="K15" s="3">
         <v>1220900</v>
@@ -1448,25 +1448,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7909800</v>
+        <v>7962700</v>
       </c>
       <c r="E17" s="3">
-        <v>14526300</v>
+        <v>14623400</v>
       </c>
       <c r="F17" s="3">
-        <v>12078500</v>
+        <v>12159300</v>
       </c>
       <c r="G17" s="3">
-        <v>9643600</v>
+        <v>9708100</v>
       </c>
       <c r="H17" s="3">
-        <v>5534200</v>
+        <v>5571200</v>
       </c>
       <c r="I17" s="3">
-        <v>14259200</v>
+        <v>14354600</v>
       </c>
       <c r="J17" s="3">
-        <v>3029300</v>
+        <v>3049600</v>
       </c>
       <c r="K17" s="3">
         <v>3317900</v>
@@ -1534,25 +1534,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2222700</v>
+        <v>2237600</v>
       </c>
       <c r="E18" s="3">
-        <v>-2213000</v>
+        <v>-2227800</v>
       </c>
       <c r="F18" s="3">
-        <v>-508300</v>
+        <v>-511700</v>
       </c>
       <c r="G18" s="3">
-        <v>-764600</v>
+        <v>-769700</v>
       </c>
       <c r="H18" s="3">
-        <v>3078900</v>
+        <v>3099400</v>
       </c>
       <c r="I18" s="3">
-        <v>-2070900</v>
+        <v>-2084700</v>
       </c>
       <c r="J18" s="3">
-        <v>2145200</v>
+        <v>2159500</v>
       </c>
       <c r="K18" s="3">
         <v>640100</v>
@@ -1652,25 +1652,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>81800</v>
+        <v>82400</v>
       </c>
       <c r="E20" s="3">
-        <v>660100</v>
+        <v>664600</v>
       </c>
       <c r="F20" s="3">
-        <v>696800</v>
+        <v>701400</v>
       </c>
       <c r="G20" s="3">
-        <v>724800</v>
+        <v>729600</v>
       </c>
       <c r="H20" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="I20" s="3">
-        <v>88300</v>
+        <v>88900</v>
       </c>
       <c r="J20" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="K20" s="3">
         <v>384100</v>
@@ -1738,25 +1738,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2845200</v>
+        <v>2864200</v>
       </c>
       <c r="E21" s="3">
-        <v>-1417200</v>
+        <v>-1426700</v>
       </c>
       <c r="F21" s="3">
-        <v>468500</v>
+        <v>471600</v>
       </c>
       <c r="G21" s="3">
-        <v>-291800</v>
+        <v>-293800</v>
       </c>
       <c r="H21" s="3">
-        <v>3516100</v>
+        <v>3539600</v>
       </c>
       <c r="I21" s="3">
-        <v>-1588400</v>
+        <v>-1599000</v>
       </c>
       <c r="J21" s="3">
-        <v>2606100</v>
+        <v>2623500</v>
       </c>
       <c r="K21" s="3">
         <v>2076900</v>
@@ -1824,25 +1824,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>242300</v>
+        <v>243900</v>
       </c>
       <c r="E22" s="3">
-        <v>469500</v>
+        <v>472700</v>
       </c>
       <c r="F22" s="3">
-        <v>171200</v>
+        <v>172400</v>
       </c>
       <c r="G22" s="3">
-        <v>123800</v>
+        <v>124700</v>
       </c>
       <c r="H22" s="3">
-        <v>114200</v>
+        <v>114900</v>
       </c>
       <c r="I22" s="3">
-        <v>103400</v>
+        <v>104100</v>
       </c>
       <c r="J22" s="3">
-        <v>89400</v>
+        <v>90000</v>
       </c>
       <c r="K22" s="3">
         <v>77200</v>
@@ -1910,25 +1910,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2062300</v>
+        <v>2076100</v>
       </c>
       <c r="E23" s="3">
-        <v>-2022400</v>
+        <v>-2035900</v>
       </c>
       <c r="F23" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="G23" s="3">
-        <v>-163700</v>
+        <v>-164800</v>
       </c>
       <c r="H23" s="3">
-        <v>2938900</v>
+        <v>2958500</v>
       </c>
       <c r="I23" s="3">
-        <v>-2086000</v>
+        <v>-2099900</v>
       </c>
       <c r="J23" s="3">
-        <v>2086000</v>
+        <v>2099900</v>
       </c>
       <c r="K23" s="3">
         <v>946900</v>
@@ -1996,25 +1996,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>286500</v>
+        <v>288400</v>
       </c>
       <c r="E24" s="3">
-        <v>-2806400</v>
+        <v>-2825200</v>
       </c>
       <c r="F24" s="3">
-        <v>-60300</v>
+        <v>-60700</v>
       </c>
       <c r="G24" s="3">
-        <v>-96900</v>
+        <v>-97600</v>
       </c>
       <c r="H24" s="3">
-        <v>511500</v>
+        <v>514900</v>
       </c>
       <c r="I24" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="J24" s="3">
-        <v>569700</v>
+        <v>573500</v>
       </c>
       <c r="K24" s="3">
         <v>408400</v>
@@ -2168,25 +2168,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1775800</v>
+        <v>1787700</v>
       </c>
       <c r="E26" s="3">
-        <v>784000</v>
+        <v>789200</v>
       </c>
       <c r="F26" s="3">
-        <v>77500</v>
+        <v>78100</v>
       </c>
       <c r="G26" s="3">
-        <v>-66800</v>
+        <v>-67200</v>
       </c>
       <c r="H26" s="3">
-        <v>2427300</v>
+        <v>2443600</v>
       </c>
       <c r="I26" s="3">
-        <v>-2148400</v>
+        <v>-2162800</v>
       </c>
       <c r="J26" s="3">
-        <v>1516300</v>
+        <v>1526400</v>
       </c>
       <c r="K26" s="3">
         <v>538500</v>
@@ -2254,25 +2254,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1720900</v>
+        <v>1732400</v>
       </c>
       <c r="E27" s="3">
-        <v>662300</v>
+        <v>666700</v>
       </c>
       <c r="F27" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G27" s="3">
-        <v>-89400</v>
+        <v>-90000</v>
       </c>
       <c r="H27" s="3">
-        <v>2332600</v>
+        <v>2348200</v>
       </c>
       <c r="I27" s="3">
-        <v>-2247500</v>
+        <v>-2262500</v>
       </c>
       <c r="J27" s="3">
-        <v>1481800</v>
+        <v>1491700</v>
       </c>
       <c r="K27" s="3">
         <v>568100</v>
@@ -2684,25 +2684,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-81800</v>
+        <v>-82400</v>
       </c>
       <c r="E32" s="3">
-        <v>-660100</v>
+        <v>-664600</v>
       </c>
       <c r="F32" s="3">
-        <v>-696800</v>
+        <v>-701400</v>
       </c>
       <c r="G32" s="3">
-        <v>-724800</v>
+        <v>-729600</v>
       </c>
       <c r="H32" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="I32" s="3">
-        <v>-88300</v>
+        <v>-88900</v>
       </c>
       <c r="J32" s="3">
-        <v>-30200</v>
+        <v>-30400</v>
       </c>
       <c r="K32" s="3">
         <v>-384100</v>
@@ -2770,25 +2770,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1720900</v>
+        <v>1732400</v>
       </c>
       <c r="E33" s="3">
-        <v>662300</v>
+        <v>666700</v>
       </c>
       <c r="F33" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G33" s="3">
-        <v>-89400</v>
+        <v>-90000</v>
       </c>
       <c r="H33" s="3">
-        <v>2332600</v>
+        <v>2348200</v>
       </c>
       <c r="I33" s="3">
-        <v>-2247500</v>
+        <v>-2262500</v>
       </c>
       <c r="J33" s="3">
-        <v>1481800</v>
+        <v>1491700</v>
       </c>
       <c r="K33" s="3">
         <v>568100</v>
@@ -2942,25 +2942,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1720900</v>
+        <v>1732400</v>
       </c>
       <c r="E35" s="3">
-        <v>662300</v>
+        <v>666700</v>
       </c>
       <c r="F35" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G35" s="3">
-        <v>-89400</v>
+        <v>-90000</v>
       </c>
       <c r="H35" s="3">
-        <v>2332600</v>
+        <v>2348200</v>
       </c>
       <c r="I35" s="3">
-        <v>-2247500</v>
+        <v>-2262500</v>
       </c>
       <c r="J35" s="3">
-        <v>1481800</v>
+        <v>1491700</v>
       </c>
       <c r="K35" s="3">
         <v>568100</v>
@@ -3183,25 +3183,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7317500</v>
+        <v>7366500</v>
       </c>
       <c r="E41" s="3">
-        <v>7525400</v>
+        <v>7575700</v>
       </c>
       <c r="F41" s="3">
-        <v>3561300</v>
+        <v>3585100</v>
       </c>
       <c r="G41" s="3">
-        <v>4969900</v>
+        <v>5003100</v>
       </c>
       <c r="H41" s="3">
-        <v>6856600</v>
+        <v>6902500</v>
       </c>
       <c r="I41" s="3">
-        <v>6272900</v>
+        <v>6314900</v>
       </c>
       <c r="J41" s="3">
-        <v>3851000</v>
+        <v>3876700</v>
       </c>
       <c r="K41" s="3">
         <v>7451500</v>
@@ -3269,25 +3269,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9528400</v>
+        <v>9592100</v>
       </c>
       <c r="E42" s="3">
-        <v>14503700</v>
+        <v>14600700</v>
       </c>
       <c r="F42" s="3">
-        <v>4599400</v>
+        <v>4630200</v>
       </c>
       <c r="G42" s="3">
-        <v>8626000</v>
+        <v>8683600</v>
       </c>
       <c r="H42" s="3">
-        <v>8142400</v>
+        <v>8196900</v>
       </c>
       <c r="I42" s="3">
-        <v>8658300</v>
+        <v>8716200</v>
       </c>
       <c r="J42" s="3">
-        <v>3775600</v>
+        <v>3800900</v>
       </c>
       <c r="K42" s="3">
         <v>4224600</v>
@@ -3355,25 +3355,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8546300</v>
+        <v>8603400</v>
       </c>
       <c r="E43" s="3">
-        <v>20111100</v>
+        <v>20245600</v>
       </c>
       <c r="F43" s="3">
-        <v>9509000</v>
+        <v>9572600</v>
       </c>
       <c r="G43" s="3">
-        <v>6305200</v>
+        <v>6347400</v>
       </c>
       <c r="H43" s="3">
-        <v>7888300</v>
+        <v>7941000</v>
       </c>
       <c r="I43" s="3">
-        <v>20774500</v>
+        <v>20913400</v>
       </c>
       <c r="J43" s="3">
-        <v>4829900</v>
+        <v>4862200</v>
       </c>
       <c r="K43" s="3">
         <v>3126400</v>
@@ -3441,25 +3441,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1955700</v>
+        <v>1968700</v>
       </c>
       <c r="E44" s="3">
-        <v>4529400</v>
+        <v>4559700</v>
       </c>
       <c r="F44" s="3">
-        <v>10538500</v>
+        <v>10609000</v>
       </c>
       <c r="G44" s="3">
-        <v>8660400</v>
+        <v>8718300</v>
       </c>
       <c r="H44" s="3">
-        <v>3048700</v>
+        <v>3069100</v>
       </c>
       <c r="I44" s="3">
-        <v>3045500</v>
+        <v>3065800</v>
       </c>
       <c r="J44" s="3">
-        <v>5991900</v>
+        <v>6031900</v>
       </c>
       <c r="K44" s="3">
         <v>1794400</v>
@@ -3527,25 +3527,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48165400</v>
+        <v>48487500</v>
       </c>
       <c r="E45" s="3">
-        <v>56994900</v>
+        <v>57376000</v>
       </c>
       <c r="F45" s="3">
-        <v>161879600</v>
+        <v>162961900</v>
       </c>
       <c r="G45" s="3">
-        <v>132538400</v>
+        <v>133424500</v>
       </c>
       <c r="H45" s="3">
-        <v>123118700</v>
+        <v>123941900</v>
       </c>
       <c r="I45" s="3">
-        <v>72649800</v>
+        <v>73135600</v>
       </c>
       <c r="J45" s="3">
-        <v>97249500</v>
+        <v>97899700</v>
       </c>
       <c r="K45" s="3">
         <v>35390100</v>
@@ -3613,25 +3613,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>75513300</v>
+        <v>76018200</v>
       </c>
       <c r="E46" s="3">
-        <v>103664500</v>
+        <v>104357600</v>
       </c>
       <c r="F46" s="3">
-        <v>190087900</v>
+        <v>191358800</v>
       </c>
       <c r="G46" s="3">
-        <v>161099900</v>
+        <v>162177000</v>
       </c>
       <c r="H46" s="3">
-        <v>149054800</v>
+        <v>150051400</v>
       </c>
       <c r="I46" s="3">
-        <v>111401000</v>
+        <v>112145800</v>
       </c>
       <c r="J46" s="3">
-        <v>115697800</v>
+        <v>116471400</v>
       </c>
       <c r="K46" s="3">
         <v>51986900</v>
@@ -3699,25 +3699,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9916100</v>
+        <v>9982400</v>
       </c>
       <c r="E47" s="3">
-        <v>9068600</v>
+        <v>9129200</v>
       </c>
       <c r="F47" s="3">
-        <v>8338400</v>
+        <v>8394200</v>
       </c>
       <c r="G47" s="3">
-        <v>8244700</v>
+        <v>8299900</v>
       </c>
       <c r="H47" s="3">
-        <v>8473000</v>
+        <v>8529700</v>
       </c>
       <c r="I47" s="3">
-        <v>9521900</v>
+        <v>9585600</v>
       </c>
       <c r="J47" s="3">
-        <v>8448300</v>
+        <v>8504800</v>
       </c>
       <c r="K47" s="3">
         <v>7900100</v>
@@ -3785,25 +3785,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30204900</v>
+        <v>30406800</v>
       </c>
       <c r="E48" s="3">
-        <v>25575300</v>
+        <v>25746300</v>
       </c>
       <c r="F48" s="3">
-        <v>26199900</v>
+        <v>26375100</v>
       </c>
       <c r="G48" s="3">
-        <v>23155500</v>
+        <v>23310300</v>
       </c>
       <c r="H48" s="3">
-        <v>21507800</v>
+        <v>21651600</v>
       </c>
       <c r="I48" s="3">
-        <v>21520800</v>
+        <v>21664700</v>
       </c>
       <c r="J48" s="3">
-        <v>21357100</v>
+        <v>21499900</v>
       </c>
       <c r="K48" s="3">
         <v>20445900</v>
@@ -3871,25 +3871,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10378100</v>
+        <v>10447500</v>
       </c>
       <c r="E49" s="3">
-        <v>6103900</v>
+        <v>6144700</v>
       </c>
       <c r="F49" s="3">
-        <v>6173900</v>
+        <v>6215100</v>
       </c>
       <c r="G49" s="3">
-        <v>6171700</v>
+        <v>6213000</v>
       </c>
       <c r="H49" s="3">
-        <v>6264300</v>
+        <v>6306200</v>
       </c>
       <c r="I49" s="3">
-        <v>6336500</v>
+        <v>6378800</v>
       </c>
       <c r="J49" s="3">
-        <v>6289100</v>
+        <v>6331100</v>
       </c>
       <c r="K49" s="3">
         <v>6266500</v>
@@ -4129,25 +4129,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5217600</v>
+        <v>5252500</v>
       </c>
       <c r="E52" s="3">
-        <v>4790100</v>
+        <v>4822100</v>
       </c>
       <c r="F52" s="3">
-        <v>7106500</v>
+        <v>7154000</v>
       </c>
       <c r="G52" s="3">
-        <v>5518000</v>
+        <v>5554900</v>
       </c>
       <c r="H52" s="3">
-        <v>4871900</v>
+        <v>4904500</v>
       </c>
       <c r="I52" s="3">
-        <v>4472400</v>
+        <v>4502300</v>
       </c>
       <c r="J52" s="3">
-        <v>5029100</v>
+        <v>5062700</v>
       </c>
       <c r="K52" s="3">
         <v>4630900</v>
@@ -4301,25 +4301,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>131230000</v>
+        <v>132107300</v>
       </c>
       <c r="E54" s="3">
-        <v>149202300</v>
+        <v>150199900</v>
       </c>
       <c r="F54" s="3">
-        <v>237906600</v>
+        <v>239497200</v>
       </c>
       <c r="G54" s="3">
-        <v>204189900</v>
+        <v>205555100</v>
       </c>
       <c r="H54" s="3">
-        <v>190171900</v>
+        <v>191443400</v>
       </c>
       <c r="I54" s="3">
-        <v>153252600</v>
+        <v>154277200</v>
       </c>
       <c r="J54" s="3">
-        <v>156821400</v>
+        <v>157869900</v>
       </c>
       <c r="K54" s="3">
         <v>91230300</v>
@@ -4451,25 +4451,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6479700</v>
+        <v>6523000</v>
       </c>
       <c r="E57" s="3">
-        <v>8038000</v>
+        <v>8091700</v>
       </c>
       <c r="F57" s="3">
-        <v>7837700</v>
+        <v>7890100</v>
       </c>
       <c r="G57" s="3">
-        <v>6125400</v>
+        <v>6166400</v>
       </c>
       <c r="H57" s="3">
-        <v>6308500</v>
+        <v>6350700</v>
       </c>
       <c r="I57" s="3">
-        <v>4768500</v>
+        <v>4800400</v>
       </c>
       <c r="J57" s="3">
-        <v>3982400</v>
+        <v>4009000</v>
       </c>
       <c r="K57" s="3">
         <v>2752900</v>
@@ -4537,25 +4537,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8214600</v>
+        <v>8269500</v>
       </c>
       <c r="E58" s="3">
-        <v>12076400</v>
+        <v>12157100</v>
       </c>
       <c r="F58" s="3">
-        <v>17594400</v>
+        <v>17712000</v>
       </c>
       <c r="G58" s="3">
-        <v>10637600</v>
+        <v>10708700</v>
       </c>
       <c r="H58" s="3">
-        <v>11604700</v>
+        <v>11682300</v>
       </c>
       <c r="I58" s="3">
-        <v>11841600</v>
+        <v>11920800</v>
       </c>
       <c r="J58" s="3">
-        <v>7222800</v>
+        <v>7271100</v>
       </c>
       <c r="K58" s="3">
         <v>1488600</v>
@@ -4623,25 +4623,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42395400</v>
+        <v>42678800</v>
       </c>
       <c r="E59" s="3">
-        <v>65698400</v>
+        <v>66137700</v>
       </c>
       <c r="F59" s="3">
-        <v>179169200</v>
+        <v>180367100</v>
       </c>
       <c r="G59" s="3">
-        <v>146403500</v>
+        <v>147382300</v>
       </c>
       <c r="H59" s="3">
-        <v>131253600</v>
+        <v>132131200</v>
       </c>
       <c r="I59" s="3">
-        <v>87856700</v>
+        <v>88444100</v>
       </c>
       <c r="J59" s="3">
-        <v>99862000</v>
+        <v>100529700</v>
       </c>
       <c r="K59" s="3">
         <v>35675800</v>
@@ -4709,25 +4709,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57089700</v>
+        <v>57471400</v>
       </c>
       <c r="E60" s="3">
-        <v>85812800</v>
+        <v>86386500</v>
       </c>
       <c r="F60" s="3">
-        <v>204601300</v>
+        <v>205969200</v>
       </c>
       <c r="G60" s="3">
-        <v>163166500</v>
+        <v>164257400</v>
       </c>
       <c r="H60" s="3">
-        <v>149166800</v>
+        <v>150164100</v>
       </c>
       <c r="I60" s="3">
-        <v>104466800</v>
+        <v>105165300</v>
       </c>
       <c r="J60" s="3">
-        <v>111067200</v>
+        <v>111809700</v>
       </c>
       <c r="K60" s="3">
         <v>39917300</v>
@@ -4795,25 +4795,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13872600</v>
+        <v>13965400</v>
       </c>
       <c r="E61" s="3">
-        <v>10541800</v>
+        <v>10612300</v>
       </c>
       <c r="F61" s="3">
-        <v>11185800</v>
+        <v>11260500</v>
       </c>
       <c r="G61" s="3">
-        <v>9845000</v>
+        <v>9910800</v>
       </c>
       <c r="H61" s="3">
-        <v>7528600</v>
+        <v>7578900</v>
       </c>
       <c r="I61" s="3">
-        <v>7320800</v>
+        <v>7369700</v>
       </c>
       <c r="J61" s="3">
-        <v>5615000</v>
+        <v>5652500</v>
       </c>
       <c r="K61" s="3">
         <v>5259300</v>
@@ -4881,25 +4881,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23920100</v>
+        <v>24080000</v>
       </c>
       <c r="E62" s="3">
-        <v>21317200</v>
+        <v>21459800</v>
       </c>
       <c r="F62" s="3">
-        <v>21900900</v>
+        <v>22047300</v>
       </c>
       <c r="G62" s="3">
-        <v>20980200</v>
+        <v>21120400</v>
       </c>
       <c r="H62" s="3">
-        <v>21309700</v>
+        <v>21452200</v>
       </c>
       <c r="I62" s="3">
-        <v>23162000</v>
+        <v>23316800</v>
       </c>
       <c r="J62" s="3">
-        <v>22200300</v>
+        <v>22348700</v>
       </c>
       <c r="K62" s="3">
         <v>23612400</v>
@@ -5225,25 +5225,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>96675500</v>
+        <v>97321800</v>
       </c>
       <c r="E66" s="3">
-        <v>119505700</v>
+        <v>120304700</v>
       </c>
       <c r="F66" s="3">
-        <v>239510100</v>
+        <v>241111400</v>
       </c>
       <c r="G66" s="3">
-        <v>195820300</v>
+        <v>197129500</v>
       </c>
       <c r="H66" s="3">
-        <v>179903700</v>
+        <v>181106500</v>
       </c>
       <c r="I66" s="3">
-        <v>136825500</v>
+        <v>137740300</v>
       </c>
       <c r="J66" s="3">
-        <v>140844500</v>
+        <v>141786200</v>
       </c>
       <c r="K66" s="3">
         <v>70732600</v>
@@ -6031,25 +6031,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34554500</v>
+        <v>34785500</v>
       </c>
       <c r="E76" s="3">
-        <v>29696600</v>
+        <v>29895100</v>
       </c>
       <c r="F76" s="3">
-        <v>-1603500</v>
+        <v>-1614200</v>
       </c>
       <c r="G76" s="3">
-        <v>8369700</v>
+        <v>8425600</v>
       </c>
       <c r="H76" s="3">
-        <v>10268200</v>
+        <v>10336900</v>
       </c>
       <c r="I76" s="3">
-        <v>16427000</v>
+        <v>16536900</v>
       </c>
       <c r="J76" s="3">
-        <v>15976900</v>
+        <v>16083700</v>
       </c>
       <c r="K76" s="3">
         <v>20497700</v>
@@ -6294,25 +6294,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1720900</v>
+        <v>1732400</v>
       </c>
       <c r="E81" s="3">
-        <v>662300</v>
+        <v>666700</v>
       </c>
       <c r="F81" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G81" s="3">
-        <v>-89400</v>
+        <v>-90000</v>
       </c>
       <c r="H81" s="3">
-        <v>2332600</v>
+        <v>2348200</v>
       </c>
       <c r="I81" s="3">
-        <v>-2247500</v>
+        <v>-2262500</v>
       </c>
       <c r="J81" s="3">
-        <v>1481800</v>
+        <v>1491700</v>
       </c>
       <c r="K81" s="3">
         <v>568100</v>
@@ -6412,7 +6412,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>540600</v>
+        <v>544200</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -6421,16 +6421,16 @@
         <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>-252000</v>
+        <v>-253700</v>
       </c>
       <c r="H83" s="3">
-        <v>463100</v>
+        <v>466200</v>
       </c>
       <c r="I83" s="3">
-        <v>394100</v>
+        <v>396800</v>
       </c>
       <c r="J83" s="3">
-        <v>430800</v>
+        <v>433600</v>
       </c>
       <c r="K83" s="3">
         <v>1052700</v>
@@ -6928,25 +6928,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>954100</v>
+        <v>960500</v>
       </c>
       <c r="E89" s="3">
-        <v>1240600</v>
+        <v>1248900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1778000</v>
+        <v>-1789800</v>
       </c>
       <c r="G89" s="3">
-        <v>233700</v>
+        <v>235200</v>
       </c>
       <c r="H89" s="3">
-        <v>2894700</v>
+        <v>2914100</v>
       </c>
       <c r="I89" s="3">
-        <v>4149300</v>
+        <v>4177000</v>
       </c>
       <c r="J89" s="3">
-        <v>-1713300</v>
+        <v>-1724800</v>
       </c>
       <c r="K89" s="3">
         <v>3614100</v>
@@ -7304,25 +7304,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-806600</v>
+        <v>-812000</v>
       </c>
       <c r="E94" s="3">
-        <v>-11161000</v>
+        <v>-11235600</v>
       </c>
       <c r="F94" s="3">
-        <v>2775200</v>
+        <v>2793700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2122600</v>
+        <v>-2136800</v>
       </c>
       <c r="H94" s="3">
-        <v>-144300</v>
+        <v>-145300</v>
       </c>
       <c r="I94" s="3">
-        <v>-5699000</v>
+        <v>-5737100</v>
       </c>
       <c r="J94" s="3">
-        <v>-124900</v>
+        <v>-125800</v>
       </c>
       <c r="K94" s="3">
         <v>-2243000</v>
@@ -7766,25 +7766,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-425400</v>
+        <v>-428200</v>
       </c>
       <c r="E100" s="3">
-        <v>13909200</v>
+        <v>14002200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2468300</v>
+        <v>-2484800</v>
       </c>
       <c r="G100" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2143000</v>
+        <v>-2157400</v>
       </c>
       <c r="I100" s="3">
-        <v>3939300</v>
+        <v>3965600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1877000</v>
+        <v>-1889600</v>
       </c>
       <c r="K100" s="3">
         <v>-636900</v>
@@ -7852,22 +7852,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="E101" s="3">
-        <v>-24800</v>
+        <v>-24900</v>
       </c>
       <c r="F101" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="G101" s="3">
         <v>10800</v>
       </c>
       <c r="H101" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="I101" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -7938,25 +7938,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-207800</v>
+        <v>-209200</v>
       </c>
       <c r="E102" s="3">
-        <v>3964100</v>
+        <v>3990600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1408600</v>
+        <v>-1418000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1898600</v>
+        <v>-1911300</v>
       </c>
       <c r="H102" s="3">
-        <v>595500</v>
+        <v>599500</v>
       </c>
       <c r="I102" s="3">
-        <v>2403600</v>
+        <v>2419700</v>
       </c>
       <c r="J102" s="3">
-        <v>-3715300</v>
+        <v>-3740100</v>
       </c>
       <c r="K102" s="3">
         <v>744800</v>

--- a/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWEOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,404 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10200300</v>
+        <v>6588100</v>
       </c>
       <c r="E8" s="3">
-        <v>12395600</v>
+        <v>5941500</v>
       </c>
       <c r="F8" s="3">
-        <v>11647600</v>
+        <v>10208800</v>
       </c>
       <c r="G8" s="3">
-        <v>8938400</v>
+        <v>12405900</v>
       </c>
       <c r="H8" s="3">
-        <v>8670600</v>
+        <v>11718000</v>
       </c>
       <c r="I8" s="3">
+        <v>9001200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8677800</v>
+      </c>
+      <c r="K8" s="3">
         <v>12269800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5209100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3958000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4980000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4284800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3027600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2914900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4148700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4690700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2623900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3205700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4445100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4369600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3350500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3296200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4046100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3904500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>3293000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>3504000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>5028600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>13997700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>10549000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10029000</v>
+        <v>5076700</v>
       </c>
       <c r="E9" s="3">
-        <v>4195500</v>
+        <v>3425300</v>
       </c>
       <c r="F9" s="3">
-        <v>12726200</v>
+        <v>10037300</v>
       </c>
       <c r="G9" s="3">
-        <v>8915600</v>
+        <v>4199000</v>
       </c>
       <c r="H9" s="3">
-        <v>8206600</v>
+        <v>12806300</v>
       </c>
       <c r="I9" s="3">
+        <v>8904600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8213500</v>
+      </c>
+      <c r="K9" s="3">
         <v>8151300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4237700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2928500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3768600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4540200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1676200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1726900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2251600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2347700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1896300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2939800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3189100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3025900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2628300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2809800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2753800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2897000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2447100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>2564900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>3498000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>10903500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AF9" s="3">
         <v>8321100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>171300</v>
+        <v>1511400</v>
       </c>
       <c r="E10" s="3">
-        <v>8200100</v>
+        <v>2516100</v>
       </c>
       <c r="F10" s="3">
-        <v>-1078700</v>
+        <v>171400</v>
       </c>
       <c r="G10" s="3">
-        <v>22800</v>
+        <v>8206900</v>
       </c>
       <c r="H10" s="3">
-        <v>464000</v>
+        <v>-1088300</v>
       </c>
       <c r="I10" s="3">
+        <v>96600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>464400</v>
+      </c>
+      <c r="K10" s="3">
         <v>4118500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>971400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1029400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1211400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-255300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1351300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1188000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1897100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2343000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>727600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>265900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1256000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1343800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>722200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>486400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1292300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1007500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>846000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>939100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1530600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>3094200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <v>2227900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1093,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1181,14 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1273,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1279,11 +1317,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1297,124 +1335,136 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>55600</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>55600</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>80800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>2200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>337700</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>535500</v>
+        <v>519700</v>
       </c>
       <c r="E15" s="3">
-        <v>630900</v>
+        <v>1726200</v>
       </c>
       <c r="F15" s="3">
-        <v>494300</v>
+        <v>536000</v>
       </c>
       <c r="G15" s="3">
-        <v>436900</v>
+        <v>631500</v>
       </c>
       <c r="H15" s="3">
-        <v>414100</v>
+        <v>494800</v>
       </c>
       <c r="I15" s="3">
+        <v>437300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>414500</v>
+      </c>
+      <c r="K15" s="3">
         <v>543100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>392400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1220900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>376600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2008800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>402700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>411300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>390500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2423500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>706800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>304700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>303800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>592600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>259200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>251400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>230600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>967200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>1348600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>1171400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>304000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>5561500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AF15" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1492,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7962700</v>
+        <v>4739300</v>
       </c>
       <c r="E17" s="3">
-        <v>14623400</v>
+        <v>5776500</v>
       </c>
       <c r="F17" s="3">
-        <v>12159300</v>
+        <v>7969300</v>
       </c>
       <c r="G17" s="3">
-        <v>9708100</v>
+        <v>14635600</v>
       </c>
       <c r="H17" s="3">
-        <v>5571200</v>
+        <v>12230100</v>
       </c>
       <c r="I17" s="3">
+        <v>9781300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5575800</v>
+      </c>
+      <c r="K17" s="3">
         <v>14354600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3049600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3317900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4514500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4956100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2520000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2584400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2751300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4608900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2882400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3750400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3893600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4141300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3454600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3542100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3591600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>4027900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3326700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1837800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>4304400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>20440700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>10675800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2237600</v>
+        <v>1848800</v>
       </c>
       <c r="E18" s="3">
-        <v>-2227800</v>
+        <v>164900</v>
       </c>
       <c r="F18" s="3">
-        <v>-511700</v>
+        <v>2239400</v>
       </c>
       <c r="G18" s="3">
-        <v>-769700</v>
+        <v>-2229700</v>
       </c>
       <c r="H18" s="3">
-        <v>3099400</v>
+        <v>-512100</v>
       </c>
       <c r="I18" s="3">
+        <v>-780100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3102000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2084700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2159500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>640100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>465500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-671300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>507500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>330500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1397500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>81700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-258500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-544700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>551400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>228300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-104100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-246000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>454600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-123400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-33700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>1666200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>724200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-6443000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-126800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,438 +1710,470 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>82400</v>
+        <v>524100</v>
       </c>
       <c r="E20" s="3">
-        <v>664600</v>
+        <v>764900</v>
       </c>
       <c r="F20" s="3">
-        <v>701400</v>
+        <v>82500</v>
       </c>
       <c r="G20" s="3">
-        <v>729600</v>
+        <v>665100</v>
       </c>
       <c r="H20" s="3">
+        <v>702000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>740000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-26000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>88900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>30400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>384100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>291000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>54900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>52900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>244400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-184400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-573200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>105300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>11800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>52600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-67400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>33200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-19800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-124500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>123400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>563200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>200700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-628000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2864200</v>
+        <v>2903500</v>
       </c>
       <c r="E21" s="3">
-        <v>-1426700</v>
+        <v>2633300</v>
       </c>
       <c r="F21" s="3">
-        <v>471600</v>
+        <v>2866600</v>
       </c>
       <c r="G21" s="3">
-        <v>-293800</v>
+        <v>-1427900</v>
       </c>
       <c r="H21" s="3">
-        <v>3539600</v>
+        <v>472000</v>
       </c>
       <c r="I21" s="3">
+        <v>-294000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3542500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1599000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2623500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2076900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1133100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1485100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>966300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>986200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1544700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1438200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>568400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-230600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>909100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>436500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>194900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>36200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>668700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>136900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>342200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>2539100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1070500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-1513000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>571600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>243900</v>
+        <v>286400</v>
       </c>
       <c r="E22" s="3">
-        <v>472700</v>
+        <v>278800</v>
       </c>
       <c r="F22" s="3">
-        <v>172400</v>
+        <v>244100</v>
       </c>
       <c r="G22" s="3">
-        <v>124700</v>
+        <v>473100</v>
       </c>
       <c r="H22" s="3">
-        <v>114900</v>
+        <v>172500</v>
       </c>
       <c r="I22" s="3">
+        <v>124800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K22" s="3">
         <v>104100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>90000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>77200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>93100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>64800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>65400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>89500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>93800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>89900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>75900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>78800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>62200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>53200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>50900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>50500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>47200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>56100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>120100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>218800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>265300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>198400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AF22" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2076100</v>
+        <v>2086500</v>
       </c>
       <c r="E23" s="3">
-        <v>-2035900</v>
+        <v>651000</v>
       </c>
       <c r="F23" s="3">
-        <v>17300</v>
+        <v>2077800</v>
       </c>
       <c r="G23" s="3">
-        <v>-164800</v>
+        <v>-2037600</v>
       </c>
       <c r="H23" s="3">
-        <v>2958500</v>
+        <v>17400</v>
       </c>
       <c r="I23" s="3">
+        <v>-164900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2961000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2099900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2099900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>946900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>663400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-681200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>495100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>485500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1119300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-581400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-229100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-611700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>541900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>107600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-121800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-316200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>390900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-304100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-30300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2010600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>659700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-7269400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-390900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>288400</v>
+        <v>104200</v>
       </c>
       <c r="E24" s="3">
-        <v>-2825200</v>
+        <v>195300</v>
       </c>
       <c r="F24" s="3">
-        <v>-60700</v>
+        <v>288600</v>
       </c>
       <c r="G24" s="3">
-        <v>-97600</v>
+        <v>-2827500</v>
       </c>
       <c r="H24" s="3">
-        <v>514900</v>
+        <v>-60800</v>
       </c>
       <c r="I24" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>515400</v>
+      </c>
+      <c r="K24" s="3">
         <v>62900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>573500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>408400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-299400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-147600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>55000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>172400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>341500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>120200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-53900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-269400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>93300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>127800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-100800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>27500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>67000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>56100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-53900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>301800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>72800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>-529400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AF24" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2258,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1787700</v>
+        <v>1982300</v>
       </c>
       <c r="E26" s="3">
-        <v>789200</v>
+        <v>455700</v>
       </c>
       <c r="F26" s="3">
+        <v>1789200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>789900</v>
+      </c>
+      <c r="H26" s="3">
         <v>78100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-67200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2443600</v>
-      </c>
       <c r="I26" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2445600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2162800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1526400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>538500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>962800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-533600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>440100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>313100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>777800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-701600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-175200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-342300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>448600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-20100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-21000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-343700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>323900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-360200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>23600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1708800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>586900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-6740000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-475400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1732400</v>
+        <v>1968200</v>
       </c>
       <c r="E27" s="3">
-        <v>666700</v>
+        <v>428600</v>
       </c>
       <c r="F27" s="3">
+        <v>1733800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>667300</v>
+      </c>
+      <c r="H27" s="3">
         <v>20600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-90000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2348200</v>
-      </c>
       <c r="I27" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2350100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2262500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1491700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>568100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>946900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-544600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>428700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>301100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>749500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-721500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-268300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-504700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-62200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-397500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-87500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-379900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-561000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>85300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1761500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>190200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2534,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2449,65 +2569,71 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>177500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>21800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>32700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>29200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>10387900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>350600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>1211800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>870600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-163900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-123000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>714800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>203100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-590200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>171700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>920300</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AF29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2718,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2810,198 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-82400</v>
+        <v>-524100</v>
       </c>
       <c r="E32" s="3">
-        <v>-664600</v>
+        <v>-764900</v>
       </c>
       <c r="F32" s="3">
-        <v>-701400</v>
+        <v>-82500</v>
       </c>
       <c r="G32" s="3">
-        <v>-729600</v>
+        <v>-665100</v>
       </c>
       <c r="H32" s="3">
+        <v>-702000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-740000</v>
+      </c>
+      <c r="J32" s="3">
         <v>26000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-88900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-30400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-384100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-291000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-54900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-52900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-244400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>184400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>573200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-105300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-11800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-52600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>67400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-33200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>19800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>16500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>124500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-123400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-563200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-200700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>628000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1732400</v>
+        <v>1968200</v>
       </c>
       <c r="E33" s="3">
-        <v>666700</v>
+        <v>428600</v>
       </c>
       <c r="F33" s="3">
+        <v>1733800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>667300</v>
+      </c>
+      <c r="H33" s="3">
         <v>20600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-90000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2348200</v>
-      </c>
       <c r="I33" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2350100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2262500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1491700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>568100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>946900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-544600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>606100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>322900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>782200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-692300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>10119600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-154100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1149500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>473200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-251400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-502900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>680800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-357900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-504900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1933200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1110400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3086,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1732400</v>
+        <v>1968200</v>
       </c>
       <c r="E35" s="3">
-        <v>666700</v>
+        <v>428600</v>
       </c>
       <c r="F35" s="3">
+        <v>1733800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>667300</v>
+      </c>
+      <c r="H35" s="3">
         <v>20600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-90000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2348200</v>
-      </c>
       <c r="I35" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2350100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2262500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1491700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>568100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>946900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-544600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>606100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>322900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>782200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-692300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>10119600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-154100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1149500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>473200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-251400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-502900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>680800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-357900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-504900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1933200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1110400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3313,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,782 +3347,838 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7366500</v>
+        <v>8383800</v>
       </c>
       <c r="E41" s="3">
-        <v>7575700</v>
+        <v>9247500</v>
       </c>
       <c r="F41" s="3">
-        <v>3585100</v>
+        <v>7372600</v>
       </c>
       <c r="G41" s="3">
-        <v>5003100</v>
+        <v>7582000</v>
       </c>
       <c r="H41" s="3">
-        <v>6902500</v>
+        <v>3588100</v>
       </c>
       <c r="I41" s="3">
+        <v>5007300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6908200</v>
+      </c>
+      <c r="K41" s="3">
         <v>6314900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3876700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7451500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6706700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4761600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4250200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3688400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3482200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3726400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6787700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3840900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5244100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4167400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5114900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3571800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4270100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4412800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>6093500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>12234200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>4338400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>5371400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>3453300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9592100</v>
+        <v>8033300</v>
       </c>
       <c r="E42" s="3">
-        <v>14600700</v>
+        <v>8465200</v>
       </c>
       <c r="F42" s="3">
-        <v>4630200</v>
+        <v>9600100</v>
       </c>
       <c r="G42" s="3">
-        <v>8683600</v>
+        <v>14612800</v>
       </c>
       <c r="H42" s="3">
-        <v>8196900</v>
+        <v>4634000</v>
       </c>
       <c r="I42" s="3">
+        <v>8690900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>8203700</v>
+      </c>
+      <c r="K42" s="3">
         <v>8716200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3800900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4224600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2979300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4208000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3782100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2514500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3554200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3803400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>3735000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2816300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2589800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>4269100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>3179900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3624500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>5669000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>5489900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>5192600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>5685100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>12002200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>11532700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AF42" s="3">
         <v>8993700</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8603400</v>
+        <v>9360300</v>
       </c>
       <c r="E43" s="3">
-        <v>20245600</v>
+        <v>9013100</v>
       </c>
       <c r="F43" s="3">
-        <v>9572600</v>
+        <v>8610600</v>
       </c>
       <c r="G43" s="3">
-        <v>6347400</v>
+        <v>20262400</v>
       </c>
       <c r="H43" s="3">
-        <v>7941000</v>
+        <v>9580600</v>
       </c>
       <c r="I43" s="3">
+        <v>6352700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>7947600</v>
+      </c>
+      <c r="K43" s="3">
         <v>20913400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4862200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3126400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3448000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5702100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2352900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2581100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3950200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>7209900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3247400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1783400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2140000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>5732300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1710100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1536100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>7641000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>8521500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>4906500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>5880300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>7654400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>7869200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AF43" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1968700</v>
+        <v>2727700</v>
       </c>
       <c r="E44" s="3">
-        <v>4559700</v>
+        <v>2277400</v>
       </c>
       <c r="F44" s="3">
-        <v>10609000</v>
+        <v>1970400</v>
       </c>
       <c r="G44" s="3">
-        <v>8718300</v>
+        <v>4563500</v>
       </c>
       <c r="H44" s="3">
-        <v>3069100</v>
+        <v>10617800</v>
       </c>
       <c r="I44" s="3">
+        <v>8725600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3071600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3065800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6031900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1794400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1055900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1627800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1742600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1266500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1729100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1850300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1832600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1452900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1410300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1929300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2056800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1553700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1437300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2158700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>2521100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2024100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>1935600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>2310100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AF44" s="3">
         <v>2759600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48487500</v>
+        <v>32935200</v>
       </c>
       <c r="E45" s="3">
-        <v>57376000</v>
+        <v>39224900</v>
       </c>
       <c r="F45" s="3">
-        <v>162961900</v>
+        <v>48527700</v>
       </c>
       <c r="G45" s="3">
-        <v>133424500</v>
+        <v>57423600</v>
       </c>
       <c r="H45" s="3">
-        <v>123941900</v>
+        <v>163097200</v>
       </c>
       <c r="I45" s="3">
+        <v>133535300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>124044800</v>
+      </c>
+      <c r="K45" s="3">
         <v>73135600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>97899700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>35390100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>16092200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10853700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>10846100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>18832400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>18091700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16378800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>14982900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>64489100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>64420200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>56665600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>60091700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>52903800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>9127700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>5632400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>7180700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>8292600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>9004300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>8707300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AF45" s="3">
         <v>8604000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76018200</v>
+        <v>61440300</v>
       </c>
       <c r="E46" s="3">
-        <v>104357600</v>
+        <v>68228100</v>
       </c>
       <c r="F46" s="3">
-        <v>191358800</v>
+        <v>76081300</v>
       </c>
       <c r="G46" s="3">
-        <v>162177000</v>
+        <v>104444300</v>
       </c>
       <c r="H46" s="3">
-        <v>150051400</v>
+        <v>191517700</v>
       </c>
       <c r="I46" s="3">
+        <v>162311700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>150175900</v>
+      </c>
+      <c r="K46" s="3">
         <v>112145800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>116471400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>51986900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>30282100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>27153200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>22973900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>28882900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>30807300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>32968800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>30585600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>74382600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>75804400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>72763700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>72153500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>63189900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>28145000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>26215300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>25894400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>34116300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>34934900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>35790600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AF46" s="3">
         <v>29143400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9982400</v>
+        <v>10118700</v>
       </c>
       <c r="E47" s="3">
-        <v>9129200</v>
+        <v>10199000</v>
       </c>
       <c r="F47" s="3">
-        <v>8394200</v>
+        <v>9990700</v>
       </c>
       <c r="G47" s="3">
-        <v>8299900</v>
+        <v>9136800</v>
       </c>
       <c r="H47" s="3">
-        <v>8529700</v>
+        <v>8401200</v>
       </c>
       <c r="I47" s="3">
+        <v>8306800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8536800</v>
+      </c>
+      <c r="K47" s="3">
         <v>9585600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8504800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7900100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8492600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7765800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7938900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8344400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>8278900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>9351000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>9232700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2258700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2259600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>2629600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>2008100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1944600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>4478700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>5105100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>4516000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>4481200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>4690500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>5381900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AF47" s="3">
         <v>4327800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30406800</v>
+        <v>30648000</v>
       </c>
       <c r="E48" s="3">
-        <v>25746300</v>
+        <v>29346000</v>
       </c>
       <c r="F48" s="3">
-        <v>26375100</v>
+        <v>30432100</v>
       </c>
       <c r="G48" s="3">
-        <v>23310300</v>
+        <v>25767700</v>
       </c>
       <c r="H48" s="3">
-        <v>21651600</v>
+        <v>26397000</v>
       </c>
       <c r="I48" s="3">
+        <v>23329700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21669600</v>
+      </c>
+      <c r="K48" s="3">
         <v>21664700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>21499900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>20445900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20193000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>17855500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19987900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>20822200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>20744700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>22199500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>23813800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>15313200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>15536200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>14678600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>13499400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>13162800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>27510400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>27990300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>27179100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>27115100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>29009500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>28779500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AF48" s="3">
         <v>32883100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10447500</v>
+        <v>10865200</v>
       </c>
       <c r="E49" s="3">
-        <v>6144700</v>
+        <v>10868400</v>
       </c>
       <c r="F49" s="3">
-        <v>6215100</v>
+        <v>10456100</v>
       </c>
       <c r="G49" s="3">
-        <v>6213000</v>
+        <v>6149800</v>
       </c>
       <c r="H49" s="3">
-        <v>6306200</v>
+        <v>6220300</v>
       </c>
       <c r="I49" s="3">
+        <v>6218100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6311400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6378800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6331100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6266500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5301600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4886300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4697500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5054200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5211300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5576700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5570000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2563400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2648400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2594100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2426800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2328900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>13676700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>13893600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>13744400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>14279600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>14989600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>14964900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AF49" s="3">
         <v>14848700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4263,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4355,106 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5252500</v>
+        <v>5029000</v>
       </c>
       <c r="E52" s="3">
-        <v>4822100</v>
+        <v>5282900</v>
       </c>
       <c r="F52" s="3">
-        <v>7154000</v>
+        <v>5256800</v>
       </c>
       <c r="G52" s="3">
-        <v>5554900</v>
+        <v>4826100</v>
       </c>
       <c r="H52" s="3">
-        <v>4904500</v>
+        <v>7159900</v>
       </c>
       <c r="I52" s="3">
+        <v>5559500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4908500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4502300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5062700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4630900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4403400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3821000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4392400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4749800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4743300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4628800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2459800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2530400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2464200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2093700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2389100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2775700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>4765300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>4279300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>4656300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>4650600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>5197600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>4764500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AF52" s="3">
         <v>5808000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4539,106 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>132107300</v>
+        <v>118101200</v>
       </c>
       <c r="E54" s="3">
-        <v>150199900</v>
+        <v>123924400</v>
       </c>
       <c r="F54" s="3">
-        <v>239497200</v>
+        <v>132217000</v>
       </c>
       <c r="G54" s="3">
-        <v>205555100</v>
+        <v>150324600</v>
       </c>
       <c r="H54" s="3">
-        <v>191443400</v>
+        <v>239696000</v>
       </c>
       <c r="I54" s="3">
+        <v>205725800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>191602300</v>
+      </c>
+      <c r="K54" s="3">
         <v>154277200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>157869900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>91230300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>68672700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>61481700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>59990600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>67853500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>69785500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>74724700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>71661900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>97048300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>98712800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>94759800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>92476800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>83401900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>78576200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>77483500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>75990100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>84642900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>88822200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>89681400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>87011000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4669,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4703,562 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6523000</v>
+        <v>8093000</v>
       </c>
       <c r="E57" s="3">
-        <v>8091700</v>
+        <v>7445300</v>
       </c>
       <c r="F57" s="3">
-        <v>7890100</v>
+        <v>6528400</v>
       </c>
       <c r="G57" s="3">
-        <v>6166400</v>
+        <v>8098400</v>
       </c>
       <c r="H57" s="3">
-        <v>6350700</v>
+        <v>7896600</v>
       </c>
       <c r="I57" s="3">
+        <v>6171500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6355900</v>
+      </c>
+      <c r="K57" s="3">
         <v>4800400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4009000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2752900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2818500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2380800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2020800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2294200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3258500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3487100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2926500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2709200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3045500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2873300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2291600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2299200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>5138600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>5696300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>4651800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>4757200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>5730500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>6375000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>5558000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8269500</v>
+        <v>6350500</v>
       </c>
       <c r="E58" s="3">
-        <v>12157100</v>
+        <v>7743600</v>
       </c>
       <c r="F58" s="3">
-        <v>17712000</v>
+        <v>8276400</v>
       </c>
       <c r="G58" s="3">
-        <v>10708700</v>
+        <v>12167200</v>
       </c>
       <c r="H58" s="3">
-        <v>11682300</v>
+        <v>17726700</v>
       </c>
       <c r="I58" s="3">
+        <v>10717600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>11692000</v>
+      </c>
+      <c r="K58" s="3">
         <v>11920800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7271100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1488600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1352100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1243800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1479000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2400000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1842500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4084800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5059200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2574000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4241700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>906100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1031200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>729100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3687100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>3127000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>5084900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>3852900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>4299700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>2514300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AF58" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42678800</v>
+        <v>28327200</v>
       </c>
       <c r="E59" s="3">
-        <v>66137700</v>
+        <v>34022300</v>
       </c>
       <c r="F59" s="3">
-        <v>180367100</v>
+        <v>42714300</v>
       </c>
       <c r="G59" s="3">
-        <v>147382300</v>
+        <v>66192600</v>
       </c>
       <c r="H59" s="3">
-        <v>132131200</v>
+        <v>180516900</v>
       </c>
       <c r="I59" s="3">
+        <v>147504700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>132240900</v>
+      </c>
+      <c r="K59" s="3">
         <v>88444100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100529700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>35675800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15435200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12833500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9764600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>15458200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>16334200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>17428300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>15165400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>54054400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>53331400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>50449500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>51325100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>46528800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>13774400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>13946300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>13215900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>21579200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>22555900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>24876600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>15245400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57471400</v>
+        <v>42770700</v>
       </c>
       <c r="E60" s="3">
-        <v>86386500</v>
+        <v>49211300</v>
       </c>
       <c r="F60" s="3">
-        <v>205969200</v>
+        <v>57519100</v>
       </c>
       <c r="G60" s="3">
-        <v>164257400</v>
+        <v>86458200</v>
       </c>
       <c r="H60" s="3">
-        <v>150164100</v>
+        <v>206140200</v>
       </c>
       <c r="I60" s="3">
+        <v>164393800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>150288800</v>
+      </c>
+      <c r="K60" s="3">
         <v>105165300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>111809700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>39917300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19605800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>16458100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>13264400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>20152400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>21435300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>22887100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>23151100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>59337600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>60618600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>54228900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>54647900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>49557100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>22600100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>22769700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>22952500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>30189400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>32586100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>33765800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>24590100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13965400</v>
+        <v>13988900</v>
       </c>
       <c r="E61" s="3">
-        <v>10612300</v>
+        <v>13868500</v>
       </c>
       <c r="F61" s="3">
-        <v>11260500</v>
+        <v>13977000</v>
       </c>
       <c r="G61" s="3">
-        <v>9910800</v>
+        <v>10621100</v>
       </c>
       <c r="H61" s="3">
-        <v>7578900</v>
+        <v>11269900</v>
       </c>
       <c r="I61" s="3">
+        <v>9919100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7585200</v>
+      </c>
+      <c r="K61" s="3">
         <v>7369700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5652500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5259300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4606500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3940700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3834000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4528400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4280700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4580900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4568000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2979800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2892400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2363400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2158700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1731500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>15890300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>16172400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>15289400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>17165300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>18529800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>18829100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AF61" s="3">
         <v>18809100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24080000</v>
+        <v>22726400</v>
       </c>
       <c r="E62" s="3">
-        <v>21459800</v>
+        <v>23827700</v>
       </c>
       <c r="F62" s="3">
-        <v>22047300</v>
+        <v>24100000</v>
       </c>
       <c r="G62" s="3">
-        <v>21120400</v>
+        <v>21477600</v>
       </c>
       <c r="H62" s="3">
-        <v>21452200</v>
+        <v>22065600</v>
       </c>
       <c r="I62" s="3">
+        <v>21138000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>21470000</v>
+      </c>
+      <c r="K62" s="3">
         <v>23316800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>22348700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23612400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>23085600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>23422900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>24121800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>25149800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>25394200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>26865600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>24303800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>20443500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>20194200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>21302800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>18493600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>18421100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>24908100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>25087700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>25078700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>25138200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>26906100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>27707800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AF62" s="3">
         <v>35321100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5343,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5435,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5527,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97321800</v>
+        <v>81220900</v>
       </c>
       <c r="E66" s="3">
-        <v>120304700</v>
+        <v>88713900</v>
       </c>
       <c r="F66" s="3">
-        <v>241111400</v>
+        <v>97402600</v>
       </c>
       <c r="G66" s="3">
-        <v>197129500</v>
+        <v>120404600</v>
       </c>
       <c r="H66" s="3">
-        <v>181106500</v>
+        <v>241311600</v>
       </c>
       <c r="I66" s="3">
+        <v>197293100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>181256800</v>
+      </c>
+      <c r="K66" s="3">
         <v>137740300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>141786200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>70732600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>48185600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>44609700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>41456800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>50319300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>51657900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>54920800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>52583900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>88114700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>89793900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>84425900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>81244700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>75294300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>69468300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>69900000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>68985600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>78183600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>84445100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>86448800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>82190200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5657,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5745,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5837,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5929,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,8 +6021,14 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5707,68 +6053,74 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
-        <v>8572700</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O72" s="3">
-        <v>9936000</v>
+        <v>8572700</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3">
-        <v>10399300</v>
+        <v>9936000</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="3">
-        <v>1345800</v>
+        <v>10399300</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3">
-        <v>1347300</v>
+        <v>1345800</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="3">
-        <v>1371400</v>
+        <v>1347300</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y72" s="3">
+        <v>1371400</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3">
         <v>2655800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>2728700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>3031600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>932000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-765300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>2308900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6205,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6297,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6389,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34785500</v>
+        <v>36880200</v>
       </c>
       <c r="E76" s="3">
-        <v>29895100</v>
+        <v>35210400</v>
       </c>
       <c r="F76" s="3">
-        <v>-1614200</v>
+        <v>34814400</v>
       </c>
       <c r="G76" s="3">
-        <v>8425600</v>
+        <v>29920000</v>
       </c>
       <c r="H76" s="3">
-        <v>10336900</v>
+        <v>-1615600</v>
       </c>
       <c r="I76" s="3">
+        <v>8432600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>10345500</v>
+      </c>
+      <c r="K76" s="3">
         <v>16536900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16083700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20497700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20487100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>16872000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>18533800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>17534200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18127700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>19803900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>19078000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8933600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8918900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>10333800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>11232200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>8107600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>9107900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>7583500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>7004600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>6459300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>4377100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>3232700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>4820800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6573,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1732400</v>
+        <v>1968200</v>
       </c>
       <c r="E81" s="3">
-        <v>666700</v>
+        <v>428600</v>
       </c>
       <c r="F81" s="3">
+        <v>1733800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>667300</v>
+      </c>
+      <c r="H81" s="3">
         <v>20600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-90000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2348200</v>
-      </c>
       <c r="I81" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2350100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2262500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1491700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>568100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>946900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-544600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>606100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>322900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>782200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-692300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>10119600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-154100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1149500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>473200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-251400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-502900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>680800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-357900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-504900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1933200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1110400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-6715400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-523500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6800,102 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>544200</v>
-      </c>
-      <c r="E83" s="3" t="s">
+        <v>530600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1703500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>544700</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
-        <v>-253700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>466200</v>
-      </c>
       <c r="I83" s="3">
+        <v>-253900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>466600</v>
+      </c>
+      <c r="K83" s="3">
         <v>396800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>433600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1052700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>376600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2101500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>405800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>411300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>331600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1929700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>721500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>302300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>305000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>275600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>265800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>9900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>522600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>741600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>1098400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>918900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>145600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>5558000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AF83" s="3">
         <v>692500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6980,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +7072,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +7164,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7256,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7348,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>960500</v>
+        <v>1189200</v>
       </c>
       <c r="E89" s="3">
-        <v>1248900</v>
+        <v>1222800</v>
       </c>
       <c r="F89" s="3">
-        <v>-1789800</v>
+        <v>961300</v>
       </c>
       <c r="G89" s="3">
-        <v>235200</v>
+        <v>1249900</v>
       </c>
       <c r="H89" s="3">
-        <v>2914100</v>
+        <v>-1791300</v>
       </c>
       <c r="I89" s="3">
+        <v>235400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2916500</v>
+      </c>
+      <c r="K89" s="3">
         <v>4177000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1724800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3614100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1688600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2350900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>657000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2616000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1323300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>572000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-378500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1589300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3654400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2073600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3429100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1575600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>399700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1298100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-5189200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>3194300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-1329900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>2047100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>1892200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,8 +7478,10 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7058,7 +7498,7 @@
         <v>-448000</v>
       </c>
       <c r="H91" s="3">
-        <v>-592000</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -7075,59 +7515,65 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-488700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-645800</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-430600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-232100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>764200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-500600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-417200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>336600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-232300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>52700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-419100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-1203200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AF91" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7658,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7750,106 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-812000</v>
+        <v>-1013400</v>
       </c>
       <c r="E94" s="3">
-        <v>-11235600</v>
+        <v>-5400</v>
       </c>
       <c r="F94" s="3">
-        <v>2793700</v>
+        <v>-812700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2136800</v>
+        <v>-11244900</v>
       </c>
       <c r="H94" s="3">
-        <v>-145300</v>
+        <v>2796000</v>
       </c>
       <c r="I94" s="3">
+        <v>-2138500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-145400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5737100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-125800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2243000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-222200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2310000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1994800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-703600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>577100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-616400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1836300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-645800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>2209400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1895000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-995700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-905900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1836700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>31400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>5607700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-819300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-4265600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AF94" s="3">
         <v>-120900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,8 +7880,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7502,8 +7968,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +8060,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +8152,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,262 +8244,286 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-428200</v>
+        <v>-1055700</v>
       </c>
       <c r="E100" s="3">
-        <v>14002200</v>
+        <v>660800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2484800</v>
+        <v>-428600</v>
       </c>
       <c r="G100" s="3">
+        <v>14013900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-2486800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-20600</v>
       </c>
-      <c r="H100" s="3">
-        <v>-2157400</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-2159200</v>
+      </c>
+      <c r="K100" s="3">
         <v>3965600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1889600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-636900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>152400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>647300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2013500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1196700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>308700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1862000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3279300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-2746900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1766800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1030300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-399800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-141600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>407400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1132100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-976100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-669800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>1103400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>4138900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>-1479000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F101" s="3">
         <v>70500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="H101" s="3">
         <v>62900</v>
       </c>
-      <c r="G101" s="3">
-        <v>10800</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-11900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>14100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>10600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>37000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>59200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-76400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-819500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>868500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-8200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>17900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>23100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>12900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AF101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-209200</v>
+        <v>-874500</v>
       </c>
       <c r="E102" s="3">
-        <v>3990600</v>
+        <v>1885700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1418000</v>
+        <v>-209400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1911300</v>
+        <v>3993900</v>
       </c>
       <c r="H102" s="3">
-        <v>599500</v>
+        <v>-1419200</v>
       </c>
       <c r="I102" s="3">
+        <v>-1912900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2419700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3740100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>744800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1655800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>677200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>734800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>639300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-448400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2725900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1933000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1811700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>339700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-852900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2023600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>252500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-75800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1697600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-6137300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>8128800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-1033000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>1918000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>291100</v>
       </c>
     </row>
